--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -179,9 +179,6 @@
     <t>BC/R</t>
   </si>
   <si>
-    <t>MAC</t>
-  </si>
-  <si>
     <t>MAC/R</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>RM/R</t>
+  </si>
+  <si>
+    <t>MAC final</t>
   </si>
 </sst>
 </file>
@@ -234,21 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +245,19 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,24 +283,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +588,7 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,11 +597,10 @@
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="11" width="9.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="10" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" customWidth="1"/>
@@ -611,49 +612,49 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>62</v>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -673,7 +674,7 @@
         <v>1014.41</v>
       </c>
       <c r="F2">
-        <v>933.70699999999999</v>
+        <v>1026.9000000000001</v>
       </c>
       <c r="G2">
         <v>938.553</v>
@@ -693,17 +694,17 @@
         <f>$C2/$D2</f>
         <v>1.1295015285912833</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="8">
         <f>$F2/$D2</f>
-        <v>1.0576186598009376</v>
+        <v>1.1631792433274923</v>
       </c>
       <c r="M2">
         <f>$G2/$F2</f>
-        <v>1.0051900649775571</v>
+        <v>0.91396728016359907</v>
       </c>
       <c r="N2">
         <f>$F2/$B2</f>
-        <v>1.1597576910847014</v>
+        <v>1.2755127389800869</v>
       </c>
       <c r="O2">
         <f>$H2/$D2</f>
@@ -711,7 +712,7 @@
       </c>
       <c r="P2">
         <f>$F2/$H2</f>
-        <v>0.88917701508456504</v>
+        <v>0.97792549139113227</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -731,7 +732,7 @@
         <v>1186.42</v>
       </c>
       <c r="F3">
-        <v>764.36199999999997</v>
+        <v>910.08399999999995</v>
       </c>
       <c r="G3">
         <v>780.25</v>
@@ -751,25 +752,25 @@
         <f t="shared" ref="K3:K66" si="2">$C3/$D3</f>
         <v>1.1344525330560096</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="3">$F3/$D3</f>
-        <v>0.70974038032981723</v>
+      <c r="L3" s="8">
+        <f>$F3/$D3</f>
+        <v>0.84504902689050654</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="4">$G3/$F3</f>
-        <v>1.0207859626721372</v>
+        <f>$G3/$F3</f>
+        <v>0.85733844348433774</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="5">$F3/$B3</f>
-        <v>0.72963850361305471</v>
+        <f>$F3/$B3</f>
+        <v>0.86874063326301321</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="6">$H3/$D3</f>
+        <f t="shared" ref="O3:O66" si="3">$H3/$D3</f>
         <v>0.88610440499182885</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="7">$F3/$H3</f>
-        <v>0.80096699252540349</v>
+        <f>$F3/$H3</f>
+        <v>0.95366756121509089</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -789,7 +790,7 @@
         <v>324.923</v>
       </c>
       <c r="F4">
-        <v>248.18299999999999</v>
+        <v>249.89099999999999</v>
       </c>
       <c r="G4">
         <v>251.40600000000001</v>
@@ -809,25 +810,25 @@
         <f t="shared" si="2"/>
         <v>0.97686614964079843</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" si="3"/>
-        <v>0.74631852121379783</v>
+      <c r="L4" s="8">
+        <f>$F4/$D4</f>
+        <v>0.75145469909154605</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
-        <v>1.0129863850465182</v>
+        <f>$G4/$F4</f>
+        <v>1.0060626433124844</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
-        <v>0.75838034065282622</v>
+        <f>$F4/$B4</f>
+        <v>0.76359952819522448</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.74540736085258141</v>
       </c>
       <c r="P4">
-        <f t="shared" si="7"/>
-        <v>1.0012223656608037</v>
+        <f>$F4/$H4</f>
+        <v>1.0081127965144425</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -847,7 +848,7 @@
         <v>172.21600000000001</v>
       </c>
       <c r="F5">
-        <v>168.92099999999999</v>
+        <v>170.935</v>
       </c>
       <c r="G5">
         <v>168.61799999999999</v>
@@ -867,25 +868,25 @@
         <f t="shared" si="2"/>
         <v>0.99078338383924847</v>
       </c>
-      <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.96401239535003158</v>
+      <c r="L5" s="8">
+        <f>$F5/$D5</f>
+        <v>0.97550605785638056</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
-        <v>0.99820626209885099</v>
+        <f>$G5/$F5</f>
+        <v>0.98644513996548389</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
-        <v>1.0054342650349983</v>
+        <f>$F5/$B5</f>
+        <v>1.0174217894385982</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0299440154770667</v>
       </c>
       <c r="P5">
-        <f t="shared" si="7"/>
-        <v>0.93598523887097307</v>
+        <f>$F5/$H5</f>
+        <v>0.94714474107073598</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -905,7 +906,7 @@
         <v>1193.76</v>
       </c>
       <c r="F6">
-        <v>805.971</v>
+        <v>953.625</v>
       </c>
       <c r="G6">
         <v>838.35599999999999</v>
@@ -925,25 +926,25 @@
         <f t="shared" si="2"/>
         <v>1.2420808894628534</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.86882061442703751</v>
+      <c r="L6" s="8">
+        <f>$F6/$D6</f>
+        <v>1.0279886725862142</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
-        <v>1.0401813464752454</v>
+        <f>$G6/$F6</f>
+        <v>0.87912544239087687</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
-        <v>0.81327338169423258</v>
+        <f>$F6/$B6</f>
+        <v>0.96226517904262376</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0581915160818447</v>
       </c>
       <c r="P6">
-        <f t="shared" si="7"/>
-        <v>0.82104288422573168</v>
+        <f>$F6/$H6</f>
+        <v>0.97145805552527753</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -963,7 +964,7 @@
         <v>1064.7</v>
       </c>
       <c r="F7">
-        <v>880.84799999999996</v>
+        <v>997.34699999999998</v>
       </c>
       <c r="G7">
         <v>851.56399999999996</v>
@@ -983,25 +984,25 @@
         <f t="shared" si="2"/>
         <v>1.1894340088683266</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0460160218881889</v>
+      <c r="L7" s="8">
+        <f>$F7/$D7</f>
+        <v>1.1843597776030819</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>0.9667547635914483</v>
+        <f>$G7/$F7</f>
+        <v>0.8538292088911883</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0.95134247758937251</v>
+        <f>$F7/$B7</f>
+        <v>1.0771649206177774</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2503651593995</v>
       </c>
       <c r="P7">
-        <f t="shared" si="7"/>
-        <v>0.83656843284928717</v>
+        <f>$F7/$H7</f>
+        <v>0.94721111564871352</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1021,7 +1022,7 @@
         <v>538.88300000000004</v>
       </c>
       <c r="F8">
-        <v>507.03</v>
+        <v>536.22500000000002</v>
       </c>
       <c r="G8">
         <v>494.03</v>
@@ -1041,25 +1042,25 @@
         <f t="shared" si="2"/>
         <v>1.09575270168384</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0531114798975614</v>
+      <c r="L8" s="8">
+        <f>$F8/$D8</f>
+        <v>1.1137500804845273</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
-        <v>0.97436049148965542</v>
+        <f>$G8/$F8</f>
+        <v>0.92131101683062133</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
-        <v>1.0616094890128871</v>
+        <f>$F8/$B8</f>
+        <v>1.1227374085279678</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1214038993974564</v>
       </c>
       <c r="P8">
-        <f t="shared" si="7"/>
-        <v>0.93910096127132303</v>
+        <f>$F8/$H8</f>
+        <v>0.99317478839065776</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1079,7 +1080,7 @@
         <v>1885.51</v>
       </c>
       <c r="F9">
-        <v>1467.87</v>
+        <v>2480.34</v>
       </c>
       <c r="G9">
         <v>1371.27</v>
@@ -1099,25 +1100,25 @@
         <f t="shared" si="2"/>
         <v>1.5182556806688694</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2371637111455733</v>
+      <c r="L9" s="8">
+        <f>$F9/$D9</f>
+        <v>2.0905030004719842</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>0.93419035745672308</v>
+        <f>$G9/$F9</f>
+        <v>0.55285565688574945</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
-        <v>1.2594877515122913</v>
+        <f>$F9/$B9</f>
+        <v>2.1282251490840447</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.1404659159867845</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
-        <v>0.57798804545561933</v>
+        <f>$F9/$H9</f>
+        <v>0.97665792520140815</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1137,7 +1138,7 @@
         <v>414.33100000000002</v>
       </c>
       <c r="F10">
-        <v>312.262</v>
+        <v>306.56599999999997</v>
       </c>
       <c r="G10">
         <v>313.67099999999999</v>
@@ -1157,25 +1158,25 @@
         <f t="shared" si="2"/>
         <v>1.0984752375075151</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" si="3"/>
-        <v>0.82703732052854195</v>
+      <c r="L10" s="8">
+        <f>$F10/$D10</f>
+        <v>0.811951256333313</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
-        <v>1.0045122365193331</v>
+        <f>$G10/$F10</f>
+        <v>1.0231760860630339</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
-        <v>0.78646302947265556</v>
+        <f>$F10/$B10</f>
+        <v>0.77211708467029005</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.8187050245386911</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
-        <v>1.0101774091279649</v>
+        <f>$F10/$H10</f>
+        <v>0.99175066965152237</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1195,7 +1196,7 @@
         <v>798.20600000000002</v>
       </c>
       <c r="F11">
-        <v>664.91600000000005</v>
+        <v>770.36300000000006</v>
       </c>
       <c r="G11">
         <v>685.09100000000001</v>
@@ -1215,25 +1216,25 @@
         <f t="shared" si="2"/>
         <v>1.0419551034848273</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" si="3"/>
-        <v>0.90128649485388512</v>
+      <c r="L11" s="8">
+        <f>$F11/$D11</f>
+        <v>1.0442187705441341</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
-        <v>1.0303421785609008</v>
+        <f>$G11/$F11</f>
+        <v>0.88930932560364395</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
-        <v>0.97303831182134815</v>
+        <f>$F11/$B11</f>
+        <v>1.1273494892732754</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0902091655472586</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
-        <v>0.82670970244637521</v>
+        <f>$F11/$H11</f>
+        <v>0.95781507213797978</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1253,7 +1254,7 @@
         <v>238.37</v>
       </c>
       <c r="F12">
-        <v>238.84899999999999</v>
+        <v>241.27799999999999</v>
       </c>
       <c r="G12">
         <v>239.91200000000001</v>
@@ -1273,25 +1274,25 @@
         <f t="shared" si="2"/>
         <v>0.99527542011297365</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99423892637564359</v>
+      <c r="L12" s="8">
+        <f>$F12/$D12</f>
+        <v>1.0043499435964252</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
-        <v>1.0044505105736261</v>
+        <f>$G12/$F12</f>
+        <v>0.9943384809224215</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0.99536176561288869</v>
+        <f>$F12/$B12</f>
+        <v>1.0054842016652636</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.98726236611955887</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
-        <v>1.0070665716586626</v>
+        <f>$F12/$H12</f>
+        <v>1.0173080409658772</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1311,7 +1312,7 @@
         <v>1765.82</v>
       </c>
       <c r="F13">
-        <v>1145.28</v>
+        <v>1379.22</v>
       </c>
       <c r="G13">
         <v>1135.19</v>
@@ -1331,25 +1332,25 @@
         <f t="shared" si="2"/>
         <v>1.3848663612694854</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94361137659427208</v>
+      <c r="L13" s="8">
+        <f>$F13/$D13</f>
+        <v>1.1363576442672116</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
-        <v>0.99118992735400957</v>
+        <f>$G13/$F13</f>
+        <v>0.82306666086628677</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
-        <v>0.86007164259805802</v>
+        <f>$F13/$B13</f>
+        <v>1.0357537116723365</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1772402201496226</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
-        <v>0.80154530948181746</v>
+        <f>$F13/$H13</f>
+        <v>0.96527252876459235</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1369,7 +1370,7 @@
         <v>256.89800000000002</v>
       </c>
       <c r="F14">
-        <v>213.012</v>
+        <v>212.96600000000001</v>
       </c>
       <c r="G14">
         <v>208.49799999999999</v>
@@ -1389,25 +1390,25 @@
         <f t="shared" si="2"/>
         <v>0.97904877234655296</v>
       </c>
-      <c r="L14" s="3">
-        <f t="shared" si="3"/>
-        <v>0.8267623017628839</v>
+      <c r="L14" s="8">
+        <f>$F14/$D14</f>
+        <v>0.82658376221637442</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
-        <v>0.97880870561282929</v>
+        <f>$G14/$F14</f>
+        <v>0.97902012527821336</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
-        <v>0.81795875108959026</v>
+        <f>$F14/$B14</f>
+        <v>0.81778211267227052</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.81398508030398298</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
-        <v>1.0156971199694831</v>
+        <f>$F14/$H14</f>
+        <v>1.0154777798970056</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1427,7 +1428,7 @@
         <v>742.68299999999999</v>
       </c>
       <c r="F15">
-        <v>247.39</v>
+        <v>744.82899999999995</v>
       </c>
       <c r="G15">
         <v>244.17</v>
@@ -1447,25 +1448,25 @@
         <f t="shared" si="2"/>
         <v>1.0986540978521551</v>
       </c>
-      <c r="L15" s="4">
-        <f t="shared" si="3"/>
-        <v>0.37432572496387473</v>
+      <c r="L15" s="8">
+        <f>$F15/$D15</f>
+        <v>1.1270005068883862</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>0.98698411415174425</v>
+        <f>$G15/$F15</f>
+        <v>0.32782021108200676</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
-        <v>1.0079325953480034</v>
+        <f>$F15/$B15</f>
+        <v>3.0346312585814217</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1414884361358462</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
-        <v>0.32792774163445582</v>
+        <f>$F15/$H15</f>
+        <v>0.98730786157019312</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1485,7 +1486,7 @@
         <v>2266.39</v>
       </c>
       <c r="F16">
-        <v>1830.76</v>
+        <v>2618.14</v>
       </c>
       <c r="G16">
         <v>1933.71</v>
@@ -1505,25 +1506,25 @@
         <f t="shared" si="2"/>
         <v>1.2604873161912877</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0540630793500916</v>
+      <c r="L16" s="8">
+        <f>$F16/$D16</f>
+        <v>1.5073984086224566</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
-        <v>1.0562334768074462</v>
+        <f>$G16/$F16</f>
+        <v>0.73858158845592681</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
-        <v>1.1282809794097166</v>
+        <f>$F16/$B16</f>
+        <v>1.6135362163428058</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.6211957210137835</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
-        <v>0.65017632706984541</v>
+        <f>$F16/$H16</f>
+        <v>0.92980655517634481</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1543,7 +1544,7 @@
         <v>2085.46</v>
       </c>
       <c r="F17">
-        <v>1791.22</v>
+        <v>2383.79</v>
       </c>
       <c r="G17">
         <v>1762.05</v>
@@ -1563,25 +1564,25 @@
         <f t="shared" si="2"/>
         <v>1.2335442138185955</v>
       </c>
-      <c r="L17" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0610487157615391</v>
+      <c r="L17" s="8">
+        <f>$F17/$D17</f>
+        <v>1.412064022367548</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0.98371500988153326</v>
+        <f>$G17/$F17</f>
+        <v>0.73918004522210434</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
-        <v>1.1879928636330475</v>
+        <f>$F17/$B17</f>
+        <v>1.5810037339912586</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5072801156288504</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
-        <v>0.70394925585471579</v>
+        <f>$F17/$H17</f>
+        <v>0.93682919831953237</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1601,7 +1602,7 @@
         <v>199.858</v>
       </c>
       <c r="F18">
-        <v>208.102</v>
+        <v>212.501</v>
       </c>
       <c r="G18">
         <v>206.31</v>
@@ -1621,25 +1622,25 @@
         <f t="shared" si="2"/>
         <v>1.126588892801563</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1819544943373508</v>
+      <c r="L18" s="8">
+        <f>$F18/$D18</f>
+        <v>1.2069394431633591</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
-        <v>0.9913888381658994</v>
+        <f>$G18/$F18</f>
+        <v>0.97086601945402606</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
-        <v>1.1166906351284638</v>
+        <f>$F18/$B18</f>
+        <v>1.1402959926162828</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.009104540342826</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
-        <v>1.171290433333896</v>
+        <f>$F18/$H18</f>
+        <v>1.1960499580680928</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1659,7 +1660,7 @@
         <v>137.38499999999999</v>
       </c>
       <c r="F19">
-        <v>135.29400000000001</v>
+        <v>136.54400000000001</v>
       </c>
       <c r="G19">
         <v>135.417</v>
@@ -1679,25 +1680,25 @@
         <f t="shared" si="2"/>
         <v>1.0017633600023317</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98583482708870729</v>
+      <c r="L19" s="8">
+        <f>$F19/$D19</f>
+        <v>0.9949430915635612</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
-        <v>1.0009091312253315</v>
+        <f>$G19/$F19</f>
+        <v>0.99174625029294583</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
-        <v>0.99093978656861814</v>
+        <f>$F19/$B19</f>
+        <v>1.0000952164709846</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.99076057651670824</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
-        <v>0.99502831506950074</v>
+        <f>$F19/$H19</f>
+        <v>1.0042215194528206</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1717,7 +1718,7 @@
         <v>2866.73</v>
       </c>
       <c r="F20">
-        <v>624.84</v>
+        <v>4121.84</v>
       </c>
       <c r="G20">
         <v>588.16999999999996</v>
@@ -1737,25 +1738,25 @@
         <f t="shared" si="2"/>
         <v>1.7750496308358057</v>
       </c>
-      <c r="L20" s="4">
-        <f t="shared" si="3"/>
-        <v>0.34844192634560905</v>
+      <c r="L20" s="8">
+        <f>$F20/$D20</f>
+        <v>2.2985434186165823</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>0.94131297612188713</v>
+        <f>$G20/$F20</f>
+        <v>0.1426959804359218</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
-        <v>1.0908824268834325</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="6"/>
+        <f>$F20/$B20</f>
+        <v>7.1961507304673322</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="3"/>
         <v>3.1098012535968413</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
-        <v>0.1120463650024567</v>
+        <f>$F20/$H20</f>
+        <v>0.7391287195469658</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1775,7 +1776,7 @@
         <v>2316.91</v>
       </c>
       <c r="F21">
-        <v>1692.59</v>
+        <v>2364.96</v>
       </c>
       <c r="G21">
         <v>1958.75</v>
@@ -1795,25 +1796,25 @@
         <f t="shared" si="2"/>
         <v>1.2859759257514369</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99676693677565253</v>
+      <c r="L21" s="8">
+        <f>$F21/$D21</f>
+        <v>1.3927259021954208</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
-        <v>1.1572501314553436</v>
+        <f>$G21/$F21</f>
+        <v>0.82823810973547118</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
-        <v>0.98237905917176926</v>
+        <f>$F21/$B21</f>
+        <v>1.3726225369279434</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.6485677942146426</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
-        <v>0.60462599128384653</v>
+        <f>$F21/$H21</f>
+        <v>0.84480960205758371</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1833,7 +1834,7 @@
         <v>1227.78</v>
       </c>
       <c r="F22">
-        <v>998.71199999999999</v>
+        <v>1363.36</v>
       </c>
       <c r="G22">
         <v>1069.56</v>
@@ -1853,25 +1854,25 @@
         <f t="shared" si="2"/>
         <v>1.0288687394236355</v>
       </c>
-      <c r="L22" s="3">
-        <f t="shared" si="3"/>
-        <v>0.84081529563306645</v>
+      <c r="L22" s="8">
+        <f>$F22/$D22</f>
+        <v>1.1478123237272582</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
-        <v>1.070939369908442</v>
+        <f>$G22/$F22</f>
+        <v>0.78450299260650158</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
-        <v>1.0221321131076353</v>
+        <f>$F22/$B22</f>
+        <v>1.3953312243433798</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.7122555333855312</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
-        <v>0.49105713442816401</v>
+        <f>$F22/$H22</f>
+        <v>0.67035106696823676</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1891,7 +1892,7 @@
         <v>431.28</v>
       </c>
       <c r="F23">
-        <v>437.70400000000001</v>
+        <v>455.56400000000002</v>
       </c>
       <c r="G23">
         <v>421.16399999999999</v>
@@ -1911,25 +1912,25 @@
         <f t="shared" si="2"/>
         <v>0.98588910384183881</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98806522028664245</v>
+      <c r="L23" s="8">
+        <f>$F23/$D23</f>
+        <v>1.0283820664528174</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>0.96221190576279858</v>
+        <f>$G23/$F23</f>
+        <v>0.92448920459035389</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
-        <v>1.0780647719631831</v>
+        <f>$F23/$B23</f>
+        <v>1.1220539446169913</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0463147106826098</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
-        <v>0.94432890047205231</v>
+        <f>$F23/$H23</f>
+        <v>0.98286113724034974</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1949,7 +1950,7 @@
         <v>1992.71</v>
       </c>
       <c r="F24">
-        <v>1563.14</v>
+        <v>2294.5300000000002</v>
       </c>
       <c r="G24">
         <v>1470.61</v>
@@ -1969,25 +1970,25 @@
         <f t="shared" si="2"/>
         <v>1.2263619205212402</v>
       </c>
-      <c r="L24" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0103808464979187</v>
+      <c r="L24" s="8">
+        <f>$F24/$D24</f>
+        <v>1.4831359722832693</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
-        <v>0.94080504625305461</v>
+        <f>$G24/$F24</f>
+        <v>0.64091992695671873</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
-        <v>1.0698158274759946</v>
+        <f>$F24/$B24</f>
+        <v>1.5703804589598462</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5708625281174859</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
-        <v>0.64320131673696124</v>
+        <f>$F24/$H24</f>
+        <v>0.94415389363234248</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2007,7 +2008,7 @@
         <v>617.02099999999996</v>
       </c>
       <c r="F25">
-        <v>578.553</v>
+        <v>651.19399999999996</v>
       </c>
       <c r="G25">
         <v>570.56500000000005</v>
@@ -2027,25 +2028,25 @@
         <f t="shared" si="2"/>
         <v>1.1368507413929703</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0861866981071857</v>
+      <c r="L25" s="8">
+        <f>$F25/$D25</f>
+        <v>1.222564329780004</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>0.98619314047286943</v>
+        <f>$G25/$F25</f>
+        <v>0.87618282723735186</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
-        <v>1.075419300753375</v>
+        <f>$F25/$B25</f>
+        <v>1.2104450173705663</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2410963379054758</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
-        <v>0.87518322706541707</v>
+        <f>$F25/$H25</f>
+        <v>0.98506803415700406</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2065,7 +2066,7 @@
         <v>387.40300000000002</v>
       </c>
       <c r="F26">
-        <v>373.113</v>
+        <v>386.572</v>
       </c>
       <c r="G26">
         <v>343.35899999999998</v>
@@ -2085,25 +2086,25 @@
         <f t="shared" si="2"/>
         <v>0.96383480221356843</v>
       </c>
-      <c r="L26" s="3">
-        <f t="shared" si="3"/>
-        <v>0.95591565894650543</v>
+      <c r="L26" s="8">
+        <f>$F26/$D26</f>
+        <v>0.99039762246361962</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
-        <v>0.92025472175989576</v>
+        <f>$G26/$F26</f>
+        <v>0.88821487329656568</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
-        <v>1.0805317038560114</v>
+        <f>$F26/$B26</f>
+        <v>1.1195088400110047</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0005508300881329</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
-        <v>0.95538940171815578</v>
+        <f>$F26/$H26</f>
+        <v>0.9898523819888102</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2123,7 +2124,7 @@
         <v>937.55</v>
       </c>
       <c r="F27">
-        <v>916.38</v>
+        <v>989.61900000000003</v>
       </c>
       <c r="G27">
         <v>850</v>
@@ -2143,25 +2144,25 @@
         <f t="shared" si="2"/>
         <v>1.1847197055282668</v>
       </c>
-      <c r="L27" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1326729638263526</v>
+      <c r="L27" s="8">
+        <f>$F27/$D27</f>
+        <v>1.2231985484066341</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>0.92756280145791048</v>
+        <f>$G27/$F27</f>
+        <v>0.85891641126534557</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
-        <v>1.0447470218245622</v>
+        <f>$F27/$B27</f>
+        <v>1.1282453818186793</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3053586834799675</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
-        <v>0.86771013834048238</v>
+        <f>$F27/$H27</f>
+        <v>0.9370593415333921</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2181,7 +2182,7 @@
         <v>253.92599999999999</v>
       </c>
       <c r="F28">
-        <v>258.18</v>
+        <v>266.94400000000002</v>
       </c>
       <c r="G28">
         <v>257.733</v>
@@ -2201,25 +2202,25 @@
         <f t="shared" si="2"/>
         <v>0.88591116308709328</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" si="3"/>
-        <v>0.9039852662096205</v>
+      <c r="L28" s="8">
+        <f>$F28/$D28</f>
+        <v>0.93467132583105172</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
-        <v>0.9982686497792238</v>
+        <f>$G28/$F28</f>
+        <v>0.96549463557899784</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
-        <v>1.1383246548827859</v>
+        <f>$F28/$B28</f>
+        <v>1.1769654375746781</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0255565437216827</v>
       </c>
       <c r="P28">
-        <f t="shared" si="7"/>
-        <v>0.8814582401562302</v>
+        <f>$F28/$H28</f>
+        <v>0.91137961290675007</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2239,7 +2240,7 @@
         <v>1462.18</v>
       </c>
       <c r="F29">
-        <v>1408.31</v>
+        <v>1728.88</v>
       </c>
       <c r="G29">
         <v>1299.68</v>
@@ -2259,25 +2260,25 @@
         <f t="shared" si="2"/>
         <v>1.3387684131098061</v>
       </c>
-      <c r="L29" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1550720120730946</v>
+      <c r="L29" s="8">
+        <f>$F29/$D29</f>
+        <v>1.4179980971752897</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>0.9228649942129219</v>
+        <f>$G29/$F29</f>
+        <v>0.75174679561334501</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
-        <v>1.1355049385204596</v>
+        <f>$F29/$B29</f>
+        <v>1.3939770207619433</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5425346937436435</v>
       </c>
       <c r="P29">
-        <f t="shared" si="7"/>
-        <v>0.74881428389127569</v>
+        <f>$F29/$H29</f>
+        <v>0.9192649623548429</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2297,7 +2298,7 @@
         <v>2859.43</v>
       </c>
       <c r="F30">
-        <v>1742.77</v>
+        <v>3583.72</v>
       </c>
       <c r="G30">
         <v>1522.58</v>
@@ -2317,25 +2318,25 @@
         <f t="shared" si="2"/>
         <v>1.4196532944780857</v>
       </c>
-      <c r="L30" s="3">
-        <f t="shared" si="3"/>
-        <v>0.96552889489692462</v>
+      <c r="L30" s="8">
+        <f>$F30/$D30</f>
+        <v>1.9854514429442822</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
-        <v>0.87365515816774442</v>
+        <f>$G30/$F30</f>
+        <v>0.42486020113178485</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
-        <v>1.2073224800831313</v>
+        <f>$F30/$B30</f>
+        <v>2.4826602009005887</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.3228383536750896</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
-        <v>0.41566770815941995</v>
+        <f>$F30/$H30</f>
+        <v>0.8547523075822262</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2355,7 +2356,7 @@
         <v>1351.95</v>
       </c>
       <c r="F31">
-        <v>412.32</v>
+        <v>1663.4</v>
       </c>
       <c r="G31">
         <v>406.464</v>
@@ -2375,25 +2376,25 @@
         <f t="shared" si="2"/>
         <v>1.19504807522981</v>
       </c>
-      <c r="L31" s="4">
-        <f t="shared" si="3"/>
-        <v>0.36304722995104427</v>
+      <c r="L31" s="9">
+        <f>$F31/$D31</f>
+        <v>1.46462156165252</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>0.98579743888242144</v>
+        <f>$G31/$F31</f>
+        <v>0.24435734038715881</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
-        <v>1.0819888946037011</v>
+        <f>$F31/$B31</f>
+        <v>4.3650085547239916</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4845736625224526</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
-        <v>0.24454645742144407</v>
+        <f>$F31/$H31</f>
+        <v>0.98656038337900198</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2413,7 +2414,7 @@
         <v>109.039</v>
       </c>
       <c r="F32">
-        <v>103.535</v>
+        <v>110.874</v>
       </c>
       <c r="G32">
         <v>110.425</v>
@@ -2433,25 +2434,25 @@
         <f t="shared" si="2"/>
         <v>0.99115253681891835</v>
       </c>
-      <c r="L32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94240956836758849</v>
+      <c r="L32" s="8">
+        <f>$F32/$D32</f>
+        <v>1.0092115563161057</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>1.0665475443086878</v>
+        <f>$G32/$F32</f>
+        <v>0.99595035806410881</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
-        <v>0.94832244886743533</v>
+        <f>$F32/$B32</f>
+        <v>1.0155435668684796</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.9925542953887605</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
-        <v>0.94947910935035396</v>
+        <f>$F32/$H32</f>
+        <v>1.0167822163530318</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2471,7 +2472,7 @@
         <v>56.2</v>
       </c>
       <c r="F33">
-        <v>39.460799999999999</v>
+        <v>55.372700000000002</v>
       </c>
       <c r="G33">
         <v>39.590000000000003</v>
@@ -2491,25 +2492,25 @@
         <f t="shared" si="2"/>
         <v>0.99111655148137068</v>
       </c>
-      <c r="L33" s="5">
-        <f t="shared" si="3"/>
-        <v>0.69802466209463299</v>
+      <c r="L33" s="8">
+        <f>$F33/$D33</f>
+        <v>0.97949129786439915</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>1.0032741353444432</v>
+        <f>$G33/$F33</f>
+        <v>0.71497326299783115</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
-        <v>0.99649994696889332</v>
+        <f>$F33/$B33</f>
+        <v>1.3983216917428041</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0130156141378084</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
-        <v>0.68905617282980525</v>
+        <f>$F33/$H33</f>
+        <v>0.96690641703292779</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -2529,7 +2530,7 @@
         <v>56.966999999999999</v>
       </c>
       <c r="F34">
-        <v>56.2791</v>
+        <v>55.615299999999998</v>
       </c>
       <c r="G34">
         <v>56.416499999999999</v>
@@ -2549,25 +2550,25 @@
         <f t="shared" si="2"/>
         <v>0.99293128956156962</v>
       </c>
-      <c r="L34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.97840792335334348</v>
+      <c r="L34" s="8">
+        <f>$F34/$D34</f>
+        <v>0.9668678102470224</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
-        <v>1.0024414036471798</v>
+        <f>$G34/$F34</f>
+        <v>1.0144061076718098</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
-        <v>0.98768532558335431</v>
+        <f>$F34/$B34</f>
+        <v>0.97603578749333098</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.97512043406680338</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
-        <v>1.0033713674451774</v>
+        <f>$F34/$H34</f>
+        <v>0.99153681583169895</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2587,7 +2588,7 @@
         <v>33.236199999999997</v>
       </c>
       <c r="F35">
-        <v>32.181899999999999</v>
+        <v>33.146000000000001</v>
       </c>
       <c r="G35">
         <v>32.296100000000003</v>
@@ -2607,25 +2608,25 @@
         <f t="shared" si="2"/>
         <v>0.97993865807919056</v>
       </c>
-      <c r="L35" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94817462117975659</v>
+      <c r="L35" s="8">
+        <f>$F35/$D35</f>
+        <v>0.97657987855360351</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
-        <v>1.0035485785488116</v>
+        <f>$G35/$F35</f>
+        <v>0.97435889700114653</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
-        <v>0.99867802448447607</v>
+        <f>$F35/$B35</f>
+        <v>1.0285962544027061</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.97432596071406474</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
-        <v>0.97315955790078479</v>
+        <f>$F35/$H35</f>
+        <v>1.0023133098474426</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2645,7 +2646,7 @@
         <v>59.479500000000002</v>
       </c>
       <c r="F36">
-        <v>58.937600000000003</v>
+        <v>58.844900000000003</v>
       </c>
       <c r="G36">
         <v>58.478499999999997</v>
@@ -2665,25 +2666,25 @@
         <f t="shared" si="2"/>
         <v>0.99178102837621718</v>
       </c>
-      <c r="L36" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98697323140558157</v>
+      <c r="L36" s="8">
+        <f>$F36/$D36</f>
+        <v>0.98542087062822892</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
-        <v>0.9922104055814962</v>
+        <f>$G36/$F36</f>
+        <v>0.99377346210121853</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
-        <v>0.98934073718454463</v>
+        <f>$F36/$B36</f>
+        <v>0.98778465267589466</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.99155328181125513</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
-        <v>0.99538093364250957</v>
+        <f>$F36/$H36</f>
+        <v>0.99381534881128708</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2703,7 +2704,7 @@
         <v>210.07400000000001</v>
       </c>
       <c r="F37">
-        <v>247.26599999999999</v>
+        <v>246.94</v>
       </c>
       <c r="G37">
         <v>246.893</v>
@@ -2723,25 +2724,25 @@
         <f t="shared" si="2"/>
         <v>0.98689232814280292</v>
       </c>
-      <c r="L37" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1738796050132929</v>
+      <c r="L37" s="8">
+        <f>$F37/$D37</f>
+        <v>1.1723319407519941</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
-        <v>0.99849150307765733</v>
+        <f>$G37/$F37</f>
+        <v>0.99980967036527091</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
-        <v>1.1786357786357786</v>
+        <f>$F37/$B37</f>
+        <v>1.1770818437485104</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1731627421192556</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
-        <v>1.0006110515347104</v>
+        <f>$F37/$H37</f>
+        <v>0.99929182769156055</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -2761,7 +2762,7 @@
         <v>104.378</v>
       </c>
       <c r="F38">
-        <v>98.611900000000006</v>
+        <v>106.59699999999999</v>
       </c>
       <c r="G38">
         <v>98.801199999999994</v>
@@ -2781,25 +2782,25 @@
         <f t="shared" si="2"/>
         <v>1.0692230884442566</v>
       </c>
-      <c r="L38" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94677118936979143</v>
+      <c r="L38" s="8">
+        <f>$F38/$D38</f>
+        <v>1.0234359998463842</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
-        <v>1.001919646614658</v>
+        <f>$G38/$F38</f>
+        <v>0.92686660975449586</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
-        <v>1.0643302436223443</v>
+        <f>$F38/$B38</f>
+        <v>1.1505144001830512</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0037923883405659</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
-        <v>0.94319423056690044</v>
+        <f>$F38/$H38</f>
+        <v>1.0195693967537374</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2819,7 +2820,7 @@
         <v>32.1143</v>
       </c>
       <c r="F39">
-        <v>30.1813</v>
+        <v>31.505099999999999</v>
       </c>
       <c r="G39">
         <v>30.790299999999998</v>
@@ -2839,25 +2840,25 @@
         <f t="shared" si="2"/>
         <v>1.0202908245337412</v>
       </c>
-      <c r="L39" s="3">
-        <f t="shared" si="3"/>
-        <v>0.96138691130329534</v>
+      <c r="L39" s="8">
+        <f>$F39/$D39</f>
+        <v>1.0035548760093649</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
-        <v>1.0201780572738748</v>
+        <f>$G39/$F39</f>
+        <v>0.97731160986633914</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
-        <v>0.97913030501612353</v>
+        <f>$F39/$B39</f>
+        <v>1.0220765232963283</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0000031853727682</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
-        <v>0.96138384893736306</v>
+        <f>$F39/$H39</f>
+        <v>1.0035516793231742</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2877,7 +2878,7 @@
         <v>37.192900000000002</v>
       </c>
       <c r="F40">
-        <v>36.711599999999997</v>
+        <v>36.017499999999998</v>
       </c>
       <c r="G40">
         <v>36.595300000000002</v>
@@ -2897,25 +2898,25 @@
         <f t="shared" si="2"/>
         <v>0.99753561533024648</v>
       </c>
-      <c r="L40" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98660309969605031</v>
+      <c r="L40" s="8">
+        <f>$F40/$D40</f>
+        <v>0.96794956208126293</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
-        <v>0.99683206397977764</v>
+        <f>$G40/$F40</f>
+        <v>1.0160422017075035</v>
       </c>
       <c r="N40">
-        <f t="shared" si="5"/>
-        <v>0.982860263762389</v>
+        <f>$F40/$B40</f>
+        <v>0.96427749131233298</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0221391503919637</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
-        <v>0.96523364682559487</v>
+        <f>$F40/$H40</f>
+        <v>0.94698413783493141</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -2935,7 +2936,7 @@
         <v>45.833100000000002</v>
       </c>
       <c r="F41">
-        <v>29.885400000000001</v>
+        <v>44.649500000000003</v>
       </c>
       <c r="G41">
         <v>29.7075</v>
@@ -2955,25 +2956,25 @@
         <f t="shared" si="2"/>
         <v>1.0076783682971351</v>
       </c>
-      <c r="L41" s="5">
-        <f t="shared" si="3"/>
-        <v>0.65883177693711814</v>
+      <c r="L41" s="8">
+        <f>$F41/$D41</f>
+        <v>0.98431037979594915</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
-        <v>0.99404726053524461</v>
+        <f>$G41/$F41</f>
+        <v>0.6653489960693848</v>
       </c>
       <c r="N41">
-        <f t="shared" si="5"/>
-        <v>0.99979592860846733</v>
+        <f>$F41/$B41</f>
+        <v>1.4937189502032351</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0212935283899016</v>
       </c>
       <c r="P41">
-        <f t="shared" si="7"/>
-        <v>0.64509541931180669</v>
+        <f>$F41/$H41</f>
+        <v>0.9637879340601937</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2993,7 +2994,7 @@
         <v>43.284100000000002</v>
       </c>
       <c r="F42">
-        <v>42.231699999999996</v>
+        <v>43.687600000000003</v>
       </c>
       <c r="G42">
         <v>41.434600000000003</v>
@@ -3013,25 +3014,25 @@
         <f t="shared" si="2"/>
         <v>0.99551407096340883</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" si="3"/>
-        <v>0.9680552340041213</v>
+      <c r="L42" s="8">
+        <f>$F42/$D42</f>
+        <v>1.0014280704086849</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
-        <v>0.98112555260621781</v>
+        <f>$G42/$F42</f>
+        <v>0.94842930259387104</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
-        <v>1.0108428457563303</v>
+        <f>$F42/$B42</f>
+        <v>1.0456907467202188</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.99571808102179227</v>
       </c>
       <c r="P42">
-        <f t="shared" si="7"/>
-        <v>0.97221819353799044</v>
+        <f>$F42/$H42</f>
+        <v>1.0057345442407082</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3051,7 +3052,7 @@
         <v>55.112499999999997</v>
       </c>
       <c r="F43">
-        <v>54.455500000000001</v>
+        <v>54.224299999999999</v>
       </c>
       <c r="G43">
         <v>54.674700000000001</v>
@@ -3071,25 +3072,25 @@
         <f t="shared" si="2"/>
         <v>0.99849278625711613</v>
       </c>
-      <c r="L43" s="3">
-        <f t="shared" si="3"/>
-        <v>0.9888684093447252</v>
+      <c r="L43" s="8">
+        <f>$F43/$D43</f>
+        <v>0.98467000190671616</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
-        <v>1.0040253050656041</v>
+        <f>$G43/$F43</f>
+        <v>1.0083062390846909</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
-        <v>0.99777378749290002</v>
+        <f>$F43/$B43</f>
+        <v>0.99353757077157046</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0044726113840035</v>
       </c>
       <c r="P43">
-        <f t="shared" si="7"/>
-        <v>0.9844652787319127</v>
+        <f>$F43/$H43</f>
+        <v>0.98028556552676682</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3109,7 +3110,7 @@
         <v>80.403999999999996</v>
       </c>
       <c r="F44">
-        <v>76.8369</v>
+        <v>85.205200000000005</v>
       </c>
       <c r="G44">
         <v>77.124700000000004</v>
@@ -3129,25 +3130,25 @@
         <f t="shared" si="2"/>
         <v>0.99616707315347275</v>
       </c>
-      <c r="L44" s="3">
-        <f t="shared" si="3"/>
-        <v>0.906185282504399</v>
+      <c r="L44" s="8">
+        <f>$F44/$D44</f>
+        <v>1.004877841672996</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
-        <v>1.0037455961914132</v>
+        <f>$G44/$F44</f>
+        <v>0.90516423880232666</v>
       </c>
       <c r="N44">
-        <f t="shared" si="5"/>
-        <v>1.0094365897428486</v>
+        <f>$F44/$B44</f>
+        <v>1.1193742396733519</v>
       </c>
       <c r="O44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.95066374499360784</v>
       </c>
       <c r="P44">
-        <f t="shared" si="7"/>
-        <v>0.95321325471446494</v>
+        <f>$F44/$H44</f>
+        <v>1.0570276261873779</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3167,7 +3168,7 @@
         <v>54.824800000000003</v>
       </c>
       <c r="F45">
-        <v>49.815600000000003</v>
+        <v>55.345500000000001</v>
       </c>
       <c r="G45">
         <v>51.365400000000001</v>
@@ -3187,25 +3188,25 @@
         <f t="shared" si="2"/>
         <v>1.0007461325160538</v>
       </c>
-      <c r="L45" s="3">
-        <f t="shared" si="3"/>
-        <v>0.90877845884413311</v>
+      <c r="L45" s="8">
+        <f>$F45/$D45</f>
+        <v>1.0096595884413311</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
-        <v>1.0311107363958278</v>
+        <f>$G45/$F45</f>
+        <v>0.92808629427866762</v>
       </c>
       <c r="N45">
-        <f t="shared" si="5"/>
-        <v>1.0033595978150529</v>
+        <f>$F45/$B45</f>
+        <v>1.1147399332914392</v>
       </c>
       <c r="O45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.9654808814944541</v>
       </c>
       <c r="P45">
-        <f t="shared" si="7"/>
-        <v>0.94127027915606976</v>
+        <f>$F45/$H45</f>
+        <v>1.0457582410937991</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -3225,7 +3226,7 @@
         <v>71.895099999999999</v>
       </c>
       <c r="F46">
-        <v>67.078900000000004</v>
+        <v>70.168000000000006</v>
       </c>
       <c r="G46">
         <v>67.0732</v>
@@ -3245,25 +3246,25 @@
         <f t="shared" si="2"/>
         <v>1.0023147318412804</v>
       </c>
-      <c r="L46" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92477466175136569</v>
+      <c r="L46" s="8">
+        <f>$F46/$D46</f>
+        <v>0.96736214317422953</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
-        <v>0.99991502544019051</v>
+        <f>$G46/$F46</f>
+        <v>0.95589442480902964</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
-        <v>1.0503315613525512</v>
+        <f>$F46/$B46</f>
+        <v>1.0987011563544693</v>
       </c>
       <c r="O46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.95718917935242653</v>
       </c>
       <c r="P46">
-        <f t="shared" si="7"/>
-        <v>0.96613572499535516</v>
+        <f>$F46/$H46</f>
+        <v>1.0106279553104491</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -3283,7 +3284,7 @@
         <v>47.314900000000002</v>
       </c>
       <c r="F47">
-        <v>44.891500000000001</v>
+        <v>46.150300000000001</v>
       </c>
       <c r="G47">
         <v>46.9908</v>
@@ -3303,25 +3304,25 @@
         <f t="shared" si="2"/>
         <v>0.99961999937016466</v>
       </c>
-      <c r="L47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.942475042776314</v>
+      <c r="L47" s="8">
+        <f>$F47/$D47</f>
+        <v>0.96890293188331245</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
-        <v>1.0467638639831593</v>
+        <f>$G47/$F47</f>
+        <v>1.0182122326398744</v>
       </c>
       <c r="N47">
-        <f t="shared" si="5"/>
-        <v>0.94408447475620549</v>
+        <f>$F47/$B47</f>
+        <v>0.97055749385387691</v>
       </c>
       <c r="O47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0250401520002519</v>
       </c>
       <c r="P47">
-        <f t="shared" si="7"/>
-        <v>0.91945182921583979</v>
+        <f>$F47/$H47</f>
+        <v>0.94523412569996035</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3341,7 +3342,7 @@
         <v>66.142700000000005</v>
       </c>
       <c r="F48">
-        <v>65.481099999999998</v>
+        <v>64.407399999999996</v>
       </c>
       <c r="G48">
         <v>65.626300000000001</v>
@@ -3361,25 +3362,25 @@
         <f t="shared" si="2"/>
         <v>0.99287835708723438</v>
       </c>
-      <c r="L48" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98820303397984988</v>
+      <c r="L48" s="8">
+        <f>$F48/$D48</f>
+        <v>0.97199937219676802</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
-        <v>1.0022174337327872</v>
+        <f>$G48/$F48</f>
+        <v>1.0189248440396601</v>
       </c>
       <c r="N48">
-        <f t="shared" si="5"/>
-        <v>0.98511964760148141</v>
+        <f>$F48/$B48</f>
+        <v>0.96896654440636543</v>
       </c>
       <c r="O48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.99919864539379566</v>
       </c>
       <c r="P48">
-        <f t="shared" si="7"/>
-        <v>0.98899557013549377</v>
+        <f>$F48/$H48</f>
+        <v>0.97277891305956676</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -3399,7 +3400,7 @@
         <v>116.91</v>
       </c>
       <c r="F49">
-        <v>107.047</v>
+        <v>118.669</v>
       </c>
       <c r="G49">
         <v>109.761</v>
@@ -3419,25 +3420,25 @@
         <f t="shared" si="2"/>
         <v>1.0813383002926338</v>
       </c>
-      <c r="L49" s="3">
-        <f t="shared" si="3"/>
-        <v>0.9295421192938581</v>
+      <c r="L49" s="8">
+        <f>$F49/$D49</f>
+        <v>1.0304617014440651</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
-        <v>1.0253533494633198</v>
+        <f>$G49/$F49</f>
+        <v>0.92493406028533143</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
-        <v>1.0688987188832415</v>
+        <f>$F49/$B49</f>
+        <v>1.1849481262544059</v>
       </c>
       <c r="O49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0116879846475804</v>
       </c>
       <c r="P49">
-        <f t="shared" si="7"/>
-        <v>0.91880316204176571</v>
+        <f>$F49/$H49</f>
+        <v>1.0185568249118078</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -3457,7 +3458,7 @@
         <v>51.083599999999997</v>
       </c>
       <c r="F50">
-        <v>43.670499999999997</v>
+        <v>49.496499999999997</v>
       </c>
       <c r="G50">
         <v>44.608800000000002</v>
@@ -3477,25 +3478,25 @@
         <f t="shared" si="2"/>
         <v>0.96251769220871486</v>
       </c>
-      <c r="L50" s="3">
-        <f t="shared" si="3"/>
-        <v>0.81436374248722143</v>
+      <c r="L50" s="8">
+        <f>$F50/$D50</f>
+        <v>0.92300649133897605</v>
       </c>
       <c r="M50">
-        <f t="shared" si="4"/>
-        <v>1.0214859000927401</v>
+        <f>$G50/$F50</f>
+        <v>0.9012516036487429</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
-        <v>1.0987422602079711</v>
+        <f>$F50/$B50</f>
+        <v>1.2453234170065339</v>
       </c>
       <c r="O50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.96345941188207795</v>
       </c>
       <c r="P50">
-        <f t="shared" si="7"/>
-        <v>0.84524966225239906</v>
+        <f>$F50/$H50</f>
+        <v>0.95801284408641696</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -3515,7 +3516,7 @@
         <v>47.710099999999997</v>
       </c>
       <c r="F51">
-        <v>61.154200000000003</v>
+        <v>46.815600000000003</v>
       </c>
       <c r="G51">
         <v>58.799900000000001</v>
@@ -3535,25 +3536,25 @@
         <f t="shared" si="2"/>
         <v>0.99785878291321162</v>
       </c>
-      <c r="L51" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2627234133932408</v>
+      <c r="L51" s="8">
+        <f>$F51/$D51</f>
+        <v>0.96665730615481193</v>
       </c>
       <c r="M51">
-        <f t="shared" si="4"/>
-        <v>0.96150223533297796</v>
+        <f>$G51/$F51</f>
+        <v>1.2559894565059508</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
-        <v>1.2958512299676006</v>
+        <f>$F51/$B51</f>
+        <v>0.99201776561006771</v>
       </c>
       <c r="O51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.98586218573457995</v>
       </c>
       <c r="P51">
-        <f t="shared" si="7"/>
-        <v>1.280831572267241</v>
+        <f>$F51/$H51</f>
+        <v>0.98051971172273111</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -3573,7 +3574,7 @@
         <v>44.048000000000002</v>
       </c>
       <c r="F52">
-        <v>41.3521</v>
+        <v>42.840400000000002</v>
       </c>
       <c r="G52">
         <v>41.109099999999998</v>
@@ -3593,25 +3594,25 @@
         <f t="shared" si="2"/>
         <v>0.99899934889140185</v>
       </c>
-      <c r="L52" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94472659150360383</v>
+      <c r="L52" s="8">
+        <f>$F52/$D52</f>
+        <v>0.97872816787178873</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
-        <v>0.99412363580084195</v>
+        <f>$G52/$F52</f>
+        <v>0.95958721207084896</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
-        <v>0.95371873760343917</v>
+        <f>$F52/$B52</f>
+        <v>0.98804394955579955</v>
       </c>
       <c r="O52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.97504769084906828</v>
       </c>
       <c r="P52">
-        <f t="shared" si="7"/>
-        <v>0.96890295763988632</v>
+        <f>$F52/$H52</f>
+        <v>1.003774663595701</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -3631,7 +3632,7 @@
         <v>50.601300000000002</v>
       </c>
       <c r="F53">
-        <v>64.441000000000003</v>
+        <v>49.731000000000002</v>
       </c>
       <c r="G53">
         <v>61.988100000000003</v>
@@ -3651,25 +3652,25 @@
         <f t="shared" si="2"/>
         <v>0.9347516405965951</v>
       </c>
-      <c r="L53" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2803110527434671</v>
+      <c r="L53" s="8">
+        <f>$F53/$D53</f>
+        <v>0.98805339712272244</v>
       </c>
       <c r="M53">
-        <f t="shared" si="4"/>
-        <v>0.96193572415077355</v>
+        <f>$G53/$F53</f>
+        <v>1.2464679978283164</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
-        <v>1.2352686341714014</v>
+        <f>$F53/$B53</f>
+        <v>0.95329284843466067</v>
       </c>
       <c r="O53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.98579441034882176</v>
       </c>
       <c r="P53">
-        <f t="shared" si="7"/>
-        <v>1.2987607145088509</v>
+        <f>$F53/$H53</f>
+        <v>1.002291539442896</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -3689,7 +3690,7 @@
         <v>209.71199999999999</v>
       </c>
       <c r="F54">
-        <v>227.51900000000001</v>
+        <v>217.971</v>
       </c>
       <c r="G54">
         <v>224.899</v>
@@ -3709,25 +3710,25 @@
         <f t="shared" si="2"/>
         <v>0.9762234522790979</v>
       </c>
-      <c r="L54" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0754704494854717</v>
+      <c r="L54" s="8">
+        <f>$F54/$D54</f>
+        <v>1.0303375513464712</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
-        <v>0.98848447821940144</v>
+        <f>$G54/$F54</f>
+        <v>1.0317840446664923</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
-        <v>1.0740539672948375</v>
+        <f>$F54/$B54</f>
+        <v>1.0289805128592471</v>
       </c>
       <c r="O54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0395125571369823</v>
       </c>
       <c r="P54">
-        <f t="shared" si="7"/>
-        <v>1.034591109170941</v>
+        <f>$F54/$H54</f>
+        <v>0.99117374222416244</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3747,7 +3748,7 @@
         <v>178.69300000000001</v>
       </c>
       <c r="F55">
-        <v>144.477</v>
+        <v>163.93</v>
       </c>
       <c r="G55">
         <v>141.405</v>
@@ -3767,25 +3768,25 @@
         <f t="shared" si="2"/>
         <v>1.0509425001826551</v>
       </c>
-      <c r="L55" s="3">
-        <f t="shared" si="3"/>
-        <v>0.87964857163732013</v>
+      <c r="L55" s="8">
+        <f>$F55/$D55</f>
+        <v>0.99808821022381344</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
-        <v>0.97873710002284098</v>
+        <f>$G55/$F55</f>
+        <v>0.86259379003233083</v>
       </c>
       <c r="N55">
-        <f t="shared" si="5"/>
-        <v>1.0336101989569249</v>
+        <f>$F55/$B55</f>
+        <v>1.1727798882521696</v>
       </c>
       <c r="O55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0353133143372057</v>
       </c>
       <c r="P55">
-        <f t="shared" si="7"/>
-        <v>0.84964479781703561</v>
+        <f>$F55/$H55</f>
+        <v>0.96404460022111926</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3805,7 +3806,7 @@
         <v>40.515700000000002</v>
       </c>
       <c r="F56">
-        <v>39.448700000000002</v>
+        <v>39.912399999999998</v>
       </c>
       <c r="G56">
         <v>40.981200000000001</v>
@@ -3825,25 +3826,25 @@
         <f t="shared" si="2"/>
         <v>1.0017187163367618</v>
       </c>
-      <c r="L56" s="3">
-        <f t="shared" si="3"/>
-        <v>0.95494542470448984</v>
+      <c r="L56" s="8">
+        <f>$F56/$D56</f>
+        <v>0.96617033689260923</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
-        <v>1.0388479214777673</v>
+        <f>$G56/$F56</f>
+        <v>1.0267786452330605</v>
       </c>
       <c r="N56">
-        <f t="shared" si="5"/>
-        <v>0.94259198638990904</v>
+        <f>$F56/$B56</f>
+        <v>0.95367169000723984</v>
       </c>
       <c r="O56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.004645375563727</v>
       </c>
       <c r="P56">
-        <f t="shared" si="7"/>
-        <v>0.95052985653634303</v>
+        <f>$F56/$H56</f>
+        <v>0.96170286589979215</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3863,7 +3864,7 @@
         <v>53.786900000000003</v>
       </c>
       <c r="F57">
-        <v>48.258699999999997</v>
+        <v>46.281700000000001</v>
       </c>
       <c r="G57">
         <v>47.267099999999999</v>
@@ -3883,25 +3884,25 @@
         <f t="shared" si="2"/>
         <v>0.98676699047298178</v>
       </c>
-      <c r="L57" s="3">
-        <f t="shared" si="3"/>
-        <v>0.90326426713085139</v>
+      <c r="L57" s="8">
+        <f>$F57/$D57</f>
+        <v>0.86626050498811469</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
-        <v>0.97945240961733326</v>
+        <f>$G57/$F57</f>
+        <v>1.021291352737691</v>
       </c>
       <c r="N57">
-        <f t="shared" si="5"/>
-        <v>0.89790477041039407</v>
+        <f>$F57/$B57</f>
+        <v>0.86112056919690616</v>
       </c>
       <c r="O57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.93530799034196199</v>
       </c>
       <c r="P57">
-        <f t="shared" si="7"/>
-        <v>0.96573992359522676</v>
+        <f>$F57/$H57</f>
+        <v>0.92617673956938762</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3921,7 +3922,7 @@
         <v>43.555500000000002</v>
       </c>
       <c r="F58">
-        <v>30.5137</v>
+        <v>43.688000000000002</v>
       </c>
       <c r="G58">
         <v>30.308199999999999</v>
@@ -3941,25 +3942,25 @@
         <f t="shared" si="2"/>
         <v>0.94581158231996865</v>
       </c>
-      <c r="L58" s="5">
-        <f t="shared" si="3"/>
-        <v>0.6601282020772804</v>
+      <c r="L58" s="8">
+        <f>$F58/$D58</f>
+        <v>0.94513877020329318</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
-        <v>0.99326532016766234</v>
+        <f>$G58/$F58</f>
+        <v>0.69374198864676795</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
-        <v>0.94235383859939537</v>
+        <f>$F58/$B58</f>
+        <v>1.3492154180165101</v>
       </c>
       <c r="O58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.9587161619854665</v>
       </c>
       <c r="P58">
-        <f t="shared" si="7"/>
-        <v>0.68855436911606738</v>
+        <f>$F58/$H58</f>
+        <v>0.98583794420023652</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -3979,7 +3980,7 @@
         <v>61.6021</v>
       </c>
       <c r="F59">
-        <v>58.014400000000002</v>
+        <v>59.714100000000002</v>
       </c>
       <c r="G59">
         <v>58.330199999999998</v>
@@ -3999,25 +4000,25 @@
         <f t="shared" si="2"/>
         <v>0.95084817397652388</v>
       </c>
-      <c r="L59" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92877131641467991</v>
+      <c r="L59" s="8">
+        <f>$F59/$D59</f>
+        <v>0.95598236412886872</v>
       </c>
       <c r="M59">
-        <f t="shared" si="4"/>
-        <v>1.0054434761024849</v>
+        <f>$G59/$F59</f>
+        <v>0.97682456907162618</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
-        <v>0.94114135354446438</v>
+        <f>$F59/$B59</f>
+        <v>0.96871481735033893</v>
       </c>
       <c r="O59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.93232858816975006</v>
       </c>
       <c r="P59">
-        <f t="shared" si="7"/>
-        <v>0.99618453000346863</v>
+        <f>$F59/$H59</f>
+        <v>1.0253706432037584</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4037,7 +4038,7 @@
         <v>44.107599999999998</v>
       </c>
       <c r="F60">
-        <v>60.174700000000001</v>
+        <v>46.491</v>
       </c>
       <c r="G60">
         <v>60.787700000000001</v>
@@ -4057,25 +4058,25 @@
         <f t="shared" si="2"/>
         <v>0.8862256273300182</v>
       </c>
-      <c r="L60" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2119558759257134</v>
+      <c r="L60" s="8">
+        <f>$F60/$D60</f>
+        <v>0.93635764910605845</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
-        <v>1.0101870055023123</v>
+        <f>$G60/$F60</f>
+        <v>1.3075154330945775</v>
       </c>
       <c r="N60">
-        <f t="shared" si="5"/>
-        <v>1.1840565280357649</v>
+        <f>$F60/$B60</f>
+        <v>0.91480260051002737</v>
       </c>
       <c r="O60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.95961603918559379</v>
       </c>
       <c r="P60">
-        <f t="shared" si="7"/>
-        <v>1.2629591695385531</v>
+        <f>$F60/$H60</f>
+        <v>0.97576281644971852</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -4095,7 +4096,7 @@
         <v>138.21700000000001</v>
       </c>
       <c r="F61">
-        <v>134.86699999999999</v>
+        <v>129.75200000000001</v>
       </c>
       <c r="G61">
         <v>130.857</v>
@@ -4115,25 +4116,25 @@
         <f t="shared" si="2"/>
         <v>1.0389993863480491</v>
       </c>
-      <c r="L61" s="3">
-        <f t="shared" si="3"/>
-        <v>0.97366350214778186</v>
+      <c r="L61" s="8">
+        <f>$F61/$D61</f>
+        <v>0.93673609356387411</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
-        <v>0.97026700378891806</v>
+        <f>$G61/$F61</f>
+        <v>1.0085162463777051</v>
       </c>
       <c r="N61">
-        <f t="shared" si="5"/>
-        <v>1.069074853550847</v>
+        <f>$F61/$B61</f>
+        <v>1.0285288498886274</v>
       </c>
       <c r="O61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.94634516117388012</v>
       </c>
       <c r="P61">
-        <f t="shared" si="7"/>
-        <v>1.0288672062738875</v>
+        <f>$F61/$H61</f>
+        <v>0.98984612802575478</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -4153,7 +4154,7 @@
         <v>78.374899999999997</v>
       </c>
       <c r="F62">
-        <v>74.734099999999998</v>
+        <v>75.327600000000004</v>
       </c>
       <c r="G62">
         <v>71.935699999999997</v>
@@ -4173,25 +4174,25 @@
         <f t="shared" si="2"/>
         <v>1.0244005719169937</v>
       </c>
-      <c r="L62" s="3">
-        <f t="shared" si="3"/>
-        <v>0.97672993128108876</v>
+      <c r="L62" s="8">
+        <f>$F62/$D62</f>
+        <v>0.98448662085405925</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
-        <v>0.96255524586500674</v>
+        <f>$G62/$F62</f>
+        <v>0.95497135180199544</v>
       </c>
       <c r="N62">
-        <f t="shared" si="5"/>
-        <v>0.94587075960405453</v>
+        <f>$F62/$B62</f>
+        <v>0.95338238141825993</v>
       </c>
       <c r="O62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0228936699662547</v>
       </c>
       <c r="P62">
-        <f t="shared" si="7"/>
-        <v>0.95486946489101943</v>
+        <f>$F62/$H62</f>
+        <v>0.96245254982029305</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4211,7 +4212,7 @@
         <v>111.947</v>
       </c>
       <c r="F63">
-        <v>111.584</v>
+        <v>106.705</v>
       </c>
       <c r="G63">
         <v>97.943100000000001</v>
@@ -4231,25 +4232,25 @@
         <f t="shared" si="2"/>
         <v>1.0566071003517556</v>
       </c>
-      <c r="L63" s="3">
-        <f t="shared" si="3"/>
-        <v>0.9837169733141734</v>
+      <c r="L63" s="8">
+        <f>$F63/$D63</f>
+        <v>0.94070404034170552</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
-        <v>0.87775218669343269</v>
+        <f>$G63/$F63</f>
+        <v>0.91788669696827707</v>
       </c>
       <c r="N63">
-        <f t="shared" si="5"/>
-        <v>1.0163310289550145</v>
+        <f>$F63/$B63</f>
+        <v>0.97189204943938945</v>
       </c>
       <c r="O63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.98391973975368285</v>
       </c>
       <c r="P63">
-        <f t="shared" si="7"/>
-        <v>0.99979391973621734</v>
+        <f>$F63/$H63</f>
+        <v>0.95607802377987039</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -4269,7 +4270,7 @@
         <v>74.3947</v>
       </c>
       <c r="F64">
-        <v>61.923999999999999</v>
+        <v>59.088000000000001</v>
       </c>
       <c r="G64">
         <v>62.902999999999999</v>
@@ -4289,25 +4290,25 @@
         <f t="shared" si="2"/>
         <v>0.98581179467307478</v>
       </c>
-      <c r="L64" s="3">
-        <f t="shared" si="3"/>
-        <v>0.81896945065670712</v>
+      <c r="L64" s="8">
+        <f>$F64/$D64</f>
+        <v>0.78146222628388851</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
-        <v>1.0158097022156192</v>
+        <f>$G64/$F64</f>
+        <v>1.064564717032223</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
-        <v>0.85728604535902064</v>
+        <f>$F64/$B64</f>
+        <v>0.81802399470599141</v>
       </c>
       <c r="O64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.82413529051567147</v>
       </c>
       <c r="P64">
-        <f t="shared" si="7"/>
-        <v>0.9937318060294057</v>
+        <f>$F64/$H64</f>
+        <v>0.9482208021876094</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4327,7 +4328,7 @@
         <v>52.466099999999997</v>
       </c>
       <c r="F65">
-        <v>69.274100000000004</v>
+        <v>54.691400000000002</v>
       </c>
       <c r="G65">
         <v>69.380600000000001</v>
@@ -4347,25 +4348,25 @@
         <f t="shared" si="2"/>
         <v>1.0863900600066363</v>
       </c>
-      <c r="L65" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2986272146310465</v>
+      <c r="L65" s="8">
+        <f>$F65/$D65</f>
+        <v>1.0252567762882869</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
-        <v>1.0015373711098376</v>
+        <f>$G65/$F65</f>
+        <v>1.2685833604552086</v>
       </c>
       <c r="N65">
-        <f t="shared" si="5"/>
-        <v>1.3157998704601703</v>
+        <f>$F65/$B65</f>
+        <v>1.0388144636348269</v>
       </c>
       <c r="O65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.99599768296775093</v>
       </c>
       <c r="P65">
-        <f t="shared" si="7"/>
-        <v>1.3038456181560156</v>
+        <f>$F65/$H65</f>
+        <v>1.0293766680594609</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -4385,7 +4386,7 @@
         <v>180.61099999999999</v>
       </c>
       <c r="F66">
-        <v>140.797</v>
+        <v>163.88200000000001</v>
       </c>
       <c r="G66">
         <v>134.28399999999999</v>
@@ -4405,25 +4406,25 @@
         <f t="shared" si="2"/>
         <v>1.0712205909453898</v>
       </c>
-      <c r="L66" s="3">
-        <f t="shared" si="3"/>
-        <v>0.86489956385527367</v>
+      <c r="L66" s="8">
+        <f>$F66/$D66</f>
+        <v>1.0067080287486947</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
-        <v>0.95374191211460468</v>
+        <f>$G66/$F66</f>
+        <v>0.81939444234266112</v>
       </c>
       <c r="N66">
-        <f t="shared" si="5"/>
-        <v>1.0202607227483858</v>
+        <f>$F66/$B66</f>
+        <v>1.1875421192600053</v>
       </c>
       <c r="O66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.74214632348424348</v>
       </c>
       <c r="P66">
-        <f t="shared" si="7"/>
-        <v>1.165403016206731</v>
+        <f>$F66/$H66</f>
+        <v>1.3564818646845564</v>
       </c>
     </row>
   </sheetData>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>MAC final</t>
+  </si>
+  <si>
+    <t>Release final (merged with MAC - RF)</t>
+  </si>
+  <si>
+    <t>RF/R</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,17 +603,19 @@
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="11" width="9.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="12" width="9.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -623,41 +631,47 @@
       <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -674,48 +688,55 @@
         <v>1014.41</v>
       </c>
       <c r="F2">
+        <v>1008.02</v>
+      </c>
+      <c r="G2">
         <v>1026.9000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>938.553</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1050.08</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <f>$B2/$D2</f>
         <v>0.91193071443377549</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <f>$E2/$D2</f>
         <v>1.149031703402319</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <f>$C2/$D2</f>
         <v>1.1295015285912833</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M33" si="0">$G2/$D2</f>
+        <v>1.1631792433274923</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N33" si="1">$H2/$G2</f>
+        <v>0.91396728016359907</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O33" si="2">$G2/$B2</f>
+        <v>1.2755127389800869</v>
+      </c>
+      <c r="P2">
+        <f>$I2/$D2</f>
+        <v>1.1894354463271331</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q33" si="3">$G2/$I2</f>
+        <v>0.97792549139113227</v>
+      </c>
+      <c r="R2">
         <f>$F2/$D2</f>
-        <v>1.1631792433274923</v>
-      </c>
-      <c r="M2">
-        <f>$G2/$F2</f>
-        <v>0.91396728016359907</v>
-      </c>
-      <c r="N2">
-        <f>$F2/$B2</f>
-        <v>1.2755127389800869</v>
-      </c>
-      <c r="O2">
-        <f>$H2/$D2</f>
-        <v>1.1894354463271331</v>
-      </c>
-      <c r="P2">
-        <f>$F2/$H2</f>
-        <v>0.97792549139113227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.1417936905823145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -732,48 +753,55 @@
         <v>1186.42</v>
       </c>
       <c r="F3">
+        <v>935.34</v>
+      </c>
+      <c r="G3">
         <v>910.08399999999995</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>780.25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>954.29899999999998</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I66" si="0">$B3/$D3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J66" si="4">$B3/$D3</f>
         <v>0.97272879215569741</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J66" si="1">$E3/$D3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="5">$E3/$D3</f>
         <v>1.1016379438419255</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="2">$C3/$D3</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L66" si="6">$C3/$D3</f>
         <v>1.1344525330560096</v>
       </c>
-      <c r="L3" s="8">
-        <f>$F3/$D3</f>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
         <v>0.84504902689050654</v>
       </c>
-      <c r="M3">
-        <f>$G3/$F3</f>
+      <c r="N3">
+        <f t="shared" si="1"/>
         <v>0.85733844348433774</v>
       </c>
-      <c r="N3">
-        <f>$F3/$B3</f>
+      <c r="O3">
+        <f t="shared" si="2"/>
         <v>0.86874063326301321</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="3">$H3/$D3</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="7">$I3/$D3</f>
         <v>0.88610440499182885</v>
       </c>
-      <c r="P3">
-        <f>$F3/$H3</f>
+      <c r="Q3">
+        <f t="shared" si="3"/>
         <v>0.95366756121509089</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="8">$F3/$D3</f>
+        <v>0.86850022284950235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -790,48 +818,55 @@
         <v>324.923</v>
       </c>
       <c r="F4">
+        <v>249.696</v>
+      </c>
+      <c r="G4">
         <v>249.89099999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>251.40600000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>247.88</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98409528993242978</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97708567012386371</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97686614964079843</v>
+      </c>
+      <c r="M4" s="8">
         <f t="shared" si="0"/>
-        <v>0.98409528993242978</v>
-      </c>
-      <c r="J4" s="3">
+        <v>0.75145469909154605</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="1"/>
-        <v>0.97708567012386371</v>
-      </c>
-      <c r="K4" s="3">
+        <v>1.0060626433124844</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="2"/>
-        <v>0.97686614964079843</v>
-      </c>
-      <c r="L4" s="8">
-        <f>$F4/$D4</f>
-        <v>0.75145469909154605</v>
-      </c>
-      <c r="M4">
-        <f>$G4/$F4</f>
-        <v>1.0060626433124844</v>
-      </c>
-      <c r="N4">
-        <f>$F4/$B4</f>
         <v>0.76359952819522448</v>
       </c>
-      <c r="O4">
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>0.74540736085258141</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="3"/>
-        <v>0.74540736085258141</v>
-      </c>
-      <c r="P4">
-        <f>$F4/$H4</f>
         <v>1.0081127965144425</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="8"/>
+        <v>0.75086830876007016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -848,48 +883,55 @@
         <v>172.21600000000001</v>
       </c>
       <c r="F5">
+        <v>170.38300000000001</v>
+      </c>
+      <c r="G5">
         <v>170.935</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>168.61799999999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>180.47399999999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95880201110559449</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98281657507119335</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99078338383924847</v>
+      </c>
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
-        <v>0.95880201110559449</v>
-      </c>
-      <c r="J5" s="3">
+        <v>0.97550605785638056</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="1"/>
-        <v>0.98281657507119335</v>
-      </c>
-      <c r="K5" s="3">
+        <v>0.98644513996548389</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
-        <v>0.99078338383924847</v>
-      </c>
-      <c r="L5" s="8">
-        <f>$F5/$D5</f>
-        <v>0.97550605785638056</v>
-      </c>
-      <c r="M5">
-        <f>$G5/$F5</f>
-        <v>0.98644513996548389</v>
-      </c>
-      <c r="N5">
-        <f>$F5/$B5</f>
         <v>1.0174217894385982</v>
       </c>
-      <c r="O5">
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1.0299440154770667</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="3"/>
-        <v>1.0299440154770667</v>
-      </c>
-      <c r="P5">
-        <f>$F5/$H5</f>
         <v>0.94714474107073598</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="8"/>
+        <v>0.97235585840081729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -906,48 +948,55 @@
         <v>1193.76</v>
       </c>
       <c r="F6">
+        <v>966.75300000000004</v>
+      </c>
+      <c r="G6">
         <v>953.625</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>838.35599999999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>981.64300000000003</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
+        <f t="shared" si="4"/>
+        <v>1.068300812473522</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2868493986488598</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2420808894628534</v>
+      </c>
+      <c r="M6" s="8">
         <f t="shared" si="0"/>
-        <v>1.068300812473522</v>
-      </c>
-      <c r="J6" s="3">
+        <v>1.0279886725862142</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="1"/>
-        <v>1.2868493986488598</v>
-      </c>
-      <c r="K6" s="3">
+        <v>0.87912544239087687</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="2"/>
-        <v>1.2420808894628534</v>
-      </c>
-      <c r="L6" s="8">
-        <f>$F6/$D6</f>
-        <v>1.0279886725862142</v>
-      </c>
-      <c r="M6">
-        <f>$G6/$F6</f>
-        <v>0.87912544239087687</v>
-      </c>
-      <c r="N6">
-        <f>$F6/$B6</f>
         <v>0.96226517904262376</v>
       </c>
-      <c r="O6">
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1.0581915160818447</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="3"/>
-        <v>1.0581915160818447</v>
-      </c>
-      <c r="P6">
-        <f>$F6/$H6</f>
         <v>0.97145805552527753</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>1.0421403939585689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -964,48 +1013,55 @@
         <v>1064.7</v>
       </c>
       <c r="F7">
+        <v>1022.09</v>
+      </c>
+      <c r="G7">
         <v>997.34699999999998</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>851.56399999999996</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1052.93</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0995157333232</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2643421549510865</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1894340088683266</v>
+      </c>
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
-        <v>1.0995157333232</v>
-      </c>
-      <c r="J7" s="3">
+        <v>1.1843597776030819</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="1"/>
-        <v>1.2643421549510865</v>
-      </c>
-      <c r="K7" s="3">
+        <v>0.8538292088911883</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>1.1894340088683266</v>
-      </c>
-      <c r="L7" s="8">
-        <f>$F7/$D7</f>
-        <v>1.1843597776030819</v>
-      </c>
-      <c r="M7">
-        <f>$G7/$F7</f>
-        <v>0.8538292088911883</v>
-      </c>
-      <c r="N7">
-        <f>$F7/$B7</f>
         <v>1.0771649206177774</v>
       </c>
-      <c r="O7">
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1.2503651593995</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="3"/>
-        <v>1.2503651593995</v>
-      </c>
-      <c r="P7">
-        <f>$F7/$H7</f>
         <v>0.94721111564871352</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>1.213742343527713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1022,48 +1078,55 @@
         <v>538.88300000000004</v>
       </c>
       <c r="F8">
+        <v>521.96400000000006</v>
+      </c>
+      <c r="G8">
         <v>536.22500000000002</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>494.03</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>539.91</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99199516469730553</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1192707997981137</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="6"/>
+        <v>1.09575270168384</v>
+      </c>
+      <c r="M8" s="8">
         <f t="shared" si="0"/>
-        <v>0.99199516469730553</v>
-      </c>
-      <c r="J8" s="3">
+        <v>1.1137500804845273</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="1"/>
-        <v>1.1192707997981137</v>
-      </c>
-      <c r="K8" s="3">
+        <v>0.92131101683062133</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>1.09575270168384</v>
-      </c>
-      <c r="L8" s="8">
-        <f>$F8/$D8</f>
-        <v>1.1137500804845273</v>
-      </c>
-      <c r="M8">
-        <f>$G8/$F8</f>
-        <v>0.92131101683062133</v>
-      </c>
-      <c r="N8">
-        <f>$F8/$B8</f>
         <v>1.1227374085279678</v>
       </c>
-      <c r="O8">
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>1.1214038993974564</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="3"/>
-        <v>1.1214038993974564</v>
-      </c>
-      <c r="P8">
-        <f>$F8/$H8</f>
         <v>0.99317478839065776</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>1.0841296974404884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1080,48 +1143,55 @@
         <v>1885.51</v>
       </c>
       <c r="F9">
+        <v>2350.23</v>
+      </c>
+      <c r="G9">
         <v>2480.34</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1371.27</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2539.62</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98227530173285693</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5891629020295328</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5182556806688694</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
-        <v>0.98227530173285693</v>
-      </c>
-      <c r="J9" s="3">
+        <v>2.0905030004719842</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="1"/>
-        <v>1.5891629020295328</v>
-      </c>
-      <c r="K9" s="3">
+        <v>0.55285565688574945</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>1.5182556806688694</v>
-      </c>
-      <c r="L9" s="8">
-        <f>$F9/$D9</f>
-        <v>2.0905030004719842</v>
-      </c>
-      <c r="M9">
-        <f>$G9/$F9</f>
-        <v>0.55285565688574945</v>
-      </c>
-      <c r="N9">
-        <f>$F9/$B9</f>
         <v>2.1282251490840447</v>
       </c>
-      <c r="O9">
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>2.1404659159867845</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
-        <v>2.1404659159867845</v>
-      </c>
-      <c r="P9">
-        <f>$F9/$H9</f>
         <v>0.97665792520140815</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>1.9808424920774055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1138,48 +1208,55 @@
         <v>414.33100000000002</v>
       </c>
       <c r="F10">
+        <v>304.76400000000001</v>
+      </c>
+      <c r="G10">
         <v>306.56599999999997</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>313.67099999999999</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>309.11599999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0515908434794354</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0973707977656946</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0984752375075151</v>
+      </c>
+      <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>1.0515908434794354</v>
-      </c>
-      <c r="J10" s="3">
+        <v>0.811951256333313</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="1"/>
-        <v>1.0973707977656946</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1.0231760860630339</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
-        <v>1.0984752375075151</v>
-      </c>
-      <c r="L10" s="8">
-        <f>$F10/$D10</f>
-        <v>0.811951256333313</v>
-      </c>
-      <c r="M10">
-        <f>$G10/$F10</f>
-        <v>1.0231760860630339</v>
-      </c>
-      <c r="N10">
-        <f>$F10/$B10</f>
         <v>0.77211708467029005</v>
       </c>
-      <c r="O10">
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>0.8187050245386911</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0.8187050245386911</v>
-      </c>
-      <c r="P10">
-        <f>$F10/$H10</f>
         <v>0.99175066965152237</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>0.80717859346817922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1196,48 +1273,55 @@
         <v>798.20600000000002</v>
       </c>
       <c r="F11">
+        <v>769.24900000000002</v>
+      </c>
+      <c r="G11">
         <v>770.36300000000006</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>685.09100000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>804.29200000000003</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92626002892614079</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0819596579287312</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0419551034848273</v>
+      </c>
+      <c r="M11" s="8">
         <f t="shared" si="0"/>
-        <v>0.92626002892614079</v>
-      </c>
-      <c r="J11" s="3">
+        <v>1.0442187705441341</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="1"/>
-        <v>1.0819596579287312</v>
-      </c>
-      <c r="K11" s="3">
+        <v>0.88930932560364395</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
-        <v>1.0419551034848273</v>
-      </c>
-      <c r="L11" s="8">
-        <f>$F11/$D11</f>
-        <v>1.0442187705441341</v>
-      </c>
-      <c r="M11">
-        <f>$G11/$F11</f>
-        <v>0.88930932560364395</v>
-      </c>
-      <c r="N11">
-        <f>$F11/$B11</f>
         <v>1.1273494892732754</v>
       </c>
-      <c r="O11">
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>1.0902091655472586</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="3"/>
-        <v>1.0902091655472586</v>
-      </c>
-      <c r="P11">
-        <f>$F11/$H11</f>
         <v>0.95781507213797978</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>1.0427087555117582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1254,48 +1338,55 @@
         <v>238.37</v>
       </c>
       <c r="F12">
+        <v>238.00200000000001</v>
+      </c>
+      <c r="G12">
         <v>241.27799999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>239.91200000000001</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>237.173</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9988719285027452</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99224502878455501</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99527542011297365</v>
+      </c>
+      <c r="M12" s="8">
         <f t="shared" si="0"/>
-        <v>0.9988719285027452</v>
-      </c>
-      <c r="J12" s="3">
+        <v>1.0043499435964252</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="1"/>
-        <v>0.99224502878455501</v>
-      </c>
-      <c r="K12" s="3">
+        <v>0.9943384809224215</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="2"/>
-        <v>0.99527542011297365</v>
-      </c>
-      <c r="L12" s="8">
-        <f>$F12/$D12</f>
-        <v>1.0043499435964252</v>
-      </c>
-      <c r="M12">
-        <f>$G12/$F12</f>
-        <v>0.9943384809224215</v>
-      </c>
-      <c r="N12">
-        <f>$F12/$B12</f>
         <v>1.0054842016652636</v>
       </c>
-      <c r="O12">
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>0.98726236611955887</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.98726236611955887</v>
-      </c>
-      <c r="P12">
-        <f>$F12/$H12</f>
         <v>1.0173080409658772</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>0.99071318261854124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1312,48 +1403,55 @@
         <v>1765.82</v>
       </c>
       <c r="F13">
+        <v>1341.33</v>
+      </c>
+      <c r="G13">
         <v>1379.22</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1135.19</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1428.84</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0971311340342087</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4548825099693503</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3848663612694854</v>
+      </c>
+      <c r="M13" s="8">
         <f t="shared" si="0"/>
-        <v>1.0971311340342087</v>
-      </c>
-      <c r="J13" s="3">
+        <v>1.1363576442672116</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="1"/>
-        <v>1.4548825099693503</v>
-      </c>
-      <c r="K13" s="3">
+        <v>0.82306666086628677</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="2"/>
-        <v>1.3848663612694854</v>
-      </c>
-      <c r="L13" s="8">
-        <f>$F13/$D13</f>
-        <v>1.1363576442672116</v>
-      </c>
-      <c r="M13">
-        <f>$G13/$F13</f>
-        <v>0.82306666086628677</v>
-      </c>
-      <c r="N13">
-        <f>$F13/$B13</f>
         <v>1.0357537116723365</v>
       </c>
-      <c r="O13">
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>1.1772402201496226</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="3"/>
-        <v>1.1772402201496226</v>
-      </c>
-      <c r="P13">
-        <f>$F13/$H13</f>
         <v>0.96527252876459235</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>1.105139570905975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1370,48 +1468,55 @@
         <v>256.89800000000002</v>
       </c>
       <c r="F14">
+        <v>212.52500000000001</v>
+      </c>
+      <c r="G14">
         <v>212.96600000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>208.49799999999999</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>209.72</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0107628296189344</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99709679172197518</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97904877234655296</v>
+      </c>
+      <c r="M14" s="8">
         <f t="shared" si="0"/>
-        <v>1.0107628296189344</v>
-      </c>
-      <c r="J14" s="3">
+        <v>0.82658376221637442</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="1"/>
-        <v>0.99709679172197518</v>
-      </c>
-      <c r="K14" s="3">
+        <v>0.97902012527821336</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="2"/>
-        <v>0.97904877234655296</v>
-      </c>
-      <c r="L14" s="8">
-        <f>$F14/$D14</f>
-        <v>0.82658376221637442</v>
-      </c>
-      <c r="M14">
-        <f>$G14/$F14</f>
-        <v>0.97902012527821336</v>
-      </c>
-      <c r="N14">
-        <f>$F14/$B14</f>
         <v>0.81778211267227052</v>
       </c>
-      <c r="O14">
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>0.81398508030398298</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="3"/>
-        <v>0.81398508030398298</v>
-      </c>
-      <c r="P14">
-        <f>$F14/$H14</f>
         <v>1.0154777798970056</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>0.82487211134657623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1428,48 +1533,55 @@
         <v>742.68299999999999</v>
       </c>
       <c r="F15">
+        <v>711.64800000000002</v>
+      </c>
+      <c r="G15">
         <v>744.82899999999995</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>244.17</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>754.404</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.37137971992525293</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1237533950173628</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0986540978521551</v>
+      </c>
+      <c r="M15" s="8">
         <f t="shared" si="0"/>
-        <v>0.37137971992525293</v>
-      </c>
-      <c r="J15" s="3">
+        <v>1.1270005068883862</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>1.1237533950173628</v>
-      </c>
-      <c r="K15" s="3">
+        <v>0.32782021108200676</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="2"/>
-        <v>1.0986540978521551</v>
-      </c>
-      <c r="L15" s="8">
-        <f>$F15/$D15</f>
-        <v>1.1270005068883862</v>
-      </c>
-      <c r="M15">
-        <f>$G15/$F15</f>
-        <v>0.32782021108200676</v>
-      </c>
-      <c r="N15">
-        <f>$F15/$B15</f>
         <v>3.0346312585814217</v>
       </c>
-      <c r="O15">
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>1.1414884361358462</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="3"/>
-        <v>1.1414884361358462</v>
-      </c>
-      <c r="P15">
-        <f>$F15/$H15</f>
         <v>0.98730786157019312</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>1.0767943470596693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1486,48 +1598,55 @@
         <v>2266.39</v>
       </c>
       <c r="F16">
+        <v>2377.9</v>
+      </c>
+      <c r="G16">
         <v>2618.14</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1933.71</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2815.79</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.93422037469916974</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3048777679260275</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2604873161912877</v>
+      </c>
+      <c r="M16" s="8">
         <f t="shared" si="0"/>
-        <v>0.93422037469916974</v>
-      </c>
-      <c r="J16" s="3">
+        <v>1.5073984086224566</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="1"/>
-        <v>1.3048777679260275</v>
-      </c>
-      <c r="K16" s="3">
+        <v>0.73858158845592681</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="2"/>
-        <v>1.2604873161912877</v>
-      </c>
-      <c r="L16" s="8">
-        <f>$F16/$D16</f>
-        <v>1.5073984086224566</v>
-      </c>
-      <c r="M16">
-        <f>$G16/$F16</f>
-        <v>0.73858158845592681</v>
-      </c>
-      <c r="N16">
-        <f>$F16/$B16</f>
         <v>1.6135362163428058</v>
       </c>
-      <c r="O16">
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>1.6211957210137835</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="3"/>
-        <v>1.6211957210137835</v>
-      </c>
-      <c r="P16">
-        <f>$F16/$H16</f>
         <v>0.92980655517634481</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>1.3690798337229255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1544,48 +1663,55 @@
         <v>2085.46</v>
       </c>
       <c r="F17">
+        <v>2462.02</v>
+      </c>
+      <c r="G17">
         <v>2383.79</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1762.05</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2544.5300000000002</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89314401478532834</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2353449909961141</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2335442138185955</v>
+      </c>
+      <c r="M17" s="8">
         <f t="shared" si="0"/>
-        <v>0.89314401478532834</v>
-      </c>
-      <c r="J17" s="3">
+        <v>1.412064022367548</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="1"/>
-        <v>1.2353449909961141</v>
-      </c>
-      <c r="K17" s="3">
+        <v>0.73918004522210434</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="2"/>
-        <v>1.2335442138185955</v>
-      </c>
-      <c r="L17" s="8">
-        <f>$F17/$D17</f>
-        <v>1.412064022367548</v>
-      </c>
-      <c r="M17">
-        <f>$G17/$F17</f>
-        <v>0.73918004522210434</v>
-      </c>
-      <c r="N17">
-        <f>$F17/$B17</f>
         <v>1.5810037339912586</v>
       </c>
-      <c r="O17">
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>1.5072801156288504</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="3"/>
-        <v>1.5072801156288504</v>
-      </c>
-      <c r="P17">
-        <f>$F17/$H17</f>
         <v>0.93682919831953237</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>1.4584044166429722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1602,48 +1728,55 @@
         <v>199.858</v>
       </c>
       <c r="F18">
+        <v>212.62</v>
+      </c>
+      <c r="G18">
         <v>212.501</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>206.31</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>177.66900000000001</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0584439925936864</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1351311440028171</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="6"/>
+        <v>1.126588892801563</v>
+      </c>
+      <c r="M18" s="8">
         <f t="shared" si="0"/>
-        <v>1.0584439925936864</v>
-      </c>
-      <c r="J18" s="3">
+        <v>1.2069394431633591</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>1.1351311440028171</v>
-      </c>
-      <c r="K18" s="3">
+        <v>0.97086601945402606</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="2"/>
-        <v>1.126588892801563</v>
-      </c>
-      <c r="L18" s="8">
-        <f>$F18/$D18</f>
-        <v>1.2069394431633591</v>
-      </c>
-      <c r="M18">
-        <f>$G18/$F18</f>
-        <v>0.97086601945402606</v>
-      </c>
-      <c r="N18">
-        <f>$F18/$B18</f>
         <v>1.1402959926162828</v>
       </c>
-      <c r="O18">
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>1.009104540342826</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="3"/>
-        <v>1.009104540342826</v>
-      </c>
-      <c r="P18">
-        <f>$F18/$H18</f>
         <v>1.1960499580680928</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>1.2076153260709053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1660,48 +1793,55 @@
         <v>137.38499999999999</v>
       </c>
       <c r="F19">
+        <v>135.79499999999999</v>
+      </c>
+      <c r="G19">
         <v>136.54400000000001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>135.417</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>135.97</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9948483656130227</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0010711319022427</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0017633600023317</v>
+      </c>
+      <c r="M19" s="8">
         <f t="shared" si="0"/>
-        <v>0.9948483656130227</v>
-      </c>
-      <c r="J19" s="3">
+        <v>0.9949430915635612</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="1"/>
-        <v>1.0010711319022427</v>
-      </c>
-      <c r="K19" s="3">
+        <v>0.99174625029294583</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="2"/>
-        <v>1.0017633600023317</v>
-      </c>
-      <c r="L19" s="8">
-        <f>$F19/$D19</f>
-        <v>0.9949430915635612</v>
-      </c>
-      <c r="M19">
-        <f>$G19/$F19</f>
-        <v>0.99174625029294583</v>
-      </c>
-      <c r="N19">
-        <f>$F19/$B19</f>
         <v>1.0000952164709846</v>
       </c>
-      <c r="O19">
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>0.99076057651670824</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="3"/>
-        <v>0.99076057651670824</v>
-      </c>
-      <c r="P19">
-        <f>$F19/$H19</f>
         <v>1.0042215194528206</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>0.98948541949022861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1718,48 +1858,55 @@
         <v>2866.73</v>
       </c>
       <c r="F20">
+        <v>5814.97</v>
+      </c>
+      <c r="G20">
         <v>4121.84</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>588.16999999999996</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5576.62</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.3194129062479088</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5986315272913831</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7750496308358057</v>
+      </c>
+      <c r="M20" s="8">
         <f t="shared" si="0"/>
-        <v>0.3194129062479088</v>
-      </c>
-      <c r="J20" s="3">
+        <v>2.2985434186165823</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="1"/>
-        <v>1.5986315272913831</v>
-      </c>
-      <c r="K20" s="3">
+        <v>0.1426959804359218</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="2"/>
-        <v>1.7750496308358057</v>
-      </c>
-      <c r="L20" s="8">
-        <f>$F20/$D20</f>
-        <v>2.2985434186165823</v>
-      </c>
-      <c r="M20">
-        <f>$G20/$F20</f>
-        <v>0.1426959804359218</v>
-      </c>
-      <c r="N20">
-        <f>$F20/$B20</f>
         <v>7.1961507304673322</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
+        <f t="shared" si="7"/>
+        <v>3.1098012535968413</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="3"/>
-        <v>3.1098012535968413</v>
-      </c>
-      <c r="P20">
-        <f>$F20/$H20</f>
         <v>0.7391287195469658</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>3.2427170930829115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1776,48 +1923,55 @@
         <v>2316.91</v>
       </c>
       <c r="F21">
+        <v>2308.9899999999998</v>
+      </c>
+      <c r="G21">
         <v>2364.96</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1958.75</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2799.4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0146459530764158</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3644292377273155</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2859759257514369</v>
+      </c>
+      <c r="M21" s="8">
         <f t="shared" si="0"/>
-        <v>1.0146459530764158</v>
-      </c>
-      <c r="J21" s="3">
+        <v>1.3927259021954208</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="1"/>
-        <v>1.3644292377273155</v>
-      </c>
-      <c r="K21" s="3">
+        <v>0.82823810973547118</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="2"/>
-        <v>1.2859759257514369</v>
-      </c>
-      <c r="L21" s="8">
-        <f>$F21/$D21</f>
-        <v>1.3927259021954208</v>
-      </c>
-      <c r="M21">
-        <f>$G21/$F21</f>
-        <v>0.82823810973547118</v>
-      </c>
-      <c r="N21">
-        <f>$F21/$B21</f>
         <v>1.3726225369279434</v>
       </c>
-      <c r="O21">
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>1.6485677942146426</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="3"/>
-        <v>1.6485677942146426</v>
-      </c>
-      <c r="P21">
-        <f>$F21/$H21</f>
         <v>0.84480960205758371</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>1.3597651465184208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1834,48 +1988,55 @@
         <v>1227.78</v>
       </c>
       <c r="F22">
+        <v>1382.25</v>
+      </c>
+      <c r="G22">
         <v>1363.36</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1069.56</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2033.8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.82260921543370458</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0336675674993054</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0288687394236355</v>
+      </c>
+      <c r="M22" s="8">
         <f t="shared" si="0"/>
-        <v>0.82260921543370458</v>
-      </c>
-      <c r="J22" s="3">
+        <v>1.1478123237272582</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="1"/>
-        <v>1.0336675674993054</v>
-      </c>
-      <c r="K22" s="3">
+        <v>0.78450299260650158</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="2"/>
-        <v>1.0288687394236355</v>
-      </c>
-      <c r="L22" s="8">
-        <f>$F22/$D22</f>
-        <v>1.1478123237272582</v>
-      </c>
-      <c r="M22">
-        <f>$G22/$F22</f>
-        <v>0.78450299260650158</v>
-      </c>
-      <c r="N22">
-        <f>$F22/$B22</f>
         <v>1.3953312243433798</v>
       </c>
-      <c r="O22">
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>1.7122555333855312</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="3"/>
-        <v>1.7122555333855312</v>
-      </c>
-      <c r="P22">
-        <f>$F22/$H22</f>
         <v>0.67035106696823676</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>1.1637158083499608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1892,48 +2053,55 @@
         <v>431.28</v>
       </c>
       <c r="F23">
+        <v>458.46699999999998</v>
+      </c>
+      <c r="G23">
         <v>455.56400000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>421.16399999999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>463.50799999999998</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9165174913260089</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97356379700716267</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98588910384183881</v>
+      </c>
+      <c r="M23" s="8">
         <f t="shared" si="0"/>
-        <v>0.9165174913260089</v>
-      </c>
-      <c r="J23" s="3">
+        <v>1.0283820664528174</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.97356379700716267</v>
-      </c>
-      <c r="K23" s="3">
+        <v>0.92448920459035389</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="2"/>
-        <v>0.98588910384183881</v>
-      </c>
-      <c r="L23" s="8">
-        <f>$F23/$D23</f>
-        <v>1.0283820664528174</v>
-      </c>
-      <c r="M23">
-        <f>$G23/$F23</f>
-        <v>0.92448920459035389</v>
-      </c>
-      <c r="N23">
-        <f>$F23/$B23</f>
         <v>1.1220539446169913</v>
       </c>
-      <c r="O23">
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>1.0463147106826098</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="3"/>
-        <v>1.0463147106826098</v>
-      </c>
-      <c r="P23">
-        <f>$F23/$H23</f>
         <v>0.98286113724034974</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>1.0349352469914739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1950,48 +2118,55 @@
         <v>1992.71</v>
       </c>
       <c r="F24">
+        <v>2123.37</v>
+      </c>
+      <c r="G24">
         <v>2294.5300000000002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1470.61</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2430.25</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94444372624557238</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2880458670527704</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2263619205212402</v>
+      </c>
+      <c r="M24" s="8">
         <f t="shared" si="0"/>
-        <v>0.94444372624557238</v>
-      </c>
-      <c r="J24" s="3">
+        <v>1.4831359722832693</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="1"/>
-        <v>1.2880458670527704</v>
-      </c>
-      <c r="K24" s="3">
+        <v>0.64091992695671873</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="2"/>
-        <v>1.2263619205212402</v>
-      </c>
-      <c r="L24" s="8">
-        <f>$F24/$D24</f>
-        <v>1.4831359722832693</v>
-      </c>
-      <c r="M24">
-        <f>$G24/$F24</f>
-        <v>0.64091992695671873</v>
-      </c>
-      <c r="N24">
-        <f>$F24/$B24</f>
         <v>1.5703804589598462</v>
       </c>
-      <c r="O24">
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>1.5708625281174859</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="3"/>
-        <v>1.5708625281174859</v>
-      </c>
-      <c r="P24">
-        <f>$F24/$H24</f>
         <v>0.94415389363234248</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>1.3725017452232593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2008,48 +2183,55 @@
         <v>617.02099999999996</v>
       </c>
       <c r="F25">
+        <v>657.11199999999997</v>
+      </c>
+      <c r="G25">
         <v>651.19399999999996</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>570.56500000000005</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>661.06500000000005</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0100122783236898</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1584072723722698</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1368507413929703</v>
+      </c>
+      <c r="M25" s="8">
         <f t="shared" si="0"/>
-        <v>1.0100122783236898</v>
-      </c>
-      <c r="J25" s="3">
+        <v>1.222564329780004</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="1"/>
-        <v>1.1584072723722698</v>
-      </c>
-      <c r="K25" s="3">
+        <v>0.87618282723735186</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="2"/>
-        <v>1.1368507413929703</v>
-      </c>
-      <c r="L25" s="8">
-        <f>$F25/$D25</f>
-        <v>1.222564329780004</v>
-      </c>
-      <c r="M25">
-        <f>$G25/$F25</f>
-        <v>0.87618282723735186</v>
-      </c>
-      <c r="N25">
-        <f>$F25/$B25</f>
         <v>1.2104450173705663</v>
       </c>
-      <c r="O25">
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>1.2410963379054758</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="3"/>
-        <v>1.2410963379054758</v>
-      </c>
-      <c r="P25">
-        <f>$F25/$H25</f>
         <v>0.98506803415700406</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>1.2336748985254749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2066,48 +2248,55 @@
         <v>387.40300000000002</v>
       </c>
       <c r="F26">
+        <v>408.25</v>
+      </c>
+      <c r="G26">
         <v>386.572</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>343.35899999999998</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>390.53500000000003</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <f t="shared" si="4"/>
+        <v>0.88467155154744825</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99252664480426323</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.96383480221356843</v>
+      </c>
+      <c r="M26" s="8">
         <f t="shared" si="0"/>
-        <v>0.88467155154744825</v>
-      </c>
-      <c r="J26" s="3">
+        <v>0.99039762246361962</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="1"/>
-        <v>0.99252664480426323</v>
-      </c>
-      <c r="K26" s="3">
+        <v>0.88821487329656568</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="2"/>
-        <v>0.96383480221356843</v>
-      </c>
-      <c r="L26" s="8">
-        <f>$F26/$D26</f>
-        <v>0.99039762246361962</v>
-      </c>
-      <c r="M26">
-        <f>$G26/$F26</f>
-        <v>0.88821487329656568</v>
-      </c>
-      <c r="N26">
-        <f>$F26/$B26</f>
         <v>1.1195088400110047</v>
       </c>
-      <c r="O26">
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>1.0005508300881329</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="3"/>
-        <v>1.0005508300881329</v>
-      </c>
-      <c r="P26">
-        <f>$F26/$H26</f>
         <v>0.9898523819888102</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>1.0459366673498669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2124,48 +2313,55 @@
         <v>937.55</v>
       </c>
       <c r="F27">
+        <v>993.779</v>
+      </c>
+      <c r="G27">
         <v>989.61900000000003</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>850</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1056.0899999999999</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0841600312468327</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1588397141310338</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1847197055282668</v>
+      </c>
+      <c r="M27" s="8">
         <f t="shared" si="0"/>
-        <v>1.0841600312468327</v>
-      </c>
-      <c r="J27" s="3">
+        <v>1.2231985484066341</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="1"/>
-        <v>1.1588397141310338</v>
-      </c>
-      <c r="K27" s="3">
+        <v>0.85891641126534557</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="2"/>
-        <v>1.1847197055282668</v>
-      </c>
-      <c r="L27" s="8">
-        <f>$F27/$D27</f>
-        <v>1.2231985484066341</v>
-      </c>
-      <c r="M27">
-        <f>$G27/$F27</f>
-        <v>0.85891641126534557</v>
-      </c>
-      <c r="N27">
-        <f>$F27/$B27</f>
         <v>1.1282453818186793</v>
       </c>
-      <c r="O27">
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>1.3053586834799675</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="3"/>
-        <v>1.3053586834799675</v>
-      </c>
-      <c r="P27">
-        <f>$F27/$H27</f>
         <v>0.9370593415333921</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>1.2283404322643323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2182,48 +2378,55 @@
         <v>253.92599999999999</v>
       </c>
       <c r="F28">
+        <v>266.92</v>
+      </c>
+      <c r="G28">
         <v>266.94400000000002</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>257.733</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>292.90100000000001</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
+        <f t="shared" si="4"/>
+        <v>0.79413659568210304</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88909041253212517</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88591116308709328</v>
+      </c>
+      <c r="M28" s="8">
         <f t="shared" si="0"/>
-        <v>0.79413659568210304</v>
-      </c>
-      <c r="J28" s="3">
+        <v>0.93467132583105172</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="1"/>
-        <v>0.88909041253212517</v>
-      </c>
-      <c r="K28" s="3">
+        <v>0.96549463557899784</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="2"/>
-        <v>0.88591116308709328</v>
-      </c>
-      <c r="L28" s="8">
-        <f>$F28/$D28</f>
-        <v>0.93467132583105172</v>
-      </c>
-      <c r="M28">
-        <f>$G28/$F28</f>
-        <v>0.96549463557899784</v>
-      </c>
-      <c r="N28">
-        <f>$F28/$B28</f>
         <v>1.1769654375746781</v>
       </c>
-      <c r="O28">
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>1.0255565437216827</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="3"/>
-        <v>1.0255565437216827</v>
-      </c>
-      <c r="P28">
-        <f>$F28/$H28</f>
         <v>0.91137961290675007</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>0.93458729280607289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2240,48 +2443,55 @@
         <v>1462.18</v>
       </c>
       <c r="F29">
+        <v>1772.55</v>
+      </c>
+      <c r="G29">
         <v>1728.88</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1299.68</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1880.72</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0172320461927102</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1992552737771072</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3387684131098061</v>
+      </c>
+      <c r="M29" s="8">
         <f t="shared" si="0"/>
-        <v>1.0172320461927102</v>
-      </c>
-      <c r="J29" s="3">
+        <v>1.4179980971752897</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="1"/>
-        <v>1.1992552737771072</v>
-      </c>
-      <c r="K29" s="3">
+        <v>0.75174679561334501</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="2"/>
-        <v>1.3387684131098061</v>
-      </c>
-      <c r="L29" s="8">
-        <f>$F29/$D29</f>
-        <v>1.4179980971752897</v>
-      </c>
-      <c r="M29">
-        <f>$G29/$F29</f>
-        <v>0.75174679561334501</v>
-      </c>
-      <c r="N29">
-        <f>$F29/$B29</f>
         <v>1.3939770207619433</v>
       </c>
-      <c r="O29">
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>1.5425346937436435</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="3"/>
-        <v>1.5425346937436435</v>
-      </c>
-      <c r="P29">
-        <f>$F29/$H29</f>
         <v>0.9192649623548429</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>1.453815491617729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2298,48 +2508,55 @@
         <v>2859.43</v>
       </c>
       <c r="F30">
+        <v>3530.08</v>
+      </c>
+      <c r="G30">
         <v>3583.72</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1522.58</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4192.7</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>0.79972742231258898</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5841805217757439</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4196532944780857</v>
+      </c>
+      <c r="M30" s="8">
         <f t="shared" si="0"/>
-        <v>0.79972742231258898</v>
-      </c>
-      <c r="J30" s="3">
+        <v>1.9854514429442822</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="1"/>
-        <v>1.5841805217757439</v>
-      </c>
-      <c r="K30" s="3">
+        <v>0.42486020113178485</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="2"/>
-        <v>1.4196532944780857</v>
-      </c>
-      <c r="L30" s="8">
-        <f>$F30/$D30</f>
-        <v>1.9854514429442822</v>
-      </c>
-      <c r="M30">
-        <f>$G30/$F30</f>
-        <v>0.42486020113178485</v>
-      </c>
-      <c r="N30">
-        <f>$F30/$B30</f>
         <v>2.4826602009005887</v>
       </c>
-      <c r="O30">
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>2.3228383536750896</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="3"/>
-        <v>2.3228383536750896</v>
-      </c>
-      <c r="P30">
-        <f>$F30/$H30</f>
         <v>0.8547523075822262</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>1.9557338267802038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2356,48 +2573,55 @@
         <v>1351.95</v>
       </c>
       <c r="F31">
+        <v>1628.61</v>
+      </c>
+      <c r="G31">
         <v>1663.4</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>406.464</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1686.06</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.33553692811608499</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1903902370302539</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="6"/>
+        <v>1.19504807522981</v>
+      </c>
+      <c r="M31" s="9">
         <f t="shared" si="0"/>
-        <v>0.33553692811608499</v>
-      </c>
-      <c r="J31" s="3">
+        <v>1.46462156165252</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="1"/>
-        <v>1.1903902370302539</v>
-      </c>
-      <c r="K31" s="3">
+        <v>0.24435734038715881</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="2"/>
-        <v>1.19504807522981</v>
-      </c>
-      <c r="L31" s="9">
-        <f>$F31/$D31</f>
-        <v>1.46462156165252</v>
-      </c>
-      <c r="M31">
-        <f>$G31/$F31</f>
-        <v>0.24435734038715881</v>
-      </c>
-      <c r="N31">
-        <f>$F31/$B31</f>
         <v>4.3650085547239916</v>
       </c>
-      <c r="O31">
+      <c r="P31">
+        <f t="shared" si="7"/>
+        <v>1.4845736625224526</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="3"/>
-        <v>1.4845736625224526</v>
-      </c>
-      <c r="P31">
-        <f>$F31/$H31</f>
         <v>0.98656038337900198</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>1.4339890113760432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2414,48 +2638,55 @@
         <v>109.039</v>
       </c>
       <c r="F32">
+        <v>103.864</v>
+      </c>
+      <c r="G32">
         <v>110.874</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>110.425</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>109.044</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9937649050627152</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99250878374688256</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99115253681891835</v>
+      </c>
+      <c r="M32" s="8">
         <f t="shared" si="0"/>
-        <v>0.9937649050627152</v>
-      </c>
-      <c r="J32" s="3">
+        <v>1.0092115563161057</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.99250878374688256</v>
-      </c>
-      <c r="K32" s="3">
+        <v>0.99595035806410881</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="2"/>
-        <v>0.99115253681891835</v>
-      </c>
-      <c r="L32" s="8">
-        <f>$F32/$D32</f>
-        <v>1.0092115563161057</v>
-      </c>
-      <c r="M32">
-        <f>$G32/$F32</f>
-        <v>0.99595035806410881</v>
-      </c>
-      <c r="N32">
-        <f>$F32/$B32</f>
         <v>1.0155435668684796</v>
       </c>
-      <c r="O32">
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>0.9925542953887605</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="3"/>
-        <v>0.9925542953887605</v>
-      </c>
-      <c r="P32">
-        <f>$F32/$H32</f>
         <v>1.0167822163530318</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>0.94540423440316046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2472,48 +2703,55 @@
         <v>56.2</v>
       </c>
       <c r="F33">
+        <v>55.154000000000003</v>
+      </c>
+      <c r="G33">
         <v>55.372700000000002</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>39.590000000000003</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>57.267899999999997</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <f t="shared" si="4"/>
+        <v>0.70047636652450562</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99412546146348713</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99111655148137068</v>
+      </c>
+      <c r="M33" s="8">
         <f t="shared" si="0"/>
-        <v>0.70047636652450562</v>
-      </c>
-      <c r="J33" s="3">
+        <v>0.97949129786439915</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="1"/>
-        <v>0.99412546146348713</v>
-      </c>
-      <c r="K33" s="3">
+        <v>0.71497326299783115</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="2"/>
-        <v>0.99111655148137068</v>
-      </c>
-      <c r="L33" s="8">
-        <f>$F33/$D33</f>
-        <v>0.97949129786439915</v>
-      </c>
-      <c r="M33">
-        <f>$G33/$F33</f>
-        <v>0.71497326299783115</v>
-      </c>
-      <c r="N33">
-        <f>$F33/$B33</f>
         <v>1.3983216917428041</v>
       </c>
-      <c r="O33">
+      <c r="P33">
+        <f t="shared" si="7"/>
+        <v>1.0130156141378084</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="3"/>
-        <v>1.0130156141378084</v>
-      </c>
-      <c r="P33">
-        <f>$F33/$H33</f>
         <v>0.96690641703292779</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>0.9756226993159639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2530,48 +2768,55 @@
         <v>56.966999999999999</v>
       </c>
       <c r="F34">
+        <v>53.702399999999997</v>
+      </c>
+      <c r="G34">
         <v>55.615299999999998</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>56.416499999999999</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>56.09</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="0"/>
+      <c r="J34" s="3">
+        <f t="shared" si="4"/>
         <v>0.99060692511095938</v>
       </c>
-      <c r="J34" s="3">
-        <f t="shared" si="1"/>
+      <c r="K34" s="3">
+        <f t="shared" si="5"/>
         <v>0.99036701314821873</v>
       </c>
-      <c r="K34" s="3">
-        <f t="shared" si="2"/>
+      <c r="L34" s="3">
+        <f t="shared" si="6"/>
         <v>0.99293128956156962</v>
       </c>
-      <c r="L34" s="8">
-        <f>$F34/$D34</f>
+      <c r="M34" s="8">
+        <f t="shared" ref="M34:M66" si="9">$G34/$D34</f>
         <v>0.9668678102470224</v>
       </c>
-      <c r="M34">
-        <f>$G34/$F34</f>
+      <c r="N34">
+        <f t="shared" ref="N34:N66" si="10">$H34/$G34</f>
         <v>1.0144061076718098</v>
       </c>
-      <c r="N34">
-        <f>$F34/$B34</f>
+      <c r="O34">
+        <f t="shared" ref="O34:O66" si="11">$G34/$B34</f>
         <v>0.97603578749333098</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="3"/>
+      <c r="P34">
+        <f t="shared" si="7"/>
         <v>0.97512043406680338</v>
       </c>
-      <c r="P34">
-        <f>$F34/$H34</f>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q66" si="12">$G34/$I34</f>
         <v>0.99153681583169895</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>0.93361218752770725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2588,48 +2833,55 @@
         <v>33.236199999999997</v>
       </c>
       <c r="F35">
+        <v>33.8063</v>
+      </c>
+      <c r="G35">
         <v>33.146000000000001</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>32.296100000000003</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>33.069499999999998</v>
       </c>
-      <c r="I35" s="3">
-        <f t="shared" si="0"/>
+      <c r="J35" s="3">
+        <f t="shared" si="4"/>
         <v>0.94942974405510749</v>
       </c>
-      <c r="J35" s="3">
-        <f t="shared" si="1"/>
+      <c r="K35" s="3">
+        <f t="shared" si="5"/>
         <v>0.97923743919577844</v>
       </c>
-      <c r="K35" s="3">
-        <f t="shared" si="2"/>
+      <c r="L35" s="3">
+        <f t="shared" si="6"/>
         <v>0.97993865807919056</v>
       </c>
-      <c r="L35" s="8">
-        <f>$F35/$D35</f>
+      <c r="M35" s="8">
+        <f t="shared" si="9"/>
         <v>0.97657987855360351</v>
       </c>
-      <c r="M35">
-        <f>$G35/$F35</f>
+      <c r="N35">
+        <f t="shared" si="10"/>
         <v>0.97435889700114653</v>
       </c>
-      <c r="N35">
-        <f>$F35/$B35</f>
+      <c r="O35">
+        <f t="shared" si="11"/>
         <v>1.0285962544027061</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="3"/>
+      <c r="P35">
+        <f t="shared" si="7"/>
         <v>0.97432596071406474</v>
       </c>
-      <c r="P35">
-        <f>$F35/$H35</f>
+      <c r="Q35">
+        <f t="shared" si="12"/>
         <v>1.0023133098474426</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>0.99603428312154363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2646,48 +2898,55 @@
         <v>59.479500000000002</v>
       </c>
       <c r="F36">
+        <v>58.861400000000003</v>
+      </c>
+      <c r="G36">
         <v>58.844900000000003</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>58.478499999999997</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>59.211100000000002</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="0"/>
+      <c r="J36" s="3">
+        <f t="shared" si="4"/>
         <v>0.9976069864608017</v>
       </c>
-      <c r="J36" s="3">
-        <f t="shared" si="1"/>
+      <c r="K36" s="3">
+        <f t="shared" si="5"/>
         <v>0.99604792725506786</v>
       </c>
-      <c r="K36" s="3">
-        <f t="shared" si="2"/>
+      <c r="L36" s="3">
+        <f t="shared" si="6"/>
         <v>0.99178102837621718</v>
       </c>
-      <c r="L36" s="8">
-        <f>$F36/$D36</f>
+      <c r="M36" s="8">
+        <f t="shared" si="9"/>
         <v>0.98542087062822892</v>
       </c>
-      <c r="M36">
-        <f>$G36/$F36</f>
+      <c r="N36">
+        <f t="shared" si="10"/>
         <v>0.99377346210121853</v>
       </c>
-      <c r="N36">
-        <f>$F36/$B36</f>
+      <c r="O36">
+        <f t="shared" si="11"/>
         <v>0.98778465267589466</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="3"/>
+      <c r="P36">
+        <f t="shared" si="7"/>
         <v>0.99155328181125513</v>
       </c>
-      <c r="P36">
-        <f>$F36/$H36</f>
+      <c r="Q36">
+        <f t="shared" si="12"/>
         <v>0.99381534881128708</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>0.98569718079895507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2704,48 +2963,55 @@
         <v>210.07400000000001</v>
       </c>
       <c r="F37">
+        <v>247.35499999999999</v>
+      </c>
+      <c r="G37">
         <v>246.94</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>246.893</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>247.11500000000001</v>
       </c>
-      <c r="I37" s="3">
-        <f t="shared" si="0"/>
+      <c r="J37" s="3">
+        <f t="shared" si="4"/>
         <v>0.99596467907330044</v>
       </c>
-      <c r="J37" s="3">
-        <f t="shared" si="1"/>
+      <c r="K37" s="3">
+        <f t="shared" si="5"/>
         <v>0.99731295100645667</v>
       </c>
-      <c r="K37" s="3">
-        <f t="shared" si="2"/>
+      <c r="L37" s="3">
+        <f t="shared" si="6"/>
         <v>0.98689232814280292</v>
       </c>
-      <c r="L37" s="8">
-        <f>$F37/$D37</f>
+      <c r="M37" s="8">
+        <f t="shared" si="9"/>
         <v>1.1723319407519941</v>
       </c>
-      <c r="M37">
-        <f>$G37/$F37</f>
+      <c r="N37">
+        <f t="shared" si="10"/>
         <v>0.99980967036527091</v>
       </c>
-      <c r="N37">
-        <f>$F37/$B37</f>
+      <c r="O37">
+        <f t="shared" si="11"/>
         <v>1.1770818437485104</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="3"/>
+      <c r="P37">
+        <f t="shared" si="7"/>
         <v>1.1731627421192556</v>
       </c>
-      <c r="P37">
-        <f>$F37/$H37</f>
+      <c r="Q37">
+        <f t="shared" si="12"/>
         <v>0.99929182769156055</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>1.1743021268515001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2762,48 +3028,55 @@
         <v>104.378</v>
       </c>
       <c r="F38">
+        <v>106.678</v>
+      </c>
+      <c r="G38">
         <v>106.59699999999999</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>98.801199999999994</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>104.551</v>
       </c>
-      <c r="I38" s="3">
-        <f t="shared" si="0"/>
+      <c r="J38" s="3">
+        <f t="shared" si="4"/>
         <v>0.88954644955643458</v>
       </c>
-      <c r="J38" s="3">
-        <f t="shared" si="1"/>
+      <c r="K38" s="3">
+        <f t="shared" si="5"/>
         <v>1.0021314182572294</v>
       </c>
-      <c r="K38" s="3">
-        <f t="shared" si="2"/>
+      <c r="L38" s="3">
+        <f t="shared" si="6"/>
         <v>1.0692230884442566</v>
       </c>
-      <c r="L38" s="8">
-        <f>$F38/$D38</f>
+      <c r="M38" s="8">
+        <f t="shared" si="9"/>
         <v>1.0234359998463842</v>
       </c>
-      <c r="M38">
-        <f>$G38/$F38</f>
+      <c r="N38">
+        <f t="shared" si="10"/>
         <v>0.92686660975449586</v>
       </c>
-      <c r="N38">
-        <f>$F38/$B38</f>
+      <c r="O38">
+        <f t="shared" si="11"/>
         <v>1.1505144001830512</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="3"/>
+      <c r="P38">
+        <f t="shared" si="7"/>
         <v>1.0037923883405659</v>
       </c>
-      <c r="P38">
-        <f>$F38/$H38</f>
+      <c r="Q38">
+        <f t="shared" si="12"/>
         <v>1.0195693967537374</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>1.0242136794807788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2820,48 +3093,55 @@
         <v>32.1143</v>
       </c>
       <c r="F39">
+        <v>31.520600000000002</v>
+      </c>
+      <c r="G39">
         <v>31.505099999999999</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>30.790299999999998</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>31.393599999999999</v>
       </c>
-      <c r="I39" s="3">
-        <f t="shared" si="0"/>
+      <c r="J39" s="3">
+        <f t="shared" si="4"/>
         <v>0.98187841432143597</v>
       </c>
-      <c r="J39" s="3">
-        <f t="shared" si="1"/>
+      <c r="K39" s="3">
+        <f t="shared" si="5"/>
         <v>1.0229601669135331</v>
       </c>
-      <c r="K39" s="3">
-        <f t="shared" si="2"/>
+      <c r="L39" s="3">
+        <f t="shared" si="6"/>
         <v>1.0202908245337412</v>
       </c>
-      <c r="L39" s="8">
-        <f>$F39/$D39</f>
+      <c r="M39" s="8">
+        <f t="shared" si="9"/>
         <v>1.0035548760093649</v>
       </c>
-      <c r="M39">
-        <f>$G39/$F39</f>
+      <c r="N39">
+        <f t="shared" si="10"/>
         <v>0.97731160986633914</v>
       </c>
-      <c r="N39">
-        <f>$F39/$B39</f>
+      <c r="O39">
+        <f t="shared" si="11"/>
         <v>1.0220765232963283</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="3"/>
+      <c r="P39">
+        <f t="shared" si="7"/>
         <v>1.0000031853727682</v>
       </c>
-      <c r="P39">
-        <f>$F39/$H39</f>
+      <c r="Q39">
+        <f t="shared" si="12"/>
         <v>1.0035516793231742</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>1.0040486087884435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2878,48 +3158,55 @@
         <v>37.192900000000002</v>
       </c>
       <c r="F40">
+        <v>36.208599999999997</v>
+      </c>
+      <c r="G40">
         <v>36.017499999999998</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>36.595300000000002</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>38.033900000000003</v>
       </c>
-      <c r="I40" s="3">
-        <f t="shared" si="0"/>
+      <c r="J40" s="3">
+        <f t="shared" si="4"/>
         <v>1.0038081058637305</v>
       </c>
-      <c r="J40" s="3">
-        <f t="shared" si="1"/>
+      <c r="K40" s="3">
+        <f t="shared" si="5"/>
         <v>0.99953775990927207</v>
       </c>
-      <c r="K40" s="3">
-        <f t="shared" si="2"/>
+      <c r="L40" s="3">
+        <f t="shared" si="6"/>
         <v>0.99753561533024648</v>
       </c>
-      <c r="L40" s="8">
-        <f>$F40/$D40</f>
+      <c r="M40" s="8">
+        <f t="shared" si="9"/>
         <v>0.96794956208126293</v>
       </c>
-      <c r="M40">
-        <f>$G40/$F40</f>
+      <c r="N40">
+        <f t="shared" si="10"/>
         <v>1.0160422017075035</v>
       </c>
-      <c r="N40">
-        <f>$F40/$B40</f>
+      <c r="O40">
+        <f t="shared" si="11"/>
         <v>0.96427749131233298</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="3"/>
+      <c r="P40">
+        <f t="shared" si="7"/>
         <v>1.0221391503919637</v>
       </c>
-      <c r="P40">
-        <f>$F40/$H40</f>
+      <c r="Q40">
+        <f t="shared" si="12"/>
         <v>0.94698413783493141</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="8"/>
+        <v>0.97308526448464261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2936,48 +3223,55 @@
         <v>45.833100000000002</v>
       </c>
       <c r="F41">
+        <v>44.771700000000003</v>
+      </c>
+      <c r="G41">
         <v>44.649500000000003</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>29.7075</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>46.327100000000002</v>
       </c>
-      <c r="I41" s="3">
-        <f t="shared" si="0"/>
+      <c r="J41" s="3">
+        <f t="shared" si="4"/>
         <v>0.65896625309736079</v>
       </c>
-      <c r="J41" s="3">
-        <f t="shared" si="1"/>
+      <c r="K41" s="3">
+        <f t="shared" si="5"/>
         <v>1.010403163937462</v>
       </c>
-      <c r="K41" s="3">
-        <f t="shared" si="2"/>
+      <c r="L41" s="3">
+        <f t="shared" si="6"/>
         <v>1.0076783682971351</v>
       </c>
-      <c r="L41" s="8">
-        <f>$F41/$D41</f>
+      <c r="M41" s="8">
+        <f t="shared" si="9"/>
         <v>0.98431037979594915</v>
       </c>
-      <c r="M41">
-        <f>$G41/$F41</f>
+      <c r="N41">
+        <f t="shared" si="10"/>
         <v>0.6653489960693848</v>
       </c>
-      <c r="N41">
-        <f>$F41/$B41</f>
+      <c r="O41">
+        <f t="shared" si="11"/>
         <v>1.4937189502032351</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="3"/>
+      <c r="P41">
+        <f t="shared" si="7"/>
         <v>1.0212935283899016</v>
       </c>
-      <c r="P41">
-        <f>$F41/$H41</f>
+      <c r="Q41">
+        <f t="shared" si="12"/>
         <v>0.9637879340601937</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="8"/>
+        <v>0.98700431205523675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2994,48 +3288,55 @@
         <v>43.284100000000002</v>
       </c>
       <c r="F42">
+        <v>44.731000000000002</v>
+      </c>
+      <c r="G42">
         <v>43.687600000000003</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>41.434600000000003</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>43.438499999999998</v>
       </c>
-      <c r="I42" s="3">
-        <f t="shared" si="0"/>
+      <c r="J42" s="3">
+        <f t="shared" si="4"/>
         <v>0.95767135125718328</v>
       </c>
-      <c r="J42" s="3">
-        <f t="shared" si="1"/>
+      <c r="K42" s="3">
+        <f t="shared" si="5"/>
         <v>0.99217885034601483</v>
       </c>
-      <c r="K42" s="3">
-        <f t="shared" si="2"/>
+      <c r="L42" s="3">
+        <f t="shared" si="6"/>
         <v>0.99551407096340883</v>
       </c>
-      <c r="L42" s="8">
-        <f>$F42/$D42</f>
+      <c r="M42" s="8">
+        <f t="shared" si="9"/>
         <v>1.0014280704086849</v>
       </c>
-      <c r="M42">
-        <f>$G42/$F42</f>
+      <c r="N42">
+        <f t="shared" si="10"/>
         <v>0.94842930259387104</v>
       </c>
-      <c r="N42">
-        <f>$F42/$B42</f>
+      <c r="O42">
+        <f t="shared" si="11"/>
         <v>1.0456907467202188</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="3"/>
+      <c r="P42">
+        <f t="shared" si="7"/>
         <v>0.99571808102179227</v>
       </c>
-      <c r="P42">
-        <f>$F42/$H42</f>
+      <c r="Q42">
+        <f t="shared" si="12"/>
         <v>1.0057345442407082</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>1.0253453844443476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3052,48 +3353,55 @@
         <v>55.112499999999997</v>
       </c>
       <c r="F43">
+        <v>53.960799999999999</v>
+      </c>
+      <c r="G43">
         <v>54.224299999999999</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>54.674700000000001</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>55.314799999999998</v>
       </c>
-      <c r="I43" s="3">
-        <f t="shared" si="0"/>
+      <c r="J43" s="3">
+        <f t="shared" si="4"/>
         <v>0.99107475235388653</v>
       </c>
-      <c r="J43" s="3">
-        <f t="shared" si="1"/>
+      <c r="K43" s="3">
+        <f t="shared" si="5"/>
         <v>1.0007990048757456</v>
       </c>
-      <c r="K43" s="3">
-        <f t="shared" si="2"/>
+      <c r="L43" s="3">
+        <f t="shared" si="6"/>
         <v>0.99849278625711613</v>
       </c>
-      <c r="L43" s="8">
-        <f>$F43/$D43</f>
+      <c r="M43" s="8">
+        <f t="shared" si="9"/>
         <v>0.98467000190671616</v>
       </c>
-      <c r="M43">
-        <f>$G43/$F43</f>
+      <c r="N43">
+        <f t="shared" si="10"/>
         <v>1.0083062390846909</v>
       </c>
-      <c r="N43">
-        <f>$F43/$B43</f>
+      <c r="O43">
+        <f t="shared" si="11"/>
         <v>0.99353757077157046</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="3"/>
+      <c r="P43">
+        <f t="shared" si="7"/>
         <v>1.0044726113840035</v>
       </c>
-      <c r="P43">
-        <f>$F43/$H43</f>
+      <c r="Q43">
+        <f t="shared" si="12"/>
         <v>0.98028556552676682</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>0.97988505225310296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3110,48 +3418,55 @@
         <v>80.403999999999996</v>
       </c>
       <c r="F44">
+        <v>80.739400000000003</v>
+      </c>
+      <c r="G44">
         <v>85.205200000000005</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>77.124700000000004</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>80.6083</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" si="0"/>
+      <c r="J44" s="3">
+        <f t="shared" si="4"/>
         <v>0.89771392449252052</v>
       </c>
-      <c r="J44" s="3">
-        <f t="shared" si="1"/>
+      <c r="K44" s="3">
+        <f t="shared" si="5"/>
         <v>0.94825430820977541</v>
       </c>
-      <c r="K44" s="3">
-        <f t="shared" si="2"/>
+      <c r="L44" s="3">
+        <f t="shared" si="6"/>
         <v>0.99616707315347275</v>
       </c>
-      <c r="L44" s="8">
-        <f>$F44/$D44</f>
+      <c r="M44" s="8">
+        <f t="shared" si="9"/>
         <v>1.004877841672996</v>
       </c>
-      <c r="M44">
-        <f>$G44/$F44</f>
+      <c r="N44">
+        <f t="shared" si="10"/>
         <v>0.90516423880232666</v>
       </c>
-      <c r="N44">
-        <f>$F44/$B44</f>
+      <c r="O44">
+        <f t="shared" si="11"/>
         <v>1.1193742396733519</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="3"/>
+      <c r="P44">
+        <f t="shared" si="7"/>
         <v>0.95066374499360784</v>
       </c>
-      <c r="P44">
-        <f>$F44/$H44</f>
+      <c r="Q44">
+        <f t="shared" si="12"/>
         <v>1.0570276261873779</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>0.95220988871539158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3168,48 +3483,55 @@
         <v>54.824800000000003</v>
       </c>
       <c r="F45">
+        <v>53.559899999999999</v>
+      </c>
+      <c r="G45">
         <v>55.345500000000001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>51.365400000000001</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>52.9238</v>
       </c>
-      <c r="I45" s="3">
-        <f t="shared" si="0"/>
+      <c r="J45" s="3">
+        <f t="shared" si="4"/>
         <v>0.90573555166374775</v>
       </c>
-      <c r="J45" s="3">
-        <f t="shared" si="1"/>
+      <c r="K45" s="3">
+        <f t="shared" si="5"/>
         <v>1.0001605370694688</v>
       </c>
-      <c r="K45" s="3">
-        <f t="shared" si="2"/>
+      <c r="L45" s="3">
+        <f t="shared" si="6"/>
         <v>1.0007461325160538</v>
       </c>
-      <c r="L45" s="8">
-        <f>$F45/$D45</f>
+      <c r="M45" s="8">
+        <f t="shared" si="9"/>
         <v>1.0096595884413311</v>
       </c>
-      <c r="M45">
-        <f>$G45/$F45</f>
+      <c r="N45">
+        <f t="shared" si="10"/>
         <v>0.92808629427866762</v>
       </c>
-      <c r="N45">
-        <f>$F45/$B45</f>
+      <c r="O45">
+        <f t="shared" si="11"/>
         <v>1.1147399332914392</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="3"/>
+      <c r="P45">
+        <f t="shared" si="7"/>
         <v>0.9654808814944541</v>
       </c>
-      <c r="P45">
-        <f>$F45/$H45</f>
+      <c r="Q45">
+        <f t="shared" si="12"/>
         <v>1.0457582410937991</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>0.97708515761821357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3226,48 +3548,55 @@
         <v>71.895099999999999</v>
       </c>
       <c r="F46">
+        <v>70.343699999999998</v>
+      </c>
+      <c r="G46">
         <v>70.168000000000006</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>67.0732</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>69.430099999999996</v>
       </c>
-      <c r="I46" s="3">
-        <f t="shared" si="0"/>
+      <c r="J46" s="3">
+        <f t="shared" si="4"/>
         <v>0.88045974792997628</v>
       </c>
-      <c r="J46" s="3">
-        <f t="shared" si="1"/>
+      <c r="K46" s="3">
+        <f t="shared" si="5"/>
         <v>0.99117258607521297</v>
       </c>
-      <c r="K46" s="3">
-        <f t="shared" si="2"/>
+      <c r="L46" s="3">
+        <f t="shared" si="6"/>
         <v>1.0023147318412804</v>
       </c>
-      <c r="L46" s="8">
-        <f>$F46/$D46</f>
+      <c r="M46" s="8">
+        <f t="shared" si="9"/>
         <v>0.96736214317422953</v>
       </c>
-      <c r="M46">
-        <f>$G46/$F46</f>
+      <c r="N46">
+        <f t="shared" si="10"/>
         <v>0.95589442480902964</v>
       </c>
-      <c r="N46">
-        <f>$F46/$B46</f>
+      <c r="O46">
+        <f t="shared" si="11"/>
         <v>1.0987011563544693</v>
       </c>
-      <c r="O46">
-        <f t="shared" si="3"/>
+      <c r="P46">
+        <f t="shared" si="7"/>
         <v>0.95718917935242653</v>
       </c>
-      <c r="P46">
-        <f>$F46/$H46</f>
+      <c r="Q46">
+        <f t="shared" si="12"/>
         <v>1.0106279553104491</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>0.96978440871629579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3284,48 +3613,55 @@
         <v>47.314900000000002</v>
       </c>
       <c r="F47">
+        <v>46.0655</v>
+      </c>
+      <c r="G47">
         <v>46.150300000000001</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>46.9908</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>48.824199999999998</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" si="0"/>
+      <c r="J47" s="3">
+        <f t="shared" si="4"/>
         <v>0.99829524579322504</v>
       </c>
-      <c r="J47" s="3">
-        <f t="shared" si="1"/>
+      <c r="K47" s="3">
+        <f t="shared" si="5"/>
         <v>0.99335313815437265</v>
       </c>
-      <c r="K47" s="3">
-        <f t="shared" si="2"/>
+      <c r="L47" s="3">
+        <f t="shared" si="6"/>
         <v>0.99961999937016466</v>
       </c>
-      <c r="L47" s="8">
-        <f>$F47/$D47</f>
+      <c r="M47" s="8">
+        <f t="shared" si="9"/>
         <v>0.96890293188331245</v>
       </c>
-      <c r="M47">
-        <f>$G47/$F47</f>
+      <c r="N47">
+        <f t="shared" si="10"/>
         <v>1.0182122326398744</v>
       </c>
-      <c r="N47">
-        <f>$F47/$B47</f>
+      <c r="O47">
+        <f t="shared" si="11"/>
         <v>0.97055749385387691</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="3"/>
+      <c r="P47">
+        <f t="shared" si="7"/>
         <v>1.0250401520002519</v>
       </c>
-      <c r="P47">
-        <f>$F47/$H47</f>
+      <c r="Q47">
+        <f t="shared" si="12"/>
         <v>0.94523412569996035</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>0.96712259744076923</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3342,48 +3678,55 @@
         <v>66.142700000000005</v>
       </c>
       <c r="F48">
+        <v>64.570499999999996</v>
+      </c>
+      <c r="G48">
         <v>64.407399999999996</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>65.626300000000001</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>66.209699999999998</v>
       </c>
-      <c r="I48" s="3">
-        <f t="shared" si="0"/>
+      <c r="J48" s="3">
+        <f t="shared" si="4"/>
         <v>1.0031299613055893</v>
       </c>
-      <c r="J48" s="3">
-        <f t="shared" si="1"/>
+      <c r="K48" s="3">
+        <f t="shared" si="5"/>
         <v>0.99818751999613664</v>
       </c>
-      <c r="K48" s="3">
-        <f t="shared" si="2"/>
+      <c r="L48" s="3">
+        <f t="shared" si="6"/>
         <v>0.99287835708723438</v>
       </c>
-      <c r="L48" s="8">
-        <f>$F48/$D48</f>
+      <c r="M48" s="8">
+        <f t="shared" si="9"/>
         <v>0.97199937219676802</v>
       </c>
-      <c r="M48">
-        <f>$G48/$F48</f>
+      <c r="N48">
+        <f t="shared" si="10"/>
         <v>1.0189248440396601</v>
       </c>
-      <c r="N48">
-        <f>$F48/$B48</f>
+      <c r="O48">
+        <f t="shared" si="11"/>
         <v>0.96896654440636543</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="3"/>
+      <c r="P48">
+        <f t="shared" si="7"/>
         <v>0.99919864539379566</v>
       </c>
-      <c r="P48">
-        <f>$F48/$H48</f>
+      <c r="Q48">
+        <f t="shared" si="12"/>
         <v>0.97277891305956676</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>0.97446078342599463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3400,48 +3743,55 @@
         <v>116.91</v>
       </c>
       <c r="F49">
+        <v>110.253</v>
+      </c>
+      <c r="G49">
         <v>118.669</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>109.761</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>116.50700000000001</v>
       </c>
-      <c r="I49" s="3">
-        <f t="shared" si="0"/>
+      <c r="J49" s="3">
+        <f t="shared" si="4"/>
         <v>0.86962600185826799</v>
       </c>
-      <c r="J49" s="3">
-        <f t="shared" si="1"/>
+      <c r="K49" s="3">
+        <f t="shared" si="5"/>
         <v>1.0151874332456301</v>
       </c>
-      <c r="K49" s="3">
-        <f t="shared" si="2"/>
+      <c r="L49" s="3">
+        <f t="shared" si="6"/>
         <v>1.0813383002926338</v>
       </c>
-      <c r="L49" s="8">
-        <f>$F49/$D49</f>
+      <c r="M49" s="8">
+        <f t="shared" si="9"/>
         <v>1.0304617014440651</v>
       </c>
-      <c r="M49">
-        <f>$G49/$F49</f>
+      <c r="N49">
+        <f t="shared" si="10"/>
         <v>0.92493406028533143</v>
       </c>
-      <c r="N49">
-        <f>$F49/$B49</f>
+      <c r="O49">
+        <f t="shared" si="11"/>
         <v>1.1849481262544059</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="3"/>
+      <c r="P49">
+        <f t="shared" si="7"/>
         <v>1.0116879846475804</v>
       </c>
-      <c r="P49">
-        <f>$F49/$H49</f>
+      <c r="Q49">
+        <f t="shared" si="12"/>
         <v>1.0185568249118078</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>0.95738140516320624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3458,48 +3808,55 @@
         <v>51.083599999999997</v>
       </c>
       <c r="F50">
+        <v>49.2485</v>
+      </c>
+      <c r="G50">
         <v>49.496499999999997</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>44.608800000000002</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>51.665799999999997</v>
       </c>
-      <c r="I50" s="3">
-        <f t="shared" si="0"/>
+      <c r="J50" s="3">
+        <f t="shared" si="4"/>
         <v>0.74117813793116305</v>
       </c>
-      <c r="J50" s="3">
-        <f t="shared" si="1"/>
+      <c r="K50" s="3">
+        <f t="shared" si="5"/>
         <v>0.9526025961626321</v>
       </c>
-      <c r="K50" s="3">
-        <f t="shared" si="2"/>
+      <c r="L50" s="3">
+        <f t="shared" si="6"/>
         <v>0.96251769220871486</v>
       </c>
-      <c r="L50" s="8">
-        <f>$F50/$D50</f>
+      <c r="M50" s="8">
+        <f t="shared" si="9"/>
         <v>0.92300649133897605</v>
       </c>
-      <c r="M50">
-        <f>$G50/$F50</f>
+      <c r="N50">
+        <f t="shared" si="10"/>
         <v>0.9012516036487429</v>
       </c>
-      <c r="N50">
-        <f>$F50/$B50</f>
+      <c r="O50">
+        <f t="shared" si="11"/>
         <v>1.2453234170065339</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="3"/>
+      <c r="P50">
+        <f t="shared" si="7"/>
         <v>0.96345941188207795</v>
       </c>
-      <c r="P50">
-        <f>$F50/$H50</f>
+      <c r="Q50">
+        <f t="shared" si="12"/>
         <v>0.95801284408641696</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>0.91838180858661855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -3516,48 +3873,55 @@
         <v>47.710099999999997</v>
       </c>
       <c r="F51">
+        <v>48.348999999999997</v>
+      </c>
+      <c r="G51">
         <v>46.815600000000003</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>58.799900000000001</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>47.745699999999999</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" si="0"/>
+      <c r="J51" s="3">
+        <f t="shared" si="4"/>
         <v>0.9744354785424032</v>
       </c>
-      <c r="J51" s="3">
-        <f t="shared" si="1"/>
+      <c r="K51" s="3">
+        <f t="shared" si="5"/>
         <v>0.98512711024480493</v>
       </c>
-      <c r="K51" s="3">
-        <f t="shared" si="2"/>
+      <c r="L51" s="3">
+        <f t="shared" si="6"/>
         <v>0.99785878291321162</v>
       </c>
-      <c r="L51" s="8">
-        <f>$F51/$D51</f>
+      <c r="M51" s="8">
+        <f t="shared" si="9"/>
         <v>0.96665730615481193</v>
       </c>
-      <c r="M51">
-        <f>$G51/$F51</f>
+      <c r="N51">
+        <f t="shared" si="10"/>
         <v>1.2559894565059508</v>
       </c>
-      <c r="N51">
-        <f>$F51/$B51</f>
+      <c r="O51">
+        <f t="shared" si="11"/>
         <v>0.99201776561006771</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="3"/>
+      <c r="P51">
+        <f t="shared" si="7"/>
         <v>0.98586218573457995</v>
       </c>
-      <c r="P51">
-        <f>$F51/$H51</f>
+      <c r="Q51">
+        <f t="shared" si="12"/>
         <v>0.98051971172273111</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>0.99831923750371665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -3574,48 +3938,55 @@
         <v>44.048000000000002</v>
       </c>
       <c r="F52">
+        <v>42.8369</v>
+      </c>
+      <c r="G52">
         <v>42.840400000000002</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>41.109099999999998</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>42.679299999999998</v>
       </c>
-      <c r="I52" s="3">
-        <f t="shared" si="0"/>
+      <c r="J52" s="3">
+        <f t="shared" si="4"/>
         <v>0.99057149058177119</v>
       </c>
-      <c r="J52" s="3">
-        <f t="shared" si="1"/>
+      <c r="K52" s="3">
+        <f t="shared" si="5"/>
         <v>1.0063168956969717</v>
       </c>
-      <c r="K52" s="3">
-        <f t="shared" si="2"/>
+      <c r="L52" s="3">
+        <f t="shared" si="6"/>
         <v>0.99899934889140185</v>
       </c>
-      <c r="L52" s="8">
-        <f>$F52/$D52</f>
+      <c r="M52" s="8">
+        <f t="shared" si="9"/>
         <v>0.97872816787178873</v>
       </c>
-      <c r="M52">
-        <f>$G52/$F52</f>
+      <c r="N52">
+        <f t="shared" si="10"/>
         <v>0.95958721207084896</v>
       </c>
-      <c r="N52">
-        <f>$F52/$B52</f>
+      <c r="O52">
+        <f t="shared" si="11"/>
         <v>0.98804394955579955</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="3"/>
+      <c r="P52">
+        <f t="shared" si="7"/>
         <v>0.97504769084906828</v>
       </c>
-      <c r="P52">
-        <f>$F52/$H52</f>
+      <c r="Q52">
+        <f t="shared" si="12"/>
         <v>1.003774663595701</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="8"/>
+        <v>0.97864820716676371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3632,48 +4003,55 @@
         <v>50.601300000000002</v>
       </c>
       <c r="F53">
+        <v>50.365200000000002</v>
+      </c>
+      <c r="G53">
         <v>49.731000000000002</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>61.988100000000003</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>49.6173</v>
       </c>
-      <c r="I53" s="3">
-        <f t="shared" si="0"/>
+      <c r="J53" s="3">
+        <f t="shared" si="4"/>
         <v>1.0364636624990315</v>
       </c>
-      <c r="J53" s="3">
-        <f t="shared" si="1"/>
+      <c r="K53" s="3">
+        <f t="shared" si="5"/>
         <v>1.0053444805820517</v>
       </c>
-      <c r="K53" s="3">
-        <f t="shared" si="2"/>
+      <c r="L53" s="3">
+        <f t="shared" si="6"/>
         <v>0.9347516405965951</v>
       </c>
-      <c r="L53" s="8">
-        <f>$F53/$D53</f>
+      <c r="M53" s="8">
+        <f t="shared" si="9"/>
         <v>0.98805339712272244</v>
       </c>
-      <c r="M53">
-        <f>$G53/$F53</f>
+      <c r="N53">
+        <f t="shared" si="10"/>
         <v>1.2464679978283164</v>
       </c>
-      <c r="N53">
-        <f>$F53/$B53</f>
+      <c r="O53">
+        <f t="shared" si="11"/>
         <v>0.95329284843466067</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="3"/>
+      <c r="P53">
+        <f t="shared" si="7"/>
         <v>0.98579441034882176</v>
       </c>
-      <c r="P53">
-        <f>$F53/$H53</f>
+      <c r="Q53">
+        <f t="shared" si="12"/>
         <v>1.002291539442896</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="8"/>
+        <v>1.0006536558035299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -3690,48 +4068,55 @@
         <v>209.71199999999999</v>
       </c>
       <c r="F54">
+        <v>224.68299999999999</v>
+      </c>
+      <c r="G54">
         <v>217.971</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>224.899</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>219.91200000000001</v>
       </c>
-      <c r="I54" s="3">
-        <f t="shared" si="0"/>
+      <c r="J54" s="3">
+        <f t="shared" si="4"/>
         <v>1.0013188184521136</v>
       </c>
-      <c r="J54" s="3">
-        <f t="shared" si="1"/>
+      <c r="K54" s="3">
+        <f t="shared" si="5"/>
         <v>0.99129768899519266</v>
       </c>
-      <c r="K54" s="3">
-        <f t="shared" si="2"/>
+      <c r="L54" s="3">
+        <f t="shared" si="6"/>
         <v>0.9762234522790979</v>
       </c>
-      <c r="L54" s="8">
-        <f>$F54/$D54</f>
+      <c r="M54" s="8">
+        <f t="shared" si="9"/>
         <v>1.0303375513464712</v>
       </c>
-      <c r="M54">
-        <f>$G54/$F54</f>
+      <c r="N54">
+        <f t="shared" si="10"/>
         <v>1.0317840446664923</v>
       </c>
-      <c r="N54">
-        <f>$F54/$B54</f>
+      <c r="O54">
+        <f t="shared" si="11"/>
         <v>1.0289805128592471</v>
       </c>
-      <c r="O54">
-        <f t="shared" si="3"/>
+      <c r="P54">
+        <f t="shared" si="7"/>
         <v>1.0395125571369823</v>
       </c>
-      <c r="P54">
-        <f>$F54/$H54</f>
+      <c r="Q54">
+        <f t="shared" si="12"/>
         <v>0.99117374222416244</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="8"/>
+        <v>1.0620648253629115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -3748,48 +4133,55 @@
         <v>178.69300000000001</v>
       </c>
       <c r="F55">
+        <v>187.19399999999999</v>
+      </c>
+      <c r="G55">
         <v>163.93</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>141.405</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>170.04400000000001</v>
       </c>
-      <c r="I55" s="3">
-        <f t="shared" si="0"/>
+      <c r="J55" s="3">
+        <f t="shared" si="4"/>
         <v>0.85104478702418351</v>
       </c>
-      <c r="J55" s="3">
-        <f t="shared" si="1"/>
+      <c r="K55" s="3">
+        <f t="shared" si="5"/>
         <v>1.0879727722169457</v>
       </c>
-      <c r="K55" s="3">
-        <f t="shared" si="2"/>
+      <c r="L55" s="3">
+        <f t="shared" si="6"/>
         <v>1.0509425001826551</v>
       </c>
-      <c r="L55" s="8">
-        <f>$F55/$D55</f>
+      <c r="M55" s="8">
+        <f t="shared" si="9"/>
         <v>0.99808821022381344</v>
       </c>
-      <c r="M55">
-        <f>$G55/$F55</f>
+      <c r="N55">
+        <f t="shared" si="10"/>
         <v>0.86259379003233083</v>
       </c>
-      <c r="N55">
-        <f>$F55/$B55</f>
+      <c r="O55">
+        <f t="shared" si="11"/>
         <v>1.1727798882521696</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="3"/>
+      <c r="P55">
+        <f t="shared" si="7"/>
         <v>1.0353133143372057</v>
       </c>
-      <c r="P55">
-        <f>$F55/$H55</f>
+      <c r="Q55">
+        <f t="shared" si="12"/>
         <v>0.96404460022111926</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="8"/>
+        <v>1.1397311317308394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -3806,48 +4198,55 @@
         <v>40.515700000000002</v>
       </c>
       <c r="F56">
+        <v>39.912700000000001</v>
+      </c>
+      <c r="G56">
         <v>39.912399999999998</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>40.981200000000001</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>41.501800000000003</v>
       </c>
-      <c r="I56" s="3">
-        <f t="shared" si="0"/>
+      <c r="J56" s="3">
+        <f t="shared" si="4"/>
         <v>1.0131058172496181</v>
       </c>
-      <c r="J56" s="3">
-        <f t="shared" si="1"/>
+      <c r="K56" s="3">
+        <f t="shared" si="5"/>
         <v>0.9807745843006157</v>
       </c>
-      <c r="K56" s="3">
-        <f t="shared" si="2"/>
+      <c r="L56" s="3">
+        <f t="shared" si="6"/>
         <v>1.0017187163367618</v>
       </c>
-      <c r="L56" s="8">
-        <f>$F56/$D56</f>
+      <c r="M56" s="8">
+        <f t="shared" si="9"/>
         <v>0.96617033689260923</v>
       </c>
-      <c r="M56">
-        <f>$G56/$F56</f>
+      <c r="N56">
+        <f t="shared" si="10"/>
         <v>1.0267786452330605</v>
       </c>
-      <c r="N56">
-        <f>$F56/$B56</f>
+      <c r="O56">
+        <f t="shared" si="11"/>
         <v>0.95367169000723984</v>
       </c>
-      <c r="O56">
-        <f t="shared" si="3"/>
+      <c r="P56">
+        <f t="shared" si="7"/>
         <v>1.004645375563727</v>
       </c>
-      <c r="P56">
-        <f>$F56/$H56</f>
+      <c r="Q56">
+        <f t="shared" si="12"/>
         <v>0.96170286589979215</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="8"/>
+        <v>0.966177599074314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -3864,48 +4263,55 @@
         <v>53.786900000000003</v>
       </c>
       <c r="F57">
+        <v>46.625700000000002</v>
+      </c>
+      <c r="G57">
         <v>46.281700000000001</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>47.267099999999999</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>49.970700000000001</v>
       </c>
-      <c r="I57" s="3">
-        <f t="shared" si="0"/>
+      <c r="J57" s="3">
+        <f t="shared" si="4"/>
         <v>1.0059688921331911</v>
       </c>
-      <c r="J57" s="3">
-        <f t="shared" si="1"/>
+      <c r="K57" s="3">
+        <f t="shared" si="5"/>
         <v>1.0067362943829898</v>
       </c>
-      <c r="K57" s="3">
-        <f t="shared" si="2"/>
+      <c r="L57" s="3">
+        <f t="shared" si="6"/>
         <v>0.98676699047298178</v>
       </c>
-      <c r="L57" s="8">
-        <f>$F57/$D57</f>
+      <c r="M57" s="8">
+        <f t="shared" si="9"/>
         <v>0.86626050498811469</v>
       </c>
-      <c r="M57">
-        <f>$G57/$F57</f>
+      <c r="N57">
+        <f t="shared" si="10"/>
         <v>1.021291352737691</v>
       </c>
-      <c r="N57">
-        <f>$F57/$B57</f>
+      <c r="O57">
+        <f t="shared" si="11"/>
         <v>0.86112056919690616</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="3"/>
+      <c r="P57">
+        <f t="shared" si="7"/>
         <v>0.93530799034196199</v>
       </c>
-      <c r="P57">
-        <f>$F57/$H57</f>
+      <c r="Q57">
+        <f t="shared" si="12"/>
         <v>0.92617673956938762</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="8"/>
+        <v>0.87269919703520693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -3922,48 +4328,55 @@
         <v>43.555500000000002</v>
       </c>
       <c r="F58">
+        <v>43.248899999999999</v>
+      </c>
+      <c r="G58">
         <v>43.688000000000002</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>30.308199999999999</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>44.315600000000003</v>
       </c>
-      <c r="I58" s="3">
-        <f t="shared" si="0"/>
+      <c r="J58" s="3">
+        <f t="shared" si="4"/>
         <v>0.70050990937588564</v>
       </c>
-      <c r="J58" s="3">
-        <f t="shared" si="1"/>
+      <c r="K58" s="3">
+        <f t="shared" si="5"/>
         <v>0.94227228771263349</v>
       </c>
-      <c r="K58" s="3">
-        <f t="shared" si="2"/>
+      <c r="L58" s="3">
+        <f t="shared" si="6"/>
         <v>0.94581158231996865</v>
       </c>
-      <c r="L58" s="8">
-        <f>$F58/$D58</f>
+      <c r="M58" s="8">
+        <f t="shared" si="9"/>
         <v>0.94513877020329318</v>
       </c>
-      <c r="M58">
-        <f>$G58/$F58</f>
+      <c r="N58">
+        <f t="shared" si="10"/>
         <v>0.69374198864676795</v>
       </c>
-      <c r="N58">
-        <f>$F58/$B58</f>
+      <c r="O58">
+        <f t="shared" si="11"/>
         <v>1.3492154180165101</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="3"/>
+      <c r="P58">
+        <f t="shared" si="7"/>
         <v>0.9587161619854665</v>
       </c>
-      <c r="P58">
-        <f>$F58/$H58</f>
+      <c r="Q58">
+        <f t="shared" si="12"/>
         <v>0.98583794420023652</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="8"/>
+        <v>0.93563935539839782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3980,48 +4393,55 @@
         <v>61.6021</v>
       </c>
       <c r="F59">
+        <v>59.760899999999999</v>
+      </c>
+      <c r="G59">
         <v>59.714100000000002</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>58.330199999999998</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>58.236600000000003</v>
       </c>
-      <c r="I59" s="3">
-        <f t="shared" si="0"/>
+      <c r="J59" s="3">
+        <f t="shared" si="4"/>
         <v>0.98685634513540688</v>
       </c>
-      <c r="J59" s="3">
-        <f t="shared" si="1"/>
+      <c r="K59" s="3">
+        <f t="shared" si="5"/>
         <v>0.98620796752028383</v>
       </c>
-      <c r="K59" s="3">
-        <f t="shared" si="2"/>
+      <c r="L59" s="3">
+        <f t="shared" si="6"/>
         <v>0.95084817397652388</v>
       </c>
-      <c r="L59" s="8">
-        <f>$F59/$D59</f>
+      <c r="M59" s="8">
+        <f t="shared" si="9"/>
         <v>0.95598236412886872</v>
       </c>
-      <c r="M59">
-        <f>$G59/$F59</f>
+      <c r="N59">
+        <f t="shared" si="10"/>
         <v>0.97682456907162618</v>
       </c>
-      <c r="N59">
-        <f>$F59/$B59</f>
+      <c r="O59">
+        <f t="shared" si="11"/>
         <v>0.96871481735033893</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="3"/>
+      <c r="P59">
+        <f t="shared" si="7"/>
         <v>0.93232858816975006</v>
       </c>
-      <c r="P59">
-        <f>$F59/$H59</f>
+      <c r="Q59">
+        <f t="shared" si="12"/>
         <v>1.0253706432037584</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="8"/>
+        <v>0.95673160048412198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4038,48 +4458,55 @@
         <v>44.107599999999998</v>
       </c>
       <c r="F60">
+        <v>42.438200000000002</v>
+      </c>
+      <c r="G60">
         <v>46.491</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>60.787700000000001</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>47.645800000000001</v>
       </c>
-      <c r="I60" s="3">
-        <f t="shared" si="0"/>
+      <c r="J60" s="3">
+        <f t="shared" si="4"/>
         <v>1.0235625134690407</v>
       </c>
-      <c r="J60" s="3">
-        <f t="shared" si="1"/>
+      <c r="K60" s="3">
+        <f t="shared" si="5"/>
         <v>0.88835449105655684</v>
       </c>
-      <c r="K60" s="3">
-        <f t="shared" si="2"/>
+      <c r="L60" s="3">
+        <f t="shared" si="6"/>
         <v>0.8862256273300182</v>
       </c>
-      <c r="L60" s="8">
-        <f>$F60/$D60</f>
+      <c r="M60" s="8">
+        <f t="shared" si="9"/>
         <v>0.93635764910605845</v>
       </c>
-      <c r="M60">
-        <f>$G60/$F60</f>
+      <c r="N60">
+        <f t="shared" si="10"/>
         <v>1.3075154330945775</v>
       </c>
-      <c r="N60">
-        <f>$F60/$B60</f>
+      <c r="O60">
+        <f t="shared" si="11"/>
         <v>0.91480260051002737</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="3"/>
+      <c r="P60">
+        <f t="shared" si="7"/>
         <v>0.95961603918559379</v>
       </c>
-      <c r="P60">
-        <f>$F60/$H60</f>
+      <c r="Q60">
+        <f t="shared" si="12"/>
         <v>0.97576281644971852</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="8"/>
+        <v>0.85473173698764782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -4096,48 +4523,55 @@
         <v>138.21700000000001</v>
       </c>
       <c r="F61">
+        <v>142.09399999999999</v>
+      </c>
+      <c r="G61">
         <v>129.75200000000001</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>130.857</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>131.083</v>
       </c>
-      <c r="I61" s="3">
-        <f t="shared" si="0"/>
+      <c r="J61" s="3">
+        <f t="shared" si="4"/>
         <v>0.91075334801285068</v>
       </c>
-      <c r="J61" s="3">
-        <f t="shared" si="1"/>
+      <c r="K61" s="3">
+        <f t="shared" si="5"/>
         <v>0.99784860845395829</v>
       </c>
-      <c r="K61" s="3">
-        <f t="shared" si="2"/>
+      <c r="L61" s="3">
+        <f t="shared" si="6"/>
         <v>1.0389993863480491</v>
       </c>
-      <c r="L61" s="8">
-        <f>$F61/$D61</f>
+      <c r="M61" s="8">
+        <f t="shared" si="9"/>
         <v>0.93673609356387411</v>
       </c>
-      <c r="M61">
-        <f>$G61/$F61</f>
+      <c r="N61">
+        <f t="shared" si="10"/>
         <v>1.0085162463777051</v>
       </c>
-      <c r="N61">
-        <f>$F61/$B61</f>
+      <c r="O61">
+        <f t="shared" si="11"/>
         <v>1.0285288498886274</v>
       </c>
-      <c r="O61">
-        <f t="shared" si="3"/>
+      <c r="P61">
+        <f t="shared" si="7"/>
         <v>0.94634516117388012</v>
       </c>
-      <c r="P61">
-        <f>$F61/$H61</f>
+      <c r="Q61">
+        <f t="shared" si="12"/>
         <v>0.98984612802575478</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="8"/>
+        <v>1.0258383568566583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -4154,48 +4588,55 @@
         <v>78.374899999999997</v>
       </c>
       <c r="F62">
+        <v>73.842600000000004</v>
+      </c>
+      <c r="G62">
         <v>75.327600000000004</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>71.935699999999997</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>78.266300000000001</v>
       </c>
-      <c r="I62" s="3">
-        <f t="shared" si="0"/>
+      <c r="J62" s="3">
+        <f t="shared" si="4"/>
         <v>1.0326251460505578</v>
       </c>
-      <c r="J62" s="3">
-        <f t="shared" si="1"/>
+      <c r="K62" s="3">
+        <f t="shared" si="5"/>
         <v>1.0243130069293964</v>
       </c>
-      <c r="K62" s="3">
-        <f t="shared" si="2"/>
+      <c r="L62" s="3">
+        <f t="shared" si="6"/>
         <v>1.0244005719169937</v>
       </c>
-      <c r="L62" s="8">
-        <f>$F62/$D62</f>
+      <c r="M62" s="8">
+        <f t="shared" si="9"/>
         <v>0.98448662085405925</v>
       </c>
-      <c r="M62">
-        <f>$G62/$F62</f>
+      <c r="N62">
+        <f t="shared" si="10"/>
         <v>0.95497135180199544</v>
       </c>
-      <c r="N62">
-        <f>$F62/$B62</f>
+      <c r="O62">
+        <f t="shared" si="11"/>
         <v>0.95338238141825993</v>
       </c>
-      <c r="O62">
-        <f t="shared" si="3"/>
+      <c r="P62">
+        <f t="shared" si="7"/>
         <v>1.0228936699662547</v>
       </c>
-      <c r="P62">
-        <f>$F62/$H62</f>
+      <c r="Q62">
+        <f t="shared" si="12"/>
         <v>0.96245254982029305</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="8"/>
+        <v>0.96507856017021587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -4212,48 +4653,55 @@
         <v>111.947</v>
       </c>
       <c r="F63">
+        <v>114.49</v>
+      </c>
+      <c r="G63">
         <v>106.705</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>97.943100000000001</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>111.607</v>
       </c>
-      <c r="I63" s="3">
-        <f t="shared" si="0"/>
+      <c r="J63" s="3">
+        <f t="shared" si="4"/>
         <v>0.9679100069645864</v>
       </c>
-      <c r="J63" s="3">
-        <f t="shared" si="1"/>
+      <c r="K63" s="3">
+        <f t="shared" si="5"/>
         <v>0.98691715668556224</v>
       </c>
-      <c r="K63" s="3">
-        <f t="shared" si="2"/>
+      <c r="L63" s="3">
+        <f t="shared" si="6"/>
         <v>1.0566071003517556</v>
       </c>
-      <c r="L63" s="8">
-        <f>$F63/$D63</f>
+      <c r="M63" s="8">
+        <f t="shared" si="9"/>
         <v>0.94070404034170552</v>
       </c>
-      <c r="M63">
-        <f>$G63/$F63</f>
+      <c r="N63">
+        <f t="shared" si="10"/>
         <v>0.91788669696827707</v>
       </c>
-      <c r="N63">
-        <f>$F63/$B63</f>
+      <c r="O63">
+        <f t="shared" si="11"/>
         <v>0.97189204943938945</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="3"/>
+      <c r="P63">
+        <f t="shared" si="7"/>
         <v>0.98391973975368285</v>
       </c>
-      <c r="P63">
-        <f>$F63/$H63</f>
+      <c r="Q63">
+        <f t="shared" si="12"/>
         <v>0.95607802377987039</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="8"/>
+        <v>1.0093360721495888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -4270,48 +4718,55 @@
         <v>74.3947</v>
       </c>
       <c r="F64">
+        <v>59.258899999999997</v>
+      </c>
+      <c r="G64">
         <v>59.088000000000001</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>62.902999999999999</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>62.314599999999999</v>
       </c>
-      <c r="I64" s="3">
-        <f t="shared" si="0"/>
+      <c r="J64" s="3">
+        <f t="shared" si="4"/>
         <v>0.95530477264882219</v>
       </c>
-      <c r="J64" s="3">
-        <f t="shared" si="1"/>
+      <c r="K64" s="3">
+        <f t="shared" si="5"/>
         <v>0.98389940234433382</v>
       </c>
-      <c r="K64" s="3">
-        <f t="shared" si="2"/>
+      <c r="L64" s="3">
+        <f t="shared" si="6"/>
         <v>0.98581179467307478</v>
       </c>
-      <c r="L64" s="8">
-        <f>$F64/$D64</f>
+      <c r="M64" s="8">
+        <f t="shared" si="9"/>
         <v>0.78146222628388851</v>
       </c>
-      <c r="M64">
-        <f>$G64/$F64</f>
+      <c r="N64">
+        <f t="shared" si="10"/>
         <v>1.064564717032223</v>
       </c>
-      <c r="N64">
-        <f>$F64/$B64</f>
+      <c r="O64">
+        <f t="shared" si="11"/>
         <v>0.81802399470599141</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="3"/>
+      <c r="P64">
+        <f t="shared" si="7"/>
         <v>0.82413529051567147</v>
       </c>
-      <c r="P64">
-        <f>$F64/$H64</f>
+      <c r="Q64">
+        <f t="shared" si="12"/>
         <v>0.9482208021876094</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="8"/>
+        <v>0.78372244653964107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -4328,48 +4783,55 @@
         <v>52.466099999999997</v>
       </c>
       <c r="F65">
+        <v>54.392600000000002</v>
+      </c>
+      <c r="G65">
         <v>54.691400000000002</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>69.380600000000001</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>53.130600000000001</v>
       </c>
-      <c r="I65" s="3">
-        <f t="shared" si="0"/>
+      <c r="J65" s="3">
+        <f t="shared" si="4"/>
         <v>0.98694888469390252</v>
       </c>
-      <c r="J65" s="3">
-        <f t="shared" si="1"/>
+      <c r="K65" s="3">
+        <f t="shared" si="5"/>
         <v>0.98354082269641818</v>
       </c>
-      <c r="K65" s="3">
-        <f t="shared" si="2"/>
+      <c r="L65" s="3">
+        <f t="shared" si="6"/>
         <v>1.0863900600066363</v>
       </c>
-      <c r="L65" s="8">
-        <f>$F65/$D65</f>
+      <c r="M65" s="8">
+        <f t="shared" si="9"/>
         <v>1.0252567762882869</v>
       </c>
-      <c r="M65">
-        <f>$G65/$F65</f>
+      <c r="N65">
+        <f t="shared" si="10"/>
         <v>1.2685833604552086</v>
       </c>
-      <c r="N65">
-        <f>$F65/$B65</f>
+      <c r="O65">
+        <f t="shared" si="11"/>
         <v>1.0388144636348269</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="3"/>
+      <c r="P65">
+        <f t="shared" si="7"/>
         <v>0.99599768296775093</v>
       </c>
-      <c r="P65">
-        <f>$F65/$H65</f>
+      <c r="Q65">
+        <f t="shared" si="12"/>
         <v>1.0293766680594609</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <f t="shared" si="8"/>
+        <v>1.0196554070646988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -4386,45 +4848,52 @@
         <v>180.61099999999999</v>
       </c>
       <c r="F66">
+        <v>172.40799999999999</v>
+      </c>
+      <c r="G66">
         <v>163.88200000000001</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>134.28399999999999</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>120.81399999999999</v>
       </c>
-      <c r="I66" s="3">
-        <f t="shared" si="0"/>
+      <c r="J66" s="3">
+        <f t="shared" si="4"/>
         <v>0.84772406167455006</v>
       </c>
-      <c r="J66" s="3">
-        <f t="shared" si="1"/>
+      <c r="K66" s="3">
+        <f t="shared" si="5"/>
         <v>1.1094723263099699</v>
       </c>
-      <c r="K66" s="3">
-        <f t="shared" si="2"/>
+      <c r="L66" s="3">
+        <f t="shared" si="6"/>
         <v>1.0712205909453898</v>
       </c>
-      <c r="L66" s="8">
-        <f>$F66/$D66</f>
+      <c r="M66" s="8">
+        <f t="shared" si="9"/>
         <v>1.0067080287486947</v>
       </c>
-      <c r="M66">
-        <f>$G66/$F66</f>
+      <c r="N66">
+        <f t="shared" si="10"/>
         <v>0.81939444234266112</v>
       </c>
-      <c r="N66">
-        <f>$F66/$B66</f>
+      <c r="O66">
+        <f t="shared" si="11"/>
         <v>1.1875421192600053</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="3"/>
+      <c r="P66">
+        <f t="shared" si="7"/>
         <v>0.74214632348424348</v>
       </c>
-      <c r="P66">
-        <f>$F66/$H66</f>
+      <c r="Q66">
+        <f t="shared" si="12"/>
         <v>1.3564818646845564</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="8"/>
+        <v>1.0590822532096567</v>
       </c>
     </row>
   </sheetData>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28890" windowHeight="22185"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Latest" sheetId="2" r:id="rId1"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -222,6 +223,18 @@
   </si>
   <si>
     <t>RF/R</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>Sora</t>
+  </si>
+  <si>
+    <t>Dimitrios improvement</t>
   </si>
 </sst>
 </file>
@@ -269,12 +282,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +330,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +611,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1026.9000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>857.66200000000003</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>910.08399999999995</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>824.77599999999995</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>249.89099999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>604.94600000000003</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>170.935</v>
+      </c>
+      <c r="J4" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>170.935</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>169.851</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2480.34</v>
+      </c>
+      <c r="J5" s="11">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>953.625</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>768.14400000000001</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11">
+        <v>768.14400000000001</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>997.34699999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>896.78899999999999</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11">
+        <v>686.92200000000003</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>536.22500000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>494.98599999999999</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>824.77599999999995</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2480.34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1919.2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1054.8699999999999</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>306.56599999999997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>828.97400000000005</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11">
+        <v>828.97400000000005</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>770.36300000000006</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>681.31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>604.94600000000003</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>241.27799999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>560.57299999999998</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11">
+        <v>582.63499999999999</v>
+      </c>
+      <c r="J12" s="11">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1379.22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1054.8699999999999</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="11">
+        <v>560.57299999999998</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>212.96600000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>582.63499999999999</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11">
+        <v>896.78899999999999</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>744.82899999999995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>686.92200000000003</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="11">
+        <v>494.98599999999999</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2618.14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>1769.82</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="11">
+        <v>681.31</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2383.79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1768.22</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>857.66200000000003</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>212.501</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>435.00200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>136.54400000000001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>186.69800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4121.84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>135.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2364.96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>2247.8000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1363.36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>1551.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>455.56400000000002</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>1072.3499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2294.5300000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1533.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>651.19399999999996</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>594.31100000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>386.572</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>378.37400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>989.61900000000003</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>846.99099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>266.94400000000002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>273.411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1728.88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>2428.9499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3583.72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>1422.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1663.4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>1184.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>110.874</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>103.411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>55.372700000000002</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>70.231899999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>55.615299999999998</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>84.501000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33.146000000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>33.253700000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>58.844900000000003</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>43.761899999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>246.94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>45.582099999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>106.59699999999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>89.675399999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>31.505099999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <v>244.423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>36.017499999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>32.216700000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>44.649500000000003</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>56.3005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>43.687600000000003</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>60.924700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>54.224299999999999</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43">
+        <v>118.709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>85.205200000000005</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>88.686099999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>55.345500000000001</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <v>86.8934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>70.168000000000006</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>55.537399999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>46.150300000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>74.250200000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>64.407399999999996</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48">
+        <v>113.651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>118.669</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>94.463399999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>49.496499999999997</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <v>87.181100000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>46.815600000000003</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>91.125200000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>42.840400000000002</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>39.855800000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>49.731000000000002</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>58.918700000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>217.971</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54">
+        <v>45.864199999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>163.93</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>99.062700000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>39.912399999999998</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <v>219.291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>46.281700000000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>38.817599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58">
+        <v>43.688000000000002</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>68.524900000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>59.714100000000002</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59">
+        <v>76.8078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>46.491</v>
+      </c>
+      <c r="D60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60">
+        <v>182.33600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61">
+        <v>129.75200000000001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61">
+        <v>105.11199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>75.327600000000004</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62">
+        <v>142.79300000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63">
+        <v>106.705</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63">
+        <v>74.880200000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>59.088000000000001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <v>113.354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65">
+        <v>54.691400000000002</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <v>167.631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>163.88200000000001</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66">
+        <v>102.173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -228,13 +228,145 @@
     <t>Release</t>
   </si>
   <si>
-    <t>Us</t>
-  </si>
-  <si>
     <t>Sora</t>
   </si>
   <si>
-    <t>Dimitrios improvement</t>
+    <t>Optimized(1)</t>
+  </si>
+  <si>
+    <t>Optimized(avg)</t>
+  </si>
+  <si>
+    <t>Optimized(2)</t>
+  </si>
+  <si>
+    <t>Optimized(3)</t>
+  </si>
+  <si>
+    <t>Relative impr.</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>DownSample2</t>
+  </si>
+  <si>
+    <t>RemoveDC</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>DataSymbol</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>ChannelEqualization</t>
+  </si>
+  <si>
+    <t>PilotTrack</t>
+  </si>
+  <si>
+    <t>DemapBPSK</t>
+  </si>
+  <si>
+    <t>DeinterleaveBPSK</t>
+  </si>
+  <si>
+    <t>Viterbi</t>
+  </si>
+  <si>
+    <t>DemapQAM64</t>
+  </si>
+  <si>
+    <t>DeinterleaveQAM64</t>
+  </si>
+  <si>
+    <t>DemapQPSK</t>
+  </si>
+  <si>
+    <t>DeinterleaveQPSK</t>
+  </si>
+  <si>
+    <t>DemapQAM16</t>
+  </si>
+  <si>
+    <t>DeinterleaveQAM16</t>
+  </si>
+  <si>
+    <t>IFFTx</t>
+  </si>
+  <si>
+    <t>AddPilot</t>
+  </si>
+  <si>
+    <t>Map11aBPSK</t>
+  </si>
+  <si>
+    <t>Map11aQPSK</t>
+  </si>
+  <si>
+    <t>Map11aQAM16</t>
+  </si>
+  <si>
+    <t>Map11aQAM64</t>
+  </si>
+  <si>
+    <t>InterleaveBPSK</t>
+  </si>
+  <si>
+    <t>InterleaveQPSK</t>
+  </si>
+  <si>
+    <t>InterleaveQAM16</t>
+  </si>
+  <si>
+    <t>InterleaveQAM64</t>
+  </si>
+  <si>
+    <t>Scrambler</t>
+  </si>
+  <si>
+    <t>ConvEncode12</t>
+  </si>
+  <si>
+    <t>ConvEncode23</t>
+  </si>
+  <si>
+    <t>ConvEncode34</t>
+  </si>
+  <si>
+    <t>RX6Mbps</t>
+  </si>
+  <si>
+    <t>RX12Mbps</t>
+  </si>
+  <si>
+    <t>RX24Mbps</t>
+  </si>
+  <si>
+    <t>RX48Mbps</t>
+  </si>
+  <si>
+    <t>RXCCA</t>
+  </si>
+  <si>
+    <t>TX6Mbps</t>
+  </si>
+  <si>
+    <t>TX12Mbps</t>
+  </si>
+  <si>
+    <t>TX24Mbps</t>
+  </si>
+  <si>
+    <t>TX48Mbps</t>
+  </si>
+  <si>
+    <t>Sora name</t>
   </si>
 </sst>
 </file>
@@ -282,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,7 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +481,12 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,1078 +769,2091 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="G1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1026.9000000000001</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+        <v>997.34699999999998</v>
+      </c>
+      <c r="C2">
+        <v>1957.7</v>
+      </c>
+      <c r="D2">
+        <v>1627.49</v>
       </c>
       <c r="E2">
-        <v>857.66200000000003</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>68</v>
+        <v>1634.34</v>
+      </c>
+      <c r="F2" s="15">
+        <f>AVERAGE($C2, $D2, $E2)</f>
+        <v>1739.8433333333332</v>
+      </c>
+      <c r="G2" s="15">
+        <f>$F2/$B2</f>
+        <v>1.7444714159999812</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2">
+        <v>3062</v>
+      </c>
+      <c r="J2" s="15">
+        <f>$F2/$I2</f>
+        <v>0.56820487698671884</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>910.08399999999995</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
+        <v>536.22500000000002</v>
+      </c>
+      <c r="C3">
+        <v>1834.48</v>
+      </c>
+      <c r="D3">
+        <v>2106.7600000000002</v>
       </c>
       <c r="E3">
-        <v>824.77599999999995</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+        <v>2102.1</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F66" si="0">AVERAGE($C3, $D3, $E3)</f>
+        <v>2014.4466666666667</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G66" si="1">$F3/$B3</f>
+        <v>3.7567190389606351</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3">
+        <v>2589</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J48" si="2">$F3/$I3</f>
+        <v>0.77807905240118447</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>249.89099999999999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
+        <v>770.36300000000006</v>
+      </c>
+      <c r="C4">
+        <v>1575.45</v>
+      </c>
+      <c r="D4">
+        <v>4242.5200000000004</v>
       </c>
       <c r="E4">
-        <v>604.94600000000003</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>170.935</v>
-      </c>
-      <c r="J4" s="11">
-        <v>207</v>
+        <v>4261.12</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>3359.6966666666667</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" si="1"/>
+        <v>4.3611864363510016</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4">
+        <v>3722</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="2"/>
+        <v>0.90265896471431128</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>170.935</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
+      <c r="C5">
+        <v>172.941</v>
+      </c>
+      <c r="D5">
+        <v>172.92099999999999</v>
       </c>
       <c r="E5">
-        <v>169.851</v>
-      </c>
-      <c r="H5" s="11" t="s">
+        <v>172.89599999999999</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>172.9193333333333</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.01160870116321</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>207</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="2"/>
+        <v>0.83535909822866328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>212.96600000000001</v>
+      </c>
+      <c r="C6">
+        <v>6857.91</v>
+      </c>
+      <c r="D6">
+        <v>1961.7</v>
+      </c>
+      <c r="E6">
+        <v>1950.98</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>3590.1966666666667</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="1"/>
+        <v>16.858074371808957</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6">
+        <v>2026</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7720615333991445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>241.27799999999999</v>
+      </c>
+      <c r="C7">
+        <v>2667.21</v>
+      </c>
+      <c r="D7">
+        <v>1961.02</v>
+      </c>
+      <c r="E7">
+        <v>1957.97</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>2195.4</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="1"/>
+        <v>9.099047571680801</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <v>1423</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5427969079409698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>306.56599999999997</v>
+      </c>
+      <c r="C8">
+        <v>3557.93</v>
+      </c>
+      <c r="D8">
+        <v>1838.24</v>
+      </c>
+      <c r="E8">
+        <v>1837.99</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>2411.3866666666668</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="1"/>
+        <v>7.8657994254635772</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>4888</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.49332787779596293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>249.89099999999999</v>
+      </c>
+      <c r="C9">
+        <v>3992.13</v>
+      </c>
+      <c r="D9">
+        <v>2987.68</v>
+      </c>
+      <c r="E9">
+        <v>2976.7</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>3318.8366666666661</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="1"/>
+        <v>13.281137242504396</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9">
+        <v>3805</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.8722303985983354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11">
+      <c r="B10">
         <v>2480.34</v>
       </c>
-      <c r="J5" s="11">
+      <c r="C10">
+        <v>3014.32</v>
+      </c>
+      <c r="D10">
+        <v>3754.18</v>
+      </c>
+      <c r="E10">
+        <v>3493.83</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>3420.7766666666666</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3791563522205288</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10">
         <v>759</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J10" s="15">
+        <f t="shared" si="2"/>
+        <v>4.5069521299956081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>910.08399999999995</v>
+      </c>
+      <c r="C11">
+        <v>2096.92</v>
+      </c>
+      <c r="D11">
+        <v>1576.82</v>
+      </c>
+      <c r="E11">
+        <v>1571.2</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>1748.3133333333333</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="1"/>
+        <v>1.9210461158896688</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11">
+        <v>2923</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.59812293305964193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1379.22</v>
+      </c>
+      <c r="C12">
+        <v>3133.38</v>
+      </c>
+      <c r="D12">
+        <v>2668.65</v>
+      </c>
+      <c r="E12">
+        <v>2681.47</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>2827.8333333333335</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0503134621984409</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>2796</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0113853123509777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B13">
         <v>953.625</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>768.14400000000001</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11">
-        <v>768.14400000000001</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="C13">
+        <v>1945.87</v>
+      </c>
+      <c r="D13">
+        <v>3128.34</v>
+      </c>
+      <c r="E13">
+        <v>3136.92</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>2737.0433333333335</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8701463713024862</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13">
         <v>2870</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>997.34699999999998</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>896.78899999999999</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="J13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.95367363530778171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="11">
-        <v>686.92200000000003</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="B14">
+        <v>744.82899999999995</v>
+      </c>
+      <c r="C14">
+        <v>1954.57</v>
+      </c>
+      <c r="D14">
+        <v>6243.68</v>
+      </c>
+      <c r="E14">
+        <v>6352.11</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>4850.12</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="1"/>
+        <v>6.5117228249705637</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14">
         <v>3788</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>536.22500000000002</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>494.98599999999999</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>824.77599999999995</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2480.34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>1919.2</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1054.8699999999999</v>
-      </c>
-      <c r="J9" s="11">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>306.56599999999997</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>828.97400000000005</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="11">
-        <v>828.97400000000005</v>
-      </c>
-      <c r="J10" s="11">
-        <v>4888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>770.36300000000006</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>681.31</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="11">
-        <v>604.94600000000003</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>241.27799999999999</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>560.57299999999998</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11">
-        <v>582.63499999999999</v>
-      </c>
-      <c r="J12" s="11">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1379.22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1054.8699999999999</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="11">
-        <v>560.57299999999998</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>212.96600000000001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>582.63499999999999</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="11">
-        <v>896.78899999999999</v>
-      </c>
-      <c r="J14" s="11">
-        <v>3062</v>
+      <c r="J14" s="15">
+        <f t="shared" si="2"/>
+        <v>1.2803907074973599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>744.82899999999995</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
+        <v>1026.9000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1634.28</v>
+      </c>
+      <c r="D15">
+        <v>1965.93</v>
       </c>
       <c r="E15">
-        <v>686.92200000000003</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="11">
-        <v>494.98599999999999</v>
-      </c>
-      <c r="J15" s="11">
-        <v>2589</v>
+        <v>1968.38</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>1856.1966666666667</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8075729541987209</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>3781</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.49092744423873758</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>136.54400000000001</v>
+      </c>
+      <c r="C16">
+        <v>145.411</v>
+      </c>
+      <c r="D16">
+        <v>145.84399999999999</v>
+      </c>
+      <c r="E16">
+        <v>145.13300000000001</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>145.46266666666668</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0653171627216624</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>193</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.75369257340241802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1363.36</v>
+      </c>
+      <c r="C17">
+        <v>1191.43</v>
+      </c>
+      <c r="D17">
+        <v>1259.1600000000001</v>
+      </c>
+      <c r="E17">
+        <v>1147.29</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>1199.2933333333333</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.8796600555490357</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <v>1680</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.71386507936507937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>3583.72</v>
+      </c>
+      <c r="C18">
+        <v>1942.43</v>
+      </c>
+      <c r="D18">
+        <v>2121.48</v>
+      </c>
+      <c r="E18">
+        <v>2084.9</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>2049.603333333333</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.571920611357286</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>4775</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.42923630017452002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2294.5300000000002</v>
+      </c>
+      <c r="C19">
+        <v>1408.71</v>
+      </c>
+      <c r="D19">
+        <v>1454.52</v>
+      </c>
+      <c r="E19">
+        <v>1586.47</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>1483.2333333333333</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.6464214167316763</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19">
+        <v>2943</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="2"/>
+        <v>0.50398686147921623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2364.96</v>
+      </c>
+      <c r="C20">
+        <v>1754.05</v>
+      </c>
+      <c r="D20">
+        <v>2012.44</v>
+      </c>
+      <c r="E20">
+        <v>1527.3</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>1764.5966666666666</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.74614228852355502</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20">
+        <v>3312</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="2"/>
+        <v>0.53278884863123988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>2618.14</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>1769.82</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="11">
-        <v>681.31</v>
-      </c>
-      <c r="J16" s="11">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C21">
+        <v>1751.87</v>
+      </c>
+      <c r="D21">
+        <v>1999.2</v>
+      </c>
+      <c r="E21">
+        <v>1733.4</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>1828.1566666666665</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.69826543525810947</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>3365</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="2"/>
+        <v>0.54328578504210001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>2383.79</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>1768.22</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>857.66200000000003</v>
-      </c>
-      <c r="J17" s="11">
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C22">
+        <v>1860.26</v>
+      </c>
+      <c r="D22">
+        <v>1924.48</v>
+      </c>
+      <c r="E22">
+        <v>1579.4</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>1788.0466666666664</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.75008564792480314</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>3121</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.57290825590088634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1728.88</v>
+      </c>
+      <c r="C23">
+        <v>1331.04</v>
+      </c>
+      <c r="D23">
+        <v>1337.76</v>
+      </c>
+      <c r="E23">
+        <v>1320.34</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>1329.7133333333334</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.76911835022288033</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>866</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5354657428791378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>651.19399999999996</v>
+      </c>
+      <c r="C24">
+        <v>586.66899999999998</v>
+      </c>
+      <c r="D24">
+        <v>560.35</v>
+      </c>
+      <c r="E24">
+        <v>665.57100000000003</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>604.19666666666672</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.92782898286327387</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24">
+        <v>633</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="2"/>
+        <v>0.95449710373881003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>455.56400000000002</v>
+      </c>
+      <c r="C25">
+        <v>414.69900000000001</v>
+      </c>
+      <c r="D25">
+        <v>417.64299999999997</v>
+      </c>
+      <c r="E25">
+        <v>460.505</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>430.94900000000001</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.94596807473812683</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25">
+        <v>522</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="2"/>
+        <v>0.82557279693486596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>989.61900000000003</v>
+      </c>
+      <c r="C26">
+        <v>928.30700000000002</v>
+      </c>
+      <c r="D26">
+        <v>847.37900000000002</v>
+      </c>
+      <c r="E26">
+        <v>865.83799999999997</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="0"/>
+        <v>880.50800000000015</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.88974443700050232</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>761</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1570407358738504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>4121.84</v>
+      </c>
+      <c r="C27">
+        <v>3288.07</v>
+      </c>
+      <c r="D27">
+        <v>2406.33</v>
+      </c>
+      <c r="E27">
+        <v>2604.64</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="0"/>
+        <v>2766.3466666666664</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.67114363164670787</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27">
+        <v>1139</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="2"/>
+        <v>2.4287503658179688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>386.572</v>
+      </c>
+      <c r="C28">
+        <v>375.94299999999998</v>
+      </c>
+      <c r="D28">
+        <v>368.53500000000003</v>
+      </c>
+      <c r="E28">
+        <v>400.726</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="0"/>
+        <v>381.73466666666673</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98748659154482665</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28">
+        <v>465</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="2"/>
+        <v>0.82093476702508972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B29">
         <v>212.501</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>435.00200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>136.54400000000001</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>186.69800000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>4121.84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>135.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>2364.96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>2247.8000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1363.36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>1551.83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>455.56400000000002</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>1072.3499999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>2294.5300000000002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1533.93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>651.19399999999996</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>594.31100000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>386.572</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>378.37400000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>989.61900000000003</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>846.99099999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C29">
+        <v>190.149</v>
+      </c>
+      <c r="D29">
+        <v>188.38399999999999</v>
+      </c>
+      <c r="E29">
+        <v>189.374</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="0"/>
+        <v>189.30233333333334</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.8908303176612502</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29">
+        <v>364</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.52006135531135533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>266.94400000000002</v>
       </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>273.411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1728.88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <v>2428.9499999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3583.72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
+      <c r="C30">
+        <v>273.05500000000001</v>
+      </c>
+      <c r="D30">
+        <v>274.82600000000002</v>
       </c>
       <c r="E30">
-        <v>1422.8</v>
+        <v>273.529</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="0"/>
+        <v>273.80333333333334</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0256957763925516</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>435</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="2"/>
+        <v>0.62943295019157086</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>1663.4</v>
       </c>
-      <c r="D31" t="s">
-        <v>29</v>
+      <c r="C31">
+        <v>1291.3900000000001</v>
+      </c>
+      <c r="D31">
+        <v>1131.3399999999999</v>
       </c>
       <c r="E31">
-        <v>1184.29</v>
+        <v>1627.39</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="0"/>
+        <v>1350.04</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="1"/>
+        <v>0.81161476493928097</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31">
+        <v>644</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0963354037267079</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>110.874</v>
       </c>
-      <c r="D32" t="s">
-        <v>30</v>
+      <c r="C32">
+        <v>112.58799999999999</v>
+      </c>
+      <c r="D32">
+        <v>106.004</v>
       </c>
       <c r="E32">
-        <v>103.411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <v>111.54900000000001</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="0"/>
+        <v>110.04699999999998</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99254108267041852</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32">
+        <v>165</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.66695151515151507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>118.669</v>
+      </c>
+      <c r="C33">
+        <v>129.18700000000001</v>
+      </c>
+      <c r="D33">
+        <v>128.899</v>
+      </c>
+      <c r="E33">
+        <v>119.86499999999999</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="0"/>
+        <v>125.98366666666668</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0616392374307249</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33">
+        <v>164</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76819308943089437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>106.59699999999999</v>
+      </c>
+      <c r="C34">
+        <v>115.93600000000001</v>
+      </c>
+      <c r="D34">
+        <v>108.471</v>
+      </c>
+      <c r="E34">
+        <v>108.1</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="0"/>
+        <v>110.83566666666667</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0397634705166814</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>85.205200000000005</v>
+      </c>
+      <c r="C35">
+        <v>91.269400000000005</v>
+      </c>
+      <c r="D35">
+        <v>91.033199999999994</v>
+      </c>
+      <c r="E35">
+        <v>91.206000000000003</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
+        <v>91.169533333333334</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0699996400845644</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35">
+        <v>125</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="2"/>
+        <v>0.72935626666666664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>70.168000000000006</v>
+      </c>
+      <c r="C36">
+        <v>79.088700000000003</v>
+      </c>
+      <c r="D36">
+        <v>79.164599999999993</v>
+      </c>
+      <c r="E36">
+        <v>78.892499999999998</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="0"/>
+        <v>79.048600000000008</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1265619655683503</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>55.345500000000001</v>
+      </c>
+      <c r="C37">
+        <v>56.942999999999998</v>
+      </c>
+      <c r="D37">
+        <v>58.885100000000001</v>
+      </c>
+      <c r="E37">
+        <v>56.840800000000002</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="0"/>
+        <v>57.5563</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="1"/>
+        <v>1.039945433684762</v>
+      </c>
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37">
+        <v>81</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="2"/>
+        <v>0.71057160493827165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>43.687600000000003</v>
+      </c>
+      <c r="C38">
+        <v>48.405200000000001</v>
+      </c>
+      <c r="D38">
+        <v>48.880299999999998</v>
+      </c>
+      <c r="E38">
+        <v>48.8964</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="0"/>
+        <v>48.727299999999993</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1153576758622581</v>
+      </c>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>33.146000000000001</v>
+      </c>
+      <c r="C39">
+        <v>36.984200000000001</v>
+      </c>
+      <c r="D39">
+        <v>36.743400000000001</v>
+      </c>
+      <c r="E39">
+        <v>36.943600000000004</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="0"/>
+        <v>36.8904</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1129668738309297</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39">
+        <v>61</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="2"/>
+        <v>0.60476065573770488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>31.505099999999999</v>
+      </c>
+      <c r="C40">
+        <v>35.24</v>
+      </c>
+      <c r="D40">
+        <v>35.316800000000001</v>
+      </c>
+      <c r="E40">
+        <v>35.248399999999997</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="0"/>
+        <v>35.268400000000007</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1194505016648102</v>
+      </c>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>246.94</v>
+      </c>
+      <c r="C41">
+        <v>259.57100000000003</v>
+      </c>
+      <c r="D41">
+        <v>260.08800000000002</v>
+      </c>
+      <c r="E41">
+        <v>259.72300000000001</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="0"/>
+        <v>259.79400000000004</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0520531303150564</v>
+      </c>
+      <c r="H41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41">
+        <v>289</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="2"/>
+        <v>0.89894117647058835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>36.017499999999998</v>
+      </c>
+      <c r="C42">
+        <v>51.200499999999998</v>
+      </c>
+      <c r="D42">
+        <v>50.967300000000002</v>
+      </c>
+      <c r="E42">
+        <v>50.97</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="0"/>
+        <v>51.04593333333333</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4172536498461397</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42">
+        <v>54</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="2"/>
+        <v>0.94529506172839506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>46.150300000000001</v>
+      </c>
+      <c r="C43">
+        <v>69.757599999999996</v>
+      </c>
+      <c r="D43">
+        <v>69.472499999999997</v>
+      </c>
+      <c r="E43">
+        <v>69.766000000000005</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="0"/>
+        <v>69.665366666666671</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="1"/>
+        <v>1.5095322601731012</v>
+      </c>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>44.649500000000003</v>
+      </c>
+      <c r="C44">
+        <v>92.557299999999998</v>
+      </c>
+      <c r="D44">
+        <v>91.822699999999998</v>
+      </c>
+      <c r="E44">
+        <v>91.989699999999999</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="0"/>
+        <v>92.123233333333317</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0632534145585799</v>
+      </c>
+      <c r="H44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44">
+        <v>98</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="2"/>
+        <v>0.94003299319727873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B45">
         <v>55.372700000000002</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C45">
+        <v>116.05800000000001</v>
+      </c>
+      <c r="D45">
+        <v>115.654</v>
+      </c>
+      <c r="E45">
+        <v>116.24299999999999</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="0"/>
+        <v>115.985</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0946242462440878</v>
+      </c>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>54.224299999999999</v>
+      </c>
+      <c r="C46">
+        <v>149.345</v>
+      </c>
+      <c r="D46">
+        <v>149.173</v>
+      </c>
+      <c r="E46">
+        <v>149.459</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="0"/>
+        <v>149.32566666666668</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7538514405288161</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46">
+        <v>145</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="2"/>
+        <v>1.029832183908046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>64.407399999999996</v>
+      </c>
+      <c r="C47">
+        <v>171.654</v>
+      </c>
+      <c r="D47">
+        <v>173.17599999999999</v>
+      </c>
+      <c r="E47">
+        <v>173.72399999999999</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="0"/>
+        <v>172.85133333333332</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6837185375179455</v>
+      </c>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>55.615299999999998</v>
+      </c>
+      <c r="C48">
+        <v>155.376</v>
+      </c>
+      <c r="D48">
+        <v>156.20599999999999</v>
+      </c>
+      <c r="E48">
+        <v>155.672</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="0"/>
+        <v>155.75133333333335</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8005123290413492</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48">
+        <v>231</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="2"/>
+        <v>0.67424819624819632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>58.844900000000003</v>
+      </c>
+      <c r="C49">
+        <v>141.94300000000001</v>
+      </c>
+      <c r="D49">
+        <v>141.684</v>
+      </c>
+      <c r="E49">
+        <v>142.53899999999999</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="0"/>
+        <v>142.05533333333332</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4140636373472182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>163.88200000000001</v>
+      </c>
+      <c r="C50">
+        <v>129.30500000000001</v>
+      </c>
+      <c r="D50">
+        <v>167.39500000000001</v>
+      </c>
+      <c r="E50">
+        <v>185.01300000000001</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="0"/>
+        <v>160.57100000000003</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="1"/>
+        <v>0.97979643890116075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>163.93</v>
+      </c>
+      <c r="C51">
+        <v>184.821</v>
+      </c>
+      <c r="D51">
+        <v>167.64599999999999</v>
+      </c>
+      <c r="E51">
+        <v>176.494</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="0"/>
+        <v>176.32033333333334</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0755830740763335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>129.75200000000001</v>
+      </c>
+      <c r="C52">
+        <v>151.22900000000001</v>
+      </c>
+      <c r="D52">
+        <v>152.40700000000001</v>
+      </c>
+      <c r="E52">
+        <v>152.68799999999999</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="0"/>
+        <v>152.108</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="1"/>
+        <v>1.172297922190024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>106.705</v>
+      </c>
+      <c r="C53">
+        <v>125.97</v>
+      </c>
+      <c r="D53">
+        <v>117.05200000000001</v>
+      </c>
+      <c r="E53">
+        <v>125.282</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="0"/>
+        <v>122.76799999999999</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1505365259359916</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>75.327600000000004</v>
+      </c>
+      <c r="C54">
+        <v>81.813199999999995</v>
+      </c>
+      <c r="D54">
+        <v>78.256500000000003</v>
+      </c>
+      <c r="E54">
+        <v>77.868899999999996</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="0"/>
+        <v>79.312866666666665</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0529057963703432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>59.714100000000002</v>
+      </c>
+      <c r="C55">
+        <v>65.305499999999995</v>
+      </c>
+      <c r="D55">
+        <v>66.884900000000002</v>
+      </c>
+      <c r="E55">
+        <v>64.173100000000005</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="0"/>
+        <v>65.45450000000001</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="1"/>
+        <v>1.096131399451721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56">
+        <v>42.840400000000002</v>
+      </c>
+      <c r="C56">
+        <v>47.620699999999999</v>
+      </c>
+      <c r="D56">
+        <v>46.805199999999999</v>
+      </c>
+      <c r="E56">
+        <v>47.824399999999997</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="0"/>
+        <v>47.416766666666661</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1068236213169498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>39.912399999999998</v>
+      </c>
+      <c r="C57">
+        <v>45.2883</v>
+      </c>
+      <c r="D57">
+        <v>45.432600000000001</v>
+      </c>
+      <c r="E57">
+        <v>44.664299999999997</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="0"/>
+        <v>45.128399999999999</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1306862027840971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>217.971</v>
+      </c>
+      <c r="C58">
+        <v>33.990400000000001</v>
+      </c>
+      <c r="D58">
+        <v>34.084699999999998</v>
+      </c>
+      <c r="E58">
+        <v>33.998800000000003</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="0"/>
+        <v>34.024633333333334</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="1"/>
+        <v>0.1560970649000708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59">
+        <v>46.281700000000001</v>
+      </c>
+      <c r="C59">
+        <v>49.502699999999997</v>
+      </c>
+      <c r="D59">
+        <v>48.093499999999999</v>
+      </c>
+      <c r="E59">
+        <v>49.778799999999997</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="0"/>
+        <v>49.125</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0614346491161732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>59.088000000000001</v>
+      </c>
+      <c r="C60">
+        <v>72.408299999999997</v>
+      </c>
+      <c r="D60">
+        <v>72.783500000000004</v>
+      </c>
+      <c r="E60">
+        <v>74.329099999999997</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="0"/>
+        <v>73.173633333333328</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2383839922375663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>43.688000000000002</v>
+      </c>
+      <c r="C61">
+        <v>98.672200000000004</v>
+      </c>
+      <c r="D61">
+        <v>97.705399999999997</v>
+      </c>
+      <c r="E61">
+        <v>98.841899999999995</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="0"/>
+        <v>98.406499999999994</v>
+      </c>
+      <c r="G61" s="15">
+        <f t="shared" si="1"/>
+        <v>2.2524835195019226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E33">
-        <v>70.231899999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B62">
+        <v>49.496499999999997</v>
+      </c>
+      <c r="C62">
+        <v>148.36600000000001</v>
+      </c>
+      <c r="D62">
+        <v>147.87299999999999</v>
+      </c>
+      <c r="E62">
+        <v>147.613</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="0"/>
+        <v>147.95066666666668</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9891137083766868</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>46.491</v>
+      </c>
+      <c r="C63">
+        <v>189.95599999999999</v>
+      </c>
+      <c r="D63">
+        <v>199.02099999999999</v>
+      </c>
+      <c r="E63">
+        <v>193.60499999999999</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="0"/>
+        <v>194.19399999999999</v>
+      </c>
+      <c r="G63" s="15">
+        <f t="shared" si="1"/>
+        <v>4.1770235099266522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64">
+        <v>54.691400000000002</v>
+      </c>
+      <c r="C64">
+        <v>239.72499999999999</v>
+      </c>
+      <c r="D64">
+        <v>242.49799999999999</v>
+      </c>
+      <c r="E64">
+        <v>241.297</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="0"/>
+        <v>241.17333333333332</v>
+      </c>
+      <c r="G64" s="15">
+        <f t="shared" si="1"/>
+        <v>4.409712191191546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>55.615299999999998</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34">
-        <v>84.501000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>33.146000000000001</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>33.253700000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B65">
+        <v>46.815600000000003</v>
+      </c>
+      <c r="C65">
+        <v>191.14</v>
+      </c>
+      <c r="D65">
+        <v>178.82900000000001</v>
+      </c>
+      <c r="E65">
+        <v>191.51499999999999</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="0"/>
+        <v>187.16133333333332</v>
+      </c>
+      <c r="G65" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9978411754486389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>58.844900000000003</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36">
-        <v>43.761899999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>246.94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>45.582099999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>106.59699999999999</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38">
-        <v>89.675399999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>31.505099999999999</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39">
-        <v>244.423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>36.017499999999998</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40">
-        <v>32.216700000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>44.649500000000003</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41">
-        <v>56.3005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>43.687600000000003</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42">
-        <v>60.924700000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>54.224299999999999</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43">
-        <v>118.709</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>85.205200000000005</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44">
-        <v>88.686099999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>55.345500000000001</v>
-      </c>
-      <c r="D45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45">
-        <v>86.8934</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>70.168000000000006</v>
-      </c>
-      <c r="D46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46">
-        <v>55.537399999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>46.150300000000001</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47">
-        <v>74.250200000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>64.407399999999996</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48">
-        <v>113.651</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>118.669</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49">
-        <v>94.463399999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50">
-        <v>49.496499999999997</v>
-      </c>
-      <c r="D50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50">
-        <v>87.181100000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51">
-        <v>46.815600000000003</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51">
-        <v>91.125200000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52">
-        <v>42.840400000000002</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52">
-        <v>39.855800000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53">
+      <c r="B66">
         <v>49.731000000000002</v>
       </c>
-      <c r="D53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53">
-        <v>58.918700000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54">
-        <v>217.971</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54">
-        <v>45.864199999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55">
-        <v>163.93</v>
-      </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>99.062700000000007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56">
-        <v>39.912399999999998</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56">
-        <v>219.291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57">
-        <v>46.281700000000001</v>
-      </c>
-      <c r="D57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57">
-        <v>38.817599999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58">
-        <v>43.688000000000002</v>
-      </c>
-      <c r="D58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58">
-        <v>68.524900000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59">
-        <v>59.714100000000002</v>
-      </c>
-      <c r="D59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59">
-        <v>76.8078</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60">
-        <v>46.491</v>
-      </c>
-      <c r="D60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60">
-        <v>182.33600000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61">
-        <v>129.75200000000001</v>
-      </c>
-      <c r="D61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61">
-        <v>105.11199999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62">
-        <v>75.327600000000004</v>
-      </c>
-      <c r="D62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62">
-        <v>142.79300000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63">
-        <v>106.705</v>
-      </c>
-      <c r="D63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63">
-        <v>74.880200000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64">
-        <v>59.088000000000001</v>
-      </c>
-      <c r="D64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64">
-        <v>113.354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65">
-        <v>54.691400000000002</v>
-      </c>
-      <c r="D65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65">
-        <v>167.631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66">
-        <v>163.88200000000001</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
+      <c r="C66">
+        <v>159.77000000000001</v>
+      </c>
+      <c r="D66">
+        <v>172.77699999999999</v>
       </c>
       <c r="E66">
-        <v>102.173</v>
+        <v>175.18600000000001</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="0"/>
+        <v>169.24433333333334</v>
+      </c>
+      <c r="G66" s="15">
+        <f t="shared" si="1"/>
+        <v>3.403195860395595</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="F50:I66">
+    <sortCondition ref="F50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -225,27 +225,9 @@
     <t>RF/R</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
     <t>Sora</t>
   </si>
   <si>
-    <t>Optimized(1)</t>
-  </si>
-  <si>
-    <t>Optimized(avg)</t>
-  </si>
-  <si>
-    <t>Optimized(2)</t>
-  </si>
-  <si>
-    <t>Optimized(3)</t>
-  </si>
-  <si>
-    <t>Relative impr.</t>
-  </si>
-  <si>
     <t>CCA</t>
   </si>
   <si>
@@ -367,6 +349,45 @@
   </si>
   <si>
     <t>Sora name</t>
+  </si>
+  <si>
+    <t>ASPLOS sub.</t>
+  </si>
+  <si>
+    <t>OptTX(1)</t>
+  </si>
+  <si>
+    <t>OptTX(2)</t>
+  </si>
+  <si>
+    <t>OptTX(3)</t>
+  </si>
+  <si>
+    <t>OptTX/Asplos</t>
+  </si>
+  <si>
+    <t>OptTX/Sora</t>
+  </si>
+  <si>
+    <t>OptRX(1)</t>
+  </si>
+  <si>
+    <t>OptRX(2)</t>
+  </si>
+  <si>
+    <t>OptRX(3)</t>
+  </si>
+  <si>
+    <t>OptRX/Sora</t>
+  </si>
+  <si>
+    <t>OptTX(avg)</t>
+  </si>
+  <si>
+    <t>OptRX(avg)</t>
+  </si>
+  <si>
+    <t>OptRX/Asplos</t>
   </si>
 </sst>
 </file>
@@ -767,2093 +788,3383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>3062</v>
+      </c>
+      <c r="D2">
         <v>997.34699999999998</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1957.7</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1627.49</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1634.34</v>
       </c>
-      <c r="F2" s="15">
-        <f>AVERAGE($C2, $D2, $E2)</f>
+      <c r="H2" s="15">
+        <f>AVERAGE($E2, $F2, $G2)</f>
         <v>1739.8433333333332</v>
       </c>
-      <c r="G2" s="15">
-        <f>$F2/$B2</f>
+      <c r="I2">
+        <v>1948.87</v>
+      </c>
+      <c r="J2">
+        <v>1950.18</v>
+      </c>
+      <c r="K2">
+        <v>1955.33</v>
+      </c>
+      <c r="L2" s="15">
+        <f>AVERAGE($I2, $J2, $K2)</f>
+        <v>1951.46</v>
+      </c>
+      <c r="M2" s="15">
+        <f>$H2/$D2</f>
         <v>1.7444714159999812</v>
       </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2">
-        <v>3062</v>
-      </c>
-      <c r="J2" s="15">
-        <f>$F2/$I2</f>
+      <c r="N2" s="15">
+        <f>$L2/$D2</f>
+        <v>1.9566509950899738</v>
+      </c>
+      <c r="O2" s="15">
+        <f>$H2/$C2</f>
         <v>0.56820487698671884</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P2" s="15">
+        <f>$L2/$C2</f>
+        <v>0.63731548007838013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>2589</v>
+      </c>
+      <c r="D3">
         <v>536.22500000000002</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1834.48</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2106.7600000000002</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2102.1</v>
       </c>
-      <c r="F3" s="15">
-        <f t="shared" ref="F3:F66" si="0">AVERAGE($C3, $D3, $E3)</f>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H66" si="0">AVERAGE($E3, $F3, $G3)</f>
         <v>2014.4466666666667</v>
       </c>
-      <c r="G3" s="15">
-        <f t="shared" ref="G3:G66" si="1">$F3/$B3</f>
+      <c r="I3">
+        <v>1848.8</v>
+      </c>
+      <c r="J3">
+        <v>1836.16</v>
+      </c>
+      <c r="K3">
+        <v>1834.33</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" ref="L3:L66" si="1">AVERAGE($I3, $J3, $K3)</f>
+        <v>1839.7633333333333</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="shared" ref="M3:M66" si="2">$H3/$D3</f>
         <v>3.7567190389606351</v>
       </c>
-      <c r="H3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3">
-        <v>2589</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J48" si="2">$F3/$I3</f>
+      <c r="N3" s="15">
+        <f t="shared" ref="N3:N66" si="3">$L3/$D3</f>
+        <v>3.4309540460316716</v>
+      </c>
+      <c r="O3" s="15">
+        <f>$H3/$C3</f>
         <v>0.77807905240118447</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P3" s="15">
+        <f t="shared" ref="P3:P48" si="4">$L3/$C3</f>
+        <v>0.71060769924037592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>3722</v>
+      </c>
+      <c r="D4">
         <v>770.36300000000006</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>1575.45</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>4242.5200000000004</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>4261.12</v>
       </c>
-      <c r="F4" s="15">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>3359.6966666666667</v>
       </c>
-      <c r="G4" s="15">
-        <f t="shared" si="1"/>
+      <c r="I4">
+        <v>1576.71</v>
+      </c>
+      <c r="J4">
+        <v>1570.85</v>
+      </c>
+      <c r="K4">
+        <v>1569.95</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" si="1"/>
+        <v>1572.5033333333333</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" si="2"/>
         <v>4.3611864363510016</v>
       </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4">
-        <v>3722</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="2"/>
+      <c r="N4" s="15">
+        <f t="shared" si="3"/>
+        <v>2.0412498177266212</v>
+      </c>
+      <c r="O4" s="15">
+        <f>$H4/$C4</f>
         <v>0.90265896471431128</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P4" s="15">
+        <f t="shared" si="4"/>
+        <v>0.42248880530180905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>207</v>
+      </c>
+      <c r="D5">
         <v>170.935</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>172.941</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>172.92099999999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>172.89599999999999</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>172.9193333333333</v>
       </c>
-      <c r="G5" s="15">
-        <f t="shared" si="1"/>
+      <c r="I5">
+        <v>171.76900000000001</v>
+      </c>
+      <c r="J5">
+        <v>172.13200000000001</v>
+      </c>
+      <c r="K5">
+        <v>171.471</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="1"/>
+        <v>171.79066666666668</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="2"/>
         <v>1.01160870116321</v>
       </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>207</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="2"/>
+      <c r="N5" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0050058014254932</v>
+      </c>
+      <c r="O5" s="15">
+        <f>$H5/$C5</f>
         <v>0.83535909822866328</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P5" s="15">
+        <f t="shared" si="4"/>
+        <v>0.82990660225442836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>2026</v>
+      </c>
+      <c r="D6">
         <v>212.96600000000001</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>6857.91</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1961.7</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1950.98</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>3590.1966666666667</v>
       </c>
-      <c r="G6" s="15">
-        <f t="shared" si="1"/>
+      <c r="I6">
+        <v>6310.02</v>
+      </c>
+      <c r="J6">
+        <v>6596.65</v>
+      </c>
+      <c r="K6">
+        <v>6271.64</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="1"/>
+        <v>6392.77</v>
+      </c>
+      <c r="M6" s="15">
+        <f t="shared" si="2"/>
         <v>16.858074371808957</v>
       </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6">
-        <v>2026</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="2"/>
+      <c r="N6" s="15">
+        <f t="shared" si="3"/>
+        <v>30.017796267948874</v>
+      </c>
+      <c r="O6" s="15">
+        <f>$H6/$C6</f>
         <v>1.7720615333991445</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P6" s="15">
+        <f t="shared" si="4"/>
+        <v>3.1553652517275421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>1423</v>
+      </c>
+      <c r="D7">
         <v>241.27799999999999</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>2667.21</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1961.02</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1957.97</v>
       </c>
-      <c r="F7" s="15">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>2195.4</v>
       </c>
-      <c r="G7" s="15">
-        <f t="shared" si="1"/>
+      <c r="I7">
+        <v>4624.32</v>
+      </c>
+      <c r="J7">
+        <v>4513.0600000000004</v>
+      </c>
+      <c r="K7">
+        <v>4430.72</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="1"/>
+        <v>4522.7000000000007</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="2"/>
         <v>9.099047571680801</v>
       </c>
-      <c r="H7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7">
-        <v>1423</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="2"/>
+      <c r="N7" s="15">
+        <f t="shared" si="3"/>
+        <v>18.744767446679766</v>
+      </c>
+      <c r="O7" s="15">
+        <f>$H7/$C7</f>
         <v>1.5427969079409698</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P7" s="15">
+        <f t="shared" si="4"/>
+        <v>3.1782853127196069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>4888</v>
+      </c>
+      <c r="D8">
         <v>306.56599999999997</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>3557.93</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1838.24</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1837.99</v>
       </c>
-      <c r="F8" s="15">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>2411.3866666666668</v>
       </c>
-      <c r="G8" s="15">
-        <f t="shared" si="1"/>
+      <c r="I8">
+        <v>3571.63</v>
+      </c>
+      <c r="J8">
+        <v>3438.2</v>
+      </c>
+      <c r="K8">
+        <v>3501.78</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="1"/>
+        <v>3503.8700000000003</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="2"/>
         <v>7.8657994254635772</v>
       </c>
-      <c r="H8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8">
-        <v>4888</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="2"/>
+      <c r="N8" s="15">
+        <f t="shared" si="3"/>
+        <v>11.429414873143143</v>
+      </c>
+      <c r="O8" s="15">
+        <f>$H8/$C8</f>
         <v>0.49332787779596293</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P8" s="15">
+        <f t="shared" si="4"/>
+        <v>0.71683101472995092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>3805</v>
+      </c>
+      <c r="D9">
         <v>249.89099999999999</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>3992.13</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2987.68</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>2976.7</v>
       </c>
-      <c r="F9" s="15">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>3318.8366666666661</v>
       </c>
-      <c r="G9" s="15">
-        <f t="shared" si="1"/>
+      <c r="I9">
+        <v>4730.21</v>
+      </c>
+      <c r="J9">
+        <v>4681.17</v>
+      </c>
+      <c r="K9">
+        <v>4137.04</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>4516.1400000000003</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="2"/>
         <v>13.281137242504396</v>
       </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9">
-        <v>3805</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="2"/>
+      <c r="N9" s="15">
+        <f t="shared" si="3"/>
+        <v>18.072439583658475</v>
+      </c>
+      <c r="O9" s="15">
+        <f>$H9/$C9</f>
         <v>0.8722303985983354</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P9" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1868961892247045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>759</v>
+      </c>
+      <c r="D10">
         <v>2480.34</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>3014.32</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>3754.18</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>3493.83</v>
       </c>
-      <c r="F10" s="15">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>3420.7766666666666</v>
       </c>
-      <c r="G10" s="15">
-        <f t="shared" si="1"/>
+      <c r="I10">
+        <v>3002.78</v>
+      </c>
+      <c r="J10">
+        <v>2971.77</v>
+      </c>
+      <c r="K10">
+        <v>2892.37</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="1"/>
+        <v>2955.64</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="2"/>
         <v>1.3791563522205288</v>
       </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10">
-        <v>759</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="2"/>
+      <c r="N10" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1916269543691589</v>
+      </c>
+      <c r="O10" s="15">
+        <f>$H10/$C10</f>
         <v>4.5069521299956081</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P10" s="15">
+        <f t="shared" si="4"/>
+        <v>3.8941238471673252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>2923</v>
+      </c>
+      <c r="D11">
         <v>910.08399999999995</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>2096.92</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1576.82</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1571.2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>1748.3133333333333</v>
       </c>
-      <c r="G11" s="15">
-        <f t="shared" si="1"/>
+      <c r="I11">
+        <v>2105.8200000000002</v>
+      </c>
+      <c r="J11">
+        <v>2095.6799999999998</v>
+      </c>
+      <c r="K11">
+        <v>2083.71</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="1"/>
+        <v>2095.0700000000002</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="2"/>
         <v>1.9210461158896688</v>
       </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11">
-        <v>2923</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="2"/>
+      <c r="N11" s="15">
+        <f t="shared" si="3"/>
+        <v>2.302062227222982</v>
+      </c>
+      <c r="O11" s="15">
+        <f>$H11/$C11</f>
         <v>0.59812293305964193</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P11" s="15">
+        <f t="shared" si="4"/>
+        <v>0.71675333561409516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>2796</v>
+      </c>
+      <c r="D12">
         <v>1379.22</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>3133.38</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2668.65</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>2681.47</v>
       </c>
-      <c r="F12" s="15">
+      <c r="H12" s="15">
         <f t="shared" si="0"/>
         <v>2827.8333333333335</v>
       </c>
-      <c r="G12" s="15">
-        <f t="shared" si="1"/>
+      <c r="I12">
+        <v>2971.01</v>
+      </c>
+      <c r="J12">
+        <v>3132.75</v>
+      </c>
+      <c r="K12">
+        <v>3120.03</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="1"/>
+        <v>3074.5966666666668</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
         <v>2.0503134621984409</v>
       </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12">
-        <v>2796</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="2"/>
+      <c r="N12" s="15">
+        <f t="shared" si="3"/>
+        <v>2.2292285978064896</v>
+      </c>
+      <c r="O12" s="15">
+        <f>$H12/$C12</f>
         <v>1.0113853123509777</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P12" s="15">
+        <f t="shared" si="4"/>
+        <v>1.0996411540295661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>2870</v>
+      </c>
+      <c r="D13">
         <v>953.625</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>1945.87</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>3128.34</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>3136.92</v>
       </c>
-      <c r="F13" s="15">
+      <c r="H13" s="15">
         <f t="shared" si="0"/>
         <v>2737.0433333333335</v>
       </c>
-      <c r="G13" s="15">
-        <f t="shared" si="1"/>
+      <c r="I13">
+        <v>1958.74</v>
+      </c>
+      <c r="J13">
+        <v>1958.87</v>
+      </c>
+      <c r="K13">
+        <v>1953.2</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="1"/>
+        <v>1956.9366666666665</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="2"/>
         <v>2.8701463713024862</v>
       </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13">
-        <v>2870</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="2"/>
+      <c r="N13" s="15">
+        <f t="shared" si="3"/>
+        <v>2.0521029405339273</v>
+      </c>
+      <c r="O13" s="15">
+        <f>$H13/$C13</f>
         <v>0.95367363530778171</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P13" s="15">
+        <f t="shared" si="4"/>
+        <v>0.68185946573751444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>3788</v>
+      </c>
+      <c r="D14">
         <v>744.82899999999995</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>1954.57</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>6243.68</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>6352.11</v>
       </c>
-      <c r="F14" s="15">
+      <c r="H14" s="15">
         <f t="shared" si="0"/>
         <v>4850.12</v>
       </c>
-      <c r="G14" s="15">
-        <f t="shared" si="1"/>
+      <c r="I14">
+        <v>1970.44</v>
+      </c>
+      <c r="J14">
+        <v>1965.3</v>
+      </c>
+      <c r="K14">
+        <v>1951.17</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="1"/>
+        <v>1962.3033333333333</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="2"/>
         <v>6.5117228249705637</v>
       </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14">
-        <v>3788</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="2"/>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
+        <v>2.634568918950972</v>
+      </c>
+      <c r="O14" s="15">
+        <f>$H14/$C14</f>
         <v>1.2803907074973599</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P14" s="15">
+        <f t="shared" si="4"/>
+        <v>0.51803150299190426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>3781</v>
+      </c>
+      <c r="D15">
         <v>1026.9000000000001</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>1634.28</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1965.93</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1968.38</v>
       </c>
-      <c r="F15" s="15">
+      <c r="H15" s="15">
         <f t="shared" si="0"/>
         <v>1856.1966666666667</v>
       </c>
-      <c r="G15" s="15">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <v>1648.26</v>
+      </c>
+      <c r="J15">
+        <v>1630.98</v>
+      </c>
+      <c r="K15">
+        <v>1625.22</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="1"/>
+        <v>1634.82</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="2"/>
         <v>1.8075729541987209</v>
       </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>3781</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="2"/>
+      <c r="N15" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5919953257376569</v>
+      </c>
+      <c r="O15" s="15">
+        <f>$H15/$C15</f>
         <v>0.49092744423873758</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P15" s="15">
+        <f t="shared" si="4"/>
+        <v>0.43237767786299919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>193</v>
+      </c>
+      <c r="D16">
         <v>136.54400000000001</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>145.411</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>145.84399999999999</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>145.13300000000001</v>
       </c>
-      <c r="F16" s="15">
+      <c r="H16" s="15">
         <f t="shared" si="0"/>
         <v>145.46266666666668</v>
       </c>
-      <c r="G16" s="15">
-        <f t="shared" si="1"/>
+      <c r="I16">
+        <v>146.11099999999999</v>
+      </c>
+      <c r="J16">
+        <v>147.11600000000001</v>
+      </c>
+      <c r="K16">
+        <v>145.55699999999999</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="1"/>
+        <v>146.26133333333334</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="2"/>
         <v>1.0653171627216624</v>
       </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16">
-        <v>193</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="2"/>
+      <c r="N16" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0711663151316304</v>
+      </c>
+      <c r="O16" s="15">
+        <f>$H16/$C16</f>
         <v>0.75369257340241802</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P16" s="15">
+        <f t="shared" si="4"/>
+        <v>0.75783074265975825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>1680</v>
+      </c>
+      <c r="D17">
         <v>1363.36</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>1191.43</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1259.1600000000001</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1147.29</v>
       </c>
-      <c r="F17" s="15">
+      <c r="H17" s="15">
         <f t="shared" si="0"/>
         <v>1199.2933333333333</v>
       </c>
-      <c r="G17" s="15">
-        <f t="shared" si="1"/>
+      <c r="I17">
+        <v>1183.96</v>
+      </c>
+      <c r="J17">
+        <v>1173.1199999999999</v>
+      </c>
+      <c r="K17">
+        <v>1096.94</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="1"/>
+        <v>1151.3399999999999</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="2"/>
         <v>0.8796600555490357</v>
       </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17">
-        <v>1680</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="2"/>
+      <c r="N17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.84448714939561087</v>
+      </c>
+      <c r="O17" s="15">
+        <f>$H17/$C17</f>
         <v>0.71386507936507937</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P17" s="15">
+        <f t="shared" si="4"/>
+        <v>0.68532142857142853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>4775</v>
+      </c>
+      <c r="D18">
         <v>3583.72</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>1942.43</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2121.48</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>2084.9</v>
       </c>
-      <c r="F18" s="15">
+      <c r="H18" s="15">
         <f t="shared" si="0"/>
         <v>2049.603333333333</v>
       </c>
-      <c r="G18" s="15">
-        <f t="shared" si="1"/>
+      <c r="I18">
+        <v>2195.6799999999998</v>
+      </c>
+      <c r="J18">
+        <v>2015.03</v>
+      </c>
+      <c r="K18">
+        <v>2370.7399999999998</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="1"/>
+        <v>2193.8166666666666</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="2"/>
         <v>0.571920611357286</v>
       </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18">
-        <v>4775</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="2"/>
+      <c r="N18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.61216185044218485</v>
+      </c>
+      <c r="O18" s="15">
+        <f>$H18/$C18</f>
         <v>0.42923630017452002</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P18" s="15">
+        <f t="shared" si="4"/>
+        <v>0.45943804537521815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>2943</v>
+      </c>
+      <c r="D19">
         <v>2294.5300000000002</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>1408.71</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>1454.52</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1586.47</v>
       </c>
-      <c r="F19" s="15">
+      <c r="H19" s="15">
         <f t="shared" si="0"/>
         <v>1483.2333333333333</v>
       </c>
-      <c r="G19" s="15">
-        <f t="shared" si="1"/>
+      <c r="I19">
+        <v>1593.35</v>
+      </c>
+      <c r="J19">
+        <v>1618.75</v>
+      </c>
+      <c r="K19">
+        <v>1780.85</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="1"/>
+        <v>1664.3166666666666</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="2"/>
         <v>0.6464214167316763</v>
       </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19">
-        <v>2943</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="2"/>
+      <c r="N19" s="15">
+        <f t="shared" si="3"/>
+        <v>0.72534099212765424</v>
+      </c>
+      <c r="O19" s="15">
+        <f>$H19/$C19</f>
         <v>0.50398686147921623</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P19" s="15">
+        <f t="shared" si="4"/>
+        <v>0.56551704609808584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>3312</v>
+      </c>
+      <c r="D20">
         <v>2364.96</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>1754.05</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2012.44</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1527.3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="H20" s="15">
         <f t="shared" si="0"/>
         <v>1764.5966666666666</v>
       </c>
-      <c r="G20" s="15">
-        <f t="shared" si="1"/>
+      <c r="I20">
+        <v>1947.08</v>
+      </c>
+      <c r="J20">
+        <v>1577.41</v>
+      </c>
+      <c r="K20">
+        <v>1570.25</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="1"/>
+        <v>1698.2466666666667</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="2"/>
         <v>0.74614228852355502</v>
       </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20">
-        <v>3312</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="2"/>
+      <c r="N20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.71808684572536818</v>
+      </c>
+      <c r="O20" s="15">
+        <f>$H20/$C20</f>
         <v>0.53278884863123988</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P20" s="15">
+        <f t="shared" si="4"/>
+        <v>0.5127556360708535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>3365</v>
+      </c>
+      <c r="D21">
         <v>2618.14</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>1751.87</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1999.2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1733.4</v>
       </c>
-      <c r="F21" s="15">
+      <c r="H21" s="15">
         <f t="shared" si="0"/>
         <v>1828.1566666666665</v>
       </c>
-      <c r="G21" s="15">
-        <f t="shared" si="1"/>
+      <c r="I21">
+        <v>1643.55</v>
+      </c>
+      <c r="J21">
+        <v>1747.67</v>
+      </c>
+      <c r="K21">
+        <v>1712.77</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="1"/>
+        <v>1701.33</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="2"/>
         <v>0.69826543525810947</v>
       </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21">
-        <v>3365</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="2"/>
+      <c r="N21" s="15">
+        <f t="shared" si="3"/>
+        <v>0.64982392079873497</v>
+      </c>
+      <c r="O21" s="15">
+        <f>$H21/$C21</f>
         <v>0.54328578504210001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P21" s="15">
+        <f t="shared" si="4"/>
+        <v>0.50559583952451703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>3121</v>
+      </c>
+      <c r="D22">
         <v>2383.79</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>1860.26</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>1924.48</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>1579.4</v>
       </c>
-      <c r="F22" s="15">
+      <c r="H22" s="15">
         <f t="shared" si="0"/>
         <v>1788.0466666666664</v>
       </c>
-      <c r="G22" s="15">
-        <f t="shared" si="1"/>
+      <c r="I22">
+        <v>1621.67</v>
+      </c>
+      <c r="J22">
+        <v>1864.56</v>
+      </c>
+      <c r="K22">
+        <v>1531.58</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="1"/>
+        <v>1672.6033333333332</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="2"/>
         <v>0.75008564792480314</v>
       </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22">
-        <v>3121</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="2"/>
+      <c r="N22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.70165716499076403</v>
+      </c>
+      <c r="O22" s="15">
+        <f>$H22/$C22</f>
         <v>0.57290825590088634</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P22" s="15">
+        <f t="shared" si="4"/>
+        <v>0.53591904304176008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>866</v>
+      </c>
+      <c r="D23">
         <v>1728.88</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>1331.04</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>1337.76</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>1320.34</v>
       </c>
-      <c r="F23" s="15">
+      <c r="H23" s="15">
         <f t="shared" si="0"/>
         <v>1329.7133333333334</v>
       </c>
-      <c r="G23" s="15">
-        <f t="shared" si="1"/>
+      <c r="I23">
+        <v>1330.39</v>
+      </c>
+      <c r="J23">
+        <v>1372.76</v>
+      </c>
+      <c r="K23">
+        <v>1326.35</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="1"/>
+        <v>1343.1666666666667</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="2"/>
         <v>0.76911835022288033</v>
       </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23">
-        <v>866</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="N23" s="15">
+        <f t="shared" si="3"/>
+        <v>0.77689988123332254</v>
+      </c>
+      <c r="O23" s="15">
+        <f>$H23/$C23</f>
         <v>1.5354657428791378</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P23" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5510007698229409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>633</v>
+      </c>
+      <c r="D24">
         <v>651.19399999999996</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>586.66899999999998</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>560.35</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>665.57100000000003</v>
       </c>
-      <c r="F24" s="15">
+      <c r="H24" s="15">
         <f t="shared" si="0"/>
         <v>604.19666666666672</v>
       </c>
-      <c r="G24" s="15">
-        <f t="shared" si="1"/>
+      <c r="I24">
+        <v>609.76</v>
+      </c>
+      <c r="J24">
+        <v>584.55899999999997</v>
+      </c>
+      <c r="K24">
+        <v>586.95799999999997</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="1"/>
+        <v>593.75900000000001</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="2"/>
         <v>0.92782898286327387</v>
       </c>
-      <c r="H24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24">
-        <v>633</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="N24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.91180047727712488</v>
+      </c>
+      <c r="O24" s="15">
+        <f>$H24/$C24</f>
         <v>0.95449710373881003</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P24" s="15">
+        <f t="shared" si="4"/>
+        <v>0.93800789889415481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>522</v>
+      </c>
+      <c r="D25">
         <v>455.56400000000002</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>414.69900000000001</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>417.64299999999997</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>460.505</v>
       </c>
-      <c r="F25" s="15">
+      <c r="H25" s="15">
         <f t="shared" si="0"/>
         <v>430.94900000000001</v>
       </c>
-      <c r="G25" s="15">
-        <f t="shared" si="1"/>
+      <c r="I25">
+        <v>431.43799999999999</v>
+      </c>
+      <c r="J25">
+        <v>429.04300000000001</v>
+      </c>
+      <c r="K25">
+        <v>432.97500000000002</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="1"/>
+        <v>431.15200000000004</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="2"/>
         <v>0.94596807473812683</v>
       </c>
-      <c r="H25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25">
-        <v>522</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
+      <c r="N25" s="15">
+        <f t="shared" si="3"/>
+        <v>0.94641367623429429</v>
+      </c>
+      <c r="O25" s="15">
+        <f>$H25/$C25</f>
         <v>0.82557279693486596</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.82596168582375484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>761</v>
+      </c>
+      <c r="D26">
         <v>989.61900000000003</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>928.30700000000002</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>847.37900000000002</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>865.83799999999997</v>
       </c>
-      <c r="F26" s="15">
+      <c r="H26" s="15">
         <f t="shared" si="0"/>
         <v>880.50800000000015</v>
       </c>
-      <c r="G26" s="15">
-        <f t="shared" si="1"/>
+      <c r="I26">
+        <v>831.00699999999995</v>
+      </c>
+      <c r="J26">
+        <v>918.11300000000006</v>
+      </c>
+      <c r="K26">
+        <v>867.17499999999995</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="1"/>
+        <v>872.09833333333336</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="2"/>
         <v>0.88974443700050232</v>
       </c>
-      <c r="H26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26">
-        <v>761</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="2"/>
+      <c r="N26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.88124655380841854</v>
+      </c>
+      <c r="O26" s="15">
+        <f>$H26/$C26</f>
         <v>1.1570407358738504</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P26" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1459899255365746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>1139</v>
+      </c>
+      <c r="D27">
         <v>4121.84</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>3288.07</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2406.33</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>2604.64</v>
       </c>
-      <c r="F27" s="15">
+      <c r="H27" s="15">
         <f t="shared" si="0"/>
         <v>2766.3466666666664</v>
       </c>
-      <c r="G27" s="15">
-        <f t="shared" si="1"/>
+      <c r="I27">
+        <v>2451.88</v>
+      </c>
+      <c r="J27">
+        <v>3097.61</v>
+      </c>
+      <c r="K27">
+        <v>2476.7199999999998</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="1"/>
+        <v>2675.4033333333332</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="2"/>
         <v>0.67114363164670787</v>
       </c>
-      <c r="H27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27">
-        <v>1139</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="2"/>
+      <c r="N27" s="15">
+        <f t="shared" si="3"/>
+        <v>0.64907986077415258</v>
+      </c>
+      <c r="O27" s="15">
+        <f>$H27/$C27</f>
         <v>2.4287503658179688</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P27" s="15">
+        <f t="shared" si="4"/>
+        <v>2.3489054726368157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>465</v>
+      </c>
+      <c r="D28">
         <v>386.572</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>375.94299999999998</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>368.53500000000003</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>400.726</v>
       </c>
-      <c r="F28" s="15">
+      <c r="H28" s="15">
         <f t="shared" si="0"/>
         <v>381.73466666666673</v>
       </c>
-      <c r="G28" s="15">
-        <f t="shared" si="1"/>
+      <c r="I28">
+        <v>383.44900000000001</v>
+      </c>
+      <c r="J28">
+        <v>373.34899999999999</v>
+      </c>
+      <c r="K28">
+        <v>400.39600000000002</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="1"/>
+        <v>385.73133333333334</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="2"/>
         <v>0.98748659154482665</v>
       </c>
-      <c r="H28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28">
-        <v>465</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="2"/>
+      <c r="N28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99782532964967285</v>
+      </c>
+      <c r="O28" s="15">
+        <f>$H28/$C28</f>
         <v>0.82093476702508972</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P28" s="15">
+        <f t="shared" si="4"/>
+        <v>0.82952974910394262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>364</v>
+      </c>
+      <c r="D29">
         <v>212.501</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>190.149</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>188.38399999999999</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>189.374</v>
       </c>
-      <c r="F29" s="15">
+      <c r="H29" s="15">
         <f t="shared" si="0"/>
         <v>189.30233333333334</v>
       </c>
-      <c r="G29" s="15">
-        <f t="shared" si="1"/>
+      <c r="I29">
+        <v>143.85900000000001</v>
+      </c>
+      <c r="J29">
+        <v>144.959</v>
+      </c>
+      <c r="K29">
+        <v>145.52000000000001</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="1"/>
+        <v>144.77933333333331</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="2"/>
         <v>0.8908303176612502</v>
       </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29">
-        <v>364</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="2"/>
+      <c r="N29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.68131130363308079</v>
+      </c>
+      <c r="O29" s="15">
+        <f>$H29/$C29</f>
         <v>0.52006135531135533</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.39774542124542117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>435</v>
+      </c>
+      <c r="D30">
         <v>266.94400000000002</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>273.05500000000001</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>274.82600000000002</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>273.529</v>
       </c>
-      <c r="F30" s="15">
+      <c r="H30" s="15">
         <f t="shared" si="0"/>
         <v>273.80333333333334</v>
       </c>
-      <c r="G30" s="15">
-        <f t="shared" si="1"/>
+      <c r="I30">
+        <v>276.50400000000002</v>
+      </c>
+      <c r="J30">
+        <v>277.52199999999999</v>
+      </c>
+      <c r="K30">
+        <v>276.07499999999999</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="1"/>
+        <v>276.70033333333339</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="2"/>
         <v>1.0256957763925516</v>
       </c>
-      <c r="H30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30">
-        <v>435</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="2"/>
+      <c r="N30" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0365482398305763</v>
+      </c>
+      <c r="O30" s="15">
+        <f>$H30/$C30</f>
         <v>0.62943295019157086</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P30" s="15">
+        <f t="shared" si="4"/>
+        <v>0.63609272030651354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>644</v>
+      </c>
+      <c r="D31">
         <v>1663.4</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>1291.3900000000001</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>1131.3399999999999</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>1627.39</v>
       </c>
-      <c r="F31" s="15">
+      <c r="H31" s="15">
         <f t="shared" si="0"/>
         <v>1350.04</v>
       </c>
-      <c r="G31" s="15">
-        <f t="shared" si="1"/>
+      <c r="I31">
+        <v>1368.89</v>
+      </c>
+      <c r="J31">
+        <v>1311.17</v>
+      </c>
+      <c r="K31">
+        <v>1286.3900000000001</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="1"/>
+        <v>1322.1500000000003</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="2"/>
         <v>0.81161476493928097</v>
       </c>
-      <c r="H31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31">
-        <v>644</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="2"/>
+      <c r="N31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.79484790188770005</v>
+      </c>
+      <c r="O31" s="15">
+        <f>$H31/$C31</f>
         <v>2.0963354037267079</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P31" s="15">
+        <f t="shared" si="4"/>
+        <v>2.0530279503105593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>165</v>
+      </c>
+      <c r="D32">
         <v>110.874</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>112.58799999999999</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>106.004</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>111.54900000000001</v>
       </c>
-      <c r="F32" s="15">
+      <c r="H32" s="15">
         <f t="shared" si="0"/>
         <v>110.04699999999998</v>
       </c>
-      <c r="G32" s="15">
-        <f t="shared" si="1"/>
+      <c r="I32">
+        <v>115.904</v>
+      </c>
+      <c r="J32">
+        <v>115.962</v>
+      </c>
+      <c r="K32">
+        <v>116.036</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="1"/>
+        <v>115.96733333333333</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="2"/>
         <v>0.99254108267041852</v>
       </c>
-      <c r="H32" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32">
-        <v>165</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="2"/>
+      <c r="N32" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0459380317597753</v>
+      </c>
+      <c r="O32" s="15">
+        <f>$H32/$C32</f>
         <v>0.66695151515151507</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P32" s="15">
+        <f t="shared" si="4"/>
+        <v>0.70283232323232325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>164</v>
+      </c>
+      <c r="D33">
         <v>118.669</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>129.18700000000001</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>128.899</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>119.86499999999999</v>
       </c>
-      <c r="F33" s="15">
+      <c r="H33" s="15">
         <f t="shared" si="0"/>
         <v>125.98366666666668</v>
       </c>
-      <c r="G33" s="15">
-        <f t="shared" si="1"/>
+      <c r="I33">
+        <v>130.53800000000001</v>
+      </c>
+      <c r="J33">
+        <v>128.79900000000001</v>
+      </c>
+      <c r="K33">
+        <v>129.76499999999999</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="1"/>
+        <v>129.70066666666665</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="2"/>
         <v>1.0616392374307249</v>
       </c>
-      <c r="H33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33">
-        <v>164</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="2"/>
+      <c r="N33" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0929616552483516</v>
+      </c>
+      <c r="O33" s="15">
+        <f>$H33/$C33</f>
         <v>0.76819308943089437</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P33" s="15">
+        <f t="shared" si="4"/>
+        <v>0.79085772357723572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="D34">
         <v>106.59699999999999</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>115.93600000000001</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>108.471</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>108.1</v>
       </c>
-      <c r="F34" s="15">
+      <c r="H34" s="15">
         <f t="shared" si="0"/>
         <v>110.83566666666667</v>
       </c>
-      <c r="G34" s="15">
-        <f t="shared" si="1"/>
+      <c r="I34">
+        <v>108.935</v>
+      </c>
+      <c r="J34">
+        <v>115.655</v>
+      </c>
+      <c r="K34">
+        <v>115.73699999999999</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="1"/>
+        <v>113.44233333333334</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="2"/>
         <v>1.0397634705166814</v>
       </c>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N34" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0642169416900413</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>125</v>
+      </c>
+      <c r="D35">
         <v>85.205200000000005</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>91.269400000000005</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>91.033199999999994</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>91.206000000000003</v>
       </c>
-      <c r="F35" s="15">
+      <c r="H35" s="15">
         <f t="shared" si="0"/>
         <v>91.169533333333334</v>
       </c>
-      <c r="G35" s="15">
-        <f t="shared" si="1"/>
+      <c r="I35">
+        <v>86.751999999999995</v>
+      </c>
+      <c r="J35">
+        <v>90.194199999999995</v>
+      </c>
+      <c r="K35">
+        <v>90.831500000000005</v>
+      </c>
+      <c r="L35" s="15">
+        <f t="shared" si="1"/>
+        <v>89.259233333333327</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" si="2"/>
         <v>1.0699996400845644</v>
       </c>
-      <c r="H35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35">
-        <v>125</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="2"/>
+      <c r="N35" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0475796469386061</v>
+      </c>
+      <c r="O35" s="15">
+        <f>$H35/$C35</f>
         <v>0.72935626666666664</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P35" s="15">
+        <f t="shared" si="4"/>
+        <v>0.71407386666666661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B36">
+      <c r="D36">
         <v>70.168000000000006</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>79.088700000000003</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>79.164599999999993</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>78.892499999999998</v>
       </c>
-      <c r="F36" s="15">
+      <c r="H36" s="15">
         <f t="shared" si="0"/>
         <v>79.048600000000008</v>
       </c>
-      <c r="G36" s="15">
-        <f t="shared" si="1"/>
+      <c r="I36">
+        <v>77.165099999999995</v>
+      </c>
+      <c r="J36">
+        <v>78.483599999999996</v>
+      </c>
+      <c r="K36">
+        <v>78.7851</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="1"/>
+        <v>78.144599999999997</v>
+      </c>
+      <c r="M36" s="15">
+        <f t="shared" si="2"/>
         <v>1.1265619655683503</v>
       </c>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N36" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1136785999315926</v>
+      </c>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>81</v>
+      </c>
+      <c r="D37">
         <v>55.345500000000001</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>56.942999999999998</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>58.885100000000001</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>56.840800000000002</v>
       </c>
-      <c r="F37" s="15">
+      <c r="H37" s="15">
         <f t="shared" si="0"/>
         <v>57.5563</v>
       </c>
-      <c r="G37" s="15">
-        <f t="shared" si="1"/>
+      <c r="I37">
+        <v>57.391100000000002</v>
+      </c>
+      <c r="J37">
+        <v>58.860399999999998</v>
+      </c>
+      <c r="K37">
+        <v>58.984999999999999</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="1"/>
+        <v>58.412166666666657</v>
+      </c>
+      <c r="M37" s="15">
+        <f t="shared" si="2"/>
         <v>1.039945433684762</v>
       </c>
-      <c r="H37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37">
-        <v>81</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="2"/>
+      <c r="N37" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0554095033320985</v>
+      </c>
+      <c r="O37" s="15">
+        <f>$H37/$C37</f>
         <v>0.71057160493827165</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P37" s="15">
+        <f t="shared" si="4"/>
+        <v>0.7211378600823044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="D38">
         <v>43.687600000000003</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>48.405200000000001</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>48.880299999999998</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>48.8964</v>
       </c>
-      <c r="F38" s="15">
+      <c r="H38" s="15">
         <f t="shared" si="0"/>
         <v>48.727299999999993</v>
       </c>
-      <c r="G38" s="15">
-        <f t="shared" si="1"/>
+      <c r="I38">
+        <v>48.938200000000002</v>
+      </c>
+      <c r="J38">
+        <v>48.999200000000002</v>
+      </c>
+      <c r="K38">
+        <v>49.027900000000002</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="1"/>
+        <v>48.98843333333334</v>
+      </c>
+      <c r="M38" s="15">
+        <f t="shared" si="2"/>
         <v>1.1153576758622581</v>
       </c>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N38" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1213349630863982</v>
+      </c>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39">
+        <v>61</v>
+      </c>
+      <c r="D39">
         <v>33.146000000000001</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>36.984200000000001</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>36.743400000000001</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>36.943600000000004</v>
       </c>
-      <c r="F39" s="15">
+      <c r="H39" s="15">
         <f t="shared" si="0"/>
         <v>36.8904</v>
       </c>
-      <c r="G39" s="15">
-        <f t="shared" si="1"/>
+      <c r="I39">
+        <v>36.584699999999998</v>
+      </c>
+      <c r="J39">
+        <v>36.286999999999999</v>
+      </c>
+      <c r="K39">
+        <v>36.532800000000002</v>
+      </c>
+      <c r="L39" s="15">
+        <f t="shared" si="1"/>
+        <v>36.468166666666669</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="2"/>
         <v>1.1129668738309297</v>
       </c>
-      <c r="H39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39">
-        <v>61</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="2"/>
+      <c r="N39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1002282829501799</v>
+      </c>
+      <c r="O39" s="15">
+        <f>$H39/$C39</f>
         <v>0.60476065573770488</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P39" s="15">
+        <f t="shared" si="4"/>
+        <v>0.59783879781420768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="D40">
         <v>31.505099999999999</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>35.24</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>35.316800000000001</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>35.248399999999997</v>
       </c>
-      <c r="F40" s="15">
+      <c r="H40" s="15">
         <f t="shared" si="0"/>
         <v>35.268400000000007</v>
       </c>
-      <c r="G40" s="15">
-        <f t="shared" si="1"/>
+      <c r="I40">
+        <v>35.534300000000002</v>
+      </c>
+      <c r="J40">
+        <v>35.470799999999997</v>
+      </c>
+      <c r="K40">
+        <v>35.691600000000001</v>
+      </c>
+      <c r="L40" s="15">
+        <f t="shared" si="1"/>
+        <v>35.565566666666662</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="2"/>
         <v>1.1194505016648102</v>
       </c>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N40" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1288828369586721</v>
+      </c>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>289</v>
+      </c>
+      <c r="D41">
         <v>246.94</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>259.57100000000003</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>260.08800000000002</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>259.72300000000001</v>
       </c>
-      <c r="F41" s="15">
+      <c r="H41" s="15">
         <f t="shared" si="0"/>
         <v>259.79400000000004</v>
       </c>
-      <c r="G41" s="15">
-        <f t="shared" si="1"/>
+      <c r="I41">
+        <v>260.14400000000001</v>
+      </c>
+      <c r="J41">
+        <v>262.66199999999998</v>
+      </c>
+      <c r="K41">
+        <v>259.78100000000001</v>
+      </c>
+      <c r="L41" s="15">
+        <f t="shared" si="1"/>
+        <v>260.86233333333331</v>
+      </c>
+      <c r="M41" s="15">
+        <f t="shared" si="2"/>
         <v>1.0520531303150564</v>
       </c>
-      <c r="H41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41">
-        <v>289</v>
-      </c>
-      <c r="J41" s="15">
-        <f t="shared" si="2"/>
+      <c r="N41" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0563794174023378</v>
+      </c>
+      <c r="O41" s="15">
+        <f>$H41/$C41</f>
         <v>0.89894117647058835</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P41" s="15">
+        <f t="shared" si="4"/>
+        <v>0.90263783160322941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
         <v>36.017499999999998</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>51.200499999999998</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>50.967300000000002</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>50.97</v>
       </c>
-      <c r="F42" s="15">
+      <c r="H42" s="15">
         <f t="shared" si="0"/>
         <v>51.04593333333333</v>
       </c>
-      <c r="G42" s="15">
-        <f t="shared" si="1"/>
+      <c r="I42">
+        <v>52.343000000000004</v>
+      </c>
+      <c r="J42">
+        <v>52.696599999999997</v>
+      </c>
+      <c r="K42">
+        <v>52.031700000000001</v>
+      </c>
+      <c r="L42" s="15">
+        <f t="shared" si="1"/>
+        <v>52.357100000000003</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" si="2"/>
         <v>1.4172536498461397</v>
       </c>
-      <c r="H42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42">
-        <v>54</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="2"/>
+      <c r="N42" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4536572499479421</v>
+      </c>
+      <c r="O42" s="15">
+        <f>$H42/$C42</f>
         <v>0.94529506172839506</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P42" s="15">
+        <f t="shared" si="4"/>
+        <v>0.96957592592592601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="D43">
         <v>46.150300000000001</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>69.757599999999996</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>69.472499999999997</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>69.766000000000005</v>
       </c>
-      <c r="F43" s="15">
+      <c r="H43" s="15">
         <f t="shared" si="0"/>
         <v>69.665366666666671</v>
       </c>
-      <c r="G43" s="15">
-        <f t="shared" si="1"/>
+      <c r="I43">
+        <v>74.985900000000001</v>
+      </c>
+      <c r="J43">
+        <v>73.900300000000001</v>
+      </c>
+      <c r="K43">
+        <v>74.892700000000005</v>
+      </c>
+      <c r="L43" s="15">
+        <f t="shared" si="1"/>
+        <v>74.592966666666669</v>
+      </c>
+      <c r="M43" s="15">
+        <f t="shared" si="2"/>
         <v>1.5095322601731012</v>
       </c>
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N43" s="15">
+        <f t="shared" si="3"/>
+        <v>1.6163051305553089</v>
+      </c>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44">
+        <v>98</v>
+      </c>
+      <c r="D44">
         <v>44.649500000000003</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>92.557299999999998</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>91.822699999999998</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>91.989699999999999</v>
       </c>
-      <c r="F44" s="15">
+      <c r="H44" s="15">
         <f t="shared" si="0"/>
         <v>92.123233333333317</v>
       </c>
-      <c r="G44" s="15">
-        <f t="shared" si="1"/>
+      <c r="I44">
+        <v>94.052499999999995</v>
+      </c>
+      <c r="J44">
+        <v>95.202299999999994</v>
+      </c>
+      <c r="K44">
+        <v>95.262799999999999</v>
+      </c>
+      <c r="L44" s="15">
+        <f t="shared" si="1"/>
+        <v>94.839200000000005</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" si="2"/>
         <v>2.0632534145585799</v>
       </c>
-      <c r="H44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44">
-        <v>98</v>
-      </c>
-      <c r="J44" s="15">
-        <f t="shared" si="2"/>
+      <c r="N44" s="15">
+        <f t="shared" si="3"/>
+        <v>2.1240820165959304</v>
+      </c>
+      <c r="O44" s="15">
+        <f>$H44/$C44</f>
         <v>0.94003299319727873</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P44" s="15">
+        <f t="shared" si="4"/>
+        <v>0.96774693877551021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B45">
+      <c r="D45">
         <v>55.372700000000002</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>116.05800000000001</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>115.654</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>116.24299999999999</v>
       </c>
-      <c r="F45" s="15">
+      <c r="H45" s="15">
         <f t="shared" si="0"/>
         <v>115.985</v>
       </c>
-      <c r="G45" s="15">
-        <f t="shared" si="1"/>
+      <c r="I45">
+        <v>126.876</v>
+      </c>
+      <c r="J45">
+        <v>128.26300000000001</v>
+      </c>
+      <c r="K45">
+        <v>127.81</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="1"/>
+        <v>127.64966666666668</v>
+      </c>
+      <c r="M45" s="15">
+        <f t="shared" si="2"/>
         <v>2.0946242462440878</v>
       </c>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N45" s="15">
+        <f t="shared" si="3"/>
+        <v>2.3052816038709811</v>
+      </c>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>145</v>
+      </c>
+      <c r="D46">
         <v>54.224299999999999</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>149.345</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>149.173</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>149.459</v>
       </c>
-      <c r="F46" s="15">
+      <c r="H46" s="15">
         <f t="shared" si="0"/>
         <v>149.32566666666668</v>
       </c>
-      <c r="G46" s="15">
-        <f t="shared" si="1"/>
+      <c r="I46">
+        <v>158.374</v>
+      </c>
+      <c r="J46">
+        <v>157.256</v>
+      </c>
+      <c r="K46">
+        <v>157.99299999999999</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="1"/>
+        <v>157.87433333333334</v>
+      </c>
+      <c r="M46" s="15">
+        <f t="shared" si="2"/>
         <v>2.7538514405288161</v>
       </c>
-      <c r="H46" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46">
-        <v>145</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="2"/>
+      <c r="N46" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9115052353526618</v>
+      </c>
+      <c r="O46" s="15">
+        <f>$H46/$C46</f>
         <v>1.029832183908046</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P46" s="15">
+        <f t="shared" si="4"/>
+        <v>1.0887885057471265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="D47">
         <v>64.407399999999996</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>171.654</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>173.17599999999999</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>173.72399999999999</v>
       </c>
-      <c r="F47" s="15">
+      <c r="H47" s="15">
         <f t="shared" si="0"/>
         <v>172.85133333333332</v>
       </c>
-      <c r="G47" s="15">
-        <f t="shared" si="1"/>
+      <c r="I47">
+        <v>203.96199999999999</v>
+      </c>
+      <c r="J47">
+        <v>204.63</v>
+      </c>
+      <c r="K47">
+        <v>206.26599999999999</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="1"/>
+        <v>204.95266666666666</v>
+      </c>
+      <c r="M47" s="15">
+        <f t="shared" si="2"/>
         <v>2.6837185375179455</v>
       </c>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N47" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1821291756330279</v>
+      </c>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>231</v>
+      </c>
+      <c r="D48">
         <v>55.615299999999998</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>155.376</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>156.20599999999999</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>155.672</v>
       </c>
-      <c r="F48" s="15">
+      <c r="H48" s="15">
         <f t="shared" si="0"/>
         <v>155.75133333333335</v>
       </c>
-      <c r="G48" s="15">
-        <f t="shared" si="1"/>
+      <c r="I48">
+        <v>172.03800000000001</v>
+      </c>
+      <c r="J48">
+        <v>171.511</v>
+      </c>
+      <c r="K48">
+        <v>170.68</v>
+      </c>
+      <c r="L48" s="15">
+        <f t="shared" si="1"/>
+        <v>171.40966666666668</v>
+      </c>
+      <c r="M48" s="15">
+        <f t="shared" si="2"/>
         <v>2.8005123290413492</v>
       </c>
-      <c r="H48" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48">
-        <v>231</v>
-      </c>
-      <c r="J48" s="15">
-        <f t="shared" si="2"/>
+      <c r="N48" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0820595531565358</v>
+      </c>
+      <c r="O48" s="15">
+        <f>$H48/$C48</f>
         <v>0.67424819624819632</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P48" s="15">
+        <f t="shared" si="4"/>
+        <v>0.74203318903318904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B49">
+      <c r="D49">
         <v>58.844900000000003</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>141.94300000000001</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>141.684</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>142.53899999999999</v>
       </c>
-      <c r="F49" s="15">
+      <c r="H49" s="15">
         <f t="shared" si="0"/>
         <v>142.05533333333332</v>
       </c>
-      <c r="G49" s="15">
-        <f t="shared" si="1"/>
+      <c r="I49">
+        <v>178.11600000000001</v>
+      </c>
+      <c r="J49">
+        <v>178.20500000000001</v>
+      </c>
+      <c r="K49">
+        <v>177.98599999999999</v>
+      </c>
+      <c r="L49" s="15">
+        <f t="shared" si="1"/>
+        <v>178.10233333333335</v>
+      </c>
+      <c r="M49" s="15">
+        <f t="shared" si="2"/>
         <v>2.4140636373472182</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N49" s="15">
+        <f t="shared" si="3"/>
+        <v>3.026640088322579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="D50">
         <v>163.88200000000001</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>129.30500000000001</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>167.39500000000001</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>185.01300000000001</v>
       </c>
-      <c r="F50" s="15">
+      <c r="H50" s="15">
         <f t="shared" si="0"/>
         <v>160.57100000000003</v>
       </c>
-      <c r="G50" s="15">
-        <f t="shared" si="1"/>
+      <c r="I50">
+        <v>186.09700000000001</v>
+      </c>
+      <c r="J50">
+        <v>174.32300000000001</v>
+      </c>
+      <c r="K50">
+        <v>182.14699999999999</v>
+      </c>
+      <c r="L50" s="15">
+        <f t="shared" si="1"/>
+        <v>180.85566666666668</v>
+      </c>
+      <c r="M50" s="15">
+        <f t="shared" si="2"/>
         <v>0.97979643890116075</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N50" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1035724891486964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B51">
+      <c r="D51">
         <v>163.93</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>184.821</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>167.64599999999999</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>176.494</v>
       </c>
-      <c r="F51" s="15">
+      <c r="H51" s="15">
         <f t="shared" si="0"/>
         <v>176.32033333333334</v>
       </c>
-      <c r="G51" s="15">
-        <f t="shared" si="1"/>
+      <c r="I51">
+        <v>186.01400000000001</v>
+      </c>
+      <c r="J51">
+        <v>80.427599999999998</v>
+      </c>
+      <c r="K51">
+        <v>168.285</v>
+      </c>
+      <c r="L51" s="15">
+        <f t="shared" si="1"/>
+        <v>144.90886666666665</v>
+      </c>
+      <c r="M51" s="15">
+        <f t="shared" si="2"/>
         <v>1.0755830740763335</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N51" s="15">
+        <f t="shared" si="3"/>
+        <v>0.88396795380141924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B52">
+      <c r="D52">
         <v>129.75200000000001</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>151.22900000000001</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>152.40700000000001</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>152.68799999999999</v>
       </c>
-      <c r="F52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>152.108</v>
       </c>
-      <c r="G52" s="15">
-        <f t="shared" si="1"/>
+      <c r="I52">
+        <v>156.12</v>
+      </c>
+      <c r="J52">
+        <v>157.56399999999999</v>
+      </c>
+      <c r="K52">
+        <v>150.65100000000001</v>
+      </c>
+      <c r="L52" s="15">
+        <f t="shared" si="1"/>
+        <v>154.77833333333334</v>
+      </c>
+      <c r="M52" s="15">
+        <f t="shared" si="2"/>
         <v>1.172297922190024</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N52" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1928782086852867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B53">
+      <c r="D53">
         <v>106.705</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>125.97</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>117.05200000000001</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>125.282</v>
       </c>
-      <c r="F53" s="15">
+      <c r="H53" s="15">
         <f t="shared" si="0"/>
         <v>122.76799999999999</v>
       </c>
-      <c r="G53" s="15">
-        <f t="shared" si="1"/>
+      <c r="I53">
+        <v>127.959</v>
+      </c>
+      <c r="J53">
+        <v>127.616</v>
+      </c>
+      <c r="K53">
+        <v>127.078</v>
+      </c>
+      <c r="L53" s="15">
+        <f t="shared" si="1"/>
+        <v>127.551</v>
+      </c>
+      <c r="M53" s="15">
+        <f t="shared" si="2"/>
         <v>1.1505365259359916</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N53" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1953610421254861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B54">
+      <c r="D54">
         <v>75.327600000000004</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>81.813199999999995</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>78.256500000000003</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>77.868899999999996</v>
       </c>
-      <c r="F54" s="15">
+      <c r="H54" s="15">
         <f t="shared" si="0"/>
         <v>79.312866666666665</v>
       </c>
-      <c r="G54" s="15">
-        <f t="shared" si="1"/>
+      <c r="I54">
+        <v>84.527799999999999</v>
+      </c>
+      <c r="J54">
+        <v>84.509100000000004</v>
+      </c>
+      <c r="K54">
+        <v>85.010099999999994</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="1"/>
+        <v>84.682333333333332</v>
+      </c>
+      <c r="M54" s="15">
+        <f t="shared" si="2"/>
         <v>1.0529057963703432</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N54" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1241873275311218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B55">
+      <c r="D55">
         <v>59.714100000000002</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>65.305499999999995</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>66.884900000000002</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>64.173100000000005</v>
       </c>
-      <c r="F55" s="15">
+      <c r="H55" s="15">
         <f t="shared" si="0"/>
         <v>65.45450000000001</v>
       </c>
-      <c r="G55" s="15">
-        <f t="shared" si="1"/>
+      <c r="I55">
+        <v>67.075800000000001</v>
+      </c>
+      <c r="J55">
+        <v>67.345100000000002</v>
+      </c>
+      <c r="K55">
+        <v>67.475999999999999</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="1"/>
+        <v>67.298966666666672</v>
+      </c>
+      <c r="M55" s="15">
+        <f t="shared" si="2"/>
         <v>1.096131399451721</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N55" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1270196932829377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B56">
+      <c r="D56">
         <v>42.840400000000002</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>47.620699999999999</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>46.805199999999999</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>47.824399999999997</v>
       </c>
-      <c r="F56" s="15">
+      <c r="H56" s="15">
         <f t="shared" si="0"/>
         <v>47.416766666666661</v>
       </c>
-      <c r="G56" s="15">
-        <f t="shared" si="1"/>
+      <c r="I56">
+        <v>48.405000000000001</v>
+      </c>
+      <c r="J56">
+        <v>48.430700000000002</v>
+      </c>
+      <c r="K56">
+        <v>47.047600000000003</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="1"/>
+        <v>47.961100000000009</v>
+      </c>
+      <c r="M56" s="15">
+        <f t="shared" si="2"/>
         <v>1.1068236213169498</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N56" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1195296962680088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B57">
+      <c r="D57">
         <v>39.912399999999998</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>45.2883</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>45.432600000000001</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>44.664299999999997</v>
       </c>
-      <c r="F57" s="15">
+      <c r="H57" s="15">
         <f t="shared" si="0"/>
         <v>45.128399999999999</v>
       </c>
-      <c r="G57" s="15">
-        <f t="shared" si="1"/>
+      <c r="I57">
+        <v>46.100499999999997</v>
+      </c>
+      <c r="J57">
+        <v>45.194600000000001</v>
+      </c>
+      <c r="K57">
+        <v>46.227600000000002</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="1"/>
+        <v>45.840899999999998</v>
+      </c>
+      <c r="M57" s="15">
+        <f t="shared" si="2"/>
         <v>1.1306862027840971</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N57" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1485377977771318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B58">
+      <c r="D58">
         <v>217.971</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>33.990400000000001</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>34.084699999999998</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>33.998800000000003</v>
       </c>
-      <c r="F58" s="15">
+      <c r="H58" s="15">
         <f t="shared" si="0"/>
         <v>34.024633333333334</v>
       </c>
-      <c r="G58" s="15">
-        <f t="shared" si="1"/>
+      <c r="I58">
+        <v>34.101999999999997</v>
+      </c>
+      <c r="J58">
+        <v>33.983699999999999</v>
+      </c>
+      <c r="K58">
+        <v>33.927399999999999</v>
+      </c>
+      <c r="L58" s="15">
+        <f t="shared" si="1"/>
+        <v>34.00436666666667</v>
+      </c>
+      <c r="M58" s="15">
+        <f t="shared" si="2"/>
         <v>0.1560970649000708</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N58" s="15">
+        <f t="shared" si="3"/>
+        <v>0.15600408617048447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B59">
+      <c r="D59">
         <v>46.281700000000001</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>49.502699999999997</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>48.093499999999999</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>49.778799999999997</v>
       </c>
-      <c r="F59" s="15">
+      <c r="H59" s="15">
         <f t="shared" si="0"/>
         <v>49.125</v>
       </c>
-      <c r="G59" s="15">
-        <f t="shared" si="1"/>
+      <c r="I59">
+        <v>49.4816</v>
+      </c>
+      <c r="J59">
+        <v>49.667400000000001</v>
+      </c>
+      <c r="K59">
+        <v>49.747100000000003</v>
+      </c>
+      <c r="L59" s="15">
+        <f t="shared" si="1"/>
+        <v>49.632033333333332</v>
+      </c>
+      <c r="M59" s="15">
+        <f t="shared" si="2"/>
         <v>1.0614346491161732</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N59" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0723900231264913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B60">
+      <c r="D60">
         <v>59.088000000000001</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>72.408299999999997</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>72.783500000000004</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>74.329099999999997</v>
       </c>
-      <c r="F60" s="15">
+      <c r="H60" s="15">
         <f t="shared" si="0"/>
         <v>73.173633333333328</v>
       </c>
-      <c r="G60" s="15">
-        <f t="shared" si="1"/>
+      <c r="I60">
+        <v>73.789500000000004</v>
+      </c>
+      <c r="J60">
+        <v>72.065600000000003</v>
+      </c>
+      <c r="K60">
+        <v>73.7149</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="1"/>
+        <v>73.19</v>
+      </c>
+      <c r="M60" s="15">
+        <f t="shared" si="2"/>
         <v>1.2383839922375663</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N60" s="15">
+        <f t="shared" si="3"/>
+        <v>1.238660980232873</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B61">
+      <c r="D61">
         <v>43.688000000000002</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>98.672200000000004</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>97.705399999999997</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>98.841899999999995</v>
       </c>
-      <c r="F61" s="15">
+      <c r="H61" s="15">
         <f t="shared" si="0"/>
         <v>98.406499999999994</v>
       </c>
-      <c r="G61" s="15">
-        <f t="shared" si="1"/>
+      <c r="I61">
+        <v>102.376</v>
+      </c>
+      <c r="J61">
+        <v>101.71299999999999</v>
+      </c>
+      <c r="K61">
+        <v>100.785</v>
+      </c>
+      <c r="L61" s="15">
+        <f t="shared" si="1"/>
+        <v>101.62466666666667</v>
+      </c>
+      <c r="M61" s="15">
+        <f t="shared" si="2"/>
         <v>2.2524835195019226</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N61" s="15">
+        <f t="shared" si="3"/>
+        <v>2.3261460050051883</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B62">
+      <c r="D62">
         <v>49.496499999999997</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>148.36600000000001</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>147.87299999999999</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>147.613</v>
       </c>
-      <c r="F62" s="15">
+      <c r="H62" s="15">
         <f t="shared" si="0"/>
         <v>147.95066666666668</v>
       </c>
-      <c r="G62" s="15">
-        <f t="shared" si="1"/>
+      <c r="I62">
+        <v>146.91999999999999</v>
+      </c>
+      <c r="J62">
+        <v>149.57400000000001</v>
+      </c>
+      <c r="K62">
+        <v>148.38800000000001</v>
+      </c>
+      <c r="L62" s="15">
+        <f t="shared" si="1"/>
+        <v>148.29400000000001</v>
+      </c>
+      <c r="M62" s="15">
+        <f t="shared" si="2"/>
         <v>2.9891137083766868</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N62" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9960502257735397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B63">
+      <c r="D63">
         <v>46.491</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>189.95599999999999</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>199.02099999999999</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>193.60499999999999</v>
       </c>
-      <c r="F63" s="15">
+      <c r="H63" s="15">
         <f t="shared" si="0"/>
         <v>194.19399999999999</v>
       </c>
-      <c r="G63" s="15">
-        <f t="shared" si="1"/>
+      <c r="I63">
+        <v>198.96100000000001</v>
+      </c>
+      <c r="J63">
+        <v>196.636</v>
+      </c>
+      <c r="K63">
+        <v>199.452</v>
+      </c>
+      <c r="L63" s="15">
+        <f t="shared" si="1"/>
+        <v>198.34966666666665</v>
+      </c>
+      <c r="M63" s="15">
+        <f t="shared" si="2"/>
         <v>4.1770235099266522</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N63" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2664099861621958</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B64">
+      <c r="D64">
         <v>54.691400000000002</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>239.72499999999999</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>242.49799999999999</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>241.297</v>
       </c>
-      <c r="F64" s="15">
+      <c r="H64" s="15">
         <f t="shared" si="0"/>
         <v>241.17333333333332</v>
       </c>
-      <c r="G64" s="15">
-        <f t="shared" si="1"/>
+      <c r="I64">
+        <v>270.62099999999998</v>
+      </c>
+      <c r="J64">
+        <v>265.73099999999999</v>
+      </c>
+      <c r="K64">
+        <v>272.08499999999998</v>
+      </c>
+      <c r="L64" s="15">
+        <f t="shared" si="1"/>
+        <v>269.47899999999998</v>
+      </c>
+      <c r="M64" s="15">
+        <f t="shared" si="2"/>
         <v>4.409712191191546</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N64" s="15">
+        <f t="shared" si="3"/>
+        <v>4.9272646156434101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B65">
+      <c r="D65">
         <v>46.815600000000003</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>191.14</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>178.82900000000001</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>191.51499999999999</v>
       </c>
-      <c r="F65" s="15">
+      <c r="H65" s="15">
         <f t="shared" si="0"/>
         <v>187.16133333333332</v>
       </c>
-      <c r="G65" s="15">
-        <f t="shared" si="1"/>
+      <c r="I65">
+        <v>140.095</v>
+      </c>
+      <c r="J65">
+        <v>140.238</v>
+      </c>
+      <c r="K65">
+        <v>138.80099999999999</v>
+      </c>
+      <c r="L65" s="15">
+        <f t="shared" si="1"/>
+        <v>139.71133333333333</v>
+      </c>
+      <c r="M65" s="15">
+        <f t="shared" si="2"/>
         <v>3.9978411754486389</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N65" s="15">
+        <f t="shared" si="3"/>
+        <v>2.9842901369059311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B66">
+      <c r="D66">
         <v>49.731000000000002</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>159.77000000000001</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>172.77699999999999</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>175.18600000000001</v>
       </c>
-      <c r="F66" s="15">
+      <c r="H66" s="15">
         <f t="shared" si="0"/>
         <v>169.24433333333334</v>
       </c>
-      <c r="G66" s="15">
-        <f t="shared" si="1"/>
+      <c r="I66">
+        <v>128.57900000000001</v>
+      </c>
+      <c r="J66">
+        <v>129.81200000000001</v>
+      </c>
+      <c r="K66">
+        <v>129.46</v>
+      </c>
+      <c r="L66" s="15">
+        <f t="shared" si="1"/>
+        <v>129.28366666666668</v>
+      </c>
+      <c r="M66" s="15">
+        <f t="shared" si="2"/>
         <v>3.403195860395595</v>
       </c>
+      <c r="N66" s="15">
+        <f t="shared" si="3"/>
+        <v>2.5996595014511406</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="F50:I66">
-    <sortCondition ref="F50"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozidar\Documents\Code\SDR\Ziria\compiler\code\WiFi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitris\work\ZIRIA\Ziria\code\WiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>OptRX/Asplos</t>
+  </si>
+  <si>
+    <t>Dimitris</t>
+  </si>
+  <si>
+    <t>DV/SORA</t>
+  </si>
+  <si>
+    <t>2thr/1thr</t>
   </si>
 </sst>
 </file>
@@ -397,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +443,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -479,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,6 +530,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,13 +830,15 @@
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
@@ -847,20 +875,26 @@
       <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -899,24 +933,31 @@
         <f>AVERAGE($I2, $J2, $K2)</f>
         <v>1951.46</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2">
+        <v>2719.83</v>
+      </c>
+      <c r="N2" s="15">
         <f>$H2/$D2</f>
         <v>1.7444714159999812</v>
       </c>
-      <c r="N2" s="15">
+      <c r="O2" s="15">
         <f>$L2/$D2</f>
         <v>1.9566509950899738</v>
       </c>
-      <c r="O2" s="15">
-        <f>$H2/$C2</f>
+      <c r="P2" s="15">
+        <f t="shared" ref="P2:P33" si="0">$H2/$C2</f>
         <v>0.56820487698671884</v>
       </c>
-      <c r="P2" s="15">
+      <c r="Q2" s="15">
         <f>$L2/$C2</f>
         <v>0.63731548007838013</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>$M2/$C2</f>
+        <v>0.88825277596342256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -939,7 +980,7 @@
         <v>2102.1</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H66" si="0">AVERAGE($E3, $F3, $G3)</f>
+        <f t="shared" ref="H3:H66" si="1">AVERAGE($E3, $F3, $G3)</f>
         <v>2014.4466666666667</v>
       </c>
       <c r="I3">
@@ -952,27 +993,34 @@
         <v>1834.33</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L66" si="1">AVERAGE($I3, $J3, $K3)</f>
+        <f t="shared" ref="L3:L66" si="2">AVERAGE($I3, $J3, $K3)</f>
         <v>1839.7633333333333</v>
       </c>
-      <c r="M3" s="15">
-        <f t="shared" ref="M3:M66" si="2">$H3/$D3</f>
+      <c r="M3">
+        <v>2640.52</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" ref="N3:N66" si="3">$H3/$D3</f>
         <v>3.7567190389606351</v>
       </c>
-      <c r="N3" s="15">
-        <f t="shared" ref="N3:N66" si="3">$L3/$D3</f>
+      <c r="O3" s="15">
+        <f t="shared" ref="O3:O66" si="4">$L3/$D3</f>
         <v>3.4309540460316716</v>
       </c>
-      <c r="O3" s="15">
-        <f>$H3/$C3</f>
+      <c r="P3" s="15">
+        <f t="shared" si="0"/>
         <v>0.77807905240118447</v>
       </c>
-      <c r="P3" s="15">
-        <f t="shared" ref="P3:P48" si="4">$L3/$C3</f>
+      <c r="Q3" s="15">
+        <f t="shared" ref="Q3:Q48" si="5">$L3/$C3</f>
         <v>0.71060769924037592</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R48" si="6">$M3/$C3</f>
+        <v>1.0198995751255311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1043,7 @@
         <v>4261.12</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3359.6966666666667</v>
       </c>
       <c r="I4">
@@ -1008,27 +1056,34 @@
         <v>1569.95</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1572.5033333333333</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" si="2"/>
+      <c r="M4">
+        <v>2157.42</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="3"/>
         <v>4.3611864363510016</v>
       </c>
-      <c r="N4" s="15">
-        <f t="shared" si="3"/>
+      <c r="O4" s="15">
+        <f t="shared" si="4"/>
         <v>2.0412498177266212</v>
       </c>
-      <c r="O4" s="15">
-        <f>$H4/$C4</f>
+      <c r="P4" s="15">
+        <f t="shared" si="0"/>
         <v>0.90265896471431128</v>
       </c>
-      <c r="P4" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q4" s="15">
+        <f t="shared" si="5"/>
         <v>0.42248880530180905</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0.57963997850617954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1106,7 @@
         <v>172.89599999999999</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172.9193333333333</v>
       </c>
       <c r="I5">
@@ -1064,27 +1119,34 @@
         <v>171.471</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171.79066666666668</v>
       </c>
-      <c r="M5" s="15">
-        <f t="shared" si="2"/>
+      <c r="M5">
+        <v>158.17599999999999</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="3"/>
         <v>1.01160870116321</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" si="3"/>
+      <c r="O5" s="15">
+        <f t="shared" si="4"/>
         <v>1.0050058014254932</v>
       </c>
-      <c r="O5" s="15">
-        <f>$H5/$C5</f>
+      <c r="P5" s="15">
+        <f t="shared" si="0"/>
         <v>0.83535909822866328</v>
       </c>
-      <c r="P5" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q5" s="15">
+        <f t="shared" si="5"/>
         <v>0.82990660225442836</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0.76413526570048307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1169,7 @@
         <v>1950.98</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3590.1966666666667</v>
       </c>
       <c r="I6">
@@ -1120,27 +1182,34 @@
         <v>6271.64</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6392.77</v>
       </c>
-      <c r="M6" s="15">
-        <f t="shared" si="2"/>
+      <c r="M6">
+        <v>5177.22</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="3"/>
         <v>16.858074371808957</v>
       </c>
-      <c r="N6" s="15">
-        <f t="shared" si="3"/>
+      <c r="O6" s="15">
+        <f t="shared" si="4"/>
         <v>30.017796267948874</v>
       </c>
-      <c r="O6" s="15">
-        <f>$H6/$C6</f>
+      <c r="P6" s="15">
+        <f t="shared" si="0"/>
         <v>1.7720615333991445</v>
       </c>
-      <c r="P6" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="15">
+        <f t="shared" si="5"/>
         <v>3.1553652517275421</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>2.5553899308983219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1232,7 @@
         <v>1957.97</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2195.4</v>
       </c>
       <c r="I7">
@@ -1176,27 +1245,34 @@
         <v>4430.72</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4522.7000000000007</v>
       </c>
-      <c r="M7" s="15">
-        <f t="shared" si="2"/>
+      <c r="M7">
+        <v>4259.9399999999996</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="3"/>
         <v>9.099047571680801</v>
       </c>
-      <c r="N7" s="15">
-        <f t="shared" si="3"/>
+      <c r="O7" s="15">
+        <f t="shared" si="4"/>
         <v>18.744767446679766</v>
       </c>
-      <c r="O7" s="15">
-        <f>$H7/$C7</f>
+      <c r="P7" s="15">
+        <f t="shared" si="0"/>
         <v>1.5427969079409698</v>
       </c>
-      <c r="P7" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="15">
+        <f t="shared" si="5"/>
         <v>3.1782853127196069</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>2.9936331693605056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1295,7 @@
         <v>1837.99</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2411.3866666666668</v>
       </c>
       <c r="I8">
@@ -1232,27 +1308,34 @@
         <v>3501.78</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3503.8700000000003</v>
       </c>
-      <c r="M8" s="15">
-        <f t="shared" si="2"/>
+      <c r="M8">
+        <v>3202.3</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="3"/>
         <v>7.8657994254635772</v>
       </c>
-      <c r="N8" s="15">
-        <f t="shared" si="3"/>
+      <c r="O8" s="15">
+        <f t="shared" si="4"/>
         <v>11.429414873143143</v>
       </c>
-      <c r="O8" s="15">
-        <f>$H8/$C8</f>
+      <c r="P8" s="15">
+        <f t="shared" si="0"/>
         <v>0.49332787779596293</v>
       </c>
-      <c r="P8" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q8" s="15">
+        <f t="shared" si="5"/>
         <v>0.71683101472995092</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0.65513502454991823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1358,7 @@
         <v>2976.7</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3318.8366666666661</v>
       </c>
       <c r="I9">
@@ -1288,27 +1371,34 @@
         <v>4137.04</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4516.1400000000003</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" si="2"/>
+      <c r="M9">
+        <v>3843.86</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="3"/>
         <v>13.281137242504396</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="3"/>
+      <c r="O9" s="15">
+        <f t="shared" si="4"/>
         <v>18.072439583658475</v>
       </c>
-      <c r="O9" s="15">
-        <f>$H9/$C9</f>
+      <c r="P9" s="15">
+        <f t="shared" si="0"/>
         <v>0.8722303985983354</v>
       </c>
-      <c r="P9" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q9" s="15">
+        <f t="shared" si="5"/>
         <v>1.1868961892247045</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>1.0102128777923784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1421,7 @@
         <v>3493.83</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3420.7766666666666</v>
       </c>
       <c r="I10">
@@ -1344,27 +1434,34 @@
         <v>2892.37</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2955.64</v>
       </c>
-      <c r="M10" s="15">
-        <f t="shared" si="2"/>
+      <c r="M10">
+        <v>2572.35</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="3"/>
         <v>1.3791563522205288</v>
       </c>
-      <c r="N10" s="15">
-        <f t="shared" si="3"/>
+      <c r="O10" s="15">
+        <f t="shared" si="4"/>
         <v>1.1916269543691589</v>
       </c>
-      <c r="O10" s="15">
-        <f>$H10/$C10</f>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
         <v>4.5069521299956081</v>
       </c>
-      <c r="P10" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="15">
+        <f t="shared" si="5"/>
         <v>3.8941238471673252</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>3.3891304347826088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -1387,7 +1484,7 @@
         <v>1571.2</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1748.3133333333333</v>
       </c>
       <c r="I11">
@@ -1400,27 +1497,34 @@
         <v>2083.71</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2095.0700000000002</v>
       </c>
-      <c r="M11" s="15">
-        <f t="shared" si="2"/>
+      <c r="M11">
+        <v>3164.98</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="3"/>
         <v>1.9210461158896688</v>
       </c>
-      <c r="N11" s="15">
-        <f t="shared" si="3"/>
+      <c r="O11" s="15">
+        <f t="shared" si="4"/>
         <v>2.302062227222982</v>
       </c>
-      <c r="O11" s="15">
-        <f>$H11/$C11</f>
+      <c r="P11" s="15">
+        <f t="shared" si="0"/>
         <v>0.59812293305964193</v>
       </c>
-      <c r="P11" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q11" s="15">
+        <f t="shared" si="5"/>
         <v>0.71675333561409516</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>1.0827848101265822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1547,7 @@
         <v>2681.47</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2827.8333333333335</v>
       </c>
       <c r="I12">
@@ -1456,27 +1560,34 @@
         <v>3120.03</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3074.5966666666668</v>
       </c>
-      <c r="M12" s="15">
-        <f t="shared" si="2"/>
+      <c r="M12">
+        <v>4280.46</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="3"/>
         <v>2.0503134621984409</v>
       </c>
-      <c r="N12" s="15">
-        <f t="shared" si="3"/>
+      <c r="O12" s="15">
+        <f t="shared" si="4"/>
         <v>2.2292285978064896</v>
       </c>
-      <c r="O12" s="15">
-        <f>$H12/$C12</f>
+      <c r="P12" s="15">
+        <f t="shared" si="0"/>
         <v>1.0113853123509777</v>
       </c>
-      <c r="P12" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q12" s="15">
+        <f t="shared" si="5"/>
         <v>1.0996411540295661</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>1.530922746781116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1610,7 @@
         <v>3136.92</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2737.0433333333335</v>
       </c>
       <c r="I13">
@@ -1512,27 +1623,34 @@
         <v>1953.2</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1956.9366666666665</v>
       </c>
-      <c r="M13" s="15">
-        <f t="shared" si="2"/>
+      <c r="M13">
+        <v>2291.35</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="3"/>
         <v>2.8701463713024862</v>
       </c>
-      <c r="N13" s="15">
-        <f t="shared" si="3"/>
+      <c r="O13" s="15">
+        <f t="shared" si="4"/>
         <v>2.0521029405339273</v>
       </c>
-      <c r="O13" s="15">
-        <f>$H13/$C13</f>
+      <c r="P13" s="15">
+        <f t="shared" si="0"/>
         <v>0.95367363530778171</v>
       </c>
-      <c r="P13" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q13" s="15">
+        <f t="shared" si="5"/>
         <v>0.68185946573751444</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0.7983797909407665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1673,7 @@
         <v>6352.11</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4850.12</v>
       </c>
       <c r="I14">
@@ -1568,27 +1686,34 @@
         <v>1951.17</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1962.3033333333333</v>
       </c>
-      <c r="M14" s="15">
-        <f t="shared" si="2"/>
+      <c r="M14">
+        <v>2792.13</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
         <v>6.5117228249705637</v>
       </c>
-      <c r="N14" s="15">
-        <f t="shared" si="3"/>
+      <c r="O14" s="15">
+        <f t="shared" si="4"/>
         <v>2.634568918950972</v>
       </c>
-      <c r="O14" s="15">
-        <f>$H14/$C14</f>
+      <c r="P14" s="15">
+        <f t="shared" si="0"/>
         <v>1.2803907074973599</v>
       </c>
-      <c r="P14" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q14" s="15">
+        <f t="shared" si="5"/>
         <v>0.51803150299190426</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0.73709873284054916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1736,7 @@
         <v>1968.38</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1856.1966666666667</v>
       </c>
       <c r="I15">
@@ -1623,28 +1748,35 @@
       <c r="K15">
         <v>1625.22</v>
       </c>
-      <c r="L15" s="15">
-        <f t="shared" si="1"/>
+      <c r="L15" s="18">
+        <f t="shared" si="2"/>
         <v>1634.82</v>
       </c>
-      <c r="M15" s="15">
-        <f t="shared" si="2"/>
+      <c r="M15">
+        <v>2777.48</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="3"/>
         <v>1.8075729541987209</v>
       </c>
-      <c r="N15" s="15">
-        <f t="shared" si="3"/>
+      <c r="O15" s="15">
+        <f t="shared" si="4"/>
         <v>1.5919953257376569</v>
       </c>
-      <c r="O15" s="15">
-        <f>$H15/$C15</f>
+      <c r="P15" s="15">
+        <f t="shared" si="0"/>
         <v>0.49092744423873758</v>
       </c>
-      <c r="P15" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q15" s="15">
+        <f t="shared" si="5"/>
         <v>0.43237767786299919</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.73458873313938111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1799,7 @@
         <v>145.13300000000001</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.46266666666668</v>
       </c>
       <c r="I16">
@@ -1680,27 +1812,34 @@
         <v>145.55699999999999</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>146.26133333333334</v>
       </c>
-      <c r="M16" s="15">
-        <f t="shared" si="2"/>
+      <c r="M16">
+        <v>134.91999999999999</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="3"/>
         <v>1.0653171627216624</v>
       </c>
-      <c r="N16" s="15">
-        <f t="shared" si="3"/>
+      <c r="O16" s="15">
+        <f t="shared" si="4"/>
         <v>1.0711663151316304</v>
       </c>
-      <c r="O16" s="15">
-        <f>$H16/$C16</f>
+      <c r="P16" s="15">
+        <f t="shared" si="0"/>
         <v>0.75369257340241802</v>
       </c>
-      <c r="P16" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="5"/>
         <v>0.75783074265975825</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0.69906735751295335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -1723,7 +1862,7 @@
         <v>1147.29</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1199.2933333333333</v>
       </c>
       <c r="I17">
@@ -1736,27 +1875,34 @@
         <v>1096.94</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1151.3399999999999</v>
       </c>
-      <c r="M17" s="15">
-        <f t="shared" si="2"/>
+      <c r="M17">
+        <v>1217.3599999999999</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="3"/>
         <v>0.8796600555490357</v>
       </c>
-      <c r="N17" s="15">
-        <f t="shared" si="3"/>
+      <c r="O17" s="15">
+        <f t="shared" si="4"/>
         <v>0.84448714939561087</v>
       </c>
-      <c r="O17" s="15">
-        <f>$H17/$C17</f>
+      <c r="P17" s="15">
+        <f t="shared" si="0"/>
         <v>0.71386507936507937</v>
       </c>
-      <c r="P17" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="5"/>
         <v>0.68532142857142853</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>0.72461904761904761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1779,7 +1925,7 @@
         <v>2084.9</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2049.603333333333</v>
       </c>
       <c r="I18">
@@ -1792,27 +1938,34 @@
         <v>2370.7399999999998</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2193.8166666666666</v>
       </c>
-      <c r="M18" s="15">
-        <f t="shared" si="2"/>
+      <c r="M18">
+        <v>2149.61</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="3"/>
         <v>0.571920611357286</v>
       </c>
-      <c r="N18" s="15">
-        <f t="shared" si="3"/>
+      <c r="O18" s="15">
+        <f t="shared" si="4"/>
         <v>0.61216185044218485</v>
       </c>
-      <c r="O18" s="15">
-        <f>$H18/$C18</f>
+      <c r="P18" s="15">
+        <f t="shared" si="0"/>
         <v>0.42923630017452002</v>
       </c>
-      <c r="P18" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="5"/>
         <v>0.45943804537521815</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0.4501801047120419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1835,7 +1988,7 @@
         <v>1586.47</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1483.2333333333333</v>
       </c>
       <c r="I19">
@@ -1848,27 +2001,34 @@
         <v>1780.85</v>
       </c>
       <c r="L19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1664.3166666666666</v>
       </c>
-      <c r="M19" s="15">
-        <f t="shared" si="2"/>
+      <c r="M19">
+        <v>1447.7</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="3"/>
         <v>0.6464214167316763</v>
       </c>
-      <c r="N19" s="15">
-        <f t="shared" si="3"/>
+      <c r="O19" s="15">
+        <f t="shared" si="4"/>
         <v>0.72534099212765424</v>
       </c>
-      <c r="O19" s="15">
-        <f>$H19/$C19</f>
+      <c r="P19" s="15">
+        <f t="shared" si="0"/>
         <v>0.50398686147921623</v>
       </c>
-      <c r="P19" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q19" s="15">
+        <f t="shared" si="5"/>
         <v>0.56551704609808584</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>0.49191301393136255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +2051,7 @@
         <v>1527.3</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1764.5966666666666</v>
       </c>
       <c r="I20">
@@ -1904,27 +2064,34 @@
         <v>1570.25</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1698.2466666666667</v>
       </c>
-      <c r="M20" s="15">
-        <f t="shared" si="2"/>
+      <c r="M20">
+        <v>1523.39</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="3"/>
         <v>0.74614228852355502</v>
       </c>
-      <c r="N20" s="15">
-        <f t="shared" si="3"/>
+      <c r="O20" s="15">
+        <f t="shared" si="4"/>
         <v>0.71808684572536818</v>
       </c>
-      <c r="O20" s="15">
-        <f>$H20/$C20</f>
+      <c r="P20" s="15">
+        <f t="shared" si="0"/>
         <v>0.53278884863123988</v>
       </c>
-      <c r="P20" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q20" s="15">
+        <f t="shared" si="5"/>
         <v>0.5127556360708535</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0.45996074879227056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -1947,7 +2114,7 @@
         <v>1733.4</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1828.1566666666665</v>
       </c>
       <c r="I21">
@@ -1960,27 +2127,34 @@
         <v>1712.77</v>
       </c>
       <c r="L21" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1701.33</v>
       </c>
-      <c r="M21" s="15">
-        <f t="shared" si="2"/>
+      <c r="M21">
+        <v>1537.28</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="3"/>
         <v>0.69826543525810947</v>
       </c>
-      <c r="N21" s="15">
-        <f t="shared" si="3"/>
+      <c r="O21" s="15">
+        <f t="shared" si="4"/>
         <v>0.64982392079873497</v>
       </c>
-      <c r="O21" s="15">
-        <f>$H21/$C21</f>
+      <c r="P21" s="15">
+        <f t="shared" si="0"/>
         <v>0.54328578504210001</v>
       </c>
-      <c r="P21" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q21" s="15">
+        <f t="shared" si="5"/>
         <v>0.50559583952451703</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0.45684398216939076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -2003,7 +2177,7 @@
         <v>1579.4</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1788.0466666666664</v>
       </c>
       <c r="I22">
@@ -2016,27 +2190,34 @@
         <v>1531.58</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1672.6033333333332</v>
       </c>
-      <c r="M22" s="15">
-        <f t="shared" si="2"/>
+      <c r="M22">
+        <v>1714.18</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="3"/>
         <v>0.75008564792480314</v>
       </c>
-      <c r="N22" s="15">
-        <f t="shared" si="3"/>
+      <c r="O22" s="15">
+        <f t="shared" si="4"/>
         <v>0.70165716499076403</v>
       </c>
-      <c r="O22" s="15">
-        <f>$H22/$C22</f>
+      <c r="P22" s="15">
+        <f t="shared" si="0"/>
         <v>0.57290825590088634</v>
       </c>
-      <c r="P22" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="5"/>
         <v>0.53591904304176008</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0.54924062800384499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2059,7 +2240,7 @@
         <v>1320.34</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1329.7133333333334</v>
       </c>
       <c r="I23">
@@ -2072,27 +2253,34 @@
         <v>1326.35</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1343.1666666666667</v>
       </c>
-      <c r="M23" s="15">
-        <f t="shared" si="2"/>
+      <c r="M23">
+        <v>1350.06</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="3"/>
         <v>0.76911835022288033</v>
       </c>
-      <c r="N23" s="15">
-        <f t="shared" si="3"/>
+      <c r="O23" s="15">
+        <f t="shared" si="4"/>
         <v>0.77689988123332254</v>
       </c>
-      <c r="O23" s="15">
-        <f>$H23/$C23</f>
+      <c r="P23" s="15">
+        <f t="shared" si="0"/>
         <v>1.5354657428791378</v>
       </c>
-      <c r="P23" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q23" s="15">
+        <f t="shared" si="5"/>
         <v>1.5510007698229409</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>1.5589607390300231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -2115,7 +2303,7 @@
         <v>665.57100000000003</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>604.19666666666672</v>
       </c>
       <c r="I24">
@@ -2128,27 +2316,34 @@
         <v>586.95799999999997</v>
       </c>
       <c r="L24" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>593.75900000000001</v>
       </c>
-      <c r="M24" s="15">
-        <f t="shared" si="2"/>
+      <c r="M24">
+        <v>485.59699999999998</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="3"/>
         <v>0.92782898286327387</v>
       </c>
-      <c r="N24" s="15">
-        <f t="shared" si="3"/>
+      <c r="O24" s="15">
+        <f t="shared" si="4"/>
         <v>0.91180047727712488</v>
       </c>
-      <c r="O24" s="15">
-        <f>$H24/$C24</f>
+      <c r="P24" s="15">
+        <f t="shared" si="0"/>
         <v>0.95449710373881003</v>
       </c>
-      <c r="P24" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q24" s="15">
+        <f t="shared" si="5"/>
         <v>0.93800789889415481</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0.76713586097946285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -2171,7 +2366,7 @@
         <v>460.505</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>430.94900000000001</v>
       </c>
       <c r="I25">
@@ -2184,27 +2379,34 @@
         <v>432.97500000000002</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>431.15200000000004</v>
       </c>
-      <c r="M25" s="15">
-        <f t="shared" si="2"/>
+      <c r="M25">
+        <v>381.79899999999998</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="3"/>
         <v>0.94596807473812683</v>
       </c>
-      <c r="N25" s="15">
-        <f t="shared" si="3"/>
+      <c r="O25" s="15">
+        <f t="shared" si="4"/>
         <v>0.94641367623429429</v>
       </c>
-      <c r="O25" s="15">
-        <f>$H25/$C25</f>
+      <c r="P25" s="15">
+        <f t="shared" si="0"/>
         <v>0.82557279693486596</v>
       </c>
-      <c r="P25" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q25" s="15">
+        <f t="shared" si="5"/>
         <v>0.82596168582375484</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0.73141570881226048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -2227,7 +2429,7 @@
         <v>865.83799999999997</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>880.50800000000015</v>
       </c>
       <c r="I26">
@@ -2240,27 +2442,34 @@
         <v>867.17499999999995</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>872.09833333333336</v>
       </c>
-      <c r="M26" s="15">
-        <f t="shared" si="2"/>
+      <c r="M26">
+        <v>794.90599999999995</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="3"/>
         <v>0.88974443700050232</v>
       </c>
-      <c r="N26" s="15">
-        <f t="shared" si="3"/>
+      <c r="O26" s="15">
+        <f t="shared" si="4"/>
         <v>0.88124655380841854</v>
       </c>
-      <c r="O26" s="15">
-        <f>$H26/$C26</f>
+      <c r="P26" s="15">
+        <f t="shared" si="0"/>
         <v>1.1570407358738504</v>
       </c>
-      <c r="P26" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q26" s="15">
+        <f t="shared" si="5"/>
         <v>1.1459899255365746</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>1.0445545335085413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2283,7 +2492,7 @@
         <v>2604.64</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2766.3466666666664</v>
       </c>
       <c r="I27">
@@ -2296,27 +2505,34 @@
         <v>2476.7199999999998</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2675.4033333333332</v>
       </c>
-      <c r="M27" s="15">
-        <f t="shared" si="2"/>
+      <c r="M27">
+        <v>3131.85</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="3"/>
         <v>0.67114363164670787</v>
       </c>
-      <c r="N27" s="15">
-        <f t="shared" si="3"/>
+      <c r="O27" s="15">
+        <f t="shared" si="4"/>
         <v>0.64907986077415258</v>
       </c>
-      <c r="O27" s="15">
-        <f>$H27/$C27</f>
+      <c r="P27" s="15">
+        <f t="shared" si="0"/>
         <v>2.4287503658179688</v>
       </c>
-      <c r="P27" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q27" s="15">
+        <f t="shared" si="5"/>
         <v>2.3489054726368157</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>2.7496488147497806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
@@ -2339,7 +2555,7 @@
         <v>400.726</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>381.73466666666673</v>
       </c>
       <c r="I28">
@@ -2352,27 +2568,34 @@
         <v>400.39600000000002</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>385.73133333333334</v>
       </c>
-      <c r="M28" s="15">
-        <f t="shared" si="2"/>
+      <c r="M28">
+        <v>409.375</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="3"/>
         <v>0.98748659154482665</v>
       </c>
-      <c r="N28" s="15">
-        <f t="shared" si="3"/>
+      <c r="O28" s="15">
+        <f t="shared" si="4"/>
         <v>0.99782532964967285</v>
       </c>
-      <c r="O28" s="15">
-        <f>$H28/$C28</f>
+      <c r="P28" s="15">
+        <f t="shared" si="0"/>
         <v>0.82093476702508972</v>
       </c>
-      <c r="P28" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q28" s="15">
+        <f t="shared" si="5"/>
         <v>0.82952974910394262</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0.8803763440860215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2618,7 @@
         <v>189.374</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189.30233333333334</v>
       </c>
       <c r="I29">
@@ -2408,27 +2631,34 @@
         <v>145.52000000000001</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144.77933333333331</v>
       </c>
-      <c r="M29" s="15">
-        <f t="shared" si="2"/>
+      <c r="M29">
+        <v>135.744</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="3"/>
         <v>0.8908303176612502</v>
       </c>
-      <c r="N29" s="15">
-        <f t="shared" si="3"/>
+      <c r="O29" s="15">
+        <f t="shared" si="4"/>
         <v>0.68131130363308079</v>
       </c>
-      <c r="O29" s="15">
-        <f>$H29/$C29</f>
+      <c r="P29" s="15">
+        <f t="shared" si="0"/>
         <v>0.52006135531135533</v>
       </c>
-      <c r="P29" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q29" s="15">
+        <f t="shared" si="5"/>
         <v>0.39774542124542117</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0.37292307692307691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
@@ -2451,7 +2681,7 @@
         <v>273.529</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>273.80333333333334</v>
       </c>
       <c r="I30">
@@ -2464,27 +2694,34 @@
         <v>276.07499999999999</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>276.70033333333339</v>
       </c>
-      <c r="M30" s="15">
-        <f t="shared" si="2"/>
+      <c r="M30">
+        <v>259.03100000000001</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="3"/>
         <v>1.0256957763925516</v>
       </c>
-      <c r="N30" s="15">
-        <f t="shared" si="3"/>
+      <c r="O30" s="15">
+        <f t="shared" si="4"/>
         <v>1.0365482398305763</v>
       </c>
-      <c r="O30" s="15">
-        <f>$H30/$C30</f>
+      <c r="P30" s="15">
+        <f t="shared" si="0"/>
         <v>0.62943295019157086</v>
       </c>
-      <c r="P30" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q30" s="15">
+        <f t="shared" si="5"/>
         <v>0.63609272030651354</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>0.59547356321839084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
@@ -2507,7 +2744,7 @@
         <v>1627.39</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1350.04</v>
       </c>
       <c r="I31">
@@ -2520,27 +2757,34 @@
         <v>1286.3900000000001</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1322.1500000000003</v>
       </c>
-      <c r="M31" s="15">
-        <f t="shared" si="2"/>
+      <c r="M31">
+        <v>1197.33</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="3"/>
         <v>0.81161476493928097</v>
       </c>
-      <c r="N31" s="15">
-        <f t="shared" si="3"/>
+      <c r="O31" s="15">
+        <f t="shared" si="4"/>
         <v>0.79484790188770005</v>
       </c>
-      <c r="O31" s="15">
-        <f>$H31/$C31</f>
+      <c r="P31" s="15">
+        <f t="shared" si="0"/>
         <v>2.0963354037267079</v>
       </c>
-      <c r="P31" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q31" s="15">
+        <f t="shared" si="5"/>
         <v>2.0530279503105593</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>1.8592080745341615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
@@ -2563,7 +2807,7 @@
         <v>111.54900000000001</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.04699999999998</v>
       </c>
       <c r="I32">
@@ -2576,27 +2820,34 @@
         <v>116.036</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.96733333333333</v>
       </c>
-      <c r="M32" s="15">
-        <f t="shared" si="2"/>
+      <c r="M32">
+        <v>105.496</v>
+      </c>
+      <c r="N32" s="15">
+        <f t="shared" si="3"/>
         <v>0.99254108267041852</v>
       </c>
-      <c r="N32" s="15">
-        <f t="shared" si="3"/>
+      <c r="O32" s="15">
+        <f t="shared" si="4"/>
         <v>1.0459380317597753</v>
       </c>
-      <c r="O32" s="15">
-        <f>$H32/$C32</f>
+      <c r="P32" s="15">
+        <f t="shared" si="0"/>
         <v>0.66695151515151507</v>
       </c>
-      <c r="P32" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q32" s="15">
+        <f t="shared" si="5"/>
         <v>0.70283232323232325</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0.63936969696969692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -2619,7 +2870,7 @@
         <v>119.86499999999999</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125.98366666666668</v>
       </c>
       <c r="I33">
@@ -2632,27 +2883,34 @@
         <v>129.76499999999999</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.70066666666665</v>
       </c>
-      <c r="M33" s="15">
-        <f t="shared" si="2"/>
+      <c r="M33">
+        <v>104.913</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="3"/>
         <v>1.0616392374307249</v>
       </c>
-      <c r="N33" s="15">
-        <f t="shared" si="3"/>
+      <c r="O33" s="15">
+        <f t="shared" si="4"/>
         <v>1.0929616552483516</v>
       </c>
-      <c r="O33" s="15">
-        <f>$H33/$C33</f>
+      <c r="P33" s="15">
+        <f t="shared" si="0"/>
         <v>0.76819308943089437</v>
       </c>
-      <c r="P33" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q33" s="15">
+        <f t="shared" si="5"/>
         <v>0.79085772357723572</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0.63971341463414633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2927,7 @@
         <v>108.1</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.83566666666667</v>
       </c>
       <c r="I34">
@@ -2682,21 +2940,24 @@
         <v>115.73699999999999</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113.44233333333334</v>
       </c>
-      <c r="M34" s="15">
-        <f t="shared" si="2"/>
+      <c r="M34">
+        <v>97.739599999999996</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="3"/>
         <v>1.0397634705166814</v>
       </c>
-      <c r="N34" s="15">
-        <f t="shared" si="3"/>
+      <c r="O34" s="15">
+        <f t="shared" si="4"/>
         <v>1.0642169416900413</v>
       </c>
-      <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2980,7 @@
         <v>91.206000000000003</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.169533333333334</v>
       </c>
       <c r="I35">
@@ -2732,27 +2993,34 @@
         <v>90.831500000000005</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.259233333333327</v>
       </c>
-      <c r="M35" s="15">
-        <f t="shared" si="2"/>
+      <c r="M35">
+        <v>78.779799999999994</v>
+      </c>
+      <c r="N35" s="15">
+        <f t="shared" si="3"/>
         <v>1.0699996400845644</v>
       </c>
-      <c r="N35" s="15">
-        <f t="shared" si="3"/>
+      <c r="O35" s="15">
+        <f t="shared" si="4"/>
         <v>1.0475796469386061</v>
       </c>
-      <c r="O35" s="15">
+      <c r="P35" s="15">
         <f>$H35/$C35</f>
         <v>0.72935626666666664</v>
       </c>
-      <c r="P35" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q35" s="15">
+        <f t="shared" si="5"/>
         <v>0.71407386666666661</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0.63023839999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +3037,7 @@
         <v>78.892499999999998</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.048600000000008</v>
       </c>
       <c r="I36">
@@ -2782,21 +3050,24 @@
         <v>78.7851</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.144599999999997</v>
       </c>
-      <c r="M36" s="15">
-        <f t="shared" si="2"/>
+      <c r="M36">
+        <v>55.382899999999999</v>
+      </c>
+      <c r="N36" s="15">
+        <f t="shared" si="3"/>
         <v>1.1265619655683503</v>
       </c>
-      <c r="N36" s="15">
-        <f t="shared" si="3"/>
+      <c r="O36" s="15">
+        <f t="shared" si="4"/>
         <v>1.1136785999315926</v>
       </c>
-      <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -2819,7 +3090,7 @@
         <v>56.840800000000002</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.5563</v>
       </c>
       <c r="I37">
@@ -2832,27 +3103,34 @@
         <v>58.984999999999999</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.412166666666657</v>
       </c>
-      <c r="M37" s="15">
-        <f t="shared" si="2"/>
+      <c r="M37">
+        <v>46.868600000000001</v>
+      </c>
+      <c r="N37" s="15">
+        <f t="shared" si="3"/>
         <v>1.039945433684762</v>
       </c>
-      <c r="N37" s="15">
-        <f t="shared" si="3"/>
+      <c r="O37" s="15">
+        <f t="shared" si="4"/>
         <v>1.0554095033320985</v>
       </c>
-      <c r="O37" s="15">
+      <c r="P37" s="15">
         <f>$H37/$C37</f>
         <v>0.71057160493827165</v>
       </c>
-      <c r="P37" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q37" s="15">
+        <f t="shared" si="5"/>
         <v>0.7211378600823044</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0.57862469135802475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -2869,7 +3147,7 @@
         <v>48.8964</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.727299999999993</v>
       </c>
       <c r="I38">
@@ -2882,21 +3160,24 @@
         <v>49.027900000000002</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.98843333333334</v>
       </c>
-      <c r="M38" s="15">
-        <f t="shared" si="2"/>
+      <c r="M38">
+        <v>38.995800000000003</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="3"/>
         <v>1.1153576758622581</v>
       </c>
-      <c r="N38" s="15">
-        <f t="shared" si="3"/>
+      <c r="O38" s="15">
+        <f t="shared" si="4"/>
         <v>1.1213349630863982</v>
       </c>
-      <c r="O38" s="15"/>
       <c r="P38" s="15"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="15"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -2919,7 +3200,7 @@
         <v>36.943600000000004</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.8904</v>
       </c>
       <c r="I39">
@@ -2932,27 +3213,34 @@
         <v>36.532800000000002</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.468166666666669</v>
       </c>
-      <c r="M39" s="15">
-        <f t="shared" si="2"/>
+      <c r="M39">
+        <v>30.373999999999999</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="3"/>
         <v>1.1129668738309297</v>
       </c>
-      <c r="N39" s="15">
-        <f t="shared" si="3"/>
+      <c r="O39" s="15">
+        <f t="shared" si="4"/>
         <v>1.1002282829501799</v>
       </c>
-      <c r="O39" s="15">
+      <c r="P39" s="15">
         <f>$H39/$C39</f>
         <v>0.60476065573770488</v>
       </c>
-      <c r="P39" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q39" s="15">
+        <f t="shared" si="5"/>
         <v>0.59783879781420768</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0.49793442622950818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +3257,7 @@
         <v>35.248399999999997</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.268400000000007</v>
       </c>
       <c r="I40">
@@ -2982,21 +3270,24 @@
         <v>35.691600000000001</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.565566666666662</v>
       </c>
-      <c r="M40" s="15">
-        <f t="shared" si="2"/>
+      <c r="M40">
+        <v>29.0684</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="3"/>
         <v>1.1194505016648102</v>
       </c>
-      <c r="N40" s="15">
-        <f t="shared" si="3"/>
+      <c r="O40" s="15">
+        <f t="shared" si="4"/>
         <v>1.1288828369586721</v>
       </c>
-      <c r="O40" s="15"/>
       <c r="P40" s="15"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3310,7 @@
         <v>259.72300000000001</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259.79400000000004</v>
       </c>
       <c r="I41">
@@ -3032,27 +3323,34 @@
         <v>259.78100000000001</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260.86233333333331</v>
       </c>
-      <c r="M41" s="15">
-        <f t="shared" si="2"/>
+      <c r="M41">
+        <v>217.18299999999999</v>
+      </c>
+      <c r="N41" s="15">
+        <f t="shared" si="3"/>
         <v>1.0520531303150564</v>
       </c>
-      <c r="N41" s="15">
-        <f t="shared" si="3"/>
+      <c r="O41" s="15">
+        <f t="shared" si="4"/>
         <v>1.0563794174023378</v>
       </c>
-      <c r="O41" s="15">
+      <c r="P41" s="15">
         <f>$H41/$C41</f>
         <v>0.89894117647058835</v>
       </c>
-      <c r="P41" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q41" s="15">
+        <f t="shared" si="5"/>
         <v>0.90263783160322941</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>0.75149826989619373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -3075,7 +3373,7 @@
         <v>50.97</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.04593333333333</v>
       </c>
       <c r="I42">
@@ -3088,27 +3386,34 @@
         <v>52.031700000000001</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.357100000000003</v>
       </c>
-      <c r="M42" s="15">
-        <f t="shared" si="2"/>
+      <c r="M42">
+        <v>49.960700000000003</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" si="3"/>
         <v>1.4172536498461397</v>
       </c>
-      <c r="N42" s="15">
-        <f t="shared" si="3"/>
+      <c r="O42" s="15">
+        <f t="shared" si="4"/>
         <v>1.4536572499479421</v>
       </c>
-      <c r="O42" s="15">
+      <c r="P42" s="15">
         <f>$H42/$C42</f>
         <v>0.94529506172839506</v>
       </c>
-      <c r="P42" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q42" s="15">
+        <f t="shared" si="5"/>
         <v>0.96957592592592601</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0.92519814814814816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
@@ -3125,7 +3430,7 @@
         <v>69.766000000000005</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.665366666666671</v>
       </c>
       <c r="I43">
@@ -3138,21 +3443,24 @@
         <v>74.892700000000005</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.592966666666669</v>
       </c>
-      <c r="M43" s="15">
-        <f t="shared" si="2"/>
+      <c r="M43">
+        <v>71.829800000000006</v>
+      </c>
+      <c r="N43" s="15">
+        <f t="shared" si="3"/>
         <v>1.5095322601731012</v>
       </c>
-      <c r="N43" s="15">
-        <f t="shared" si="3"/>
+      <c r="O43" s="15">
+        <f t="shared" si="4"/>
         <v>1.6163051305553089</v>
       </c>
-      <c r="O43" s="15"/>
       <c r="P43" s="15"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
@@ -3175,7 +3483,7 @@
         <v>91.989699999999999</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.123233333333317</v>
       </c>
       <c r="I44">
@@ -3188,27 +3496,34 @@
         <v>95.262799999999999</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94.839200000000005</v>
       </c>
-      <c r="M44" s="15">
-        <f t="shared" si="2"/>
+      <c r="M44">
+        <v>86.194000000000003</v>
+      </c>
+      <c r="N44" s="15">
+        <f t="shared" si="3"/>
         <v>2.0632534145585799</v>
       </c>
-      <c r="N44" s="15">
-        <f t="shared" si="3"/>
+      <c r="O44" s="15">
+        <f t="shared" si="4"/>
         <v>2.1240820165959304</v>
       </c>
-      <c r="O44" s="15">
+      <c r="P44" s="15">
         <f>$H44/$C44</f>
         <v>0.94003299319727873</v>
       </c>
-      <c r="P44" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q44" s="15">
+        <f t="shared" si="5"/>
         <v>0.96774693877551021</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>0.87953061224489804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -3225,7 +3540,7 @@
         <v>116.24299999999999</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115.985</v>
       </c>
       <c r="I45">
@@ -3238,21 +3553,24 @@
         <v>127.81</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127.64966666666668</v>
       </c>
-      <c r="M45" s="15">
-        <f t="shared" si="2"/>
+      <c r="M45">
+        <v>105.68300000000001</v>
+      </c>
+      <c r="N45" s="15">
+        <f t="shared" si="3"/>
         <v>2.0946242462440878</v>
       </c>
-      <c r="N45" s="15">
-        <f t="shared" si="3"/>
+      <c r="O45" s="15">
+        <f t="shared" si="4"/>
         <v>2.3052816038709811</v>
       </c>
-      <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
@@ -3275,7 +3593,7 @@
         <v>149.459</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149.32566666666668</v>
       </c>
       <c r="I46">
@@ -3288,27 +3606,34 @@
         <v>157.99299999999999</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157.87433333333334</v>
       </c>
-      <c r="M46" s="15">
-        <f t="shared" si="2"/>
+      <c r="M46">
+        <v>151.34299999999999</v>
+      </c>
+      <c r="N46" s="15">
+        <f t="shared" si="3"/>
         <v>2.7538514405288161</v>
       </c>
-      <c r="N46" s="15">
-        <f t="shared" si="3"/>
+      <c r="O46" s="15">
+        <f t="shared" si="4"/>
         <v>2.9115052353526618</v>
       </c>
-      <c r="O46" s="15">
+      <c r="P46" s="15">
         <f>$H46/$C46</f>
         <v>1.029832183908046</v>
       </c>
-      <c r="P46" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q46" s="15">
+        <f t="shared" si="5"/>
         <v>1.0887885057471265</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>1.0437448275862069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -3325,7 +3650,7 @@
         <v>173.72399999999999</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172.85133333333332</v>
       </c>
       <c r="I47">
@@ -3338,21 +3663,24 @@
         <v>206.26599999999999</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>204.95266666666666</v>
       </c>
-      <c r="M47" s="15">
-        <f t="shared" si="2"/>
+      <c r="M47">
+        <v>189.08</v>
+      </c>
+      <c r="N47" s="15">
+        <f t="shared" si="3"/>
         <v>2.6837185375179455</v>
       </c>
-      <c r="N47" s="15">
-        <f t="shared" si="3"/>
+      <c r="O47" s="15">
+        <f t="shared" si="4"/>
         <v>3.1821291756330279</v>
       </c>
-      <c r="O47" s="15"/>
       <c r="P47" s="15"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -3375,7 +3703,7 @@
         <v>155.672</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>155.75133333333335</v>
       </c>
       <c r="I48">
@@ -3387,28 +3715,38 @@
       <c r="K48">
         <v>170.68</v>
       </c>
-      <c r="L48" s="15">
-        <f t="shared" si="1"/>
+      <c r="L48" s="20">
+        <f t="shared" si="2"/>
         <v>171.40966666666668</v>
       </c>
-      <c r="M48" s="15">
-        <f t="shared" si="2"/>
+      <c r="M48" s="21">
+        <v>142.33000000000001</v>
+      </c>
+      <c r="N48" s="15">
+        <f t="shared" si="3"/>
         <v>2.8005123290413492</v>
       </c>
-      <c r="N48" s="15">
-        <f t="shared" si="3"/>
+      <c r="O48" s="15">
+        <f t="shared" si="4"/>
         <v>3.0820595531565358</v>
       </c>
-      <c r="O48" s="15">
+      <c r="P48" s="15">
         <f>$H48/$C48</f>
         <v>0.67424819624819632</v>
       </c>
-      <c r="P48" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q48" s="20">
+        <f t="shared" si="5"/>
         <v>0.74203318903318904</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R48" s="21">
+        <f t="shared" si="6"/>
+        <v>0.61614718614718622</v>
+      </c>
+      <c r="T48" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
@@ -3425,7 +3763,7 @@
         <v>142.53899999999999</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142.05533333333332</v>
       </c>
       <c r="I49">
@@ -3437,20 +3775,23 @@
       <c r="K49">
         <v>177.98599999999999</v>
       </c>
-      <c r="L49" s="15">
-        <f t="shared" si="1"/>
+      <c r="L49" s="20">
+        <f t="shared" si="2"/>
         <v>178.10233333333335</v>
       </c>
-      <c r="M49" s="15">
-        <f t="shared" si="2"/>
+      <c r="M49" s="21">
+        <v>171.405</v>
+      </c>
+      <c r="N49" s="15">
+        <f t="shared" si="3"/>
         <v>2.4140636373472182</v>
       </c>
-      <c r="N49" s="15">
-        <f t="shared" si="3"/>
+      <c r="O49" s="15">
+        <f t="shared" si="4"/>
         <v>3.026640088322579</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
@@ -3467,7 +3808,7 @@
         <v>185.01300000000001</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160.57100000000003</v>
       </c>
       <c r="I50">
@@ -3480,19 +3821,24 @@
         <v>182.14699999999999</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180.85566666666668</v>
       </c>
-      <c r="M50" s="15">
-        <f t="shared" si="2"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15">
+        <f t="shared" si="3"/>
         <v>0.97979643890116075</v>
       </c>
-      <c r="N50" s="15">
-        <f t="shared" si="3"/>
+      <c r="O50" s="15">
+        <f t="shared" si="4"/>
         <v>1.1035724891486964</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T50" s="20">
+        <f>$L50/$L33</f>
+        <v>1.3944081500480596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
@@ -3509,7 +3855,7 @@
         <v>176.494</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>176.32033333333334</v>
       </c>
       <c r="I51">
@@ -3522,19 +3868,24 @@
         <v>168.285</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144.90886666666665</v>
       </c>
-      <c r="M51" s="15">
-        <f t="shared" si="2"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15">
+        <f t="shared" si="3"/>
         <v>1.0755830740763335</v>
       </c>
-      <c r="N51" s="15">
-        <f t="shared" si="3"/>
+      <c r="O51" s="15">
+        <f t="shared" si="4"/>
         <v>0.88396795380141924</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T51" s="20">
+        <f t="shared" ref="T51:T66" si="7">$L51/$L34</f>
+        <v>1.2773791089158366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -3551,7 +3902,7 @@
         <v>152.68799999999999</v>
       </c>
       <c r="H52" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>152.108</v>
       </c>
       <c r="I52">
@@ -3564,19 +3915,24 @@
         <v>150.65100000000001</v>
       </c>
       <c r="L52" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.77833333333334</v>
       </c>
-      <c r="M52" s="15">
-        <f t="shared" si="2"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15">
+        <f t="shared" si="3"/>
         <v>1.172297922190024</v>
       </c>
-      <c r="N52" s="15">
-        <f t="shared" si="3"/>
+      <c r="O52" s="15">
+        <f t="shared" si="4"/>
         <v>1.1928782086852867</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T52" s="15">
+        <f>$L52/$L35</f>
+        <v>1.7340316239925879</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
@@ -3593,7 +3949,7 @@
         <v>125.282</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122.76799999999999</v>
       </c>
       <c r="I53">
@@ -3606,19 +3962,24 @@
         <v>127.078</v>
       </c>
       <c r="L53" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127.551</v>
       </c>
-      <c r="M53" s="15">
-        <f t="shared" si="2"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15">
+        <f t="shared" si="3"/>
         <v>1.1505365259359916</v>
       </c>
-      <c r="N53" s="15">
-        <f t="shared" si="3"/>
+      <c r="O53" s="15">
+        <f t="shared" si="4"/>
         <v>1.1953610421254861</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T53" s="15">
+        <f t="shared" si="7"/>
+        <v>1.6322433028001935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
@@ -3635,7 +3996,7 @@
         <v>77.868899999999996</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.312866666666665</v>
       </c>
       <c r="I54">
@@ -3648,19 +4009,24 @@
         <v>85.010099999999994</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.682333333333332</v>
       </c>
-      <c r="M54" s="15">
-        <f t="shared" si="2"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15">
+        <f t="shared" si="3"/>
         <v>1.0529057963703432</v>
       </c>
-      <c r="N54" s="15">
-        <f t="shared" si="3"/>
+      <c r="O54" s="15">
+        <f t="shared" si="4"/>
         <v>1.1241873275311218</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T54" s="15">
+        <f t="shared" si="7"/>
+        <v>1.4497379256033991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
@@ -3677,7 +4043,7 @@
         <v>64.173100000000005</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.45450000000001</v>
       </c>
       <c r="I55">
@@ -3690,19 +4056,24 @@
         <v>67.475999999999999</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.298966666666672</v>
       </c>
-      <c r="M55" s="15">
-        <f t="shared" si="2"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15">
+        <f t="shared" si="3"/>
         <v>1.096131399451721</v>
       </c>
-      <c r="N55" s="15">
-        <f t="shared" si="3"/>
+      <c r="O55" s="15">
+        <f t="shared" si="4"/>
         <v>1.1270196932829377</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T55" s="15">
+        <f t="shared" si="7"/>
+        <v>1.373772584412783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
@@ -3719,7 +4090,7 @@
         <v>47.824399999999997</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.416766666666661</v>
       </c>
       <c r="I56">
@@ -3732,19 +4103,24 @@
         <v>47.047600000000003</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.961100000000009</v>
       </c>
-      <c r="M56" s="15">
-        <f t="shared" si="2"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15">
+        <f t="shared" si="3"/>
         <v>1.1068236213169498</v>
       </c>
-      <c r="N56" s="15">
-        <f t="shared" si="3"/>
+      <c r="O56" s="15">
+        <f t="shared" si="4"/>
         <v>1.1195296962680088</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T56" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3151497424694598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
@@ -3761,7 +4137,7 @@
         <v>44.664299999999997</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.128399999999999</v>
       </c>
       <c r="I57">
@@ -3774,19 +4150,24 @@
         <v>46.227600000000002</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.840899999999998</v>
       </c>
-      <c r="M57" s="15">
-        <f t="shared" si="2"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15">
+        <f t="shared" si="3"/>
         <v>1.1306862027840971</v>
       </c>
-      <c r="N57" s="15">
-        <f t="shared" si="3"/>
+      <c r="O57" s="15">
+        <f t="shared" si="4"/>
         <v>1.1485377977771318</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T57" s="15">
+        <f t="shared" si="7"/>
+        <v>1.2889124031015018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -3803,7 +4184,7 @@
         <v>33.998800000000003</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.024633333333334</v>
       </c>
       <c r="I58">
@@ -3816,19 +4197,24 @@
         <v>33.927399999999999</v>
       </c>
       <c r="L58" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.00436666666667</v>
       </c>
-      <c r="M58" s="15">
-        <f t="shared" si="2"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15">
+        <f t="shared" si="3"/>
         <v>0.1560970649000708</v>
       </c>
-      <c r="N58" s="15">
-        <f t="shared" si="3"/>
+      <c r="O58" s="15">
+        <f t="shared" si="4"/>
         <v>0.15600408617048447</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T58" s="15">
+        <f t="shared" si="7"/>
+        <v>0.13035368591607069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
@@ -3845,7 +4231,7 @@
         <v>49.778799999999997</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.125</v>
       </c>
       <c r="I59">
@@ -3858,19 +4244,24 @@
         <v>49.747100000000003</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.632033333333332</v>
       </c>
-      <c r="M59" s="15">
-        <f t="shared" si="2"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15">
+        <f t="shared" si="3"/>
         <v>1.0614346491161732</v>
       </c>
-      <c r="N59" s="15">
-        <f t="shared" si="3"/>
+      <c r="O59" s="15">
+        <f t="shared" si="4"/>
         <v>1.0723900231264913</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T59" s="15">
+        <f t="shared" si="7"/>
+        <v>0.94795229936977654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
@@ -3887,7 +4278,7 @@
         <v>74.329099999999997</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.173633333333328</v>
       </c>
       <c r="I60">
@@ -3900,19 +4291,24 @@
         <v>73.7149</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.19</v>
       </c>
-      <c r="M60" s="15">
-        <f t="shared" si="2"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15">
+        <f t="shared" si="3"/>
         <v>1.2383839922375663</v>
       </c>
-      <c r="N60" s="15">
-        <f t="shared" si="3"/>
+      <c r="O60" s="15">
+        <f t="shared" si="4"/>
         <v>1.238660980232873</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T60" s="15">
+        <f t="shared" si="7"/>
+        <v>0.98119170306047609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
@@ -3929,7 +4325,7 @@
         <v>98.841899999999995</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98.406499999999994</v>
       </c>
       <c r="I61">
@@ -3942,19 +4338,24 @@
         <v>100.785</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101.62466666666667</v>
       </c>
-      <c r="M61" s="15">
-        <f t="shared" si="2"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15">
+        <f t="shared" si="3"/>
         <v>2.2524835195019226</v>
       </c>
-      <c r="N61" s="15">
-        <f t="shared" si="3"/>
+      <c r="O61" s="15">
+        <f t="shared" si="4"/>
         <v>2.3261460050051883</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T61" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0715470677385159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
@@ -3971,7 +4372,7 @@
         <v>147.613</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147.95066666666668</v>
       </c>
       <c r="I62">
@@ -3984,19 +4385,24 @@
         <v>148.38800000000001</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>148.29400000000001</v>
       </c>
-      <c r="M62" s="15">
-        <f t="shared" si="2"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15">
+        <f t="shared" si="3"/>
         <v>2.9891137083766868</v>
       </c>
-      <c r="N62" s="15">
-        <f t="shared" si="3"/>
+      <c r="O62" s="15">
+        <f t="shared" si="4"/>
         <v>2.9960502257735397</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T62" s="15">
+        <f t="shared" si="7"/>
+        <v>1.161726496217512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
@@ -4013,7 +4419,7 @@
         <v>193.60499999999999</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194.19399999999999</v>
       </c>
       <c r="I63">
@@ -4026,19 +4432,24 @@
         <v>199.452</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>198.34966666666665</v>
       </c>
-      <c r="M63" s="15">
-        <f t="shared" si="2"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15">
+        <f t="shared" si="3"/>
         <v>4.1770235099266522</v>
       </c>
-      <c r="N63" s="15">
-        <f t="shared" si="3"/>
+      <c r="O63" s="15">
+        <f t="shared" si="4"/>
         <v>4.2664099861621958</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T63" s="15">
+        <f t="shared" si="7"/>
+        <v>1.2563769073714746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
@@ -4055,7 +4466,7 @@
         <v>241.297</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>241.17333333333332</v>
       </c>
       <c r="I64">
@@ -4068,19 +4479,24 @@
         <v>272.08499999999998</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>269.47899999999998</v>
       </c>
-      <c r="M64" s="15">
-        <f t="shared" si="2"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15">
+        <f t="shared" si="3"/>
         <v>4.409712191191546</v>
       </c>
-      <c r="N64" s="15">
-        <f t="shared" si="3"/>
+      <c r="O64" s="15">
+        <f t="shared" si="4"/>
         <v>4.9272646156434101</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T64" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3148352953039564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>32</v>
       </c>
@@ -4097,7 +4513,7 @@
         <v>191.51499999999999</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187.16133333333332</v>
       </c>
       <c r="I65">
@@ -4110,19 +4526,24 @@
         <v>138.80099999999999</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>139.71133333333333</v>
       </c>
-      <c r="M65" s="15">
-        <f t="shared" si="2"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15">
+        <f t="shared" si="3"/>
         <v>3.9978411754486389</v>
       </c>
-      <c r="N65" s="15">
-        <f t="shared" si="3"/>
+      <c r="O65" s="15">
+        <f t="shared" si="4"/>
         <v>2.9842901369059311</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T65" s="20">
+        <f t="shared" si="7"/>
+        <v>0.81507266217969032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
@@ -4139,7 +4560,7 @@
         <v>175.18600000000001</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>169.24433333333334</v>
       </c>
       <c r="I66">
@@ -4152,19 +4573,27 @@
         <v>129.46</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.28366666666668</v>
       </c>
-      <c r="M66" s="15">
-        <f t="shared" si="2"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15">
+        <f t="shared" si="3"/>
         <v>3.403195860395595</v>
       </c>
-      <c r="N66" s="15">
-        <f t="shared" si="3"/>
+      <c r="O66" s="15">
+        <f t="shared" si="4"/>
         <v>2.5996595014511406</v>
       </c>
+      <c r="T66" s="20">
+        <f t="shared" si="7"/>
+        <v>0.72589541218812403</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="T19:U35">
+    <sortCondition ref="T19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitris\work\ZIRIA\Ziria\code\WiFi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozidar\Documents\Code\SDR\Ziria\compiler\code\WiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -406,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,13 +439,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -501,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,7 +523,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -814,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48:M49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,9 +828,10 @@
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
@@ -894,7 +887,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -921,17 +914,17 @@
         <v>1739.8433333333332</v>
       </c>
       <c r="I2">
-        <v>1948.87</v>
+        <v>1858.22</v>
       </c>
       <c r="J2">
-        <v>1950.18</v>
+        <v>1850.29</v>
       </c>
       <c r="K2">
-        <v>1955.33</v>
-      </c>
-      <c r="L2" s="15">
+        <v>1857.39</v>
+      </c>
+      <c r="L2">
         <f>AVERAGE($I2, $J2, $K2)</f>
-        <v>1951.46</v>
+        <v>1855.3000000000002</v>
       </c>
       <c r="M2">
         <v>2719.83</v>
@@ -942,7 +935,7 @@
       </c>
       <c r="O2" s="15">
         <f>$L2/$D2</f>
-        <v>1.9566509950899738</v>
+        <v>1.8602352039962022</v>
       </c>
       <c r="P2" s="15">
         <f t="shared" ref="P2:P33" si="0">$H2/$C2</f>
@@ -950,14 +943,26 @@
       </c>
       <c r="Q2" s="15">
         <f>$L2/$C2</f>
-        <v>0.63731548007838013</v>
+        <v>0.60591116917047683</v>
       </c>
       <c r="R2">
         <f>$M2/$C2</f>
         <v>0.88825277596342256</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>1858.22</v>
+      </c>
+      <c r="Y2">
+        <v>1850.29</v>
+      </c>
+      <c r="Z2">
+        <v>1857.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -984,17 +989,17 @@
         <v>2014.4466666666667</v>
       </c>
       <c r="I3">
-        <v>1848.8</v>
+        <v>1847.02</v>
       </c>
       <c r="J3">
-        <v>1836.16</v>
+        <v>1849.4</v>
       </c>
       <c r="K3">
-        <v>1834.33</v>
-      </c>
-      <c r="L3" s="15">
+        <v>1860.45</v>
+      </c>
+      <c r="L3">
         <f t="shared" ref="L3:L66" si="2">AVERAGE($I3, $J3, $K3)</f>
-        <v>1839.7633333333333</v>
+        <v>1852.29</v>
       </c>
       <c r="M3">
         <v>2640.52</v>
@@ -1005,7 +1010,7 @@
       </c>
       <c r="O3" s="15">
         <f t="shared" ref="O3:O66" si="4">$L3/$D3</f>
-        <v>3.4309540460316716</v>
+        <v>3.4543148864748936</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" si="0"/>
@@ -1013,14 +1018,26 @@
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q48" si="5">$L3/$C3</f>
-        <v>0.71060769924037592</v>
+        <v>0.71544611819235227</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R48" si="6">$M3/$C3</f>
         <v>1.0198995751255311</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>1847.02</v>
+      </c>
+      <c r="Y3">
+        <v>1849.4</v>
+      </c>
+      <c r="Z3">
+        <v>1860.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1047,17 +1064,17 @@
         <v>3359.6966666666667</v>
       </c>
       <c r="I4">
-        <v>1576.71</v>
+        <v>1582.49</v>
       </c>
       <c r="J4">
-        <v>1570.85</v>
+        <v>1578.42</v>
       </c>
       <c r="K4">
-        <v>1569.95</v>
-      </c>
-      <c r="L4" s="15">
+        <v>1590.39</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="2"/>
-        <v>1572.5033333333333</v>
+        <v>1583.7666666666667</v>
       </c>
       <c r="M4">
         <v>2157.42</v>
@@ -1068,7 +1085,7 @@
       </c>
       <c r="O4" s="15">
         <f t="shared" si="4"/>
-        <v>2.0412498177266212</v>
+        <v>2.0558706306853609</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="0"/>
@@ -1076,14 +1093,26 @@
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="5"/>
-        <v>0.42248880530180905</v>
+        <v>0.42551495611678308</v>
       </c>
       <c r="R4">
         <f t="shared" si="6"/>
         <v>0.57963997850617954</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>1582.49</v>
+      </c>
+      <c r="Y4">
+        <v>1578.42</v>
+      </c>
+      <c r="Z4">
+        <v>1590.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1110,17 +1139,17 @@
         <v>172.9193333333333</v>
       </c>
       <c r="I5">
-        <v>171.76900000000001</v>
+        <v>172.83799999999999</v>
       </c>
       <c r="J5">
-        <v>172.13200000000001</v>
+        <v>170.226</v>
       </c>
       <c r="K5">
-        <v>171.471</v>
-      </c>
-      <c r="L5" s="15">
+        <v>173.221</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>171.79066666666668</v>
+        <v>172.095</v>
       </c>
       <c r="M5">
         <v>158.17599999999999</v>
@@ -1131,7 +1160,7 @@
       </c>
       <c r="O5" s="15">
         <f t="shared" si="4"/>
-        <v>1.0050058014254932</v>
+        <v>1.0067862052827097</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="0"/>
@@ -1139,14 +1168,26 @@
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="5"/>
-        <v>0.82990660225442836</v>
+        <v>0.83137681159420285</v>
       </c>
       <c r="R5">
         <f t="shared" si="6"/>
         <v>0.76413526570048307</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>172.83799999999999</v>
+      </c>
+      <c r="Y5">
+        <v>170.226</v>
+      </c>
+      <c r="Z5">
+        <v>173.221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1173,17 +1214,17 @@
         <v>3590.1966666666667</v>
       </c>
       <c r="I6">
-        <v>6310.02</v>
+        <v>6525.8</v>
       </c>
       <c r="J6">
-        <v>6596.65</v>
+        <v>6859.42</v>
       </c>
       <c r="K6">
-        <v>6271.64</v>
-      </c>
-      <c r="L6" s="15">
+        <v>6898.74</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v>6392.77</v>
+        <v>6761.32</v>
       </c>
       <c r="M6">
         <v>5177.22</v>
@@ -1194,7 +1235,7 @@
       </c>
       <c r="O6" s="15">
         <f t="shared" si="4"/>
-        <v>30.017796267948874</v>
+        <v>31.748354197383616</v>
       </c>
       <c r="P6" s="15">
         <f t="shared" si="0"/>
@@ -1202,14 +1243,26 @@
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="5"/>
-        <v>3.1553652517275421</v>
+        <v>3.3372754195459029</v>
       </c>
       <c r="R6">
         <f t="shared" si="6"/>
         <v>2.5553899308983219</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <v>6525.8</v>
+      </c>
+      <c r="Y6">
+        <v>6859.42</v>
+      </c>
+      <c r="Z6">
+        <v>6898.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1236,17 +1289,17 @@
         <v>2195.4</v>
       </c>
       <c r="I7">
-        <v>4624.32</v>
+        <v>4455.1000000000004</v>
       </c>
       <c r="J7">
-        <v>4513.0600000000004</v>
+        <v>5029.75</v>
       </c>
       <c r="K7">
-        <v>4430.72</v>
-      </c>
-      <c r="L7" s="15">
+        <v>4723.3100000000004</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>4522.7000000000007</v>
+        <v>4736.0533333333333</v>
       </c>
       <c r="M7">
         <v>4259.9399999999996</v>
@@ -1257,7 +1310,7 @@
       </c>
       <c r="O7" s="15">
         <f t="shared" si="4"/>
-        <v>18.744767446679766</v>
+        <v>19.6290309656634</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="0"/>
@@ -1265,14 +1318,26 @@
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="5"/>
-        <v>3.1782853127196069</v>
+        <v>3.3282173811197002</v>
       </c>
       <c r="R7">
         <f t="shared" si="6"/>
         <v>2.9936331693605056</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>4455.1000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>5029.75</v>
+      </c>
+      <c r="Z7">
+        <v>4723.3100000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1299,17 +1364,17 @@
         <v>2411.3866666666668</v>
       </c>
       <c r="I8">
-        <v>3571.63</v>
+        <v>3807.64</v>
       </c>
       <c r="J8">
-        <v>3438.2</v>
+        <v>3574.49</v>
       </c>
       <c r="K8">
-        <v>3501.78</v>
-      </c>
-      <c r="L8" s="15">
+        <v>3420.73</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v>3503.8700000000003</v>
+        <v>3600.9533333333329</v>
       </c>
       <c r="M8">
         <v>3202.3</v>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="O8" s="15">
         <f t="shared" si="4"/>
-        <v>11.429414873143143</v>
+        <v>11.74609491376517</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" si="0"/>
@@ -1328,14 +1393,26 @@
       </c>
       <c r="Q8" s="15">
         <f t="shared" si="5"/>
-        <v>0.71683101472995092</v>
+        <v>0.73669258046917618</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
         <v>0.65513502454991823</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>3807.64</v>
+      </c>
+      <c r="Y8">
+        <v>3574.49</v>
+      </c>
+      <c r="Z8">
+        <v>3420.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1362,17 +1439,17 @@
         <v>3318.8366666666661</v>
       </c>
       <c r="I9">
-        <v>4730.21</v>
+        <v>4250.47</v>
       </c>
       <c r="J9">
-        <v>4681.17</v>
+        <v>3905.35</v>
       </c>
       <c r="K9">
-        <v>4137.04</v>
-      </c>
-      <c r="L9" s="15">
+        <v>4494.7299999999996</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v>4516.1400000000003</v>
+        <v>4216.8499999999995</v>
       </c>
       <c r="M9">
         <v>3843.86</v>
@@ -1383,7 +1460,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="4"/>
-        <v>18.072439583658475</v>
+        <v>16.874757394223881</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="0"/>
@@ -1391,14 +1468,26 @@
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="5"/>
-        <v>1.1868961892247045</v>
+        <v>1.1082391590013139</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
         <v>1.0102128777923784</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>4250.47</v>
+      </c>
+      <c r="Y9">
+        <v>3905.35</v>
+      </c>
+      <c r="Z9">
+        <v>4494.7299999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1425,17 +1514,17 @@
         <v>3420.7766666666666</v>
       </c>
       <c r="I10">
-        <v>3002.78</v>
+        <v>2861</v>
       </c>
       <c r="J10">
-        <v>2971.77</v>
+        <v>2931.06</v>
       </c>
       <c r="K10">
-        <v>2892.37</v>
-      </c>
-      <c r="L10" s="15">
+        <v>2967.34</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
-        <v>2955.64</v>
+        <v>2919.7999999999997</v>
       </c>
       <c r="M10">
         <v>2572.35</v>
@@ -1446,7 +1535,7 @@
       </c>
       <c r="O10" s="15">
         <f t="shared" si="4"/>
-        <v>1.1916269543691589</v>
+        <v>1.1771773224638555</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="0"/>
@@ -1454,14 +1543,26 @@
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="5"/>
-        <v>3.8941238471673252</v>
+        <v>3.846903820816864</v>
       </c>
       <c r="R10">
         <f t="shared" si="6"/>
         <v>3.3891304347826088</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>2861</v>
+      </c>
+      <c r="Y10">
+        <v>2931.06</v>
+      </c>
+      <c r="Z10">
+        <v>2967.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -1488,17 +1589,17 @@
         <v>1748.3133333333333</v>
       </c>
       <c r="I11">
-        <v>2105.8200000000002</v>
+        <v>2276.6</v>
       </c>
       <c r="J11">
-        <v>2095.6799999999998</v>
+        <v>2248.7800000000002</v>
       </c>
       <c r="K11">
-        <v>2083.71</v>
-      </c>
-      <c r="L11" s="15">
+        <v>2279.08</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>2095.0700000000002</v>
+        <v>2268.1533333333332</v>
       </c>
       <c r="M11">
         <v>3164.98</v>
@@ -1509,7 +1610,7 @@
       </c>
       <c r="O11" s="15">
         <f t="shared" si="4"/>
-        <v>2.302062227222982</v>
+        <v>2.4922461369866227</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" si="0"/>
@@ -1517,14 +1618,26 @@
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="5"/>
-        <v>0.71675333561409516</v>
+        <v>0.77596761318280305</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
         <v>1.0827848101265822</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>2276.6</v>
+      </c>
+      <c r="Y11">
+        <v>2248.7800000000002</v>
+      </c>
+      <c r="Z11">
+        <v>2279.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1551,17 +1664,17 @@
         <v>2827.8333333333335</v>
       </c>
       <c r="I12">
-        <v>2971.01</v>
+        <v>3161.25</v>
       </c>
       <c r="J12">
-        <v>3132.75</v>
+        <v>3135.24</v>
       </c>
       <c r="K12">
-        <v>3120.03</v>
-      </c>
-      <c r="L12" s="15">
+        <v>3173.22</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>3074.5966666666668</v>
+        <v>3156.5699999999997</v>
       </c>
       <c r="M12">
         <v>4280.46</v>
@@ -1572,7 +1685,7 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="4"/>
-        <v>2.2292285978064896</v>
+        <v>2.2886631574368117</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="0"/>
@@ -1580,14 +1693,26 @@
       </c>
       <c r="Q12" s="15">
         <f t="shared" si="5"/>
-        <v>1.0996411540295661</v>
+        <v>1.1289592274678111</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
         <v>1.530922746781116</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <v>3161.25</v>
+      </c>
+      <c r="Y12">
+        <v>3135.24</v>
+      </c>
+      <c r="Z12">
+        <v>3173.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1614,17 +1739,17 @@
         <v>2737.0433333333335</v>
       </c>
       <c r="I13">
-        <v>1958.74</v>
+        <v>1976.54</v>
       </c>
       <c r="J13">
-        <v>1958.87</v>
+        <v>1982.43</v>
       </c>
       <c r="K13">
-        <v>1953.2</v>
-      </c>
-      <c r="L13" s="15">
+        <v>1982.93</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
-        <v>1956.9366666666665</v>
+        <v>1980.6333333333334</v>
       </c>
       <c r="M13">
         <v>2291.35</v>
@@ -1635,7 +1760,7 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="4"/>
-        <v>2.0521029405339273</v>
+        <v>2.0769519814741995</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" si="0"/>
@@ -1643,14 +1768,26 @@
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="5"/>
-        <v>0.68185946573751444</v>
+        <v>0.69011614401858312</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
         <v>0.7983797909407665</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>1976.54</v>
+      </c>
+      <c r="Y13">
+        <v>1982.43</v>
+      </c>
+      <c r="Z13">
+        <v>1982.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1677,17 +1814,17 @@
         <v>4850.12</v>
       </c>
       <c r="I14">
-        <v>1970.44</v>
+        <v>2277.2800000000002</v>
       </c>
       <c r="J14">
-        <v>1965.3</v>
+        <v>2192.94</v>
       </c>
       <c r="K14">
-        <v>1951.17</v>
-      </c>
-      <c r="L14" s="15">
+        <v>2250.86</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
-        <v>1962.3033333333333</v>
+        <v>2240.36</v>
       </c>
       <c r="M14">
         <v>2792.13</v>
@@ -1698,7 +1835,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="4"/>
-        <v>2.634568918950972</v>
+        <v>3.007885031329339</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="0"/>
@@ -1706,14 +1843,26 @@
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="5"/>
-        <v>0.51803150299190426</v>
+        <v>0.59143611404435059</v>
       </c>
       <c r="R14">
         <f t="shared" si="6"/>
         <v>0.73709873284054916</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <v>2277.2800000000002</v>
+      </c>
+      <c r="Y14">
+        <v>2192.94</v>
+      </c>
+      <c r="Z14">
+        <v>2250.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1740,17 +1889,17 @@
         <v>1856.1966666666667</v>
       </c>
       <c r="I15">
-        <v>1648.26</v>
+        <v>1721.93</v>
       </c>
       <c r="J15">
-        <v>1630.98</v>
+        <v>1744.91</v>
       </c>
       <c r="K15">
-        <v>1625.22</v>
-      </c>
-      <c r="L15" s="18">
+        <v>1749.27</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
-        <v>1634.82</v>
+        <v>1738.7033333333336</v>
       </c>
       <c r="M15">
         <v>2777.48</v>
@@ -1761,7 +1910,7 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" si="4"/>
-        <v>1.5919953257376569</v>
+        <v>1.6931573992923687</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" si="0"/>
@@ -1769,14 +1918,26 @@
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="5"/>
-        <v>0.43237767786299919</v>
+        <v>0.45985277263510543</v>
       </c>
       <c r="R15">
         <f t="shared" si="6"/>
         <v>0.73458873313938111</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1721.93</v>
+      </c>
+      <c r="Y15">
+        <v>1744.91</v>
+      </c>
+      <c r="Z15">
+        <v>1749.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1803,17 +1964,17 @@
         <v>145.46266666666668</v>
       </c>
       <c r="I16">
-        <v>146.11099999999999</v>
+        <v>146.303</v>
       </c>
       <c r="J16">
-        <v>147.11600000000001</v>
+        <v>147.28299999999999</v>
       </c>
       <c r="K16">
-        <v>145.55699999999999</v>
-      </c>
-      <c r="L16" s="15">
+        <v>145.27600000000001</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="2"/>
-        <v>146.26133333333334</v>
+        <v>146.28733333333335</v>
       </c>
       <c r="M16">
         <v>134.91999999999999</v>
@@ -1824,7 +1985,7 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="4"/>
-        <v>1.0711663151316304</v>
+        <v>1.0713567299429732</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" si="0"/>
@@ -1832,14 +1993,26 @@
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="5"/>
-        <v>0.75783074265975825</v>
+        <v>0.75796545768566503</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
         <v>0.69906735751295335</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16">
+        <v>146.303</v>
+      </c>
+      <c r="Y16">
+        <v>147.28299999999999</v>
+      </c>
+      <c r="Z16">
+        <v>145.27600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -1866,17 +2039,17 @@
         <v>1199.2933333333333</v>
       </c>
       <c r="I17">
-        <v>1183.96</v>
+        <v>1167.8699999999999</v>
       </c>
       <c r="J17">
-        <v>1173.1199999999999</v>
+        <v>1080.0999999999999</v>
       </c>
       <c r="K17">
-        <v>1096.94</v>
-      </c>
-      <c r="L17" s="15">
+        <v>1194.27</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="2"/>
-        <v>1151.3399999999999</v>
+        <v>1147.4133333333332</v>
       </c>
       <c r="M17">
         <v>1217.3599999999999</v>
@@ -1887,7 +2060,7 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="4"/>
-        <v>0.84448714939561087</v>
+        <v>0.84160701013183115</v>
       </c>
       <c r="P17" s="15">
         <f t="shared" si="0"/>
@@ -1895,14 +2068,26 @@
       </c>
       <c r="Q17" s="15">
         <f t="shared" si="5"/>
-        <v>0.68532142857142853</v>
+        <v>0.68298412698412692</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
         <v>0.72461904761904761</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17">
+        <v>1167.8699999999999</v>
+      </c>
+      <c r="Y17">
+        <v>1080.0999999999999</v>
+      </c>
+      <c r="Z17">
+        <v>1194.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1929,17 +2114,17 @@
         <v>2049.603333333333</v>
       </c>
       <c r="I18">
-        <v>2195.6799999999998</v>
+        <v>4632.42</v>
       </c>
       <c r="J18">
-        <v>2015.03</v>
+        <v>2221.98</v>
       </c>
       <c r="K18">
-        <v>2370.7399999999998</v>
-      </c>
-      <c r="L18" s="15">
+        <v>2235.14</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="2"/>
-        <v>2193.8166666666666</v>
+        <v>3029.8466666666664</v>
       </c>
       <c r="M18">
         <v>2149.61</v>
@@ -1950,7 +2135,7 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="4"/>
-        <v>0.61216185044218485</v>
+        <v>0.84544737498093225</v>
       </c>
       <c r="P18" s="15">
         <f t="shared" si="0"/>
@@ -1958,14 +2143,26 @@
       </c>
       <c r="Q18" s="15">
         <f t="shared" si="5"/>
-        <v>0.45943804537521815</v>
+        <v>0.63452286212914477</v>
       </c>
       <c r="R18">
         <f t="shared" si="6"/>
         <v>0.4501801047120419</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18">
+        <v>4632.42</v>
+      </c>
+      <c r="Y18">
+        <v>2221.98</v>
+      </c>
+      <c r="Z18">
+        <v>2235.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1992,17 +2189,17 @@
         <v>1483.2333333333333</v>
       </c>
       <c r="I19">
-        <v>1593.35</v>
+        <v>1765.91</v>
       </c>
       <c r="J19">
-        <v>1618.75</v>
+        <v>1582.78</v>
       </c>
       <c r="K19">
-        <v>1780.85</v>
-      </c>
-      <c r="L19" s="15">
+        <v>1463.94</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="2"/>
-        <v>1664.3166666666666</v>
+        <v>1604.21</v>
       </c>
       <c r="M19">
         <v>1447.7</v>
@@ -2013,7 +2210,7 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="4"/>
-        <v>0.72534099212765424</v>
+        <v>0.69914535874449224</v>
       </c>
       <c r="P19" s="15">
         <f t="shared" si="0"/>
@@ -2021,14 +2218,26 @@
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="5"/>
-        <v>0.56551704609808584</v>
+        <v>0.54509344206591914</v>
       </c>
       <c r="R19">
         <f t="shared" si="6"/>
         <v>0.49191301393136255</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>1765.91</v>
+      </c>
+      <c r="Y19">
+        <v>1582.78</v>
+      </c>
+      <c r="Z19">
+        <v>1463.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2055,17 +2264,17 @@
         <v>1764.5966666666666</v>
       </c>
       <c r="I20">
-        <v>1947.08</v>
+        <v>1593.8</v>
       </c>
       <c r="J20">
-        <v>1577.41</v>
+        <v>1700.91</v>
       </c>
       <c r="K20">
-        <v>1570.25</v>
-      </c>
-      <c r="L20" s="15">
+        <v>1719.45</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="2"/>
-        <v>1698.2466666666667</v>
+        <v>1671.3866666666665</v>
       </c>
       <c r="M20">
         <v>1523.39</v>
@@ -2076,7 +2285,7 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" si="4"/>
-        <v>0.71808684572536818</v>
+        <v>0.70672935976366047</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" si="0"/>
@@ -2084,14 +2293,26 @@
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="5"/>
-        <v>0.5127556360708535</v>
+        <v>0.50464573268921087</v>
       </c>
       <c r="R20">
         <f t="shared" si="6"/>
         <v>0.45996074879227056</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20">
+        <v>1593.8</v>
+      </c>
+      <c r="Y20">
+        <v>1700.91</v>
+      </c>
+      <c r="Z20">
+        <v>1719.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2118,17 +2339,17 @@
         <v>1828.1566666666665</v>
       </c>
       <c r="I21">
-        <v>1643.55</v>
+        <v>1593.42</v>
       </c>
       <c r="J21">
-        <v>1747.67</v>
+        <v>1705.58</v>
       </c>
       <c r="K21">
-        <v>1712.77</v>
-      </c>
-      <c r="L21" s="15">
+        <v>1692.88</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="2"/>
-        <v>1701.33</v>
+        <v>1663.96</v>
       </c>
       <c r="M21">
         <v>1537.28</v>
@@ -2139,7 +2360,7 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" si="4"/>
-        <v>0.64982392079873497</v>
+        <v>0.6355504289304621</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="0"/>
@@ -2147,14 +2368,26 @@
       </c>
       <c r="Q21" s="15">
         <f t="shared" si="5"/>
-        <v>0.50559583952451703</v>
+        <v>0.49449034175334328</v>
       </c>
       <c r="R21">
         <f t="shared" si="6"/>
         <v>0.45684398216939076</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21">
+        <v>1593.42</v>
+      </c>
+      <c r="Y21">
+        <v>1705.58</v>
+      </c>
+      <c r="Z21">
+        <v>1692.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -2181,17 +2414,17 @@
         <v>1788.0466666666664</v>
       </c>
       <c r="I22">
-        <v>1621.67</v>
+        <v>1827.55</v>
       </c>
       <c r="J22">
-        <v>1864.56</v>
+        <v>1577.59</v>
       </c>
       <c r="K22">
-        <v>1531.58</v>
-      </c>
-      <c r="L22" s="15">
+        <v>1809.14</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="2"/>
-        <v>1672.6033333333332</v>
+        <v>1738.0933333333332</v>
       </c>
       <c r="M22">
         <v>1714.18</v>
@@ -2202,7 +2435,7 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" si="4"/>
-        <v>0.70165716499076403</v>
+        <v>0.72913022260070448</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" si="0"/>
@@ -2210,14 +2443,26 @@
       </c>
       <c r="Q22" s="15">
         <f t="shared" si="5"/>
-        <v>0.53591904304176008</v>
+        <v>0.55690270212538717</v>
       </c>
       <c r="R22">
         <f t="shared" si="6"/>
         <v>0.54924062800384499</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <v>1827.55</v>
+      </c>
+      <c r="Y22">
+        <v>1577.59</v>
+      </c>
+      <c r="Z22">
+        <v>1809.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2244,17 +2489,17 @@
         <v>1329.7133333333334</v>
       </c>
       <c r="I23">
-        <v>1330.39</v>
+        <v>1588.94</v>
       </c>
       <c r="J23">
-        <v>1372.76</v>
+        <v>1567.23</v>
       </c>
       <c r="K23">
-        <v>1326.35</v>
-      </c>
-      <c r="L23" s="15">
+        <v>1387.64</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="2"/>
-        <v>1343.1666666666667</v>
+        <v>1514.6033333333335</v>
       </c>
       <c r="M23">
         <v>1350.06</v>
@@ -2265,7 +2510,7 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="4"/>
-        <v>0.77689988123332254</v>
+        <v>0.87606041676306823</v>
       </c>
       <c r="P23" s="15">
         <f t="shared" si="0"/>
@@ -2273,14 +2518,26 @@
       </c>
       <c r="Q23" s="15">
         <f t="shared" si="5"/>
-        <v>1.5510007698229409</v>
+        <v>1.7489645881447269</v>
       </c>
       <c r="R23">
         <f t="shared" si="6"/>
         <v>1.5589607390300231</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23">
+        <v>1588.94</v>
+      </c>
+      <c r="Y23">
+        <v>1567.23</v>
+      </c>
+      <c r="Z23">
+        <v>1387.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -2307,17 +2564,17 @@
         <v>604.19666666666672</v>
       </c>
       <c r="I24">
-        <v>609.76</v>
+        <v>565</v>
       </c>
       <c r="J24">
-        <v>584.55899999999997</v>
+        <v>603.26</v>
       </c>
       <c r="K24">
-        <v>586.95799999999997</v>
-      </c>
-      <c r="L24" s="15">
+        <v>597.49300000000005</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="2"/>
-        <v>593.75900000000001</v>
+        <v>588.58433333333335</v>
       </c>
       <c r="M24">
         <v>485.59699999999998</v>
@@ -2328,7 +2585,7 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="4"/>
-        <v>0.91180047727712488</v>
+        <v>0.90385404861428909</v>
       </c>
       <c r="P24" s="15">
         <f t="shared" si="0"/>
@@ -2336,14 +2593,26 @@
       </c>
       <c r="Q24" s="15">
         <f t="shared" si="5"/>
-        <v>0.93800789889415481</v>
+        <v>0.92983307003686155</v>
       </c>
       <c r="R24">
         <f t="shared" si="6"/>
         <v>0.76713586097946285</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24">
+        <v>565</v>
+      </c>
+      <c r="Y24">
+        <v>603.26</v>
+      </c>
+      <c r="Z24">
+        <v>597.49300000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -2370,17 +2639,17 @@
         <v>430.94900000000001</v>
       </c>
       <c r="I25">
-        <v>431.43799999999999</v>
+        <v>442.01400000000001</v>
       </c>
       <c r="J25">
-        <v>429.04300000000001</v>
+        <v>423.20499999999998</v>
       </c>
       <c r="K25">
-        <v>432.97500000000002</v>
-      </c>
-      <c r="L25" s="15">
+        <v>424.87599999999998</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="2"/>
-        <v>431.15200000000004</v>
+        <v>430.03166666666669</v>
       </c>
       <c r="M25">
         <v>381.79899999999998</v>
@@ -2391,7 +2660,7 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="4"/>
-        <v>0.94641367623429429</v>
+        <v>0.94395445352720297</v>
       </c>
       <c r="P25" s="15">
         <f t="shared" si="0"/>
@@ -2399,14 +2668,26 @@
       </c>
       <c r="Q25" s="15">
         <f t="shared" si="5"/>
-        <v>0.82596168582375484</v>
+        <v>0.82381545338441897</v>
       </c>
       <c r="R25">
         <f t="shared" si="6"/>
         <v>0.73141570881226048</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <v>442.01400000000001</v>
+      </c>
+      <c r="Y25">
+        <v>423.20499999999998</v>
+      </c>
+      <c r="Z25">
+        <v>424.87599999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -2433,17 +2714,17 @@
         <v>880.50800000000015</v>
       </c>
       <c r="I26">
-        <v>831.00699999999995</v>
+        <v>868.23599999999999</v>
       </c>
       <c r="J26">
-        <v>918.11300000000006</v>
+        <v>936.33799999999997</v>
       </c>
       <c r="K26">
-        <v>867.17499999999995</v>
-      </c>
-      <c r="L26" s="15">
+        <v>844.83699999999999</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="2"/>
-        <v>872.09833333333336</v>
+        <v>883.13700000000006</v>
       </c>
       <c r="M26">
         <v>794.90599999999995</v>
@@ -2454,7 +2735,7 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" si="4"/>
-        <v>0.88124655380841854</v>
+        <v>0.89240101493605117</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" si="0"/>
@@ -2462,14 +2743,26 @@
       </c>
       <c r="Q26" s="15">
         <f t="shared" si="5"/>
-        <v>1.1459899255365746</v>
+        <v>1.1604954007884363</v>
       </c>
       <c r="R26">
         <f t="shared" si="6"/>
         <v>1.0445545335085413</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26">
+        <v>868.23599999999999</v>
+      </c>
+      <c r="Y26">
+        <v>936.33799999999997</v>
+      </c>
+      <c r="Z26">
+        <v>844.83699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2496,17 +2789,17 @@
         <v>2766.3466666666664</v>
       </c>
       <c r="I27">
-        <v>2451.88</v>
+        <v>2723.61</v>
       </c>
       <c r="J27">
-        <v>3097.61</v>
+        <v>2266.85</v>
       </c>
       <c r="K27">
-        <v>2476.7199999999998</v>
-      </c>
-      <c r="L27" s="15">
+        <v>3218.02</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="2"/>
-        <v>2675.4033333333332</v>
+        <v>2736.16</v>
       </c>
       <c r="M27">
         <v>3131.85</v>
@@ -2517,7 +2810,7 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="4"/>
-        <v>0.64907986077415258</v>
+        <v>0.66382004153484842</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" si="0"/>
@@ -2525,14 +2818,26 @@
       </c>
       <c r="Q27" s="15">
         <f t="shared" si="5"/>
-        <v>2.3489054726368157</v>
+        <v>2.4022475856014047</v>
       </c>
       <c r="R27">
         <f t="shared" si="6"/>
         <v>2.7496488147497806</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27">
+        <v>2723.61</v>
+      </c>
+      <c r="Y27">
+        <v>2266.85</v>
+      </c>
+      <c r="Z27">
+        <v>3218.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
@@ -2559,17 +2864,17 @@
         <v>381.73466666666673</v>
       </c>
       <c r="I28">
-        <v>383.44900000000001</v>
+        <v>380.71300000000002</v>
       </c>
       <c r="J28">
-        <v>373.34899999999999</v>
+        <v>369.601</v>
       </c>
       <c r="K28">
-        <v>400.39600000000002</v>
-      </c>
-      <c r="L28" s="15">
+        <v>367.923</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="2"/>
-        <v>385.73133333333334</v>
+        <v>372.74566666666669</v>
       </c>
       <c r="M28">
         <v>409.375</v>
@@ -2580,7 +2885,7 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="4"/>
-        <v>0.99782532964967285</v>
+        <v>0.9642334847497146</v>
       </c>
       <c r="P28" s="15">
         <f t="shared" si="0"/>
@@ -2588,14 +2893,26 @@
       </c>
       <c r="Q28" s="15">
         <f t="shared" si="5"/>
-        <v>0.82952974910394262</v>
+        <v>0.80160358422939071</v>
       </c>
       <c r="R28">
         <f t="shared" si="6"/>
         <v>0.8803763440860215</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>24</v>
+      </c>
+      <c r="X28">
+        <v>380.71300000000002</v>
+      </c>
+      <c r="Y28">
+        <v>369.601</v>
+      </c>
+      <c r="Z28">
+        <v>367.923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -2622,17 +2939,17 @@
         <v>189.30233333333334</v>
       </c>
       <c r="I29">
-        <v>143.85900000000001</v>
+        <v>225.107</v>
       </c>
       <c r="J29">
-        <v>144.959</v>
+        <v>226.72399999999999</v>
       </c>
       <c r="K29">
-        <v>145.52000000000001</v>
-      </c>
-      <c r="L29" s="15">
+        <v>223.64400000000001</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="2"/>
-        <v>144.77933333333331</v>
+        <v>225.15833333333333</v>
       </c>
       <c r="M29">
         <v>135.744</v>
@@ -2643,7 +2960,7 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="4"/>
-        <v>0.68131130363308079</v>
+        <v>1.0595636412691392</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" si="0"/>
@@ -2651,14 +2968,26 @@
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="5"/>
-        <v>0.39774542124542117</v>
+        <v>0.61856684981684984</v>
       </c>
       <c r="R29">
         <f t="shared" si="6"/>
         <v>0.37292307692307691</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29">
+        <v>225.107</v>
+      </c>
+      <c r="Y29">
+        <v>226.72399999999999</v>
+      </c>
+      <c r="Z29">
+        <v>223.64400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
@@ -2685,17 +3014,17 @@
         <v>273.80333333333334</v>
       </c>
       <c r="I30">
-        <v>276.50400000000002</v>
+        <v>332.54199999999997</v>
       </c>
       <c r="J30">
-        <v>277.52199999999999</v>
+        <v>333.02</v>
       </c>
       <c r="K30">
-        <v>276.07499999999999</v>
-      </c>
-      <c r="L30" s="15">
+        <v>335.15699999999998</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="2"/>
-        <v>276.70033333333339</v>
+        <v>333.57299999999992</v>
       </c>
       <c r="M30">
         <v>259.03100000000001</v>
@@ -2706,7 +3035,7 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="4"/>
-        <v>1.0365482398305763</v>
+        <v>1.2495991668664586</v>
       </c>
       <c r="P30" s="15">
         <f t="shared" si="0"/>
@@ -2714,14 +3043,26 @@
       </c>
       <c r="Q30" s="15">
         <f t="shared" si="5"/>
-        <v>0.63609272030651354</v>
+        <v>0.76683448275862054</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
         <v>0.59547356321839084</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>332.54199999999997</v>
+      </c>
+      <c r="Y30">
+        <v>333.02</v>
+      </c>
+      <c r="Z30">
+        <v>335.15699999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
@@ -2748,17 +3089,17 @@
         <v>1350.04</v>
       </c>
       <c r="I31">
-        <v>1368.89</v>
+        <v>1222.25</v>
       </c>
       <c r="J31">
-        <v>1311.17</v>
+        <v>1142.03</v>
       </c>
       <c r="K31">
-        <v>1286.3900000000001</v>
-      </c>
-      <c r="L31" s="15">
+        <v>1247.32</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="2"/>
-        <v>1322.1500000000003</v>
+        <v>1203.8666666666666</v>
       </c>
       <c r="M31">
         <v>1197.33</v>
@@ -2769,7 +3110,7 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="4"/>
-        <v>0.79484790188770005</v>
+        <v>0.7237385275139272</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="0"/>
@@ -2777,14 +3118,26 @@
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="5"/>
-        <v>2.0530279503105593</v>
+        <v>1.86935817805383</v>
       </c>
       <c r="R31">
         <f t="shared" si="6"/>
         <v>1.8592080745341615</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31">
+        <v>1222.25</v>
+      </c>
+      <c r="Y31">
+        <v>1142.03</v>
+      </c>
+      <c r="Z31">
+        <v>1247.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
@@ -2811,17 +3164,17 @@
         <v>110.04699999999998</v>
       </c>
       <c r="I32">
-        <v>115.904</v>
+        <v>115.508</v>
       </c>
       <c r="J32">
-        <v>115.962</v>
+        <v>118.242</v>
       </c>
       <c r="K32">
-        <v>116.036</v>
-      </c>
-      <c r="L32" s="15">
+        <v>118.444</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="2"/>
-        <v>115.96733333333333</v>
+        <v>117.39800000000001</v>
       </c>
       <c r="M32">
         <v>105.496</v>
@@ -2832,7 +3185,7 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="4"/>
-        <v>1.0459380317597753</v>
+        <v>1.0588415679059113</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" si="0"/>
@@ -2840,14 +3193,26 @@
       </c>
       <c r="Q32" s="15">
         <f t="shared" si="5"/>
-        <v>0.70283232323232325</v>
+        <v>0.71150303030303041</v>
       </c>
       <c r="R32">
         <f t="shared" si="6"/>
         <v>0.63936969696969692</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32">
+        <v>115.508</v>
+      </c>
+      <c r="Y32">
+        <v>118.242</v>
+      </c>
+      <c r="Z32">
+        <v>118.444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -2874,17 +3239,17 @@
         <v>125.98366666666668</v>
       </c>
       <c r="I33">
-        <v>130.53800000000001</v>
+        <v>133.732</v>
       </c>
       <c r="J33">
-        <v>128.79900000000001</v>
+        <v>137.29499999999999</v>
       </c>
       <c r="K33">
-        <v>129.76499999999999</v>
-      </c>
-      <c r="L33" s="15">
+        <v>138.56</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="2"/>
-        <v>129.70066666666665</v>
+        <v>136.529</v>
       </c>
       <c r="M33">
         <v>104.913</v>
@@ -2895,7 +3260,7 @@
       </c>
       <c r="O33" s="15">
         <f t="shared" si="4"/>
-        <v>1.0929616552483516</v>
+        <v>1.1505026586555882</v>
       </c>
       <c r="P33" s="15">
         <f t="shared" si="0"/>
@@ -2903,14 +3268,26 @@
       </c>
       <c r="Q33" s="15">
         <f t="shared" si="5"/>
-        <v>0.79085772357723572</v>
+        <v>0.83249390243902432</v>
       </c>
       <c r="R33">
         <f t="shared" si="6"/>
         <v>0.63971341463414633</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W33" t="s">
+        <v>47</v>
+      </c>
+      <c r="X33">
+        <v>133.732</v>
+      </c>
+      <c r="Y33">
+        <v>137.29499999999999</v>
+      </c>
+      <c r="Z33">
+        <v>138.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -2931,17 +3308,17 @@
         <v>110.83566666666667</v>
       </c>
       <c r="I34">
-        <v>108.935</v>
+        <v>121.931</v>
       </c>
       <c r="J34">
-        <v>115.655</v>
+        <v>114.80800000000001</v>
       </c>
       <c r="K34">
-        <v>115.73699999999999</v>
-      </c>
-      <c r="L34" s="15">
+        <v>122.172</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="2"/>
-        <v>113.44233333333334</v>
+        <v>119.637</v>
       </c>
       <c r="M34">
         <v>97.739599999999996</v>
@@ -2952,12 +3329,24 @@
       </c>
       <c r="O34" s="15">
         <f t="shared" si="4"/>
-        <v>1.0642169416900413</v>
+        <v>1.1223298967137914</v>
       </c>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W34" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34">
+        <v>121.931</v>
+      </c>
+      <c r="Y34">
+        <v>114.80800000000001</v>
+      </c>
+      <c r="Z34">
+        <v>122.172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2984,17 +3373,17 @@
         <v>91.169533333333334</v>
       </c>
       <c r="I35">
-        <v>86.751999999999995</v>
+        <v>95.963800000000006</v>
       </c>
       <c r="J35">
-        <v>90.194199999999995</v>
+        <v>96.301299999999998</v>
       </c>
       <c r="K35">
-        <v>90.831500000000005</v>
-      </c>
-      <c r="L35" s="15">
+        <v>96.020700000000005</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="2"/>
-        <v>89.259233333333327</v>
+        <v>96.09526666666666</v>
       </c>
       <c r="M35">
         <v>78.779799999999994</v>
@@ -3005,7 +3394,7 @@
       </c>
       <c r="O35" s="15">
         <f t="shared" si="4"/>
-        <v>1.0475796469386061</v>
+        <v>1.1278098832778594</v>
       </c>
       <c r="P35" s="15">
         <f>$H35/$C35</f>
@@ -3013,14 +3402,26 @@
       </c>
       <c r="Q35" s="15">
         <f t="shared" si="5"/>
-        <v>0.71407386666666661</v>
+        <v>0.76876213333333332</v>
       </c>
       <c r="R35">
         <f t="shared" si="6"/>
         <v>0.63023839999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W35" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35">
+        <v>95.963800000000006</v>
+      </c>
+      <c r="Y35">
+        <v>96.301299999999998</v>
+      </c>
+      <c r="Z35">
+        <v>96.020700000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
@@ -3041,17 +3442,17 @@
         <v>79.048600000000008</v>
       </c>
       <c r="I36">
-        <v>77.165099999999995</v>
+        <v>83.173599999999993</v>
       </c>
       <c r="J36">
-        <v>78.483599999999996</v>
+        <v>83.443799999999996</v>
       </c>
       <c r="K36">
-        <v>78.7851</v>
-      </c>
-      <c r="L36" s="15">
+        <v>83.214299999999994</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="2"/>
-        <v>78.144599999999997</v>
+        <v>83.277233333333314</v>
       </c>
       <c r="M36">
         <v>55.382899999999999</v>
@@ -3062,12 +3463,24 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="4"/>
-        <v>1.1136785999315926</v>
+        <v>1.1868263785961308</v>
       </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
+        <v>44</v>
+      </c>
+      <c r="X36">
+        <v>83.173599999999993</v>
+      </c>
+      <c r="Y36">
+        <v>83.443799999999996</v>
+      </c>
+      <c r="Z36">
+        <v>83.214299999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -3094,17 +3507,17 @@
         <v>57.5563</v>
       </c>
       <c r="I37">
-        <v>57.391100000000002</v>
+        <v>61.105400000000003</v>
       </c>
       <c r="J37">
-        <v>58.860399999999998</v>
+        <v>58.509399999999999</v>
       </c>
       <c r="K37">
-        <v>58.984999999999999</v>
-      </c>
-      <c r="L37" s="15">
+        <v>61.316200000000002</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
-        <v>58.412166666666657</v>
+        <v>60.31033333333334</v>
       </c>
       <c r="M37">
         <v>46.868600000000001</v>
@@ -3115,7 +3528,7 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="4"/>
-        <v>1.0554095033320985</v>
+        <v>1.0897061790630374</v>
       </c>
       <c r="P37" s="15">
         <f>$H37/$C37</f>
@@ -3123,14 +3536,26 @@
       </c>
       <c r="Q37" s="15">
         <f t="shared" si="5"/>
-        <v>0.7211378600823044</v>
+        <v>0.74457201646090543</v>
       </c>
       <c r="R37">
         <f t="shared" si="6"/>
         <v>0.57862469135802475</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37">
+        <v>61.105400000000003</v>
+      </c>
+      <c r="Y37">
+        <v>58.509399999999999</v>
+      </c>
+      <c r="Z37">
+        <v>61.316200000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -3151,17 +3576,17 @@
         <v>48.727299999999993</v>
       </c>
       <c r="I38">
-        <v>48.938200000000002</v>
+        <v>50.402799999999999</v>
       </c>
       <c r="J38">
-        <v>48.999200000000002</v>
+        <v>50.621699999999997</v>
       </c>
       <c r="K38">
-        <v>49.027900000000002</v>
-      </c>
-      <c r="L38" s="15">
+        <v>50.171500000000002</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="2"/>
-        <v>48.98843333333334</v>
+        <v>50.398666666666664</v>
       </c>
       <c r="M38">
         <v>38.995800000000003</v>
@@ -3172,12 +3597,24 @@
       </c>
       <c r="O38" s="15">
         <f t="shared" si="4"/>
-        <v>1.1213349630863982</v>
+        <v>1.1536149082729805</v>
       </c>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38">
+        <v>50.402799999999999</v>
+      </c>
+      <c r="Y38">
+        <v>50.621699999999997</v>
+      </c>
+      <c r="Z38">
+        <v>50.171500000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -3204,17 +3641,17 @@
         <v>36.8904</v>
       </c>
       <c r="I39">
-        <v>36.584699999999998</v>
+        <v>38.259099999999997</v>
       </c>
       <c r="J39">
-        <v>36.286999999999999</v>
+        <v>38.299900000000001</v>
       </c>
       <c r="K39">
-        <v>36.532800000000002</v>
-      </c>
-      <c r="L39" s="15">
+        <v>38.296999999999997</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="2"/>
-        <v>36.468166666666669</v>
+        <v>38.285333333333334</v>
       </c>
       <c r="M39">
         <v>30.373999999999999</v>
@@ -3225,7 +3662,7 @@
       </c>
       <c r="O39" s="15">
         <f t="shared" si="4"/>
-        <v>1.1002282829501799</v>
+        <v>1.1550513888050846</v>
       </c>
       <c r="P39" s="15">
         <f>$H39/$C39</f>
@@ -3233,14 +3670,26 @@
       </c>
       <c r="Q39" s="15">
         <f t="shared" si="5"/>
-        <v>0.59783879781420768</v>
+        <v>0.62762841530054647</v>
       </c>
       <c r="R39">
         <f t="shared" si="6"/>
         <v>0.49793442622950818</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>33</v>
+      </c>
+      <c r="X39">
+        <v>38.259099999999997</v>
+      </c>
+      <c r="Y39">
+        <v>38.299900000000001</v>
+      </c>
+      <c r="Z39">
+        <v>38.296999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
@@ -3261,17 +3710,17 @@
         <v>35.268400000000007</v>
       </c>
       <c r="I40">
-        <v>35.534300000000002</v>
+        <v>36.801499999999997</v>
       </c>
       <c r="J40">
-        <v>35.470799999999997</v>
+        <v>36.631799999999998</v>
       </c>
       <c r="K40">
-        <v>35.691600000000001</v>
-      </c>
-      <c r="L40" s="15">
+        <v>36.748100000000001</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="2"/>
-        <v>35.565566666666662</v>
+        <v>36.727133333333335</v>
       </c>
       <c r="M40">
         <v>29.0684</v>
@@ -3282,12 +3731,24 @@
       </c>
       <c r="O40" s="15">
         <f t="shared" si="4"/>
-        <v>1.1288828369586721</v>
+        <v>1.1657519999407504</v>
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W40" t="s">
+        <v>37</v>
+      </c>
+      <c r="X40">
+        <v>36.801499999999997</v>
+      </c>
+      <c r="Y40">
+        <v>36.631799999999998</v>
+      </c>
+      <c r="Z40">
+        <v>36.748100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -3314,17 +3775,17 @@
         <v>259.79400000000004</v>
       </c>
       <c r="I41">
-        <v>260.14400000000001</v>
+        <v>259.23099999999999</v>
       </c>
       <c r="J41">
-        <v>262.66199999999998</v>
+        <v>260.80500000000001</v>
       </c>
       <c r="K41">
-        <v>259.78100000000001</v>
-      </c>
-      <c r="L41" s="15">
+        <v>259.24299999999999</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="2"/>
-        <v>260.86233333333331</v>
+        <v>259.75966666666665</v>
       </c>
       <c r="M41">
         <v>217.18299999999999</v>
@@ -3335,7 +3796,7 @@
       </c>
       <c r="O41" s="15">
         <f t="shared" si="4"/>
-        <v>1.0563794174023378</v>
+        <v>1.0519140951918144</v>
       </c>
       <c r="P41" s="15">
         <f>$H41/$C41</f>
@@ -3343,14 +3804,26 @@
       </c>
       <c r="Q41" s="15">
         <f t="shared" si="5"/>
-        <v>0.90263783160322941</v>
+        <v>0.8988223760092271</v>
       </c>
       <c r="R41">
         <f t="shared" si="6"/>
         <v>0.75149826989619373</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W41" t="s">
+        <v>35</v>
+      </c>
+      <c r="X41">
+        <v>259.23099999999999</v>
+      </c>
+      <c r="Y41">
+        <v>260.80500000000001</v>
+      </c>
+      <c r="Z41">
+        <v>259.24299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -3377,17 +3850,17 @@
         <v>51.04593333333333</v>
       </c>
       <c r="I42">
-        <v>52.343000000000004</v>
+        <v>52.179699999999997</v>
       </c>
       <c r="J42">
-        <v>52.696599999999997</v>
+        <v>52.763599999999997</v>
       </c>
       <c r="K42">
-        <v>52.031700000000001</v>
-      </c>
-      <c r="L42" s="15">
+        <v>52.678400000000003</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
-        <v>52.357100000000003</v>
+        <v>52.54056666666667</v>
       </c>
       <c r="M42">
         <v>49.960700000000003</v>
@@ -3398,7 +3871,7 @@
       </c>
       <c r="O42" s="15">
         <f t="shared" si="4"/>
-        <v>1.4536572499479421</v>
+        <v>1.4587510700816735</v>
       </c>
       <c r="P42" s="15">
         <f>$H42/$C42</f>
@@ -3406,14 +3879,26 @@
       </c>
       <c r="Q42" s="15">
         <f t="shared" si="5"/>
-        <v>0.96957592592592601</v>
+        <v>0.97297345679012348</v>
       </c>
       <c r="R42">
         <f t="shared" si="6"/>
         <v>0.92519814814814816</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W42" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42">
+        <v>52.179699999999997</v>
+      </c>
+      <c r="Y42">
+        <v>52.763599999999997</v>
+      </c>
+      <c r="Z42">
+        <v>52.678400000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
@@ -3434,17 +3919,17 @@
         <v>69.665366666666671</v>
       </c>
       <c r="I43">
-        <v>74.985900000000001</v>
+        <v>75.333699999999993</v>
       </c>
       <c r="J43">
-        <v>73.900300000000001</v>
+        <v>75.183099999999996</v>
       </c>
       <c r="K43">
-        <v>74.892700000000005</v>
-      </c>
-      <c r="L43" s="15">
+        <v>75.560500000000005</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="2"/>
-        <v>74.592966666666669</v>
+        <v>75.359099999999998</v>
       </c>
       <c r="M43">
         <v>71.829800000000006</v>
@@ -3455,12 +3940,24 @@
       </c>
       <c r="O43" s="15">
         <f t="shared" si="4"/>
-        <v>1.6163051305553089</v>
+        <v>1.6329059616080501</v>
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W43" t="s">
+        <v>45</v>
+      </c>
+      <c r="X43">
+        <v>75.333699999999993</v>
+      </c>
+      <c r="Y43">
+        <v>75.183099999999996</v>
+      </c>
+      <c r="Z43">
+        <v>75.560500000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
@@ -3487,17 +3984,17 @@
         <v>92.123233333333317</v>
       </c>
       <c r="I44">
-        <v>94.052499999999995</v>
+        <v>94.996300000000005</v>
       </c>
       <c r="J44">
-        <v>95.202299999999994</v>
+        <v>95.2346</v>
       </c>
       <c r="K44">
-        <v>95.262799999999999</v>
-      </c>
-      <c r="L44" s="15">
+        <v>92.989900000000006</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="2"/>
-        <v>94.839200000000005</v>
+        <v>94.406933333333356</v>
       </c>
       <c r="M44">
         <v>86.194000000000003</v>
@@ -3508,7 +4005,7 @@
       </c>
       <c r="O44" s="15">
         <f t="shared" si="4"/>
-        <v>2.1240820165959304</v>
+        <v>2.1144006838449108</v>
       </c>
       <c r="P44" s="15">
         <f>$H44/$C44</f>
@@ -3516,14 +4013,26 @@
       </c>
       <c r="Q44" s="15">
         <f t="shared" si="5"/>
-        <v>0.96774693877551021</v>
+        <v>0.96333605442176895</v>
       </c>
       <c r="R44">
         <f t="shared" si="6"/>
         <v>0.87953061224489804</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44">
+        <v>94.996300000000005</v>
+      </c>
+      <c r="Y44">
+        <v>95.2346</v>
+      </c>
+      <c r="Z44">
+        <v>92.989900000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -3544,17 +4053,17 @@
         <v>115.985</v>
       </c>
       <c r="I45">
-        <v>126.876</v>
+        <v>126.96899999999999</v>
       </c>
       <c r="J45">
-        <v>128.26300000000001</v>
+        <v>128.37799999999999</v>
       </c>
       <c r="K45">
-        <v>127.81</v>
-      </c>
-      <c r="L45" s="15">
+        <v>127.818</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="2"/>
-        <v>127.64966666666668</v>
+        <v>127.72166666666665</v>
       </c>
       <c r="M45">
         <v>105.68300000000001</v>
@@ -3565,12 +4074,24 @@
       </c>
       <c r="O45" s="15">
         <f t="shared" si="4"/>
-        <v>2.3052816038709811</v>
+        <v>2.3065818836117193</v>
       </c>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X45">
+        <v>126.96899999999999</v>
+      </c>
+      <c r="Y45">
+        <v>128.37799999999999</v>
+      </c>
+      <c r="Z45">
+        <v>127.818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
@@ -3597,17 +4118,17 @@
         <v>149.32566666666668</v>
       </c>
       <c r="I46">
-        <v>158.374</v>
+        <v>157.51300000000001</v>
       </c>
       <c r="J46">
-        <v>157.256</v>
+        <v>160.238</v>
       </c>
       <c r="K46">
-        <v>157.99299999999999</v>
-      </c>
-      <c r="L46" s="15">
+        <v>157.88200000000001</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="2"/>
-        <v>157.87433333333334</v>
+        <v>158.54433333333333</v>
       </c>
       <c r="M46">
         <v>151.34299999999999</v>
@@ -3618,7 +4139,7 @@
       </c>
       <c r="O46" s="15">
         <f t="shared" si="4"/>
-        <v>2.9115052353526618</v>
+        <v>2.9238613192486271</v>
       </c>
       <c r="P46" s="15">
         <f>$H46/$C46</f>
@@ -3626,14 +4147,26 @@
       </c>
       <c r="Q46" s="15">
         <f t="shared" si="5"/>
-        <v>1.0887885057471265</v>
+        <v>1.0934091954022989</v>
       </c>
       <c r="R46">
         <f t="shared" si="6"/>
         <v>1.0437448275862069</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W46" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46">
+        <v>157.51300000000001</v>
+      </c>
+      <c r="Y46">
+        <v>160.238</v>
+      </c>
+      <c r="Z46">
+        <v>157.88200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -3654,17 +4187,17 @@
         <v>172.85133333333332</v>
       </c>
       <c r="I47">
-        <v>203.96199999999999</v>
+        <v>200.77199999999999</v>
       </c>
       <c r="J47">
-        <v>204.63</v>
+        <v>201.79599999999999</v>
       </c>
       <c r="K47">
-        <v>206.26599999999999</v>
-      </c>
-      <c r="L47" s="15">
+        <v>197.93299999999999</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="2"/>
-        <v>204.95266666666666</v>
+        <v>200.167</v>
       </c>
       <c r="M47">
         <v>189.08</v>
@@ -3675,12 +4208,24 @@
       </c>
       <c r="O47" s="15">
         <f t="shared" si="4"/>
-        <v>3.1821291756330279</v>
+        <v>3.1078261193589558</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W47" t="s">
+        <v>46</v>
+      </c>
+      <c r="X47">
+        <v>200.77199999999999</v>
+      </c>
+      <c r="Y47">
+        <v>201.79599999999999</v>
+      </c>
+      <c r="Z47">
+        <v>197.93299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -3707,19 +4252,19 @@
         <v>155.75133333333335</v>
       </c>
       <c r="I48">
-        <v>172.03800000000001</v>
+        <v>172.1</v>
       </c>
       <c r="J48">
-        <v>171.511</v>
+        <v>173.59800000000001</v>
       </c>
       <c r="K48">
-        <v>170.68</v>
-      </c>
-      <c r="L48" s="20">
+        <v>171.672</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="2"/>
-        <v>171.40966666666668</v>
-      </c>
-      <c r="M48" s="21">
+        <v>172.45666666666668</v>
+      </c>
+      <c r="M48" s="20">
         <v>142.33000000000001</v>
       </c>
       <c r="N48" s="15">
@@ -3728,25 +4273,37 @@
       </c>
       <c r="O48" s="15">
         <f t="shared" si="4"/>
-        <v>3.0820595531565358</v>
+        <v>3.100885307939842</v>
       </c>
       <c r="P48" s="15">
         <f>$H48/$C48</f>
         <v>0.67424819624819632</v>
       </c>
-      <c r="Q48" s="20">
-        <f t="shared" si="5"/>
-        <v>0.74203318903318904</v>
-      </c>
-      <c r="R48" s="21">
+      <c r="Q48" s="19">
+        <f t="shared" si="5"/>
+        <v>0.74656565656565665</v>
+      </c>
+      <c r="R48" s="20">
         <f t="shared" si="6"/>
         <v>0.61614718614718622</v>
       </c>
-      <c r="T48" s="19" t="s">
+      <c r="T48" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>32</v>
+      </c>
+      <c r="X48">
+        <v>172.1</v>
+      </c>
+      <c r="Y48">
+        <v>173.59800000000001</v>
+      </c>
+      <c r="Z48">
+        <v>171.672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
@@ -3767,19 +4324,19 @@
         <v>142.05533333333332</v>
       </c>
       <c r="I49">
-        <v>178.11600000000001</v>
+        <v>178.797</v>
       </c>
       <c r="J49">
-        <v>178.20500000000001</v>
+        <v>178.57900000000001</v>
       </c>
       <c r="K49">
-        <v>177.98599999999999</v>
-      </c>
-      <c r="L49" s="20">
+        <v>176.66</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="2"/>
-        <v>178.10233333333335</v>
-      </c>
-      <c r="M49" s="21">
+        <v>178.01199999999997</v>
+      </c>
+      <c r="M49" s="20">
         <v>171.405</v>
       </c>
       <c r="N49" s="15">
@@ -3788,10 +4345,22 @@
       </c>
       <c r="O49" s="15">
         <f t="shared" si="4"/>
-        <v>3.026640088322579</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.0251049793609974</v>
+      </c>
+      <c r="W49" t="s">
+        <v>34</v>
+      </c>
+      <c r="X49">
+        <v>178.797</v>
+      </c>
+      <c r="Y49">
+        <v>178.57900000000001</v>
+      </c>
+      <c r="Z49">
+        <v>176.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
@@ -3812,17 +4381,17 @@
         <v>160.57100000000003</v>
       </c>
       <c r="I50">
-        <v>186.09700000000001</v>
+        <v>197.8</v>
       </c>
       <c r="J50">
-        <v>174.32300000000001</v>
+        <v>180.464</v>
       </c>
       <c r="K50">
-        <v>182.14699999999999</v>
-      </c>
-      <c r="L50" s="15">
+        <v>201.179</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="2"/>
-        <v>180.85566666666668</v>
+        <v>193.14766666666665</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15">
@@ -3831,14 +4400,26 @@
       </c>
       <c r="O50" s="15">
         <f t="shared" si="4"/>
-        <v>1.1035724891486964</v>
-      </c>
-      <c r="T50" s="20">
+        <v>1.1785776758073898</v>
+      </c>
+      <c r="T50" s="19">
         <f>$L50/$L33</f>
-        <v>1.3944081500480596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.4147006618862414</v>
+      </c>
+      <c r="W50" t="s">
+        <v>47</v>
+      </c>
+      <c r="X50">
+        <v>197.8</v>
+      </c>
+      <c r="Y50">
+        <v>180.464</v>
+      </c>
+      <c r="Z50">
+        <v>201.179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
@@ -3859,17 +4440,17 @@
         <v>176.32033333333334</v>
       </c>
       <c r="I51">
-        <v>186.01400000000001</v>
+        <v>181.22300000000001</v>
       </c>
       <c r="J51">
-        <v>80.427599999999998</v>
+        <v>201.417</v>
       </c>
       <c r="K51">
-        <v>168.285</v>
-      </c>
-      <c r="L51" s="15">
+        <v>180.01300000000001</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="2"/>
-        <v>144.90886666666665</v>
+        <v>187.55100000000002</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="15">
@@ -3878,14 +4459,26 @@
       </c>
       <c r="O51" s="15">
         <f t="shared" si="4"/>
-        <v>0.88396795380141924</v>
-      </c>
-      <c r="T51" s="20">
+        <v>1.1440919904837432</v>
+      </c>
+      <c r="T51" s="19">
         <f t="shared" ref="T51:T66" si="7">$L51/$L34</f>
-        <v>1.2773791089158366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.5676671932596105</v>
+      </c>
+      <c r="W51" t="s">
+        <v>36</v>
+      </c>
+      <c r="X51">
+        <v>181.22300000000001</v>
+      </c>
+      <c r="Y51">
+        <v>201.417</v>
+      </c>
+      <c r="Z51">
+        <v>180.01300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -3906,17 +4499,17 @@
         <v>152.108</v>
       </c>
       <c r="I52">
-        <v>156.12</v>
+        <v>152.62299999999999</v>
       </c>
       <c r="J52">
-        <v>157.56399999999999</v>
+        <v>154.102</v>
       </c>
       <c r="K52">
-        <v>150.65100000000001</v>
-      </c>
-      <c r="L52" s="15">
+        <v>152.92599999999999</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="2"/>
-        <v>154.77833333333334</v>
+        <v>153.21700000000001</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="15">
@@ -3925,14 +4518,26 @@
       </c>
       <c r="O52" s="15">
         <f t="shared" si="4"/>
-        <v>1.1928782086852867</v>
+        <v>1.1808449966089154</v>
       </c>
       <c r="T52" s="15">
         <f>$L52/$L35</f>
-        <v>1.7340316239925879</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.5944281681581267</v>
+      </c>
+      <c r="W52" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52">
+        <v>152.62299999999999</v>
+      </c>
+      <c r="Y52">
+        <v>154.102</v>
+      </c>
+      <c r="Z52">
+        <v>152.92599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
@@ -3953,17 +4558,17 @@
         <v>122.76799999999999</v>
       </c>
       <c r="I53">
-        <v>127.959</v>
+        <v>114.887</v>
       </c>
       <c r="J53">
-        <v>127.616</v>
+        <v>115.371</v>
       </c>
       <c r="K53">
-        <v>127.078</v>
-      </c>
-      <c r="L53" s="15">
+        <v>126.024</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="2"/>
-        <v>127.551</v>
+        <v>118.76066666666667</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15">
@@ -3972,14 +4577,26 @@
       </c>
       <c r="O53" s="15">
         <f t="shared" si="4"/>
-        <v>1.1953610421254861</v>
+        <v>1.1129812723552472</v>
       </c>
       <c r="T53" s="15">
         <f t="shared" si="7"/>
-        <v>1.6322433028001935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.4260880424701912</v>
+      </c>
+      <c r="W53" t="s">
+        <v>44</v>
+      </c>
+      <c r="X53">
+        <v>114.887</v>
+      </c>
+      <c r="Y53">
+        <v>115.371</v>
+      </c>
+      <c r="Z53">
+        <v>126.024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
@@ -4000,17 +4617,17 @@
         <v>79.312866666666665</v>
       </c>
       <c r="I54">
-        <v>84.527799999999999</v>
+        <v>84.725899999999996</v>
       </c>
       <c r="J54">
-        <v>84.509100000000004</v>
+        <v>80.283900000000003</v>
       </c>
       <c r="K54">
-        <v>85.010099999999994</v>
-      </c>
-      <c r="L54" s="15">
+        <v>83.924199999999999</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="2"/>
-        <v>84.682333333333332</v>
+        <v>82.977999999999994</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="15">
@@ -4019,14 +4636,26 @@
       </c>
       <c r="O54" s="15">
         <f t="shared" si="4"/>
-        <v>1.1241873275311218</v>
+        <v>1.1015617117762944</v>
       </c>
       <c r="T54" s="15">
         <f t="shared" si="7"/>
-        <v>1.4497379256033991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3758504623309435</v>
+      </c>
+      <c r="W54" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54">
+        <v>84.725899999999996</v>
+      </c>
+      <c r="Y54">
+        <v>80.283900000000003</v>
+      </c>
+      <c r="Z54">
+        <v>83.924199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
@@ -4047,17 +4676,17 @@
         <v>65.45450000000001</v>
       </c>
       <c r="I55">
-        <v>67.075800000000001</v>
+        <v>68.811300000000003</v>
       </c>
       <c r="J55">
-        <v>67.345100000000002</v>
+        <v>66.230199999999996</v>
       </c>
       <c r="K55">
-        <v>67.475999999999999</v>
-      </c>
-      <c r="L55" s="15">
+        <v>68.681600000000003</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="2"/>
-        <v>67.298966666666672</v>
+        <v>67.907699999999991</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="15">
@@ -4066,14 +4695,26 @@
       </c>
       <c r="O55" s="15">
         <f t="shared" si="4"/>
-        <v>1.1270196932829377</v>
+        <v>1.1372138238707439</v>
       </c>
       <c r="T55" s="15">
         <f t="shared" si="7"/>
-        <v>1.373772584412783</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3474106457842798</v>
+      </c>
+      <c r="W55" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55">
+        <v>68.811300000000003</v>
+      </c>
+      <c r="Y55">
+        <v>66.230199999999996</v>
+      </c>
+      <c r="Z55">
+        <v>68.681600000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
@@ -4094,17 +4735,17 @@
         <v>47.416766666666661</v>
       </c>
       <c r="I56">
-        <v>48.405000000000001</v>
+        <v>47.131100000000004</v>
       </c>
       <c r="J56">
-        <v>48.430700000000002</v>
+        <v>45.028500000000001</v>
       </c>
       <c r="K56">
-        <v>47.047600000000003</v>
-      </c>
-      <c r="L56" s="15">
+        <v>47.523600000000002</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="2"/>
-        <v>47.961100000000009</v>
+        <v>46.561066666666669</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15">
@@ -4113,14 +4754,26 @@
       </c>
       <c r="O56" s="15">
         <f t="shared" si="4"/>
-        <v>1.1195296962680088</v>
+        <v>1.0868494847542662</v>
       </c>
       <c r="T56" s="15">
         <f t="shared" si="7"/>
-        <v>1.3151497424694598</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2161593647697988</v>
+      </c>
+      <c r="W56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X56">
+        <v>47.131100000000004</v>
+      </c>
+      <c r="Y56">
+        <v>45.028500000000001</v>
+      </c>
+      <c r="Z56">
+        <v>47.523600000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
@@ -4141,17 +4794,17 @@
         <v>45.128399999999999</v>
       </c>
       <c r="I57">
-        <v>46.100499999999997</v>
+        <v>46.809100000000001</v>
       </c>
       <c r="J57">
-        <v>45.194600000000001</v>
+        <v>47.220999999999997</v>
       </c>
       <c r="K57">
-        <v>46.227600000000002</v>
-      </c>
-      <c r="L57" s="15">
+        <v>47.215000000000003</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="2"/>
-        <v>45.840899999999998</v>
+        <v>47.081700000000005</v>
       </c>
       <c r="M57" s="15"/>
       <c r="N57" s="15">
@@ -4160,14 +4813,26 @@
       </c>
       <c r="O57" s="15">
         <f t="shared" si="4"/>
-        <v>1.1485377977771318</v>
+        <v>1.1796258806786866</v>
       </c>
       <c r="T57" s="15">
         <f t="shared" si="7"/>
-        <v>1.2889124031015018</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2819323406672996</v>
+      </c>
+      <c r="W57" t="s">
+        <v>37</v>
+      </c>
+      <c r="X57">
+        <v>46.809100000000001</v>
+      </c>
+      <c r="Y57">
+        <v>47.220999999999997</v>
+      </c>
+      <c r="Z57">
+        <v>47.215000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -4188,17 +4853,17 @@
         <v>34.024633333333334</v>
       </c>
       <c r="I58">
-        <v>34.101999999999997</v>
+        <v>33.997799999999998</v>
       </c>
       <c r="J58">
-        <v>33.983699999999999</v>
+        <v>34.502699999999997</v>
       </c>
       <c r="K58">
-        <v>33.927399999999999</v>
-      </c>
-      <c r="L58" s="15">
+        <v>34.346600000000002</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="2"/>
-        <v>34.00436666666667</v>
+        <v>34.282366666666661</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="15">
@@ -4207,14 +4872,26 @@
       </c>
       <c r="O58" s="15">
         <f t="shared" si="4"/>
-        <v>0.15600408617048447</v>
+        <v>0.1572794851914551</v>
       </c>
       <c r="T58" s="15">
         <f t="shared" si="7"/>
-        <v>0.13035368591607069</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.13197725076641356</v>
+      </c>
+      <c r="W58" t="s">
+        <v>35</v>
+      </c>
+      <c r="X58">
+        <v>33.997799999999998</v>
+      </c>
+      <c r="Y58">
+        <v>34.502699999999997</v>
+      </c>
+      <c r="Z58">
+        <v>34.346600000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
@@ -4235,17 +4912,17 @@
         <v>49.125</v>
       </c>
       <c r="I59">
-        <v>49.4816</v>
+        <v>49.379600000000003</v>
       </c>
       <c r="J59">
-        <v>49.667400000000001</v>
+        <v>50.116500000000002</v>
       </c>
       <c r="K59">
-        <v>49.747100000000003</v>
-      </c>
-      <c r="L59" s="15">
+        <v>49.739100000000001</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="2"/>
-        <v>49.632033333333332</v>
+        <v>49.745066666666673</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15">
@@ -4254,14 +4931,26 @@
       </c>
       <c r="O59" s="15">
         <f t="shared" si="4"/>
-        <v>1.0723900231264913</v>
+        <v>1.0748323131316844</v>
       </c>
       <c r="T59" s="15">
         <f t="shared" si="7"/>
-        <v>0.94795229936977654</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.94679349353547138</v>
+      </c>
+      <c r="W59" t="s">
+        <v>38</v>
+      </c>
+      <c r="X59">
+        <v>49.379600000000003</v>
+      </c>
+      <c r="Y59">
+        <v>50.116500000000002</v>
+      </c>
+      <c r="Z59">
+        <v>49.739100000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
@@ -4282,17 +4971,17 @@
         <v>73.173633333333328</v>
       </c>
       <c r="I60">
-        <v>73.789500000000004</v>
+        <v>73.624600000000001</v>
       </c>
       <c r="J60">
-        <v>72.065600000000003</v>
+        <v>73.897000000000006</v>
       </c>
       <c r="K60">
-        <v>73.7149</v>
-      </c>
-      <c r="L60" s="15">
+        <v>74.835499999999996</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="2"/>
-        <v>73.19</v>
+        <v>74.119033333333334</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="15">
@@ -4301,14 +4990,26 @@
       </c>
       <c r="O60" s="15">
         <f t="shared" si="4"/>
-        <v>1.238660980232873</v>
+        <v>1.2543838568462857</v>
       </c>
       <c r="T60" s="15">
         <f t="shared" si="7"/>
-        <v>0.98119170306047609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.98354456639388388</v>
+      </c>
+      <c r="W60" t="s">
+        <v>45</v>
+      </c>
+      <c r="X60">
+        <v>73.624600000000001</v>
+      </c>
+      <c r="Y60">
+        <v>73.897000000000006</v>
+      </c>
+      <c r="Z60">
+        <v>74.835499999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
@@ -4329,17 +5030,17 @@
         <v>98.406499999999994</v>
       </c>
       <c r="I61">
-        <v>102.376</v>
+        <v>99.771299999999997</v>
       </c>
       <c r="J61">
-        <v>101.71299999999999</v>
+        <v>101.46599999999999</v>
       </c>
       <c r="K61">
-        <v>100.785</v>
-      </c>
-      <c r="L61" s="15">
+        <v>100.664</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="2"/>
-        <v>101.62466666666667</v>
+        <v>100.63376666666666</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15">
@@ -4348,14 +5049,26 @@
       </c>
       <c r="O61" s="15">
         <f t="shared" si="4"/>
-        <v>2.3261460050051883</v>
+        <v>2.303464719526338</v>
       </c>
       <c r="T61" s="15">
         <f t="shared" si="7"/>
-        <v>1.0715470677385159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.0659573731872798</v>
+      </c>
+      <c r="W61" t="s">
+        <v>39</v>
+      </c>
+      <c r="X61">
+        <v>99.771299999999997</v>
+      </c>
+      <c r="Y61">
+        <v>101.46599999999999</v>
+      </c>
+      <c r="Z61">
+        <v>100.664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
@@ -4376,17 +5089,17 @@
         <v>147.95066666666668</v>
       </c>
       <c r="I62">
-        <v>146.91999999999999</v>
+        <v>148.33699999999999</v>
       </c>
       <c r="J62">
-        <v>149.57400000000001</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="K62">
-        <v>148.38800000000001</v>
-      </c>
-      <c r="L62" s="15">
+        <v>148.19499999999999</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="2"/>
-        <v>148.29400000000001</v>
+        <v>148.77733333333333</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15">
@@ -4395,14 +5108,26 @@
       </c>
       <c r="O62" s="15">
         <f t="shared" si="4"/>
-        <v>2.9960502257735397</v>
+        <v>3.0058152259924102</v>
       </c>
       <c r="T62" s="15">
         <f t="shared" si="7"/>
-        <v>1.161726496217512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1648558714913941</v>
+      </c>
+      <c r="W62" t="s">
+        <v>31</v>
+      </c>
+      <c r="X62">
+        <v>148.33699999999999</v>
+      </c>
+      <c r="Y62">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>148.19499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
@@ -4423,17 +5148,17 @@
         <v>194.19399999999999</v>
       </c>
       <c r="I63">
-        <v>198.96100000000001</v>
+        <v>192.88</v>
       </c>
       <c r="J63">
-        <v>196.636</v>
+        <v>175.87799999999999</v>
       </c>
       <c r="K63">
-        <v>199.452</v>
-      </c>
-      <c r="L63" s="15">
+        <v>191.917</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="2"/>
-        <v>198.34966666666665</v>
+        <v>186.89166666666665</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15">
@@ -4442,14 +5167,26 @@
       </c>
       <c r="O63" s="15">
         <f t="shared" si="4"/>
-        <v>4.2664099861621958</v>
+        <v>4.0199536827916509</v>
       </c>
       <c r="T63" s="15">
         <f t="shared" si="7"/>
-        <v>1.2563769073714746</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1787975182546206</v>
+      </c>
+      <c r="W63" t="s">
+        <v>41</v>
+      </c>
+      <c r="X63">
+        <v>192.88</v>
+      </c>
+      <c r="Y63">
+        <v>175.87799999999999</v>
+      </c>
+      <c r="Z63">
+        <v>191.917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
@@ -4470,17 +5207,17 @@
         <v>241.17333333333332</v>
       </c>
       <c r="I64">
-        <v>270.62099999999998</v>
+        <v>269.726</v>
       </c>
       <c r="J64">
-        <v>265.73099999999999</v>
+        <v>275.209</v>
       </c>
       <c r="K64">
-        <v>272.08499999999998</v>
-      </c>
-      <c r="L64" s="15">
+        <v>229.964</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="2"/>
-        <v>269.47899999999998</v>
+        <v>258.29966666666661</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15">
@@ -4489,14 +5226,26 @@
       </c>
       <c r="O64" s="15">
         <f t="shared" si="4"/>
-        <v>4.9272646156434101</v>
+        <v>4.7228570975814588</v>
       </c>
       <c r="T64" s="15">
         <f t="shared" si="7"/>
-        <v>1.3148352953039564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2904208319386643</v>
+      </c>
+      <c r="W64" t="s">
+        <v>46</v>
+      </c>
+      <c r="X64">
+        <v>269.726</v>
+      </c>
+      <c r="Y64">
+        <v>275.209</v>
+      </c>
+      <c r="Z64">
+        <v>229.964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>32</v>
       </c>
@@ -4517,17 +5266,17 @@
         <v>187.16133333333332</v>
       </c>
       <c r="I65">
-        <v>140.095</v>
+        <v>138.96</v>
       </c>
       <c r="J65">
-        <v>140.238</v>
+        <v>140.86500000000001</v>
       </c>
       <c r="K65">
-        <v>138.80099999999999</v>
-      </c>
-      <c r="L65" s="15">
+        <v>129.90899999999999</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="2"/>
-        <v>139.71133333333333</v>
+        <v>136.578</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="15">
@@ -4536,14 +5285,26 @@
       </c>
       <c r="O65" s="15">
         <f t="shared" si="4"/>
-        <v>2.9842901369059311</v>
-      </c>
-      <c r="T65" s="20">
+        <v>2.9173608797067643</v>
+      </c>
+      <c r="T65" s="19">
         <f t="shared" si="7"/>
-        <v>0.81507266217969032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.79195546707385422</v>
+      </c>
+      <c r="W65" t="s">
+        <v>32</v>
+      </c>
+      <c r="X65">
+        <v>138.96</v>
+      </c>
+      <c r="Y65">
+        <v>140.86500000000001</v>
+      </c>
+      <c r="Z65">
+        <v>129.90899999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
@@ -4564,17 +5325,17 @@
         <v>169.24433333333334</v>
       </c>
       <c r="I66">
-        <v>128.57900000000001</v>
+        <v>129.43299999999999</v>
       </c>
       <c r="J66">
-        <v>129.81200000000001</v>
+        <v>120.67100000000001</v>
       </c>
       <c r="K66">
-        <v>129.46</v>
-      </c>
-      <c r="L66" s="15">
+        <v>129.40199999999999</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="2"/>
-        <v>129.28366666666668</v>
+        <v>126.502</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="15">
@@ -4583,17 +5344,26 @@
       </c>
       <c r="O66" s="15">
         <f t="shared" si="4"/>
-        <v>2.5996595014511406</v>
-      </c>
-      <c r="T66" s="20">
+        <v>2.5437252418008884</v>
+      </c>
+      <c r="T66" s="19">
         <f t="shared" si="7"/>
-        <v>0.72589541218812403</v>
+        <v>0.71063748511336322</v>
+      </c>
+      <c r="W66" t="s">
+        <v>34</v>
+      </c>
+      <c r="X66">
+        <v>129.43299999999999</v>
+      </c>
+      <c r="Y66">
+        <v>120.67100000000001</v>
+      </c>
+      <c r="Z66">
+        <v>129.40199999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="T19:U35">
-    <sortCondition ref="T19"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -806,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="W11" sqref="W1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,9 +829,10 @@
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
@@ -887,7 +888,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -949,20 +950,8 @@
         <f>$M2/$C2</f>
         <v>0.88825277596342256</v>
       </c>
-      <c r="W2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2">
-        <v>1858.22</v>
-      </c>
-      <c r="Y2">
-        <v>1850.29</v>
-      </c>
-      <c r="Z2">
-        <v>1857.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -1024,20 +1013,8 @@
         <f t="shared" ref="R3:R48" si="6">$M3/$C3</f>
         <v>1.0198995751255311</v>
       </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3">
-        <v>1847.02</v>
-      </c>
-      <c r="Y3">
-        <v>1849.4</v>
-      </c>
-      <c r="Z3">
-        <v>1860.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1099,20 +1076,8 @@
         <f t="shared" si="6"/>
         <v>0.57963997850617954</v>
       </c>
-      <c r="W4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4">
-        <v>1582.49</v>
-      </c>
-      <c r="Y4">
-        <v>1578.42</v>
-      </c>
-      <c r="Z4">
-        <v>1590.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1174,20 +1139,8 @@
         <f t="shared" si="6"/>
         <v>0.76413526570048307</v>
       </c>
-      <c r="W5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>172.83799999999999</v>
-      </c>
-      <c r="Y5">
-        <v>170.226</v>
-      </c>
-      <c r="Z5">
-        <v>173.221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1249,20 +1202,8 @@
         <f t="shared" si="6"/>
         <v>2.5553899308983219</v>
       </c>
-      <c r="W6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6">
-        <v>6525.8</v>
-      </c>
-      <c r="Y6">
-        <v>6859.42</v>
-      </c>
-      <c r="Z6">
-        <v>6898.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1324,20 +1265,8 @@
         <f t="shared" si="6"/>
         <v>2.9936331693605056</v>
       </c>
-      <c r="W7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7">
-        <v>4455.1000000000004</v>
-      </c>
-      <c r="Y7">
-        <v>5029.75</v>
-      </c>
-      <c r="Z7">
-        <v>4723.3100000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1399,20 +1328,8 @@
         <f t="shared" si="6"/>
         <v>0.65513502454991823</v>
       </c>
-      <c r="W8" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8">
-        <v>3807.64</v>
-      </c>
-      <c r="Y8">
-        <v>3574.49</v>
-      </c>
-      <c r="Z8">
-        <v>3420.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1474,20 +1391,8 @@
         <f t="shared" si="6"/>
         <v>1.0102128777923784</v>
       </c>
-      <c r="W9" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>4250.47</v>
-      </c>
-      <c r="Y9">
-        <v>3905.35</v>
-      </c>
-      <c r="Z9">
-        <v>4494.7299999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1549,20 +1454,8 @@
         <f t="shared" si="6"/>
         <v>3.3891304347826088</v>
       </c>
-      <c r="W10" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10">
-        <v>2861</v>
-      </c>
-      <c r="Y10">
-        <v>2931.06</v>
-      </c>
-      <c r="Z10">
-        <v>2967.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -1624,20 +1517,8 @@
         <f t="shared" si="6"/>
         <v>1.0827848101265822</v>
       </c>
-      <c r="W11" t="s">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>2276.6</v>
-      </c>
-      <c r="Y11">
-        <v>2248.7800000000002</v>
-      </c>
-      <c r="Z11">
-        <v>2279.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1699,20 +1580,8 @@
         <f t="shared" si="6"/>
         <v>1.530922746781116</v>
       </c>
-      <c r="W12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12">
-        <v>3161.25</v>
-      </c>
-      <c r="Y12">
-        <v>3135.24</v>
-      </c>
-      <c r="Z12">
-        <v>3173.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1774,20 +1643,8 @@
         <f t="shared" si="6"/>
         <v>0.7983797909407665</v>
       </c>
-      <c r="W13" t="s">
-        <v>4</v>
-      </c>
-      <c r="X13">
-        <v>1976.54</v>
-      </c>
-      <c r="Y13">
-        <v>1982.43</v>
-      </c>
-      <c r="Z13">
-        <v>1982.93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1849,20 +1706,8 @@
         <f t="shared" si="6"/>
         <v>0.73709873284054916</v>
       </c>
-      <c r="W14" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14">
-        <v>2277.2800000000002</v>
-      </c>
-      <c r="Y14">
-        <v>2192.94</v>
-      </c>
-      <c r="Z14">
-        <v>2250.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1924,20 +1769,8 @@
         <f t="shared" si="6"/>
         <v>0.73458873313938111</v>
       </c>
-      <c r="W15" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>1721.93</v>
-      </c>
-      <c r="Y15">
-        <v>1744.91</v>
-      </c>
-      <c r="Z15">
-        <v>1749.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1999,20 +1832,8 @@
         <f t="shared" si="6"/>
         <v>0.69906735751295335</v>
       </c>
-      <c r="W16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X16">
-        <v>146.303</v>
-      </c>
-      <c r="Y16">
-        <v>147.28299999999999</v>
-      </c>
-      <c r="Z16">
-        <v>145.27600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -2074,20 +1895,8 @@
         <f t="shared" si="6"/>
         <v>0.72461904761904761</v>
       </c>
-      <c r="W17" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17">
-        <v>1167.8699999999999</v>
-      </c>
-      <c r="Y17">
-        <v>1080.0999999999999</v>
-      </c>
-      <c r="Z17">
-        <v>1194.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
@@ -2149,20 +1958,8 @@
         <f t="shared" si="6"/>
         <v>0.4501801047120419</v>
       </c>
-      <c r="W18" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18">
-        <v>4632.42</v>
-      </c>
-      <c r="Y18">
-        <v>2221.98</v>
-      </c>
-      <c r="Z18">
-        <v>2235.14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -2224,20 +2021,8 @@
         <f t="shared" si="6"/>
         <v>0.49191301393136255</v>
       </c>
-      <c r="W19" t="s">
-        <v>22</v>
-      </c>
-      <c r="X19">
-        <v>1765.91</v>
-      </c>
-      <c r="Y19">
-        <v>1582.78</v>
-      </c>
-      <c r="Z19">
-        <v>1463.94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2299,20 +2084,8 @@
         <f t="shared" si="6"/>
         <v>0.45996074879227056</v>
       </c>
-      <c r="W20" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20">
-        <v>1593.8</v>
-      </c>
-      <c r="Y20">
-        <v>1700.91</v>
-      </c>
-      <c r="Z20">
-        <v>1719.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2374,20 +2147,8 @@
         <f t="shared" si="6"/>
         <v>0.45684398216939076</v>
       </c>
-      <c r="W21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21">
-        <v>1593.42</v>
-      </c>
-      <c r="Y21">
-        <v>1705.58</v>
-      </c>
-      <c r="Z21">
-        <v>1692.88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -2449,20 +2210,8 @@
         <f t="shared" si="6"/>
         <v>0.54924062800384499</v>
       </c>
-      <c r="W22" t="s">
-        <v>15</v>
-      </c>
-      <c r="X22">
-        <v>1827.55</v>
-      </c>
-      <c r="Y22">
-        <v>1577.59</v>
-      </c>
-      <c r="Z22">
-        <v>1809.14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -2524,20 +2273,8 @@
         <f t="shared" si="6"/>
         <v>1.5589607390300231</v>
       </c>
-      <c r="W23" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23">
-        <v>1588.94</v>
-      </c>
-      <c r="Y23">
-        <v>1567.23</v>
-      </c>
-      <c r="Z23">
-        <v>1387.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -2599,20 +2336,8 @@
         <f t="shared" si="6"/>
         <v>0.76713586097946285</v>
       </c>
-      <c r="W24" t="s">
-        <v>23</v>
-      </c>
-      <c r="X24">
-        <v>565</v>
-      </c>
-      <c r="Y24">
-        <v>603.26</v>
-      </c>
-      <c r="Z24">
-        <v>597.49300000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -2674,20 +2399,8 @@
         <f t="shared" si="6"/>
         <v>0.73141570881226048</v>
       </c>
-      <c r="W25" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25">
-        <v>442.01400000000001</v>
-      </c>
-      <c r="Y25">
-        <v>423.20499999999998</v>
-      </c>
-      <c r="Z25">
-        <v>424.87599999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -2749,20 +2462,8 @@
         <f t="shared" si="6"/>
         <v>1.0445545335085413</v>
       </c>
-      <c r="W26" t="s">
-        <v>25</v>
-      </c>
-      <c r="X26">
-        <v>868.23599999999999</v>
-      </c>
-      <c r="Y26">
-        <v>936.33799999999997</v>
-      </c>
-      <c r="Z26">
-        <v>844.83699999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2824,20 +2525,8 @@
         <f t="shared" si="6"/>
         <v>2.7496488147497806</v>
       </c>
-      <c r="W27" t="s">
-        <v>18</v>
-      </c>
-      <c r="X27">
-        <v>2723.61</v>
-      </c>
-      <c r="Y27">
-        <v>2266.85</v>
-      </c>
-      <c r="Z27">
-        <v>3218.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
@@ -2899,20 +2588,8 @@
         <f t="shared" si="6"/>
         <v>0.8803763440860215</v>
       </c>
-      <c r="W28" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28">
-        <v>380.71300000000002</v>
-      </c>
-      <c r="Y28">
-        <v>369.601</v>
-      </c>
-      <c r="Z28">
-        <v>367.923</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -2974,20 +2651,8 @@
         <f t="shared" si="6"/>
         <v>0.37292307692307691</v>
       </c>
-      <c r="W29" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29">
-        <v>225.107</v>
-      </c>
-      <c r="Y29">
-        <v>226.72399999999999</v>
-      </c>
-      <c r="Z29">
-        <v>223.64400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
@@ -3049,20 +2714,8 @@
         <f t="shared" si="6"/>
         <v>0.59547356321839084</v>
       </c>
-      <c r="W30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X30">
-        <v>332.54199999999997</v>
-      </c>
-      <c r="Y30">
-        <v>333.02</v>
-      </c>
-      <c r="Z30">
-        <v>335.15699999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
@@ -3124,20 +2777,8 @@
         <f t="shared" si="6"/>
         <v>1.8592080745341615</v>
       </c>
-      <c r="W31" t="s">
-        <v>29</v>
-      </c>
-      <c r="X31">
-        <v>1222.25</v>
-      </c>
-      <c r="Y31">
-        <v>1142.03</v>
-      </c>
-      <c r="Z31">
-        <v>1247.32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
@@ -3199,20 +2840,8 @@
         <f t="shared" si="6"/>
         <v>0.63936969696969692</v>
       </c>
-      <c r="W32" t="s">
-        <v>30</v>
-      </c>
-      <c r="X32">
-        <v>115.508</v>
-      </c>
-      <c r="Y32">
-        <v>118.242</v>
-      </c>
-      <c r="Z32">
-        <v>118.444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -3274,20 +2903,8 @@
         <f t="shared" si="6"/>
         <v>0.63971341463414633</v>
       </c>
-      <c r="W33" t="s">
-        <v>47</v>
-      </c>
-      <c r="X33">
-        <v>133.732</v>
-      </c>
-      <c r="Y33">
-        <v>137.29499999999999</v>
-      </c>
-      <c r="Z33">
-        <v>138.56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -3333,20 +2950,8 @@
       </c>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="W34" t="s">
-        <v>36</v>
-      </c>
-      <c r="X34">
-        <v>121.931</v>
-      </c>
-      <c r="Y34">
-        <v>114.80800000000001</v>
-      </c>
-      <c r="Z34">
-        <v>122.172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
@@ -3408,20 +3013,8 @@
         <f t="shared" si="6"/>
         <v>0.63023839999999998</v>
       </c>
-      <c r="W35" t="s">
-        <v>42</v>
-      </c>
-      <c r="X35">
-        <v>95.963800000000006</v>
-      </c>
-      <c r="Y35">
-        <v>96.301299999999998</v>
-      </c>
-      <c r="Z35">
-        <v>96.020700000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
@@ -3467,20 +3060,8 @@
       </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="W36" t="s">
-        <v>44</v>
-      </c>
-      <c r="X36">
-        <v>83.173599999999993</v>
-      </c>
-      <c r="Y36">
-        <v>83.443799999999996</v>
-      </c>
-      <c r="Z36">
-        <v>83.214299999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -3542,20 +3123,8 @@
         <f t="shared" si="6"/>
         <v>0.57862469135802475</v>
       </c>
-      <c r="W37" t="s">
-        <v>43</v>
-      </c>
-      <c r="X37">
-        <v>61.105400000000003</v>
-      </c>
-      <c r="Y37">
-        <v>58.509399999999999</v>
-      </c>
-      <c r="Z37">
-        <v>61.316200000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -3601,20 +3170,8 @@
       </c>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="W38" t="s">
-        <v>40</v>
-      </c>
-      <c r="X38">
-        <v>50.402799999999999</v>
-      </c>
-      <c r="Y38">
-        <v>50.621699999999997</v>
-      </c>
-      <c r="Z38">
-        <v>50.171500000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -3676,20 +3233,8 @@
         <f t="shared" si="6"/>
         <v>0.49793442622950818</v>
       </c>
-      <c r="W39" t="s">
-        <v>33</v>
-      </c>
-      <c r="X39">
-        <v>38.259099999999997</v>
-      </c>
-      <c r="Y39">
-        <v>38.299900000000001</v>
-      </c>
-      <c r="Z39">
-        <v>38.296999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
@@ -3735,20 +3280,8 @@
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="W40" t="s">
-        <v>37</v>
-      </c>
-      <c r="X40">
-        <v>36.801499999999997</v>
-      </c>
-      <c r="Y40">
-        <v>36.631799999999998</v>
-      </c>
-      <c r="Z40">
-        <v>36.748100000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -3810,20 +3343,8 @@
         <f t="shared" si="6"/>
         <v>0.75149826989619373</v>
       </c>
-      <c r="W41" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41">
-        <v>259.23099999999999</v>
-      </c>
-      <c r="Y41">
-        <v>260.80500000000001</v>
-      </c>
-      <c r="Z41">
-        <v>259.24299999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -3885,20 +3406,8 @@
         <f t="shared" si="6"/>
         <v>0.92519814814814816</v>
       </c>
-      <c r="W42" t="s">
-        <v>38</v>
-      </c>
-      <c r="X42">
-        <v>52.179699999999997</v>
-      </c>
-      <c r="Y42">
-        <v>52.763599999999997</v>
-      </c>
-      <c r="Z42">
-        <v>52.678400000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
@@ -3944,20 +3453,8 @@
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-      <c r="W43" t="s">
-        <v>45</v>
-      </c>
-      <c r="X43">
-        <v>75.333699999999993</v>
-      </c>
-      <c r="Y43">
-        <v>75.183099999999996</v>
-      </c>
-      <c r="Z43">
-        <v>75.560500000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
@@ -4019,20 +3516,8 @@
         <f t="shared" si="6"/>
         <v>0.87953061224489804</v>
       </c>
-      <c r="W44" t="s">
-        <v>39</v>
-      </c>
-      <c r="X44">
-        <v>94.996300000000005</v>
-      </c>
-      <c r="Y44">
-        <v>95.2346</v>
-      </c>
-      <c r="Z44">
-        <v>92.989900000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -4078,20 +3563,8 @@
       </c>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="W45" t="s">
-        <v>31</v>
-      </c>
-      <c r="X45">
-        <v>126.96899999999999</v>
-      </c>
-      <c r="Y45">
-        <v>128.37799999999999</v>
-      </c>
-      <c r="Z45">
-        <v>127.818</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
@@ -4153,20 +3626,8 @@
         <f t="shared" si="6"/>
         <v>1.0437448275862069</v>
       </c>
-      <c r="W46" t="s">
-        <v>41</v>
-      </c>
-      <c r="X46">
-        <v>157.51300000000001</v>
-      </c>
-      <c r="Y46">
-        <v>160.238</v>
-      </c>
-      <c r="Z46">
-        <v>157.88200000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -4212,20 +3673,8 @@
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
-      <c r="W47" t="s">
-        <v>46</v>
-      </c>
-      <c r="X47">
-        <v>200.77199999999999</v>
-      </c>
-      <c r="Y47">
-        <v>201.79599999999999</v>
-      </c>
-      <c r="Z47">
-        <v>197.93299999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -4290,20 +3739,8 @@
       <c r="T48" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="W48" t="s">
-        <v>32</v>
-      </c>
-      <c r="X48">
-        <v>172.1</v>
-      </c>
-      <c r="Y48">
-        <v>173.59800000000001</v>
-      </c>
-      <c r="Z48">
-        <v>171.672</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
@@ -4347,20 +3784,8 @@
         <f t="shared" si="4"/>
         <v>3.0251049793609974</v>
       </c>
-      <c r="W49" t="s">
-        <v>34</v>
-      </c>
-      <c r="X49">
-        <v>178.797</v>
-      </c>
-      <c r="Y49">
-        <v>178.57900000000001</v>
-      </c>
-      <c r="Z49">
-        <v>176.66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
@@ -4406,20 +3831,8 @@
         <f>$L50/$L33</f>
         <v>1.4147006618862414</v>
       </c>
-      <c r="W50" t="s">
-        <v>47</v>
-      </c>
-      <c r="X50">
-        <v>197.8</v>
-      </c>
-      <c r="Y50">
-        <v>180.464</v>
-      </c>
-      <c r="Z50">
-        <v>201.179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
@@ -4465,20 +3878,8 @@
         <f t="shared" ref="T51:T66" si="7">$L51/$L34</f>
         <v>1.5676671932596105</v>
       </c>
-      <c r="W51" t="s">
-        <v>36</v>
-      </c>
-      <c r="X51">
-        <v>181.22300000000001</v>
-      </c>
-      <c r="Y51">
-        <v>201.417</v>
-      </c>
-      <c r="Z51">
-        <v>180.01300000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -4524,20 +3925,8 @@
         <f>$L52/$L35</f>
         <v>1.5944281681581267</v>
       </c>
-      <c r="W52" t="s">
-        <v>42</v>
-      </c>
-      <c r="X52">
-        <v>152.62299999999999</v>
-      </c>
-      <c r="Y52">
-        <v>154.102</v>
-      </c>
-      <c r="Z52">
-        <v>152.92599999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
@@ -4583,20 +3972,8 @@
         <f t="shared" si="7"/>
         <v>1.4260880424701912</v>
       </c>
-      <c r="W53" t="s">
-        <v>44</v>
-      </c>
-      <c r="X53">
-        <v>114.887</v>
-      </c>
-      <c r="Y53">
-        <v>115.371</v>
-      </c>
-      <c r="Z53">
-        <v>126.024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
@@ -4642,20 +4019,8 @@
         <f t="shared" si="7"/>
         <v>1.3758504623309435</v>
       </c>
-      <c r="W54" t="s">
-        <v>43</v>
-      </c>
-      <c r="X54">
-        <v>84.725899999999996</v>
-      </c>
-      <c r="Y54">
-        <v>80.283900000000003</v>
-      </c>
-      <c r="Z54">
-        <v>83.924199999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
@@ -4701,20 +4066,8 @@
         <f t="shared" si="7"/>
         <v>1.3474106457842798</v>
       </c>
-      <c r="W55" t="s">
-        <v>40</v>
-      </c>
-      <c r="X55">
-        <v>68.811300000000003</v>
-      </c>
-      <c r="Y55">
-        <v>66.230199999999996</v>
-      </c>
-      <c r="Z55">
-        <v>68.681600000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
@@ -4760,20 +4113,8 @@
         <f t="shared" si="7"/>
         <v>1.2161593647697988</v>
       </c>
-      <c r="W56" t="s">
-        <v>33</v>
-      </c>
-      <c r="X56">
-        <v>47.131100000000004</v>
-      </c>
-      <c r="Y56">
-        <v>45.028500000000001</v>
-      </c>
-      <c r="Z56">
-        <v>47.523600000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
@@ -4819,20 +4160,8 @@
         <f t="shared" si="7"/>
         <v>1.2819323406672996</v>
       </c>
-      <c r="W57" t="s">
-        <v>37</v>
-      </c>
-      <c r="X57">
-        <v>46.809100000000001</v>
-      </c>
-      <c r="Y57">
-        <v>47.220999999999997</v>
-      </c>
-      <c r="Z57">
-        <v>47.215000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -4878,20 +4207,8 @@
         <f t="shared" si="7"/>
         <v>0.13197725076641356</v>
       </c>
-      <c r="W58" t="s">
-        <v>35</v>
-      </c>
-      <c r="X58">
-        <v>33.997799999999998</v>
-      </c>
-      <c r="Y58">
-        <v>34.502699999999997</v>
-      </c>
-      <c r="Z58">
-        <v>34.346600000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
@@ -4937,20 +4254,8 @@
         <f t="shared" si="7"/>
         <v>0.94679349353547138</v>
       </c>
-      <c r="W59" t="s">
-        <v>38</v>
-      </c>
-      <c r="X59">
-        <v>49.379600000000003</v>
-      </c>
-      <c r="Y59">
-        <v>50.116500000000002</v>
-      </c>
-      <c r="Z59">
-        <v>49.739100000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
@@ -4996,20 +4301,8 @@
         <f t="shared" si="7"/>
         <v>0.98354456639388388</v>
       </c>
-      <c r="W60" t="s">
-        <v>45</v>
-      </c>
-      <c r="X60">
-        <v>73.624600000000001</v>
-      </c>
-      <c r="Y60">
-        <v>73.897000000000006</v>
-      </c>
-      <c r="Z60">
-        <v>74.835499999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
@@ -5055,20 +4348,8 @@
         <f t="shared" si="7"/>
         <v>1.0659573731872798</v>
       </c>
-      <c r="W61" t="s">
-        <v>39</v>
-      </c>
-      <c r="X61">
-        <v>99.771299999999997</v>
-      </c>
-      <c r="Y61">
-        <v>101.46599999999999</v>
-      </c>
-      <c r="Z61">
-        <v>100.664</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
@@ -5114,20 +4395,8 @@
         <f t="shared" si="7"/>
         <v>1.1648558714913941</v>
       </c>
-      <c r="W62" t="s">
-        <v>31</v>
-      </c>
-      <c r="X62">
-        <v>148.33699999999999</v>
-      </c>
-      <c r="Y62">
-        <v>149.80000000000001</v>
-      </c>
-      <c r="Z62">
-        <v>148.19499999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
@@ -5173,20 +4442,8 @@
         <f t="shared" si="7"/>
         <v>1.1787975182546206</v>
       </c>
-      <c r="W63" t="s">
-        <v>41</v>
-      </c>
-      <c r="X63">
-        <v>192.88</v>
-      </c>
-      <c r="Y63">
-        <v>175.87799999999999</v>
-      </c>
-      <c r="Z63">
-        <v>191.917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
@@ -5232,20 +4489,8 @@
         <f t="shared" si="7"/>
         <v>1.2904208319386643</v>
       </c>
-      <c r="W64" t="s">
-        <v>46</v>
-      </c>
-      <c r="X64">
-        <v>269.726</v>
-      </c>
-      <c r="Y64">
-        <v>275.209</v>
-      </c>
-      <c r="Z64">
-        <v>229.964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>32</v>
       </c>
@@ -5291,20 +4536,8 @@
         <f t="shared" si="7"/>
         <v>0.79195546707385422</v>
       </c>
-      <c r="W65" t="s">
-        <v>32</v>
-      </c>
-      <c r="X65">
-        <v>138.96</v>
-      </c>
-      <c r="Y65">
-        <v>140.86500000000001</v>
-      </c>
-      <c r="Z65">
-        <v>129.90899999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
@@ -5350,20 +4583,11 @@
         <f t="shared" si="7"/>
         <v>0.71063748511336322</v>
       </c>
-      <c r="W66" t="s">
-        <v>34</v>
-      </c>
-      <c r="X66">
-        <v>129.43299999999999</v>
-      </c>
-      <c r="Y66">
-        <v>120.67100000000001</v>
-      </c>
-      <c r="Z66">
-        <v>129.40199999999999</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="AC33:AD49">
+    <sortCondition ref="AC33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Latest" sheetId="2" r:id="rId1"/>
-    <sheet name="Old" sheetId="1" r:id="rId2"/>
+    <sheet name="TX Optim" sheetId="3" r:id="rId2"/>
+    <sheet name="Old" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="125">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -397,6 +398,9 @@
   </si>
   <si>
     <t>2thr/1thr</t>
+  </si>
+  <si>
+    <t>2 thr / 1 thr</t>
   </si>
 </sst>
 </file>
@@ -444,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +485,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -494,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +536,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,10 +829,2487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="15"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>3062</v>
+      </c>
+      <c r="D2" s="15">
+        <v>997.34699999999998</v>
+      </c>
+      <c r="E2">
+        <v>1631.37</v>
+      </c>
+      <c r="F2">
+        <v>1629.81</v>
+      </c>
+      <c r="G2">
+        <v>1628.04</v>
+      </c>
+      <c r="H2" s="24">
+        <f>AVERAGE($E2, $F2, $G2)</f>
+        <v>1629.7399999999998</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2719.83</v>
+      </c>
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:J33" si="0">$H2/$D2</f>
+        <v>1.6340752015096047</v>
+      </c>
+      <c r="K2" s="24">
+        <f t="shared" ref="K2:K33" si="1">$H2/$C2</f>
+        <v>0.53224689745264531</v>
+      </c>
+      <c r="L2" s="15">
+        <f t="shared" ref="L2:L33" si="2">$I2/$C2</f>
+        <v>0.88825277596342256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>2589</v>
+      </c>
+      <c r="D3" s="15">
+        <v>536.22500000000002</v>
+      </c>
+      <c r="E3">
+        <v>1744.31</v>
+      </c>
+      <c r="F3">
+        <v>1733.16</v>
+      </c>
+      <c r="G3">
+        <v>1729.02</v>
+      </c>
+      <c r="H3" s="24">
+        <f t="shared" ref="H3:H66" si="3">AVERAGE($E3, $F3, $G3)</f>
+        <v>1735.4966666666667</v>
+      </c>
+      <c r="I3" s="15">
+        <v>2640.52</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" si="0"/>
+        <v>3.2365083065255567</v>
+      </c>
+      <c r="K3" s="24">
+        <f t="shared" si="1"/>
+        <v>0.67033474958156303</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0198995751255311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>3722</v>
+      </c>
+      <c r="D4" s="15">
+        <v>770.36300000000006</v>
+      </c>
+      <c r="E4">
+        <v>1295.9000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1304.44</v>
+      </c>
+      <c r="G4">
+        <v>1315.02</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="3"/>
+        <v>1305.1200000000001</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2157.42</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6941623624187558</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" si="1"/>
+        <v>0.35065018807092962</v>
+      </c>
+      <c r="L4" s="15">
+        <f t="shared" si="2"/>
+        <v>0.57963997850617954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>207</v>
+      </c>
+      <c r="D5" s="15">
+        <v>170.935</v>
+      </c>
+      <c r="E5">
+        <v>186.73500000000001</v>
+      </c>
+      <c r="F5">
+        <v>187.19800000000001</v>
+      </c>
+      <c r="G5">
+        <v>187.28700000000001</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="3"/>
+        <v>187.07333333333335</v>
+      </c>
+      <c r="I5" s="15">
+        <v>158.17599999999999</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0944121059662055</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.90373590982286645</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76413526570048307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>2026</v>
+      </c>
+      <c r="D6" s="15">
+        <v>212.96600000000001</v>
+      </c>
+      <c r="E6">
+        <v>6362.46</v>
+      </c>
+      <c r="F6">
+        <v>6893.46</v>
+      </c>
+      <c r="G6">
+        <v>7714.62</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="3"/>
+        <v>6990.18</v>
+      </c>
+      <c r="I6" s="15">
+        <v>5177.22</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>32.822985828723837</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="1"/>
+        <v>3.4502369200394867</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="2"/>
+        <v>2.5553899308983219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>1423</v>
+      </c>
+      <c r="D7" s="15">
+        <v>241.27799999999999</v>
+      </c>
+      <c r="E7">
+        <v>5021.74</v>
+      </c>
+      <c r="F7">
+        <v>4589.26</v>
+      </c>
+      <c r="G7">
+        <v>4661.3999999999996</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="3"/>
+        <v>4757.4666666666662</v>
+      </c>
+      <c r="I7" s="15">
+        <v>4259.9399999999996</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>19.717780596103527</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3432654017334267</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="2"/>
+        <v>2.9936331693605056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>4888</v>
+      </c>
+      <c r="D8" s="15">
+        <v>306.56599999999997</v>
+      </c>
+      <c r="E8">
+        <v>3387.89</v>
+      </c>
+      <c r="F8">
+        <v>3634.65</v>
+      </c>
+      <c r="G8">
+        <v>3616.89</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="3"/>
+        <v>3546.4766666666669</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3202.3</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
+        <v>11.568395277580251</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.72554759956355708</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.65513502454991823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>3805</v>
+      </c>
+      <c r="D9" s="15">
+        <v>249.89099999999999</v>
+      </c>
+      <c r="E9">
+        <v>4358.84</v>
+      </c>
+      <c r="F9">
+        <v>4240.9399999999996</v>
+      </c>
+      <c r="G9">
+        <v>4450.75</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="3"/>
+        <v>4350.1766666666663</v>
+      </c>
+      <c r="I9" s="15">
+        <v>3843.86</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
+        <v>17.4082966840209</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="1"/>
+        <v>1.1432790188348663</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0102128777923784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>759</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2480.34</v>
+      </c>
+      <c r="E10">
+        <v>2968.7</v>
+      </c>
+      <c r="F10">
+        <v>3029.71</v>
+      </c>
+      <c r="G10">
+        <v>2969.24</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="3"/>
+        <v>2989.2166666666667</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2572.35</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2051640769679426</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="1"/>
+        <v>3.9383618796662274</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="2"/>
+        <v>3.3891304347826088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>2923</v>
+      </c>
+      <c r="D11" s="15">
+        <v>910.08399999999995</v>
+      </c>
+      <c r="E11">
+        <v>2127.56</v>
+      </c>
+      <c r="F11">
+        <v>2089</v>
+      </c>
+      <c r="G11">
+        <v>2117.2800000000002</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="3"/>
+        <v>2111.2800000000002</v>
+      </c>
+      <c r="I11" s="15">
+        <v>3164.98</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3198737698937686</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="1"/>
+        <v>0.72229900786862822</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0827848101265822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>2796</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1379.22</v>
+      </c>
+      <c r="E12">
+        <v>3145.41</v>
+      </c>
+      <c r="F12">
+        <v>3194.54</v>
+      </c>
+      <c r="G12">
+        <v>3190.99</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="3"/>
+        <v>3176.9799999999996</v>
+      </c>
+      <c r="I12" s="15">
+        <v>4280.46</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3034613767201746</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="1"/>
+        <v>1.1362589413447781</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>1.530922746781116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>2870</v>
+      </c>
+      <c r="D13" s="15">
+        <v>953.625</v>
+      </c>
+      <c r="E13">
+        <v>2116.0500000000002</v>
+      </c>
+      <c r="F13">
+        <v>2092.86</v>
+      </c>
+      <c r="G13">
+        <v>2101.66</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="3"/>
+        <v>2103.5233333333331</v>
+      </c>
+      <c r="I13" s="15">
+        <v>2291.35</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2058181500415079</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="1"/>
+        <v>0.73293495934959341</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.7983797909407665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>3788</v>
+      </c>
+      <c r="D14" s="15">
+        <v>744.82899999999995</v>
+      </c>
+      <c r="E14">
+        <v>1974.06</v>
+      </c>
+      <c r="F14">
+        <v>1969.79</v>
+      </c>
+      <c r="G14">
+        <v>1981.89</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="3"/>
+        <v>1975.2466666666667</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2792.13</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="0"/>
+        <v>2.6519465094225207</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="1"/>
+        <v>0.52144843365012317</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.73709873284054916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>3781</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1026.9000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1986.2</v>
+      </c>
+      <c r="F15">
+        <v>1719.68</v>
+      </c>
+      <c r="G15">
+        <v>1897.53</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="3"/>
+        <v>1867.8033333333333</v>
+      </c>
+      <c r="I15" s="15">
+        <v>2777.48</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8188755802252732</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="1"/>
+        <v>0.4939971788768403</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.73458873313938111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>193</v>
+      </c>
+      <c r="D16" s="15">
+        <v>136.54400000000001</v>
+      </c>
+      <c r="E16">
+        <v>145.45099999999999</v>
+      </c>
+      <c r="F16">
+        <v>146.77500000000001</v>
+      </c>
+      <c r="G16">
+        <v>147.255</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="3"/>
+        <v>146.49366666666666</v>
+      </c>
+      <c r="I16" s="15">
+        <v>134.91999999999999</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0728678423560658</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="1"/>
+        <v>0.75903454231433498</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.69906735751295335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>1680</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1363.36</v>
+      </c>
+      <c r="E17">
+        <v>1527.91</v>
+      </c>
+      <c r="F17">
+        <v>1518.4</v>
+      </c>
+      <c r="G17">
+        <v>1532.38</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="3"/>
+        <v>1526.2300000000002</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1217.3599999999999</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1194622110080978</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" si="1"/>
+        <v>0.90847023809523819</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.72461904761904761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>4775</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3583.72</v>
+      </c>
+      <c r="E18">
+        <v>4650.7299999999996</v>
+      </c>
+      <c r="F18">
+        <v>4589.26</v>
+      </c>
+      <c r="G18">
+        <v>4678.3599999999997</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="3"/>
+        <v>4639.45</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2149.61</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="0"/>
+        <v>1.294590537207148</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" si="1"/>
+        <v>0.97161256544502617</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4501801047120419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>2943</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2294.5300000000002</v>
+      </c>
+      <c r="E19">
+        <v>2430.02</v>
+      </c>
+      <c r="F19">
+        <v>2435.2199999999998</v>
+      </c>
+      <c r="G19">
+        <v>2433.86</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="3"/>
+        <v>2433.0333333333333</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1447.7</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0603623981091261</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="1"/>
+        <v>0.82671876769736097</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="2"/>
+        <v>0.49191301393136255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>3312</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2364.96</v>
+      </c>
+      <c r="E20">
+        <v>2735.08</v>
+      </c>
+      <c r="F20">
+        <v>2699.93</v>
+      </c>
+      <c r="G20">
+        <v>2751.64</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="3"/>
+        <v>2728.8833333333332</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1523.39</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1538813905238707</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="1"/>
+        <v>0.82393820450885669</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="2"/>
+        <v>0.45996074879227056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>3365</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2618.14</v>
+      </c>
+      <c r="E21">
+        <v>1925.45</v>
+      </c>
+      <c r="F21">
+        <v>1613.58</v>
+      </c>
+      <c r="G21">
+        <v>2792.98</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="3"/>
+        <v>2110.67</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1537.28</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.80617155690681175</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="1"/>
+        <v>0.62724219910846957</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="2"/>
+        <v>0.45684398216939076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>3121</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2383.79</v>
+      </c>
+      <c r="E22">
+        <v>1706.25</v>
+      </c>
+      <c r="F22">
+        <v>1798.3</v>
+      </c>
+      <c r="G22">
+        <v>1698.25</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="3"/>
+        <v>1734.2666666666667</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1714.18</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.72752493578153554</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" si="1"/>
+        <v>0.55567659938054037</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.54924062800384499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>866</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1728.88</v>
+      </c>
+      <c r="E23">
+        <v>1609.89</v>
+      </c>
+      <c r="F23">
+        <v>2097.98</v>
+      </c>
+      <c r="G23">
+        <v>2031.61</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="3"/>
+        <v>1913.1599999999999</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1350.06</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1065892369626578</v>
+      </c>
+      <c r="K23" s="24">
+        <f t="shared" si="1"/>
+        <v>2.20919168591224</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5589607390300231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>633</v>
+      </c>
+      <c r="D24" s="15">
+        <v>651.19399999999996</v>
+      </c>
+      <c r="E24">
+        <v>611.89</v>
+      </c>
+      <c r="F24">
+        <v>665.04399999999998</v>
+      </c>
+      <c r="G24">
+        <v>586.97799999999995</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="3"/>
+        <v>621.30399999999997</v>
+      </c>
+      <c r="I24" s="15">
+        <v>485.59699999999998</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.95409969993581023</v>
+      </c>
+      <c r="K24" s="24">
+        <f t="shared" si="1"/>
+        <v>0.98152290679304888</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76713586097946285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>522</v>
+      </c>
+      <c r="D25" s="15">
+        <v>455.56400000000002</v>
+      </c>
+      <c r="E25">
+        <v>462.99700000000001</v>
+      </c>
+      <c r="F25">
+        <v>458.34300000000002</v>
+      </c>
+      <c r="G25">
+        <v>460.36099999999999</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="3"/>
+        <v>460.56700000000001</v>
+      </c>
+      <c r="I25" s="15">
+        <v>381.79899999999998</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0109819915533274</v>
+      </c>
+      <c r="K25" s="24">
+        <f t="shared" si="1"/>
+        <v>0.88231226053639844</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="2"/>
+        <v>0.73141570881226048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>761</v>
+      </c>
+      <c r="D26" s="15">
+        <v>989.61900000000003</v>
+      </c>
+      <c r="E26">
+        <v>873.31700000000001</v>
+      </c>
+      <c r="F26">
+        <v>1117.81</v>
+      </c>
+      <c r="G26">
+        <v>845.952</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="3"/>
+        <v>945.69299999999987</v>
+      </c>
+      <c r="I26" s="15">
+        <v>794.90599999999995</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.95561322084559797</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="1"/>
+        <v>1.2426977660972403</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0445545335085413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>1139</v>
+      </c>
+      <c r="D27" s="15">
+        <v>4121.84</v>
+      </c>
+      <c r="E27">
+        <v>2293.5300000000002</v>
+      </c>
+      <c r="F27">
+        <v>3383.18</v>
+      </c>
+      <c r="G27">
+        <v>2585.38</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="3"/>
+        <v>2754.03</v>
+      </c>
+      <c r="I27" s="15">
+        <v>3131.85</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.66815548395862046</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" si="1"/>
+        <v>2.4179367866549608</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="2"/>
+        <v>2.7496488147497806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>465</v>
+      </c>
+      <c r="D28" s="15">
+        <v>386.572</v>
+      </c>
+      <c r="E28">
+        <v>406.32400000000001</v>
+      </c>
+      <c r="F28">
+        <v>453.375</v>
+      </c>
+      <c r="G28">
+        <v>408.238</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="3"/>
+        <v>422.64566666666673</v>
+      </c>
+      <c r="I28" s="15">
+        <v>409.375</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0933168120470875</v>
+      </c>
+      <c r="K28" s="24">
+        <f t="shared" si="1"/>
+        <v>0.90891541218638006</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="2"/>
+        <v>0.8803763440860215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>364</v>
+      </c>
+      <c r="D29" s="15">
+        <v>212.501</v>
+      </c>
+      <c r="E29">
+        <v>227.13300000000001</v>
+      </c>
+      <c r="F29">
+        <v>228.22200000000001</v>
+      </c>
+      <c r="G29">
+        <v>227.20699999999999</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="3"/>
+        <v>227.52066666666667</v>
+      </c>
+      <c r="I29" s="15">
+        <v>135.744</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0706804516998352</v>
+      </c>
+      <c r="K29" s="24">
+        <f t="shared" si="1"/>
+        <v>0.62505677655677661</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.37292307692307691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>435</v>
+      </c>
+      <c r="D30" s="15">
+        <v>266.94400000000002</v>
+      </c>
+      <c r="E30">
+        <v>332.71</v>
+      </c>
+      <c r="F30">
+        <v>325.30399999999997</v>
+      </c>
+      <c r="G30">
+        <v>324.34699999999998</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="3"/>
+        <v>327.45366666666661</v>
+      </c>
+      <c r="I30" s="15">
+        <v>259.03100000000001</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2266755074722286</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" si="1"/>
+        <v>0.75276704980842901</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="2"/>
+        <v>0.59547356321839084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>644</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1663.4</v>
+      </c>
+      <c r="E31">
+        <v>1264.25</v>
+      </c>
+      <c r="F31">
+        <v>1268.04</v>
+      </c>
+      <c r="G31">
+        <v>1130.08</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="3"/>
+        <v>1220.79</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1197.33</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73391246843813873</v>
+      </c>
+      <c r="K31" s="24">
+        <f t="shared" si="1"/>
+        <v>1.895636645962733</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8592080745341615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>165</v>
+      </c>
+      <c r="D32" s="15">
+        <v>110.874</v>
+      </c>
+      <c r="E32">
+        <v>131.083</v>
+      </c>
+      <c r="F32">
+        <v>132.32300000000001</v>
+      </c>
+      <c r="G32">
+        <v>130.922</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="3"/>
+        <v>131.44266666666667</v>
+      </c>
+      <c r="I32" s="15">
+        <v>105.496</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1855138866340771</v>
+      </c>
+      <c r="K32" s="24">
+        <f t="shared" si="1"/>
+        <v>0.79662222222222223</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.63936969696969692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>164</v>
+      </c>
+      <c r="D33" s="15">
+        <v>118.669</v>
+      </c>
+      <c r="E33">
+        <v>134.74100000000001</v>
+      </c>
+      <c r="F33">
+        <v>138.197</v>
+      </c>
+      <c r="G33">
+        <v>138.185</v>
+      </c>
+      <c r="H33" s="24">
+        <f t="shared" si="3"/>
+        <v>137.041</v>
+      </c>
+      <c r="I33" s="15">
+        <v>104.913</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1548171805610563</v>
+      </c>
+      <c r="K33" s="24">
+        <f t="shared" si="1"/>
+        <v>0.83561585365853652</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="2"/>
+        <v>0.63971341463414633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="15">
+        <v>106.59699999999999</v>
+      </c>
+      <c r="E34">
+        <v>123.658</v>
+      </c>
+      <c r="F34">
+        <v>124.054</v>
+      </c>
+      <c r="G34">
+        <v>125.434</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="3"/>
+        <v>124.38199999999999</v>
+      </c>
+      <c r="I34" s="15">
+        <v>97.739599999999996</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" ref="J34:J66" si="4">$H34/$D34</f>
+        <v>1.1668433445594153</v>
+      </c>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>125</v>
+      </c>
+      <c r="D35" s="15">
+        <v>85.205200000000005</v>
+      </c>
+      <c r="E35">
+        <v>100.935</v>
+      </c>
+      <c r="F35">
+        <v>100.79900000000001</v>
+      </c>
+      <c r="G35">
+        <v>102.17</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="3"/>
+        <v>101.30133333333333</v>
+      </c>
+      <c r="I35" s="15">
+        <v>78.779799999999994</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1889102230067334</v>
+      </c>
+      <c r="K35" s="24">
+        <f>$H35/$C35</f>
+        <v>0.81041066666666661</v>
+      </c>
+      <c r="L35" s="15">
+        <f>$I35/$C35</f>
+        <v>0.63023839999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="15">
+        <v>70.168000000000006</v>
+      </c>
+      <c r="E36">
+        <v>90.303200000000004</v>
+      </c>
+      <c r="F36">
+        <v>90.258300000000006</v>
+      </c>
+      <c r="G36">
+        <v>86.364999999999995</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="3"/>
+        <v>88.975500000000011</v>
+      </c>
+      <c r="I36" s="15">
+        <v>55.382899999999999</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="4"/>
+        <v>1.2680352867403946</v>
+      </c>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>81</v>
+      </c>
+      <c r="D37" s="15">
+        <v>55.345500000000001</v>
+      </c>
+      <c r="E37">
+        <v>68.077600000000004</v>
+      </c>
+      <c r="F37">
+        <v>68.428899999999999</v>
+      </c>
+      <c r="G37">
+        <v>66.182699999999997</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="3"/>
+        <v>67.563066666666671</v>
+      </c>
+      <c r="I37" s="15">
+        <v>46.868600000000001</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="4"/>
+        <v>1.2207508589978711</v>
+      </c>
+      <c r="K37" s="24">
+        <f>$H37/$C37</f>
+        <v>0.83411193415637863</v>
+      </c>
+      <c r="L37" s="15">
+        <f>$I37/$C37</f>
+        <v>0.57862469135802475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15">
+        <v>43.687600000000003</v>
+      </c>
+      <c r="E38">
+        <v>58.651200000000003</v>
+      </c>
+      <c r="F38">
+        <v>58.726700000000001</v>
+      </c>
+      <c r="G38">
+        <v>58.658700000000003</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="3"/>
+        <v>58.678866666666671</v>
+      </c>
+      <c r="I38" s="15">
+        <v>38.995800000000003</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="4"/>
+        <v>1.3431469494013557</v>
+      </c>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39">
+        <v>61</v>
+      </c>
+      <c r="D39" s="15">
+        <v>33.146000000000001</v>
+      </c>
+      <c r="E39">
+        <v>52.779299999999999</v>
+      </c>
+      <c r="F39">
+        <v>52.897500000000001</v>
+      </c>
+      <c r="G39">
+        <v>52.581800000000001</v>
+      </c>
+      <c r="H39" s="24">
+        <f>AVERAGE($E39, $F39, $G39)</f>
+        <v>52.752866666666669</v>
+      </c>
+      <c r="I39" s="15">
+        <v>30.373999999999999</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5915304008527928</v>
+      </c>
+      <c r="K39" s="24">
+        <f>$H39/$C39</f>
+        <v>0.86480109289617491</v>
+      </c>
+      <c r="L39" s="15">
+        <f>$I39/$C39</f>
+        <v>0.49793442622950818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="15">
+        <v>31.505099999999999</v>
+      </c>
+      <c r="E40">
+        <v>55.7286</v>
+      </c>
+      <c r="F40">
+        <v>55.494199999999999</v>
+      </c>
+      <c r="G40">
+        <v>55.507199999999997</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="3"/>
+        <v>55.576666666666675</v>
+      </c>
+      <c r="I40" s="15">
+        <v>29.0684</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="4"/>
+        <v>1.7640530157551215</v>
+      </c>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>289</v>
+      </c>
+      <c r="D41" s="15">
+        <v>246.94</v>
+      </c>
+      <c r="E41">
+        <v>259.54899999999998</v>
+      </c>
+      <c r="F41">
+        <v>255.50399999999999</v>
+      </c>
+      <c r="G41">
+        <v>260.12099999999998</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="3"/>
+        <v>258.39133333333331</v>
+      </c>
+      <c r="I41" s="15">
+        <v>217.18299999999999</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
+        <v>1.0463729380956237</v>
+      </c>
+      <c r="K41" s="24">
+        <f>$H41/$C41</f>
+        <v>0.89408765859284878</v>
+      </c>
+      <c r="L41" s="15">
+        <f>$I41/$C41</f>
+        <v>0.75149826989619373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42" s="15">
+        <v>36.017499999999998</v>
+      </c>
+      <c r="E42">
+        <v>55.938499999999998</v>
+      </c>
+      <c r="F42">
+        <v>56.505499999999998</v>
+      </c>
+      <c r="G42">
+        <v>56.054900000000004</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="3"/>
+        <v>56.1663</v>
+      </c>
+      <c r="I42" s="15">
+        <v>49.960700000000003</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5594169500937045</v>
+      </c>
+      <c r="K42" s="24">
+        <f>$H42/$C42</f>
+        <v>1.0401166666666666</v>
+      </c>
+      <c r="L42" s="15">
+        <f>$I42/$C42</f>
+        <v>0.92519814814814816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="15">
+        <v>46.150300000000001</v>
+      </c>
+      <c r="E43">
+        <v>78.183000000000007</v>
+      </c>
+      <c r="F43">
+        <v>78.105400000000003</v>
+      </c>
+      <c r="G43">
+        <v>79.133600000000001</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="3"/>
+        <v>78.474000000000004</v>
+      </c>
+      <c r="I43" s="15">
+        <v>71.829800000000006</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="4"/>
+        <v>1.7004006474497457</v>
+      </c>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44">
+        <v>98</v>
+      </c>
+      <c r="D44" s="15">
+        <v>44.649500000000003</v>
+      </c>
+      <c r="E44">
+        <v>102.869</v>
+      </c>
+      <c r="F44">
+        <v>102.991</v>
+      </c>
+      <c r="G44">
+        <v>102.831</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="3"/>
+        <v>102.89700000000001</v>
+      </c>
+      <c r="I44" s="15">
+        <v>86.194000000000003</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="4"/>
+        <v>2.3045498829774127</v>
+      </c>
+      <c r="K44" s="24">
+        <f>$H44/$C44</f>
+        <v>1.0499693877551022</v>
+      </c>
+      <c r="L44" s="15">
+        <f>$I44/$C44</f>
+        <v>0.87953061224489804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="15">
+        <v>55.372700000000002</v>
+      </c>
+      <c r="E45">
+        <v>136.542</v>
+      </c>
+      <c r="F45">
+        <v>136.37700000000001</v>
+      </c>
+      <c r="G45">
+        <v>131.76</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="3"/>
+        <v>134.893</v>
+      </c>
+      <c r="I45" s="15">
+        <v>105.68300000000001</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="4"/>
+        <v>2.4360921537147364</v>
+      </c>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>145</v>
+      </c>
+      <c r="D46" s="15">
+        <v>54.224299999999999</v>
+      </c>
+      <c r="E46">
+        <v>175.43700000000001</v>
+      </c>
+      <c r="F46">
+        <v>176.42099999999999</v>
+      </c>
+      <c r="G46">
+        <v>179.33799999999999</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" si="3"/>
+        <v>177.06533333333334</v>
+      </c>
+      <c r="I46" s="15">
+        <v>151.34299999999999</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="4"/>
+        <v>3.2654240503488907</v>
+      </c>
+      <c r="K46" s="24">
+        <f>$H46/$C46</f>
+        <v>1.2211402298850575</v>
+      </c>
+      <c r="L46" s="15">
+        <f>$I46/$C46</f>
+        <v>1.0437448275862069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="15">
+        <v>64.407399999999996</v>
+      </c>
+      <c r="E47">
+        <v>210.786</v>
+      </c>
+      <c r="F47">
+        <v>209.01</v>
+      </c>
+      <c r="G47">
+        <v>209.41200000000001</v>
+      </c>
+      <c r="H47" s="24">
+        <f t="shared" si="3"/>
+        <v>209.73599999999999</v>
+      </c>
+      <c r="I47" s="15">
+        <v>189.08</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="4"/>
+        <v>3.2563960041858544</v>
+      </c>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>231</v>
+      </c>
+      <c r="D48" s="15">
+        <v>55.615299999999998</v>
+      </c>
+      <c r="E48">
+        <v>196.9</v>
+      </c>
+      <c r="F48">
+        <v>196.88800000000001</v>
+      </c>
+      <c r="G48">
+        <v>195.41800000000001</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="3"/>
+        <v>196.40200000000002</v>
+      </c>
+      <c r="I48" s="27">
+        <v>142.33000000000001</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="4"/>
+        <v>3.5314382912615776</v>
+      </c>
+      <c r="K48" s="19">
+        <f>$H48/$C48</f>
+        <v>0.85022510822510833</v>
+      </c>
+      <c r="L48" s="27">
+        <f>$I48/$C48</f>
+        <v>0.61614718614718622</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="15">
+        <v>58.844900000000003</v>
+      </c>
+      <c r="E49">
+        <v>177.35300000000001</v>
+      </c>
+      <c r="F49">
+        <v>177.95699999999999</v>
+      </c>
+      <c r="G49">
+        <v>180.78700000000001</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="3"/>
+        <v>178.69899999999998</v>
+      </c>
+      <c r="I49" s="27">
+        <v>171.405</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="4"/>
+        <v>3.0367797379212127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="15">
+        <v>163.88200000000001</v>
+      </c>
+      <c r="E50">
+        <v>194.56100000000001</v>
+      </c>
+      <c r="F50">
+        <v>187.21299999999999</v>
+      </c>
+      <c r="G50">
+        <v>181.876</v>
+      </c>
+      <c r="H50" s="24">
+        <f t="shared" si="3"/>
+        <v>187.88333333333333</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1464549696326218</v>
+      </c>
+      <c r="N50" s="27">
+        <f>$H50/$H33</f>
+        <v>1.3710008926768875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="15">
+        <v>163.93</v>
+      </c>
+      <c r="E51">
+        <v>209.626</v>
+      </c>
+      <c r="F51">
+        <v>205.20699999999999</v>
+      </c>
+      <c r="G51">
+        <v>208.59200000000001</v>
+      </c>
+      <c r="H51" s="24">
+        <f t="shared" si="3"/>
+        <v>207.80833333333331</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="4"/>
+        <v>1.2676650602899611</v>
+      </c>
+      <c r="N51" s="27">
+        <f t="shared" ref="N51:N66" si="5">$H51/$H34</f>
+        <v>1.6707267396675831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="15">
+        <v>129.75200000000001</v>
+      </c>
+      <c r="E52">
+        <v>181.91800000000001</v>
+      </c>
+      <c r="F52">
+        <v>187.11099999999999</v>
+      </c>
+      <c r="G52">
+        <v>164.74199999999999</v>
+      </c>
+      <c r="H52" s="24">
+        <f t="shared" si="3"/>
+        <v>177.92366666666666</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="4"/>
+        <v>1.3712595310027333</v>
+      </c>
+      <c r="N52" s="15">
+        <f>$H52/$H35</f>
+        <v>1.7563803043066231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="15">
+        <v>106.705</v>
+      </c>
+      <c r="E53">
+        <v>160.19800000000001</v>
+      </c>
+      <c r="F53">
+        <v>145.39699999999999</v>
+      </c>
+      <c r="G53">
+        <v>146.45699999999999</v>
+      </c>
+      <c r="H53" s="24">
+        <f t="shared" si="3"/>
+        <v>150.684</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="4"/>
+        <v>1.4121550067944333</v>
+      </c>
+      <c r="N53" s="15">
+        <f t="shared" si="5"/>
+        <v>1.6935448522346037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="15">
+        <v>75.327600000000004</v>
+      </c>
+      <c r="E54">
+        <v>110.05200000000001</v>
+      </c>
+      <c r="F54">
+        <v>111.919</v>
+      </c>
+      <c r="G54">
+        <v>110.244</v>
+      </c>
+      <c r="H54" s="24">
+        <f t="shared" si="3"/>
+        <v>110.73833333333334</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="4"/>
+        <v>1.4700897590436086</v>
+      </c>
+      <c r="N54" s="15">
+        <f t="shared" si="5"/>
+        <v>1.6390365150190538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="15">
+        <v>59.714100000000002</v>
+      </c>
+      <c r="E55">
+        <v>86.109800000000007</v>
+      </c>
+      <c r="F55">
+        <v>88.033000000000001</v>
+      </c>
+      <c r="G55">
+        <v>84.373099999999994</v>
+      </c>
+      <c r="H55" s="24">
+        <f t="shared" si="3"/>
+        <v>86.171966666666663</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="4"/>
+        <v>1.4430757001556862</v>
+      </c>
+      <c r="N55" s="15">
+        <f t="shared" si="5"/>
+        <v>1.4685349523905822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="15">
+        <v>42.840400000000002</v>
+      </c>
+      <c r="E56">
+        <v>76.127099999999999</v>
+      </c>
+      <c r="F56">
+        <v>80.879900000000006</v>
+      </c>
+      <c r="G56">
+        <v>78.396100000000004</v>
+      </c>
+      <c r="H56" s="24">
+        <f t="shared" si="3"/>
+        <v>78.467699999999994</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="4"/>
+        <v>1.8316285562226307</v>
+      </c>
+      <c r="N56" s="15">
+        <f t="shared" si="5"/>
+        <v>1.487458501465323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="15">
+        <v>39.912399999999998</v>
+      </c>
+      <c r="E57">
+        <v>86.812100000000001</v>
+      </c>
+      <c r="F57">
+        <v>81.088300000000004</v>
+      </c>
+      <c r="G57">
+        <v>86.068100000000001</v>
+      </c>
+      <c r="H57" s="24">
+        <f t="shared" si="3"/>
+        <v>84.656166666666664</v>
+      </c>
+      <c r="J57" s="15">
+        <f t="shared" si="4"/>
+        <v>2.1210492645560444</v>
+      </c>
+      <c r="N57" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5232321717747253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="15">
+        <v>217.971</v>
+      </c>
+      <c r="E58">
+        <v>34.460900000000002</v>
+      </c>
+      <c r="F58">
+        <v>34.944499999999998</v>
+      </c>
+      <c r="G58">
+        <v>34.870899999999999</v>
+      </c>
+      <c r="H58" s="24">
+        <f t="shared" si="3"/>
+        <v>34.758766666666666</v>
+      </c>
+      <c r="J58" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15946509703890271</v>
+      </c>
+      <c r="N58" s="15">
+        <f t="shared" si="5"/>
+        <v>0.13451986263729176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="15">
+        <v>46.281700000000001</v>
+      </c>
+      <c r="E59">
+        <v>51.549399999999999</v>
+      </c>
+      <c r="F59">
+        <v>52.182699999999997</v>
+      </c>
+      <c r="G59">
+        <v>51.041499999999999</v>
+      </c>
+      <c r="H59" s="24">
+        <f t="shared" si="3"/>
+        <v>51.591199999999994</v>
+      </c>
+      <c r="J59" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1147213693533295</v>
+      </c>
+      <c r="N59" s="15">
+        <f t="shared" si="5"/>
+        <v>0.91854368188753743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="15">
+        <v>59.088000000000001</v>
+      </c>
+      <c r="E60">
+        <v>77.048900000000003</v>
+      </c>
+      <c r="F60">
+        <v>77.787899999999993</v>
+      </c>
+      <c r="G60">
+        <v>77.894800000000004</v>
+      </c>
+      <c r="H60" s="24">
+        <f t="shared" si="3"/>
+        <v>77.577199999999991</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="4"/>
+        <v>1.3129095586244244</v>
+      </c>
+      <c r="N60" s="15">
+        <f t="shared" si="5"/>
+        <v>0.98857201111196047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="15">
+        <v>43.688000000000002</v>
+      </c>
+      <c r="E61">
+        <v>106.873</v>
+      </c>
+      <c r="F61">
+        <v>107.122</v>
+      </c>
+      <c r="G61">
+        <v>106.735</v>
+      </c>
+      <c r="H61" s="24">
+        <f t="shared" si="3"/>
+        <v>106.91000000000001</v>
+      </c>
+      <c r="J61" s="15">
+        <f t="shared" si="4"/>
+        <v>2.447125068668742</v>
+      </c>
+      <c r="N61" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0390001652137575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="15">
+        <v>49.496499999999997</v>
+      </c>
+      <c r="E62">
+        <v>155.47499999999999</v>
+      </c>
+      <c r="F62">
+        <v>155.32499999999999</v>
+      </c>
+      <c r="G62">
+        <v>155.995</v>
+      </c>
+      <c r="H62" s="24">
+        <f t="shared" si="3"/>
+        <v>155.59833333333333</v>
+      </c>
+      <c r="J62" s="15">
+        <f t="shared" si="4"/>
+        <v>3.1436229497708594</v>
+      </c>
+      <c r="N62" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1534944981083772</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="15">
+        <v>46.491</v>
+      </c>
+      <c r="E63">
+        <v>201.93100000000001</v>
+      </c>
+      <c r="F63">
+        <v>209.89699999999999</v>
+      </c>
+      <c r="G63">
+        <v>205.87299999999999</v>
+      </c>
+      <c r="H63" s="24">
+        <f t="shared" si="3"/>
+        <v>205.90033333333335</v>
+      </c>
+      <c r="J63" s="15">
+        <f t="shared" si="4"/>
+        <v>4.4288213489349193</v>
+      </c>
+      <c r="N63" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1628494943486021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="15">
+        <v>54.691400000000002</v>
+      </c>
+      <c r="E64">
+        <v>273.07400000000001</v>
+      </c>
+      <c r="F64">
+        <v>274.97199999999998</v>
+      </c>
+      <c r="G64">
+        <v>271.97300000000001</v>
+      </c>
+      <c r="H64" s="24">
+        <f t="shared" si="3"/>
+        <v>273.33966666666669</v>
+      </c>
+      <c r="J64" s="15">
+        <f t="shared" si="4"/>
+        <v>4.9978546291860635</v>
+      </c>
+      <c r="N64" s="15">
+        <f t="shared" si="5"/>
+        <v>1.3032558390865978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="15">
+        <v>46.815600000000003</v>
+      </c>
+      <c r="E65">
+        <v>154.375</v>
+      </c>
+      <c r="F65">
+        <v>149.59</v>
+      </c>
+      <c r="G65">
+        <v>153.536</v>
+      </c>
+      <c r="H65" s="24">
+        <f t="shared" si="3"/>
+        <v>152.50033333333334</v>
+      </c>
+      <c r="J65" s="15">
+        <f t="shared" si="4"/>
+        <v>3.2574683082847029</v>
+      </c>
+      <c r="N65" s="19">
+        <f t="shared" si="5"/>
+        <v>0.77647036859773999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="15">
+        <v>49.731000000000002</v>
+      </c>
+      <c r="E66">
+        <v>129.50899999999999</v>
+      </c>
+      <c r="F66">
+        <v>129.62299999999999</v>
+      </c>
+      <c r="G66">
+        <v>126.03100000000001</v>
+      </c>
+      <c r="H66" s="24">
+        <f t="shared" si="3"/>
+        <v>128.38766666666666</v>
+      </c>
+      <c r="J66" s="15">
+        <f t="shared" si="4"/>
+        <v>2.5816425703618799</v>
+      </c>
+      <c r="N66" s="19">
+        <f t="shared" si="5"/>
+        <v>0.71845766717590287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="W11" sqref="W1:Z1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4585,15 +7085,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="AC33:AD49">
-    <sortCondition ref="AC33"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="134">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -400,7 +400,34 @@
     <t>2thr/1thr</t>
   </si>
   <si>
-    <t>2 thr / 1 thr</t>
+    <t>2thr/1thr US</t>
+  </si>
+  <si>
+    <t>2thr/1thr Sora</t>
+  </si>
+  <si>
+    <t>TX9Mbps</t>
+  </si>
+  <si>
+    <t>TX18Mbps</t>
+  </si>
+  <si>
+    <t>TX36Mbps</t>
+  </si>
+  <si>
+    <t>RX9Mbps</t>
+  </si>
+  <si>
+    <t>RX18Mbps</t>
+  </si>
+  <si>
+    <t>RX36Mbps</t>
+  </si>
+  <si>
+    <t>RX54Mbps</t>
+  </si>
+  <si>
+    <t>TX56Mbps</t>
   </si>
 </sst>
 </file>
@@ -829,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,14 +870,13 @@
     <col min="4" max="4" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="15" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="15"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
@@ -875,23 +901,20 @@
       <c r="H1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -905,35 +928,28 @@
         <v>997.34699999999998</v>
       </c>
       <c r="E2">
-        <v>1631.37</v>
+        <v>1741.66</v>
       </c>
       <c r="F2">
-        <v>1629.81</v>
+        <v>1747.06</v>
       </c>
       <c r="G2">
-        <v>1628.04</v>
+        <v>1727.45</v>
       </c>
       <c r="H2" s="24">
         <f>AVERAGE($E2, $F2, $G2)</f>
-        <v>1629.7399999999998</v>
+        <v>1738.7233333333334</v>
       </c>
       <c r="I2" s="15">
-        <v>2719.83</v>
-      </c>
-      <c r="J2" s="15">
-        <f t="shared" ref="J2:J33" si="0">$H2/$D2</f>
-        <v>1.6340752015096047</v>
-      </c>
-      <c r="K2" s="24">
-        <f t="shared" ref="K2:K33" si="1">$H2/$C2</f>
-        <v>0.53224689745264531</v>
-      </c>
-      <c r="L2" s="15">
-        <f t="shared" ref="L2:L33" si="2">$I2/$C2</f>
-        <v>0.88825277596342256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I2:I33" si="0">$H2/$D2</f>
+        <v>1.7433484367359939</v>
+      </c>
+      <c r="J2" s="24">
+        <f t="shared" ref="J2:J34" si="1">$H2/$C2</f>
+        <v>0.56783910298279994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -947,35 +963,28 @@
         <v>536.22500000000002</v>
       </c>
       <c r="E3">
-        <v>1744.31</v>
+        <v>1850.42</v>
       </c>
       <c r="F3">
-        <v>1733.16</v>
+        <v>1858.69</v>
       </c>
       <c r="G3">
-        <v>1729.02</v>
+        <v>1847.69</v>
       </c>
       <c r="H3" s="24">
-        <f t="shared" ref="H3:H66" si="3">AVERAGE($E3, $F3, $G3)</f>
-        <v>1735.4966666666667</v>
+        <f t="shared" ref="H3:H66" si="2">AVERAGE($E3, $F3, $G3)</f>
+        <v>1852.2666666666667</v>
       </c>
       <c r="I3" s="15">
-        <v>2640.52</v>
-      </c>
-      <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>3.2365083065255567</v>
-      </c>
-      <c r="K3" s="24">
-        <f t="shared" si="1"/>
-        <v>0.67033474958156303</v>
-      </c>
-      <c r="L3" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0198995751255311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.4542713724027538</v>
+      </c>
+      <c r="J3" s="24">
+        <f t="shared" si="1"/>
+        <v>0.71543710570361785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -989,35 +998,28 @@
         <v>770.36300000000006</v>
       </c>
       <c r="E4">
-        <v>1295.9000000000001</v>
+        <v>1388.03</v>
       </c>
       <c r="F4">
-        <v>1304.44</v>
+        <v>1396.44</v>
       </c>
       <c r="G4">
-        <v>1315.02</v>
+        <v>1382.34</v>
       </c>
       <c r="H4" s="24">
-        <f t="shared" si="3"/>
-        <v>1305.1200000000001</v>
+        <f t="shared" si="2"/>
+        <v>1388.9366666666667</v>
       </c>
       <c r="I4" s="15">
-        <v>2157.42</v>
-      </c>
-      <c r="J4" s="15">
         <f t="shared" si="0"/>
-        <v>1.6941623624187558</v>
-      </c>
-      <c r="K4" s="24">
-        <f t="shared" si="1"/>
-        <v>0.35065018807092962</v>
-      </c>
-      <c r="L4" s="15">
-        <f t="shared" si="2"/>
-        <v>0.57963997850617954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.8029638841256221</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" si="1"/>
+        <v>0.37316944295181803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1031,35 +1033,28 @@
         <v>170.935</v>
       </c>
       <c r="E5">
-        <v>186.73500000000001</v>
+        <v>187.976</v>
       </c>
       <c r="F5">
-        <v>187.19800000000001</v>
+        <v>187.24</v>
       </c>
       <c r="G5">
-        <v>187.28700000000001</v>
+        <v>188.38399999999999</v>
       </c>
       <c r="H5" s="24">
-        <f t="shared" si="3"/>
-        <v>187.07333333333335</v>
+        <f t="shared" si="2"/>
+        <v>187.86666666666667</v>
       </c>
       <c r="I5" s="15">
-        <v>158.17599999999999</v>
-      </c>
-      <c r="J5" s="15">
         <f t="shared" si="0"/>
-        <v>1.0944121059662055</v>
-      </c>
-      <c r="K5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.90373590982286645</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="2"/>
-        <v>0.76413526570048307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0990532463607023</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.90756843800322062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1073,35 +1068,28 @@
         <v>212.96600000000001</v>
       </c>
       <c r="E6">
-        <v>6362.46</v>
+        <v>7035.91</v>
       </c>
       <c r="F6">
-        <v>6893.46</v>
+        <v>6529.55</v>
       </c>
       <c r="G6">
-        <v>7714.62</v>
+        <v>6858.57</v>
       </c>
       <c r="H6" s="24">
-        <f t="shared" si="3"/>
-        <v>6990.18</v>
+        <f t="shared" si="2"/>
+        <v>6808.0099999999993</v>
       </c>
       <c r="I6" s="15">
-        <v>5177.22</v>
-      </c>
-      <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>32.822985828723837</v>
-      </c>
-      <c r="K6" s="24">
-        <f t="shared" si="1"/>
-        <v>3.4502369200394867</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="2"/>
-        <v>2.5553899308983219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31.967591070875159</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3603208292201381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1115,35 +1103,28 @@
         <v>241.27799999999999</v>
       </c>
       <c r="E7">
-        <v>5021.74</v>
+        <v>4693.03</v>
       </c>
       <c r="F7">
-        <v>4589.26</v>
+        <v>4500.47</v>
       </c>
       <c r="G7">
-        <v>4661.3999999999996</v>
+        <v>4504.71</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" si="3"/>
-        <v>4757.4666666666662</v>
+        <f t="shared" si="2"/>
+        <v>4566.07</v>
       </c>
       <c r="I7" s="15">
-        <v>4259.9399999999996</v>
-      </c>
-      <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>19.717780596103527</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="1"/>
-        <v>3.3432654017334267</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="2"/>
-        <v>2.9936331693605056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18.924518605094537</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="1"/>
+        <v>3.2087631763879125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1157,35 +1138,28 @@
         <v>306.56599999999997</v>
       </c>
       <c r="E8">
-        <v>3387.89</v>
+        <v>3388.14</v>
       </c>
       <c r="F8">
-        <v>3634.65</v>
+        <v>3453.27</v>
       </c>
       <c r="G8">
-        <v>3616.89</v>
+        <v>3707.12</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="3"/>
-        <v>3546.4766666666669</v>
+        <f t="shared" si="2"/>
+        <v>3516.1766666666663</v>
       </c>
       <c r="I8" s="15">
-        <v>3202.3</v>
-      </c>
-      <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>11.568395277580251</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="1"/>
-        <v>0.72554759956355708</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" si="2"/>
-        <v>0.65513502454991823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11.46955848550285</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.71934874522640468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1199,35 +1173,28 @@
         <v>249.89099999999999</v>
       </c>
       <c r="E9">
-        <v>4358.84</v>
+        <v>4532.68</v>
       </c>
       <c r="F9">
-        <v>4240.9399999999996</v>
+        <v>4394.6400000000003</v>
       </c>
       <c r="G9">
-        <v>4450.75</v>
+        <v>4465.0200000000004</v>
       </c>
       <c r="H9" s="24">
-        <f t="shared" si="3"/>
-        <v>4350.1766666666663</v>
+        <f t="shared" si="2"/>
+        <v>4464.1133333333337</v>
       </c>
       <c r="I9" s="15">
-        <v>3843.86</v>
-      </c>
-      <c r="J9" s="15">
         <f t="shared" si="0"/>
-        <v>17.4082966840209</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="1"/>
-        <v>1.1432790188348663</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0102128777923784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17.864242142907642</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="1"/>
+        <v>1.1732229522558038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1241,35 +1208,28 @@
         <v>2480.34</v>
       </c>
       <c r="E10">
-        <v>2968.7</v>
+        <v>3020.72</v>
       </c>
       <c r="F10">
-        <v>3029.71</v>
+        <v>3016.55</v>
       </c>
       <c r="G10">
-        <v>2969.24</v>
+        <v>2980.07</v>
       </c>
       <c r="H10" s="24">
-        <f t="shared" si="3"/>
-        <v>2989.2166666666667</v>
+        <f t="shared" si="2"/>
+        <v>3005.78</v>
       </c>
       <c r="I10" s="15">
-        <v>2572.35</v>
-      </c>
-      <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>1.2051640769679426</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="1"/>
-        <v>3.9383618796662274</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="2"/>
-        <v>3.3891304347826088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.2118419248973931</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="1"/>
+        <v>3.9601844532279316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -1283,35 +1243,28 @@
         <v>910.08399999999995</v>
       </c>
       <c r="E11">
-        <v>2127.56</v>
+        <v>2129.87</v>
       </c>
       <c r="F11">
-        <v>2089</v>
+        <v>2039.35</v>
       </c>
       <c r="G11">
-        <v>2117.2800000000002</v>
+        <v>2124.46</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="3"/>
-        <v>2111.2800000000002</v>
+        <f t="shared" si="2"/>
+        <v>2097.893333333333</v>
       </c>
       <c r="I11" s="15">
-        <v>3164.98</v>
-      </c>
-      <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>2.3198737698937686</v>
-      </c>
-      <c r="K11" s="24">
-        <f t="shared" si="1"/>
-        <v>0.72229900786862822</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0827848101265822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3051645049614464</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="1"/>
+        <v>0.71771923822556727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1325,35 +1278,28 @@
         <v>1379.22</v>
       </c>
       <c r="E12">
-        <v>3145.41</v>
+        <v>3205.96</v>
       </c>
       <c r="F12">
-        <v>3194.54</v>
+        <v>3190.4</v>
       </c>
       <c r="G12">
-        <v>3190.99</v>
+        <v>3125.9</v>
       </c>
       <c r="H12" s="24">
-        <f t="shared" si="3"/>
-        <v>3176.9799999999996</v>
+        <f t="shared" si="2"/>
+        <v>3174.0866666666666</v>
       </c>
       <c r="I12" s="15">
-        <v>4280.46</v>
-      </c>
-      <c r="J12" s="15">
         <f t="shared" si="0"/>
-        <v>2.3034613767201746</v>
-      </c>
-      <c r="K12" s="24">
-        <f t="shared" si="1"/>
-        <v>1.1362589413447781</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" si="2"/>
-        <v>1.530922746781116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3013635726473418</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="1"/>
+        <v>1.1352241297091081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1367,35 +1313,28 @@
         <v>953.625</v>
       </c>
       <c r="E13">
-        <v>2116.0500000000002</v>
+        <v>2287.48</v>
       </c>
       <c r="F13">
-        <v>2092.86</v>
+        <v>2286.27</v>
       </c>
       <c r="G13">
-        <v>2101.66</v>
+        <v>2255.9499999999998</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="3"/>
-        <v>2103.5233333333331</v>
+        <f t="shared" si="2"/>
+        <v>2276.5666666666666</v>
       </c>
       <c r="I13" s="15">
-        <v>2291.35</v>
-      </c>
-      <c r="J13" s="15">
         <f t="shared" si="0"/>
-        <v>2.2058181500415079</v>
-      </c>
-      <c r="K13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.73293495934959341</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="2"/>
-        <v>0.7983797909407665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3872766199152355</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="1"/>
+        <v>0.79322880371660853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1409,35 +1348,28 @@
         <v>744.82899999999995</v>
       </c>
       <c r="E14">
-        <v>1974.06</v>
+        <v>2256.42</v>
       </c>
       <c r="F14">
-        <v>1969.79</v>
+        <v>2278.9499999999998</v>
       </c>
       <c r="G14">
-        <v>1981.89</v>
+        <v>2249.1799999999998</v>
       </c>
       <c r="H14" s="24">
-        <f t="shared" si="3"/>
-        <v>1975.2466666666667</v>
+        <f t="shared" si="2"/>
+        <v>2261.5166666666664</v>
       </c>
       <c r="I14" s="15">
-        <v>2792.13</v>
-      </c>
-      <c r="J14" s="15">
         <f t="shared" si="0"/>
-        <v>2.6519465094225207</v>
-      </c>
-      <c r="K14" s="24">
-        <f t="shared" si="1"/>
-        <v>0.52144843365012317</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="2"/>
-        <v>0.73709873284054916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.03628976136357</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="1"/>
+        <v>0.59702129531854975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1451,35 +1383,28 @@
         <v>1026.9000000000001</v>
       </c>
       <c r="E15">
-        <v>1986.2</v>
+        <v>1859.49</v>
       </c>
       <c r="F15">
-        <v>1719.68</v>
+        <v>1634.06</v>
       </c>
       <c r="G15">
-        <v>1897.53</v>
+        <v>1816.38</v>
       </c>
       <c r="H15" s="24">
-        <f t="shared" si="3"/>
-        <v>1867.8033333333333</v>
+        <f t="shared" si="2"/>
+        <v>1769.9766666666667</v>
       </c>
       <c r="I15" s="15">
-        <v>2777.48</v>
-      </c>
-      <c r="J15" s="15">
         <f t="shared" si="0"/>
-        <v>1.8188755802252732</v>
-      </c>
-      <c r="K15" s="24">
-        <f t="shared" si="1"/>
-        <v>0.4939971788768403</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="2"/>
-        <v>0.73458873313938111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7236115168630504</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="1"/>
+        <v>0.46812395309882748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1493,35 +1418,28 @@
         <v>136.54400000000001</v>
       </c>
       <c r="E16">
-        <v>145.45099999999999</v>
+        <v>145.34100000000001</v>
       </c>
       <c r="F16">
-        <v>146.77500000000001</v>
+        <v>145.131</v>
       </c>
       <c r="G16">
-        <v>147.255</v>
+        <v>145.298</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" si="3"/>
-        <v>146.49366666666666</v>
+        <f t="shared" si="2"/>
+        <v>145.25666666666666</v>
       </c>
       <c r="I16" s="15">
-        <v>134.91999999999999</v>
-      </c>
-      <c r="J16" s="15">
         <f t="shared" si="0"/>
-        <v>1.0728678423560658</v>
-      </c>
-      <c r="K16" s="24">
-        <f t="shared" si="1"/>
-        <v>0.75903454231433498</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="2"/>
-        <v>0.69906735751295335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0638084915240995</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="1"/>
+        <v>0.75262521588946452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -1535,35 +1453,28 @@
         <v>1363.36</v>
       </c>
       <c r="E17">
-        <v>1527.91</v>
+        <v>1227.08</v>
       </c>
       <c r="F17">
-        <v>1518.4</v>
+        <v>1155.98</v>
       </c>
       <c r="G17">
-        <v>1532.38</v>
+        <v>1186.83</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="3"/>
-        <v>1526.2300000000002</v>
+        <f t="shared" si="2"/>
+        <v>1189.9633333333334</v>
       </c>
       <c r="I17" s="15">
-        <v>1217.3599999999999</v>
-      </c>
-      <c r="J17" s="15">
         <f t="shared" si="0"/>
-        <v>1.1194622110080978</v>
-      </c>
-      <c r="K17" s="24">
-        <f t="shared" si="1"/>
-        <v>0.90847023809523819</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="2"/>
-        <v>0.72461904761904761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.87281666862261875</v>
+      </c>
+      <c r="J17" s="24">
+        <f t="shared" si="1"/>
+        <v>0.70831150793650799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1577,35 +1488,28 @@
         <v>3583.72</v>
       </c>
       <c r="E18">
-        <v>4650.7299999999996</v>
+        <v>2167.36</v>
       </c>
       <c r="F18">
-        <v>4589.26</v>
+        <v>2065.2199999999998</v>
       </c>
       <c r="G18">
-        <v>4678.3599999999997</v>
+        <v>2763.88</v>
       </c>
       <c r="H18" s="24">
-        <f t="shared" si="3"/>
-        <v>4639.45</v>
+        <f t="shared" si="2"/>
+        <v>2332.1533333333332</v>
       </c>
       <c r="I18" s="15">
-        <v>2149.61</v>
-      </c>
-      <c r="J18" s="15">
         <f t="shared" si="0"/>
-        <v>1.294590537207148</v>
-      </c>
-      <c r="K18" s="24">
-        <f t="shared" si="1"/>
-        <v>0.97161256544502617</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="2"/>
-        <v>0.4501801047120419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.65076326647543148</v>
+      </c>
+      <c r="J18" s="24">
+        <f t="shared" si="1"/>
+        <v>0.48840907504363001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1619,35 +1523,28 @@
         <v>2294.5300000000002</v>
       </c>
       <c r="E19">
-        <v>2430.02</v>
+        <v>1786.22</v>
       </c>
       <c r="F19">
-        <v>2435.2199999999998</v>
+        <v>1461.65</v>
       </c>
       <c r="G19">
-        <v>2433.86</v>
+        <v>1803.2</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="3"/>
-        <v>2433.0333333333333</v>
+        <f t="shared" si="2"/>
+        <v>1683.6899999999998</v>
       </c>
       <c r="I19" s="15">
-        <v>1447.7</v>
-      </c>
-      <c r="J19" s="15">
         <f t="shared" si="0"/>
-        <v>1.0603623981091261</v>
-      </c>
-      <c r="K19" s="24">
-        <f t="shared" si="1"/>
-        <v>0.82671876769736097</v>
-      </c>
-      <c r="L19" s="15">
-        <f t="shared" si="2"/>
-        <v>0.49191301393136255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.73378426082901493</v>
+      </c>
+      <c r="J19" s="24">
+        <f t="shared" si="1"/>
+        <v>0.57209989806320072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -1661,35 +1558,28 @@
         <v>2364.96</v>
       </c>
       <c r="E20">
-        <v>2735.08</v>
+        <v>1646.36</v>
       </c>
       <c r="F20">
-        <v>2699.93</v>
+        <v>1602.05</v>
       </c>
       <c r="G20">
-        <v>2751.64</v>
+        <v>1813.53</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" si="3"/>
-        <v>2728.8833333333332</v>
+        <f t="shared" si="2"/>
+        <v>1687.3133333333333</v>
       </c>
       <c r="I20" s="15">
-        <v>1523.39</v>
-      </c>
-      <c r="J20" s="15">
         <f t="shared" si="0"/>
-        <v>1.1538813905238707</v>
-      </c>
-      <c r="K20" s="24">
-        <f t="shared" si="1"/>
-        <v>0.82393820450885669</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="2"/>
-        <v>0.45996074879227056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.71346379360891232</v>
+      </c>
+      <c r="J20" s="24">
+        <f t="shared" si="1"/>
+        <v>0.50945450885668275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -1703,35 +1593,28 @@
         <v>2618.14</v>
       </c>
       <c r="E21">
-        <v>1925.45</v>
+        <v>1578.06</v>
       </c>
       <c r="F21">
-        <v>1613.58</v>
+        <v>2021.3</v>
       </c>
       <c r="G21">
-        <v>2792.98</v>
+        <v>1772.11</v>
       </c>
       <c r="H21" s="24">
-        <f t="shared" si="3"/>
-        <v>2110.67</v>
+        <f t="shared" si="2"/>
+        <v>1790.4899999999998</v>
       </c>
       <c r="I21" s="15">
-        <v>1537.28</v>
-      </c>
-      <c r="J21" s="15">
         <f t="shared" si="0"/>
-        <v>0.80617155690681175</v>
-      </c>
-      <c r="K21" s="24">
-        <f t="shared" si="1"/>
-        <v>0.62724219910846957</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" si="2"/>
-        <v>0.45684398216939076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.68387863139480698</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="1"/>
+        <v>0.53209212481426438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -1745,35 +1628,28 @@
         <v>2383.79</v>
       </c>
       <c r="E22">
-        <v>1706.25</v>
+        <v>1627.05</v>
       </c>
       <c r="F22">
-        <v>1798.3</v>
+        <v>1657.72</v>
       </c>
       <c r="G22">
-        <v>1698.25</v>
+        <v>2542.0700000000002</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" si="3"/>
-        <v>1734.2666666666667</v>
+        <f t="shared" si="2"/>
+        <v>1942.28</v>
       </c>
       <c r="I22" s="15">
-        <v>1714.18</v>
-      </c>
-      <c r="J22" s="15">
         <f t="shared" si="0"/>
-        <v>0.72752493578153554</v>
-      </c>
-      <c r="K22" s="24">
-        <f t="shared" si="1"/>
-        <v>0.55567659938054037</v>
-      </c>
-      <c r="L22" s="15">
-        <f t="shared" si="2"/>
-        <v>0.54924062800384499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.81478653740472107</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="1"/>
+        <v>0.6223261775072092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1787,35 +1663,28 @@
         <v>1728.88</v>
       </c>
       <c r="E23">
-        <v>1609.89</v>
+        <v>1590.25</v>
       </c>
       <c r="F23">
-        <v>2097.98</v>
+        <v>1448.67</v>
       </c>
       <c r="G23">
-        <v>2031.61</v>
+        <v>1419.67</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="3"/>
-        <v>1913.1599999999999</v>
+        <f t="shared" si="2"/>
+        <v>1486.1966666666667</v>
       </c>
       <c r="I23" s="15">
-        <v>1350.06</v>
-      </c>
-      <c r="J23" s="15">
         <f t="shared" si="0"/>
-        <v>1.1065892369626578</v>
-      </c>
-      <c r="K23" s="24">
-        <f t="shared" si="1"/>
-        <v>2.20919168591224</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5589607390300231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.85962974102694611</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" si="1"/>
+        <v>1.7161624326404927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -1829,35 +1698,28 @@
         <v>651.19399999999996</v>
       </c>
       <c r="E24">
-        <v>611.89</v>
+        <v>598.351</v>
       </c>
       <c r="F24">
-        <v>665.04399999999998</v>
+        <v>573.93100000000004</v>
       </c>
       <c r="G24">
-        <v>586.97799999999995</v>
+        <v>587.75099999999998</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" si="3"/>
-        <v>621.30399999999997</v>
+        <f t="shared" si="2"/>
+        <v>586.67766666666671</v>
       </c>
       <c r="I24" s="15">
-        <v>485.59699999999998</v>
-      </c>
-      <c r="J24" s="15">
         <f t="shared" si="0"/>
-        <v>0.95409969993581023</v>
-      </c>
-      <c r="K24" s="24">
-        <f t="shared" si="1"/>
-        <v>0.98152290679304888</v>
-      </c>
-      <c r="L24" s="15">
-        <f t="shared" si="2"/>
-        <v>0.76713586097946285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.90092609370888976</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" si="1"/>
+        <v>0.92682095839915757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -1871,35 +1733,28 @@
         <v>455.56400000000002</v>
       </c>
       <c r="E25">
-        <v>462.99700000000001</v>
+        <v>420.40499999999997</v>
       </c>
       <c r="F25">
-        <v>458.34300000000002</v>
+        <v>461.21800000000002</v>
       </c>
       <c r="G25">
-        <v>460.36099999999999</v>
+        <v>460.65300000000002</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="3"/>
-        <v>460.56700000000001</v>
+        <f t="shared" si="2"/>
+        <v>447.42533333333336</v>
       </c>
       <c r="I25" s="15">
-        <v>381.79899999999998</v>
-      </c>
-      <c r="J25" s="15">
         <f t="shared" si="0"/>
-        <v>1.0109819915533274</v>
-      </c>
-      <c r="K25" s="24">
-        <f t="shared" si="1"/>
-        <v>0.88231226053639844</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="2"/>
-        <v>0.73141570881226048</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9821349653030822</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" si="1"/>
+        <v>0.8571366538952746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -1913,35 +1768,28 @@
         <v>989.61900000000003</v>
       </c>
       <c r="E26">
-        <v>873.31700000000001</v>
+        <v>865.59100000000001</v>
       </c>
       <c r="F26">
-        <v>1117.81</v>
+        <v>855.22</v>
       </c>
       <c r="G26">
-        <v>845.952</v>
+        <v>1088.29</v>
       </c>
       <c r="H26" s="24">
-        <f t="shared" si="3"/>
-        <v>945.69299999999987</v>
+        <f t="shared" si="2"/>
+        <v>936.36700000000008</v>
       </c>
       <c r="I26" s="15">
-        <v>794.90599999999995</v>
-      </c>
-      <c r="J26" s="15">
         <f t="shared" si="0"/>
-        <v>0.95561322084559797</v>
-      </c>
-      <c r="K26" s="24">
-        <f t="shared" si="1"/>
-        <v>1.2426977660972403</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0445545335085413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.94618939207917396</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="1"/>
+        <v>1.2304428383705652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1955,35 +1803,28 @@
         <v>4121.84</v>
       </c>
       <c r="E27">
-        <v>2293.5300000000002</v>
+        <v>2957.53</v>
       </c>
       <c r="F27">
-        <v>3383.18</v>
+        <v>2598.48</v>
       </c>
       <c r="G27">
-        <v>2585.38</v>
+        <v>3367.8</v>
       </c>
       <c r="H27" s="24">
-        <f t="shared" si="3"/>
-        <v>2754.03</v>
+        <f t="shared" si="2"/>
+        <v>2974.6033333333339</v>
       </c>
       <c r="I27" s="15">
-        <v>3131.85</v>
-      </c>
-      <c r="J27" s="15">
         <f t="shared" si="0"/>
-        <v>0.66815548395862046</v>
-      </c>
-      <c r="K27" s="24">
-        <f t="shared" si="1"/>
-        <v>2.4179367866549608</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" si="2"/>
-        <v>2.7496488147497806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.72166880163551561</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="1"/>
+        <v>2.6115920398009957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
@@ -1997,35 +1838,28 @@
         <v>386.572</v>
       </c>
       <c r="E28">
-        <v>406.32400000000001</v>
+        <v>464.00299999999999</v>
       </c>
       <c r="F28">
-        <v>453.375</v>
+        <v>438.589</v>
       </c>
       <c r="G28">
-        <v>408.238</v>
+        <v>428.22</v>
       </c>
       <c r="H28" s="24">
-        <f t="shared" si="3"/>
-        <v>422.64566666666673</v>
+        <f t="shared" si="2"/>
+        <v>443.60399999999998</v>
       </c>
       <c r="I28" s="15">
-        <v>409.375</v>
-      </c>
-      <c r="J28" s="15">
         <f t="shared" si="0"/>
-        <v>1.0933168120470875</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" si="1"/>
-        <v>0.90891541218638006</v>
-      </c>
-      <c r="L28" s="15">
-        <f t="shared" si="2"/>
-        <v>0.8803763440860215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.1475326717920593</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" si="1"/>
+        <v>0.95398709677419347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -2039,35 +1873,28 @@
         <v>212.501</v>
       </c>
       <c r="E29">
-        <v>227.13300000000001</v>
+        <v>227.578</v>
       </c>
       <c r="F29">
-        <v>228.22200000000001</v>
+        <v>218.40299999999999</v>
       </c>
       <c r="G29">
-        <v>227.20699999999999</v>
+        <v>223.45599999999999</v>
       </c>
       <c r="H29" s="24">
-        <f t="shared" si="3"/>
-        <v>227.52066666666667</v>
+        <f t="shared" si="2"/>
+        <v>223.14566666666667</v>
       </c>
       <c r="I29" s="15">
-        <v>135.744</v>
-      </c>
-      <c r="J29" s="15">
         <f t="shared" si="0"/>
-        <v>1.0706804516998352</v>
-      </c>
-      <c r="K29" s="24">
-        <f t="shared" si="1"/>
-        <v>0.62505677655677661</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="2"/>
-        <v>0.37292307692307691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0500923132910747</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="1"/>
+        <v>0.61303754578754577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
@@ -2081,35 +1908,28 @@
         <v>266.94400000000002</v>
       </c>
       <c r="E30">
-        <v>332.71</v>
+        <v>325.67500000000001</v>
       </c>
       <c r="F30">
-        <v>325.30399999999997</v>
+        <v>328.66800000000001</v>
       </c>
       <c r="G30">
-        <v>324.34699999999998</v>
+        <v>326.02600000000001</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="3"/>
-        <v>327.45366666666661</v>
+        <f t="shared" si="2"/>
+        <v>326.78966666666673</v>
       </c>
       <c r="I30" s="15">
-        <v>259.03100000000001</v>
-      </c>
-      <c r="J30" s="15">
         <f t="shared" si="0"/>
-        <v>1.2266755074722286</v>
-      </c>
-      <c r="K30" s="24">
-        <f t="shared" si="1"/>
-        <v>0.75276704980842901</v>
-      </c>
-      <c r="L30" s="15">
-        <f t="shared" si="2"/>
-        <v>0.59547356321839084</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.2241880943818431</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="1"/>
+        <v>0.7512406130268201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
@@ -2123,35 +1943,28 @@
         <v>1663.4</v>
       </c>
       <c r="E31">
-        <v>1264.25</v>
+        <v>1225.49</v>
       </c>
       <c r="F31">
-        <v>1268.04</v>
+        <v>1639.45</v>
       </c>
       <c r="G31">
-        <v>1130.08</v>
+        <v>1222.8699999999999</v>
       </c>
       <c r="H31" s="24">
-        <f t="shared" si="3"/>
-        <v>1220.79</v>
+        <f t="shared" si="2"/>
+        <v>1362.6033333333332</v>
       </c>
       <c r="I31" s="15">
-        <v>1197.33</v>
-      </c>
-      <c r="J31" s="15">
         <f t="shared" si="0"/>
-        <v>0.73391246843813873</v>
-      </c>
-      <c r="K31" s="24">
-        <f t="shared" si="1"/>
-        <v>1.895636645962733</v>
-      </c>
-      <c r="L31" s="15">
-        <f t="shared" si="2"/>
-        <v>1.8592080745341615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.81916756843413074</v>
+      </c>
+      <c r="J31" s="24">
+        <f t="shared" si="1"/>
+        <v>2.1158436853002067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
@@ -2165,35 +1978,28 @@
         <v>110.874</v>
       </c>
       <c r="E32">
-        <v>131.083</v>
+        <v>131.26900000000001</v>
       </c>
       <c r="F32">
-        <v>132.32300000000001</v>
+        <v>130.56</v>
       </c>
       <c r="G32">
-        <v>130.922</v>
+        <v>130.44399999999999</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="3"/>
-        <v>131.44266666666667</v>
+        <f t="shared" si="2"/>
+        <v>130.75766666666667</v>
       </c>
       <c r="I32" s="15">
-        <v>105.496</v>
-      </c>
-      <c r="J32" s="15">
         <f t="shared" si="0"/>
-        <v>1.1855138866340771</v>
-      </c>
-      <c r="K32" s="24">
-        <f t="shared" si="1"/>
-        <v>0.79662222222222223</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="2"/>
-        <v>0.63936969696969692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.179335702388898</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="1"/>
+        <v>0.7924707070707071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -2201,70 +2007,69 @@
         <v>98</v>
       </c>
       <c r="C33">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D33" s="15">
         <v>118.669</v>
       </c>
       <c r="E33">
-        <v>134.74100000000001</v>
+        <v>128.70699999999999</v>
       </c>
       <c r="F33">
-        <v>138.197</v>
+        <v>138.626</v>
       </c>
       <c r="G33">
-        <v>138.185</v>
+        <v>129.226</v>
       </c>
       <c r="H33" s="24">
-        <f t="shared" si="3"/>
-        <v>137.041</v>
+        <f t="shared" si="2"/>
+        <v>132.18633333333332</v>
       </c>
       <c r="I33" s="15">
-        <v>104.913</v>
-      </c>
-      <c r="J33" s="15">
         <f t="shared" si="0"/>
-        <v>1.1548171805610563</v>
-      </c>
-      <c r="K33" s="24">
-        <f t="shared" si="1"/>
-        <v>0.83561585365853652</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="2"/>
-        <v>0.63971341463414633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.1139078725980107</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="1"/>
+        <v>0.84195116772823775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34">
+        <v>141</v>
+      </c>
       <c r="D34" s="15">
         <v>106.59699999999999</v>
       </c>
       <c r="E34">
-        <v>123.658</v>
+        <v>124.50700000000001</v>
       </c>
       <c r="F34">
-        <v>124.054</v>
+        <v>116.307</v>
       </c>
       <c r="G34">
-        <v>125.434</v>
+        <v>126.05</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="3"/>
-        <v>124.38199999999999</v>
+        <f t="shared" si="2"/>
+        <v>122.28800000000001</v>
       </c>
       <c r="I34" s="15">
-        <v>97.739599999999996</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" ref="J34:J66" si="4">$H34/$D34</f>
-        <v>1.1668433445594153</v>
-      </c>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I34:I66" si="3">$H34/$D34</f>
+        <v>1.1471992645196396</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="1"/>
+        <v>0.86729078014184402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2272,70 +2077,69 @@
         <v>99</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D35" s="15">
         <v>85.205200000000005</v>
       </c>
       <c r="E35">
-        <v>100.935</v>
+        <v>96.548500000000004</v>
       </c>
       <c r="F35">
-        <v>100.79900000000001</v>
+        <v>101.82</v>
       </c>
       <c r="G35">
-        <v>102.17</v>
+        <v>100.31100000000001</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" si="3"/>
-        <v>101.30133333333333</v>
+        <f t="shared" si="2"/>
+        <v>99.559833333333316</v>
       </c>
       <c r="I35" s="15">
-        <v>78.779799999999994</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="4"/>
-        <v>1.1889102230067334</v>
-      </c>
-      <c r="K35" s="24">
+        <f t="shared" si="3"/>
+        <v>1.1684713296058611</v>
+      </c>
+      <c r="J35" s="24">
         <f>$H35/$C35</f>
-        <v>0.81041066666666661</v>
-      </c>
-      <c r="L35" s="15">
-        <f>$I35/$C35</f>
-        <v>0.63023839999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.8969354354354353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36">
+        <v>99</v>
+      </c>
       <c r="D36" s="15">
         <v>70.168000000000006</v>
       </c>
       <c r="E36">
-        <v>90.303200000000004</v>
+        <v>91.225300000000004</v>
       </c>
       <c r="F36">
-        <v>90.258300000000006</v>
+        <v>86.785399999999996</v>
       </c>
       <c r="G36">
-        <v>86.364999999999995</v>
+        <v>90.993600000000001</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" si="3"/>
-        <v>88.975500000000011</v>
+        <f t="shared" si="2"/>
+        <v>89.668099999999995</v>
       </c>
       <c r="I36" s="15">
-        <v>55.382899999999999</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="4"/>
-        <v>1.2680352867403946</v>
-      </c>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.2779058830236003</v>
+      </c>
+      <c r="J36" s="24">
+        <f>$H36/$C36</f>
+        <v>0.90573838383838379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -2343,70 +2147,69 @@
         <v>100</v>
       </c>
       <c r="C37">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D37" s="15">
         <v>55.345500000000001</v>
       </c>
       <c r="E37">
-        <v>68.077600000000004</v>
+        <v>66.157799999999995</v>
       </c>
       <c r="F37">
-        <v>68.428899999999999</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="G37">
-        <v>66.182699999999997</v>
+        <v>68.370599999999996</v>
       </c>
       <c r="H37" s="24">
-        <f t="shared" si="3"/>
-        <v>67.563066666666671</v>
+        <f t="shared" si="2"/>
+        <v>66.846133333333327</v>
       </c>
       <c r="I37" s="15">
-        <v>46.868600000000001</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="4"/>
-        <v>1.2207508589978711</v>
-      </c>
-      <c r="K37" s="24">
+        <f t="shared" si="3"/>
+        <v>1.2077970807623624</v>
+      </c>
+      <c r="J37" s="24">
         <f>$H37/$C37</f>
-        <v>0.83411193415637863</v>
-      </c>
-      <c r="L37" s="15">
-        <f>$I37/$C37</f>
-        <v>0.57862469135802475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.96878454106280187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
       <c r="D38" s="15">
         <v>43.687600000000003</v>
       </c>
       <c r="E38">
-        <v>58.651200000000003</v>
+        <v>58.6952</v>
       </c>
       <c r="F38">
-        <v>58.726700000000001</v>
+        <v>58.716500000000003</v>
       </c>
       <c r="G38">
-        <v>58.658700000000003</v>
+        <v>59.178600000000003</v>
       </c>
       <c r="H38" s="24">
-        <f t="shared" si="3"/>
-        <v>58.678866666666671</v>
+        <f t="shared" si="2"/>
+        <v>58.86343333333334</v>
       </c>
       <c r="I38" s="15">
-        <v>38.995800000000003</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="4"/>
-        <v>1.3431469494013557</v>
-      </c>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.3473716416862755</v>
+      </c>
+      <c r="J38" s="24">
+        <f>$H38/$C38</f>
+        <v>0.98105722222222236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -2414,70 +2217,69 @@
         <v>101</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D39" s="15">
         <v>33.146000000000001</v>
       </c>
       <c r="E39">
-        <v>52.779299999999999</v>
+        <v>52.648499999999999</v>
       </c>
       <c r="F39">
-        <v>52.897500000000001</v>
+        <v>52.837499999999999</v>
       </c>
       <c r="G39">
-        <v>52.581800000000001</v>
+        <v>52.652099999999997</v>
       </c>
       <c r="H39" s="24">
         <f>AVERAGE($E39, $F39, $G39)</f>
-        <v>52.752866666666669</v>
+        <v>52.712699999999991</v>
       </c>
       <c r="I39" s="15">
-        <v>30.373999999999999</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="4"/>
-        <v>1.5915304008527928</v>
-      </c>
-      <c r="K39" s="24">
+        <f t="shared" si="3"/>
+        <v>1.5903185904784889</v>
+      </c>
+      <c r="J39" s="24">
         <f>$H39/$C39</f>
-        <v>0.86480109289617491</v>
-      </c>
-      <c r="L39" s="15">
-        <f>$I39/$C39</f>
-        <v>0.49793442622950818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.1459282608695651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
       <c r="D40" s="15">
         <v>31.505099999999999</v>
       </c>
       <c r="E40">
-        <v>55.7286</v>
+        <v>55.682699999999997</v>
       </c>
       <c r="F40">
-        <v>55.494199999999999</v>
+        <v>55.724899999999998</v>
       </c>
       <c r="G40">
-        <v>55.507199999999997</v>
+        <v>55.983899999999998</v>
       </c>
       <c r="H40" s="24">
-        <f t="shared" si="3"/>
-        <v>55.576666666666675</v>
+        <f t="shared" si="2"/>
+        <v>55.797166666666669</v>
       </c>
       <c r="I40" s="15">
-        <v>29.0684</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="4"/>
-        <v>1.7640530157551215</v>
-      </c>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.7710518826052504</v>
+      </c>
+      <c r="J40" s="24">
+        <f>$H40/$C40</f>
+        <v>1.2399370370370371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -2491,35 +2293,28 @@
         <v>246.94</v>
       </c>
       <c r="E41">
-        <v>259.54899999999998</v>
+        <v>260.00700000000001</v>
       </c>
       <c r="F41">
-        <v>255.50399999999999</v>
+        <v>259.53300000000002</v>
       </c>
       <c r="G41">
-        <v>260.12099999999998</v>
+        <v>259.875</v>
       </c>
       <c r="H41" s="24">
-        <f t="shared" si="3"/>
-        <v>258.39133333333331</v>
+        <f t="shared" si="2"/>
+        <v>259.80500000000001</v>
       </c>
       <c r="I41" s="15">
-        <v>217.18299999999999</v>
-      </c>
-      <c r="J41" s="15">
-        <f t="shared" si="4"/>
-        <v>1.0463729380956237</v>
-      </c>
-      <c r="K41" s="24">
+        <f t="shared" si="3"/>
+        <v>1.0520976755487164</v>
+      </c>
+      <c r="J41" s="24">
         <f>$H41/$C41</f>
-        <v>0.89408765859284878</v>
-      </c>
-      <c r="L41" s="15">
-        <f>$I41/$C41</f>
-        <v>0.75149826989619373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.89897923875432528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -2533,64 +2328,63 @@
         <v>36.017499999999998</v>
       </c>
       <c r="E42">
-        <v>55.938499999999998</v>
+        <v>56.227400000000003</v>
       </c>
       <c r="F42">
-        <v>56.505499999999998</v>
+        <v>56.295999999999999</v>
       </c>
       <c r="G42">
-        <v>56.054900000000004</v>
+        <v>56.290900000000001</v>
       </c>
       <c r="H42" s="24">
-        <f t="shared" si="3"/>
-        <v>56.1663</v>
+        <f t="shared" si="2"/>
+        <v>56.271433333333334</v>
       </c>
       <c r="I42" s="15">
-        <v>49.960700000000003</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="4"/>
-        <v>1.5594169500937045</v>
-      </c>
-      <c r="K42" s="24">
+        <f t="shared" si="3"/>
+        <v>1.5623359015293492</v>
+      </c>
+      <c r="J42" s="24">
         <f>$H42/$C42</f>
-        <v>1.0401166666666666</v>
-      </c>
-      <c r="L42" s="15">
-        <f>$I42/$C42</f>
-        <v>0.92519814814814816</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0420635802469136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <v>77</v>
+      </c>
       <c r="D43" s="15">
         <v>46.150300000000001</v>
       </c>
       <c r="E43">
-        <v>78.183000000000007</v>
+        <v>77.647499999999994</v>
       </c>
       <c r="F43">
-        <v>78.105400000000003</v>
+        <v>78.541600000000003</v>
       </c>
       <c r="G43">
-        <v>79.133600000000001</v>
+        <v>78.716300000000004</v>
       </c>
       <c r="H43" s="24">
-        <f t="shared" si="3"/>
-        <v>78.474000000000004</v>
+        <f t="shared" si="2"/>
+        <v>78.3018</v>
       </c>
       <c r="I43" s="15">
-        <v>71.829800000000006</v>
-      </c>
-      <c r="J43" s="15">
-        <f t="shared" si="4"/>
-        <v>1.7004006474497457</v>
-      </c>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.6966693607625518</v>
+      </c>
+      <c r="J43" s="24">
+        <f t="shared" ref="J43:J66" si="4">$H43/$C43</f>
+        <v>1.0169064935064935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
@@ -2604,64 +2398,63 @@
         <v>44.649500000000003</v>
       </c>
       <c r="E44">
-        <v>102.869</v>
+        <v>103.568</v>
       </c>
       <c r="F44">
-        <v>102.991</v>
+        <v>101.874</v>
       </c>
       <c r="G44">
-        <v>102.831</v>
+        <v>102.761</v>
       </c>
       <c r="H44" s="24">
-        <f t="shared" si="3"/>
-        <v>102.89700000000001</v>
+        <f t="shared" si="2"/>
+        <v>102.73433333333332</v>
       </c>
       <c r="I44" s="15">
-        <v>86.194000000000003</v>
-      </c>
-      <c r="J44" s="15">
-        <f t="shared" si="4"/>
-        <v>2.3045498829774127</v>
-      </c>
-      <c r="K44" s="24">
-        <f>$H44/$C44</f>
-        <v>1.0499693877551022</v>
-      </c>
-      <c r="L44" s="15">
-        <f>$I44/$C44</f>
-        <v>0.87953061224489804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.3009066917509338</v>
+      </c>
+      <c r="J44" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0483095238095237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45">
+        <v>137</v>
+      </c>
       <c r="D45" s="15">
         <v>55.372700000000002</v>
       </c>
       <c r="E45">
-        <v>136.542</v>
+        <v>134.58099999999999</v>
       </c>
       <c r="F45">
-        <v>136.37700000000001</v>
+        <v>134.53700000000001</v>
       </c>
       <c r="G45">
-        <v>131.76</v>
+        <v>134.94399999999999</v>
       </c>
       <c r="H45" s="24">
-        <f t="shared" si="3"/>
-        <v>134.893</v>
+        <f t="shared" si="2"/>
+        <v>134.68733333333333</v>
       </c>
       <c r="I45" s="15">
-        <v>105.68300000000001</v>
-      </c>
-      <c r="J45" s="15">
-        <f t="shared" si="4"/>
-        <v>2.4360921537147364</v>
-      </c>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.4323779287145708</v>
+      </c>
+      <c r="J45" s="24">
+        <f t="shared" si="4"/>
+        <v>0.98311922141119212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
@@ -2675,64 +2468,63 @@
         <v>54.224299999999999</v>
       </c>
       <c r="E46">
-        <v>175.43700000000001</v>
+        <v>185.57499999999999</v>
       </c>
       <c r="F46">
-        <v>176.42099999999999</v>
+        <v>183.102</v>
       </c>
       <c r="G46">
-        <v>179.33799999999999</v>
+        <v>183.90299999999999</v>
       </c>
       <c r="H46" s="24">
-        <f t="shared" si="3"/>
-        <v>177.06533333333334</v>
+        <f t="shared" si="2"/>
+        <v>184.19333333333336</v>
       </c>
       <c r="I46" s="15">
-        <v>151.34299999999999</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="4"/>
-        <v>3.2654240503488907</v>
-      </c>
-      <c r="K46" s="24">
-        <f>$H46/$C46</f>
-        <v>1.2211402298850575</v>
-      </c>
-      <c r="L46" s="15">
-        <f>$I46/$C46</f>
-        <v>1.0437448275862069</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.3968780294689531</v>
+      </c>
+      <c r="J46" s="24">
+        <f t="shared" si="4"/>
+        <v>1.2702988505747128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
       <c r="D47" s="15">
         <v>64.407399999999996</v>
       </c>
       <c r="E47">
-        <v>210.786</v>
+        <v>214.821</v>
       </c>
       <c r="F47">
-        <v>209.01</v>
+        <v>214.70400000000001</v>
       </c>
       <c r="G47">
-        <v>209.41200000000001</v>
+        <v>217.14</v>
       </c>
       <c r="H47" s="24">
-        <f t="shared" si="3"/>
-        <v>209.73599999999999</v>
+        <f t="shared" si="2"/>
+        <v>215.55499999999998</v>
       </c>
       <c r="I47" s="15">
-        <v>189.08</v>
-      </c>
-      <c r="J47" s="15">
-        <f t="shared" si="4"/>
-        <v>3.2563960041858544</v>
-      </c>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.3467427655828366</v>
+      </c>
+      <c r="J47" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0777749999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -2746,298 +2538,384 @@
         <v>55.615299999999998</v>
       </c>
       <c r="E48">
-        <v>196.9</v>
+        <v>233.31800000000001</v>
       </c>
       <c r="F48">
-        <v>196.88800000000001</v>
+        <v>229.94200000000001</v>
       </c>
       <c r="G48">
-        <v>195.41800000000001</v>
-      </c>
-      <c r="H48" s="19">
-        <f t="shared" si="3"/>
-        <v>196.40200000000002</v>
-      </c>
-      <c r="I48" s="27">
-        <v>142.33000000000001</v>
-      </c>
-      <c r="J48" s="15">
-        <f t="shared" si="4"/>
-        <v>3.5314382912615776</v>
-      </c>
-      <c r="K48" s="19">
-        <f>$H48/$C48</f>
-        <v>0.85022510822510833</v>
-      </c>
-      <c r="L48" s="27">
-        <f>$I48/$C48</f>
-        <v>0.61614718614718622</v>
-      </c>
-      <c r="N48" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>231.53800000000001</v>
+      </c>
+      <c r="H48" s="27">
+        <f t="shared" si="2"/>
+        <v>231.59933333333333</v>
+      </c>
+      <c r="I48" s="15">
+        <f t="shared" si="3"/>
+        <v>4.1643097013471717</v>
+      </c>
+      <c r="J48" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0025945165945167</v>
+      </c>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49">
+        <v>256</v>
+      </c>
       <c r="D49" s="15">
         <v>58.844900000000003</v>
       </c>
       <c r="E49">
-        <v>177.35300000000001</v>
+        <v>200.84899999999999</v>
       </c>
       <c r="F49">
-        <v>177.95699999999999</v>
+        <v>204.5</v>
       </c>
       <c r="G49">
-        <v>180.78700000000001</v>
-      </c>
-      <c r="H49" s="19">
-        <f t="shared" si="3"/>
-        <v>178.69899999999998</v>
-      </c>
-      <c r="I49" s="27">
-        <v>171.405</v>
-      </c>
-      <c r="J49" s="15">
-        <f t="shared" si="4"/>
-        <v>3.0367797379212127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203.56</v>
+      </c>
+      <c r="H49" s="27">
+        <f t="shared" si="2"/>
+        <v>202.96966666666665</v>
+      </c>
+      <c r="I49" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4492312276283354</v>
+      </c>
+      <c r="J49" s="24">
+        <f t="shared" si="4"/>
+        <v>0.79285026041666662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="C50">
+        <v>190</v>
+      </c>
       <c r="D50" s="15">
         <v>163.88200000000001</v>
       </c>
       <c r="E50">
-        <v>194.56100000000001</v>
+        <v>192.36699999999999</v>
       </c>
       <c r="F50">
-        <v>187.21299999999999</v>
+        <v>184.86099999999999</v>
       </c>
       <c r="G50">
-        <v>181.876</v>
+        <v>208.631</v>
       </c>
       <c r="H50" s="24">
-        <f t="shared" si="3"/>
-        <v>187.88333333333333</v>
-      </c>
-      <c r="J50" s="15">
-        <f t="shared" si="4"/>
-        <v>1.1464549696326218</v>
-      </c>
-      <c r="N50" s="27">
+        <f t="shared" si="2"/>
+        <v>195.28633333333332</v>
+      </c>
+      <c r="I50" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1916277158768707</v>
+      </c>
+      <c r="J50" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0278228070175437</v>
+      </c>
+      <c r="K50" s="27">
         <f>$H50/$H33</f>
-        <v>1.3710008926768875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.4773564589380144</v>
+      </c>
+      <c r="L50" s="27">
+        <f>$C50/$C33</f>
+        <v>1.2101910828025477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="C51">
+        <v>190</v>
+      </c>
       <c r="D51" s="15">
         <v>163.93</v>
       </c>
       <c r="E51">
-        <v>209.626</v>
+        <v>182.54</v>
       </c>
       <c r="F51">
-        <v>205.20699999999999</v>
+        <v>208.71100000000001</v>
       </c>
       <c r="G51">
-        <v>208.59200000000001</v>
+        <v>206.92400000000001</v>
       </c>
       <c r="H51" s="24">
-        <f t="shared" si="3"/>
-        <v>207.80833333333331</v>
-      </c>
-      <c r="J51" s="15">
-        <f t="shared" si="4"/>
-        <v>1.2676650602899611</v>
-      </c>
-      <c r="N51" s="27">
-        <f t="shared" ref="N51:N66" si="5">$H51/$H34</f>
-        <v>1.6707267396675831</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>199.39166666666665</v>
+      </c>
+      <c r="I51" s="15">
+        <f t="shared" si="3"/>
+        <v>1.2163220073608654</v>
+      </c>
+      <c r="J51" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0494298245614033</v>
+      </c>
+      <c r="K51" s="27">
+        <f t="shared" ref="K51:K66" si="5">$H51/$H34</f>
+        <v>1.6305088534170697</v>
+      </c>
+      <c r="L51" s="27">
+        <f t="shared" ref="L51:L66" si="6">$C51/$C34</f>
+        <v>1.3475177304964538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="C52">
+        <v>175</v>
+      </c>
       <c r="D52" s="15">
         <v>129.75200000000001</v>
       </c>
       <c r="E52">
-        <v>181.91800000000001</v>
+        <v>184.012</v>
       </c>
       <c r="F52">
-        <v>187.11099999999999</v>
+        <v>173.80699999999999</v>
       </c>
       <c r="G52">
-        <v>164.74199999999999</v>
+        <v>184.93899999999999</v>
       </c>
       <c r="H52" s="24">
-        <f t="shared" si="3"/>
-        <v>177.92366666666666</v>
-      </c>
-      <c r="J52" s="15">
-        <f t="shared" si="4"/>
-        <v>1.3712595310027333</v>
-      </c>
-      <c r="N52" s="15">
+        <f t="shared" si="2"/>
+        <v>180.9193333333333</v>
+      </c>
+      <c r="I52" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3943471648478118</v>
+      </c>
+      <c r="J52" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0338247619047618</v>
+      </c>
+      <c r="K52" s="15">
         <f>$H52/$H35</f>
-        <v>1.7563803043066231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.8171920068166714</v>
+      </c>
+      <c r="L52" s="27">
+        <f t="shared" si="6"/>
+        <v>1.5765765765765767</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="C53">
+        <v>175</v>
+      </c>
       <c r="D53" s="15">
         <v>106.705</v>
       </c>
       <c r="E53">
-        <v>160.19800000000001</v>
+        <v>151.374</v>
       </c>
       <c r="F53">
-        <v>145.39699999999999</v>
+        <v>147.03</v>
       </c>
       <c r="G53">
-        <v>146.45699999999999</v>
+        <v>108.59099999999999</v>
       </c>
       <c r="H53" s="24">
-        <f t="shared" si="3"/>
-        <v>150.684</v>
-      </c>
-      <c r="J53" s="15">
-        <f t="shared" si="4"/>
-        <v>1.4121550067944333</v>
-      </c>
-      <c r="N53" s="15">
+        <f t="shared" si="2"/>
+        <v>135.66499999999999</v>
+      </c>
+      <c r="I53" s="15">
+        <f t="shared" si="3"/>
+        <v>1.2714024647392344</v>
+      </c>
+      <c r="J53" s="24">
+        <f t="shared" si="4"/>
+        <v>0.77522857142857138</v>
+      </c>
+      <c r="K53" s="15">
         <f t="shared" si="5"/>
-        <v>1.6935448522346037</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5129683800593523</v>
+      </c>
+      <c r="L53" s="27">
+        <f t="shared" si="6"/>
+        <v>1.7676767676767677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="C54">
+        <v>93</v>
+      </c>
       <c r="D54" s="15">
         <v>75.327600000000004</v>
       </c>
       <c r="E54">
-        <v>110.05200000000001</v>
+        <v>107.91</v>
       </c>
       <c r="F54">
-        <v>111.919</v>
+        <v>107.42700000000001</v>
       </c>
       <c r="G54">
-        <v>110.244</v>
+        <v>108.88500000000001</v>
       </c>
       <c r="H54" s="24">
-        <f t="shared" si="3"/>
-        <v>110.73833333333334</v>
-      </c>
-      <c r="J54" s="15">
-        <f t="shared" si="4"/>
-        <v>1.4700897590436086</v>
-      </c>
-      <c r="N54" s="15">
+        <f t="shared" si="2"/>
+        <v>108.074</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4347198105342529</v>
+      </c>
+      <c r="J54" s="24">
+        <f t="shared" si="4"/>
+        <v>1.1620860215053763</v>
+      </c>
+      <c r="K54" s="15">
         <f t="shared" si="5"/>
-        <v>1.6390365150190538</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.6167576883030883</v>
+      </c>
+      <c r="L54" s="27">
+        <f t="shared" si="6"/>
+        <v>1.3478260869565217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="C55">
+        <v>73</v>
+      </c>
       <c r="D55" s="15">
         <v>59.714100000000002</v>
       </c>
       <c r="E55">
-        <v>86.109800000000007</v>
+        <v>87.355900000000005</v>
       </c>
       <c r="F55">
-        <v>88.033000000000001</v>
+        <v>87.198899999999995</v>
       </c>
       <c r="G55">
-        <v>84.373099999999994</v>
+        <v>83.654700000000005</v>
       </c>
       <c r="H55" s="24">
-        <f t="shared" si="3"/>
-        <v>86.171966666666663</v>
-      </c>
-      <c r="J55" s="15">
-        <f t="shared" si="4"/>
-        <v>1.4430757001556862</v>
-      </c>
-      <c r="N55" s="15">
+        <f t="shared" si="2"/>
+        <v>86.069833333333335</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4413653280101908</v>
+      </c>
+      <c r="J55" s="24">
+        <f t="shared" si="4"/>
+        <v>1.1790388127853881</v>
+      </c>
+      <c r="K55" s="15">
         <f t="shared" si="5"/>
-        <v>1.4685349523905822</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.4621952621406724</v>
+      </c>
+      <c r="L55" s="27">
+        <f t="shared" si="6"/>
+        <v>1.2166666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
       <c r="D56" s="15">
         <v>42.840400000000002</v>
       </c>
       <c r="E56">
-        <v>76.127099999999999</v>
+        <v>79.118300000000005</v>
       </c>
       <c r="F56">
-        <v>80.879900000000006</v>
+        <v>80.962199999999996</v>
       </c>
       <c r="G56">
-        <v>78.396100000000004</v>
+        <v>81.540099999999995</v>
       </c>
       <c r="H56" s="24">
-        <f t="shared" si="3"/>
-        <v>78.467699999999994</v>
-      </c>
-      <c r="J56" s="15">
-        <f t="shared" si="4"/>
-        <v>1.8316285562226307</v>
-      </c>
-      <c r="N56" s="15">
+        <f t="shared" si="2"/>
+        <v>80.540199999999999</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8800057889282078</v>
+      </c>
+      <c r="J56" s="24">
+        <f t="shared" si="4"/>
+        <v>1.5792196078431373</v>
+      </c>
+      <c r="K56" s="15">
         <f t="shared" si="5"/>
-        <v>1.487458501465323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5279088341139804</v>
+      </c>
+      <c r="L56" s="27">
+        <f t="shared" si="6"/>
+        <v>1.1086956521739131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
       <c r="D57" s="15">
         <v>39.912399999999998</v>
       </c>
       <c r="E57">
-        <v>86.812100000000001</v>
+        <v>86.802300000000002</v>
       </c>
       <c r="F57">
-        <v>81.088300000000004</v>
+        <v>83.474000000000004</v>
       </c>
       <c r="G57">
-        <v>86.068100000000001</v>
+        <v>88.773600000000002</v>
       </c>
       <c r="H57" s="24">
-        <f t="shared" si="3"/>
-        <v>84.656166666666664</v>
-      </c>
-      <c r="J57" s="15">
-        <f t="shared" si="4"/>
-        <v>2.1210492645560444</v>
-      </c>
-      <c r="N57" s="15">
+        <f t="shared" si="2"/>
+        <v>86.34996666666666</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="3"/>
+        <v>2.163487203642644</v>
+      </c>
+      <c r="J57" s="24">
+        <f t="shared" si="4"/>
+        <v>1.6931366013071893</v>
+      </c>
+      <c r="K57" s="15">
         <f t="shared" si="5"/>
-        <v>1.5232321717747253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5475690223219218</v>
+      </c>
+      <c r="L57" s="27">
+        <f t="shared" si="6"/>
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -3045,257 +2923,344 @@
         <v>217.971</v>
       </c>
       <c r="E58">
-        <v>34.460900000000002</v>
+        <v>34.432499999999997</v>
       </c>
       <c r="F58">
-        <v>34.944499999999998</v>
+        <v>34.837000000000003</v>
       </c>
       <c r="G58">
-        <v>34.870899999999999</v>
+        <v>34.787199999999999</v>
       </c>
       <c r="H58" s="24">
-        <f t="shared" si="3"/>
-        <v>34.758766666666666</v>
-      </c>
-      <c r="J58" s="15">
-        <f t="shared" si="4"/>
-        <v>0.15946509703890271</v>
-      </c>
-      <c r="N58" s="15">
-        <f t="shared" si="5"/>
-        <v>0.13451986263729176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>34.685566666666666</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="3"/>
+        <v>0.15912927254848885</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
       <c r="D59" s="15">
         <v>46.281700000000001</v>
       </c>
       <c r="E59">
-        <v>51.549399999999999</v>
+        <v>50.132800000000003</v>
       </c>
       <c r="F59">
-        <v>52.182699999999997</v>
+        <v>51.851100000000002</v>
       </c>
       <c r="G59">
-        <v>51.041499999999999</v>
+        <v>52.1584</v>
       </c>
       <c r="H59" s="24">
-        <f t="shared" si="3"/>
-        <v>51.591199999999994</v>
-      </c>
-      <c r="J59" s="15">
-        <f t="shared" si="4"/>
-        <v>1.1147213693533295</v>
-      </c>
-      <c r="N59" s="15">
+        <f t="shared" si="2"/>
+        <v>51.380766666666666</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1101745758402708</v>
+      </c>
+      <c r="J59" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0276153333333333</v>
+      </c>
+      <c r="K59" s="15">
         <f t="shared" si="5"/>
-        <v>0.91854368188753743</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.91308793153186663</v>
+      </c>
+      <c r="L59" s="27">
+        <f t="shared" si="6"/>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="C60">
+        <v>74</v>
+      </c>
       <c r="D60" s="15">
         <v>59.088000000000001</v>
       </c>
       <c r="E60">
-        <v>77.048900000000003</v>
+        <v>76.928899999999999</v>
       </c>
       <c r="F60">
-        <v>77.787899999999993</v>
+        <v>77.146900000000002</v>
       </c>
       <c r="G60">
-        <v>77.894800000000004</v>
+        <v>74.287800000000004</v>
       </c>
       <c r="H60" s="24">
-        <f t="shared" si="3"/>
-        <v>77.577199999999991</v>
-      </c>
-      <c r="J60" s="15">
-        <f t="shared" si="4"/>
-        <v>1.3129095586244244</v>
-      </c>
-      <c r="N60" s="15">
+        <f t="shared" si="2"/>
+        <v>76.121200000000002</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="3"/>
+        <v>1.2882683455185486</v>
+      </c>
+      <c r="J60" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0286648648648649</v>
+      </c>
+      <c r="K60" s="15">
         <f t="shared" si="5"/>
-        <v>0.98857201111196047</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.97215134262558467</v>
+      </c>
+      <c r="L60" s="27">
+        <f t="shared" si="6"/>
+        <v>0.96103896103896103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
       <c r="D61" s="15">
         <v>43.688000000000002</v>
       </c>
       <c r="E61">
-        <v>106.873</v>
+        <v>102.83199999999999</v>
       </c>
       <c r="F61">
-        <v>107.122</v>
+        <v>104.895</v>
       </c>
       <c r="G61">
-        <v>106.735</v>
+        <v>104.67700000000001</v>
       </c>
       <c r="H61" s="24">
-        <f t="shared" si="3"/>
-        <v>106.91000000000001</v>
-      </c>
-      <c r="J61" s="15">
-        <f t="shared" si="4"/>
-        <v>2.447125068668742</v>
-      </c>
-      <c r="N61" s="15">
+        <f t="shared" si="2"/>
+        <v>104.13466666666666</v>
+      </c>
+      <c r="I61" s="15">
+        <f t="shared" si="3"/>
+        <v>2.3835988524690226</v>
+      </c>
+      <c r="J61" s="24">
+        <f t="shared" si="4"/>
+        <v>1.0413466666666666</v>
+      </c>
+      <c r="K61" s="15">
         <f t="shared" si="5"/>
-        <v>1.0390001652137575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0136306265675545</v>
+      </c>
+      <c r="L61" s="27">
+        <f t="shared" si="6"/>
+        <v>1.0204081632653061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="C62">
+        <v>157</v>
+      </c>
       <c r="D62" s="15">
         <v>49.496499999999997</v>
       </c>
       <c r="E62">
-        <v>155.47499999999999</v>
+        <v>155.173</v>
       </c>
       <c r="F62">
-        <v>155.32499999999999</v>
+        <v>156.482</v>
       </c>
       <c r="G62">
-        <v>155.995</v>
+        <v>154.16</v>
       </c>
       <c r="H62" s="24">
-        <f t="shared" si="3"/>
-        <v>155.59833333333333</v>
-      </c>
-      <c r="J62" s="15">
-        <f t="shared" si="4"/>
-        <v>3.1436229497708594</v>
-      </c>
-      <c r="N62" s="15">
+        <f t="shared" si="2"/>
+        <v>155.27166666666665</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1370231565194842</v>
+      </c>
+      <c r="J62" s="24">
+        <f t="shared" si="4"/>
+        <v>0.98899150743099773</v>
+      </c>
+      <c r="K62" s="15">
         <f t="shared" si="5"/>
-        <v>1.1534944981083772</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.1528305062094431</v>
+      </c>
+      <c r="L62" s="27">
+        <f t="shared" si="6"/>
+        <v>1.1459854014598541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="C63">
+        <v>205</v>
+      </c>
       <c r="D63" s="15">
         <v>46.491</v>
       </c>
       <c r="E63">
-        <v>201.93100000000001</v>
+        <v>186.57499999999999</v>
       </c>
       <c r="F63">
-        <v>209.89699999999999</v>
+        <v>209.89599999999999</v>
       </c>
       <c r="G63">
-        <v>205.87299999999999</v>
+        <v>202.70099999999999</v>
       </c>
       <c r="H63" s="24">
-        <f t="shared" si="3"/>
-        <v>205.90033333333335</v>
-      </c>
-      <c r="J63" s="15">
-        <f t="shared" si="4"/>
-        <v>4.4288213489349193</v>
-      </c>
-      <c r="N63" s="15">
+        <f t="shared" si="2"/>
+        <v>199.72400000000002</v>
+      </c>
+      <c r="I63" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2959712632552538</v>
+      </c>
+      <c r="J63" s="24">
+        <f t="shared" si="4"/>
+        <v>0.97426341463414645</v>
+      </c>
+      <c r="K63" s="15">
         <f t="shared" si="5"/>
-        <v>1.1628494943486021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.084317202938941</v>
+      </c>
+      <c r="L63" s="27">
+        <f t="shared" si="6"/>
+        <v>1.4137931034482758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="C64">
+        <v>292</v>
+      </c>
       <c r="D64" s="15">
         <v>54.691400000000002</v>
       </c>
       <c r="E64">
-        <v>273.07400000000001</v>
+        <v>284.714</v>
       </c>
       <c r="F64">
-        <v>274.97199999999998</v>
+        <v>296.94600000000003</v>
       </c>
       <c r="G64">
-        <v>271.97300000000001</v>
+        <v>293.42099999999999</v>
       </c>
       <c r="H64" s="24">
-        <f t="shared" si="3"/>
-        <v>273.33966666666669</v>
-      </c>
-      <c r="J64" s="15">
-        <f t="shared" si="4"/>
-        <v>4.9978546291860635</v>
-      </c>
-      <c r="N64" s="15">
+        <f t="shared" si="2"/>
+        <v>291.69366666666673</v>
+      </c>
+      <c r="I64" s="15">
+        <f t="shared" si="3"/>
+        <v>5.3334466966774796</v>
+      </c>
+      <c r="J64" s="24">
+        <f t="shared" si="4"/>
+        <v>0.99895091324200935</v>
+      </c>
+      <c r="K64" s="15">
         <f t="shared" si="5"/>
-        <v>1.3032558390865978</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.3532215289214666</v>
+      </c>
+      <c r="L64" s="27">
+        <f t="shared" si="6"/>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="C65">
+        <v>400</v>
+      </c>
       <c r="D65" s="15">
         <v>46.815600000000003</v>
       </c>
       <c r="E65">
-        <v>154.375</v>
+        <v>302.92700000000002</v>
       </c>
       <c r="F65">
-        <v>149.59</v>
+        <v>299.25299999999999</v>
       </c>
       <c r="G65">
-        <v>153.536</v>
+        <v>302.31299999999999</v>
       </c>
       <c r="H65" s="24">
-        <f t="shared" si="3"/>
-        <v>152.50033333333334</v>
-      </c>
-      <c r="J65" s="15">
-        <f t="shared" si="4"/>
-        <v>3.2574683082847029</v>
-      </c>
-      <c r="N65" s="19">
+        <f t="shared" si="2"/>
+        <v>301.4976666666667</v>
+      </c>
+      <c r="I65" s="15">
+        <f t="shared" si="3"/>
+        <v>6.4401111310474857</v>
+      </c>
+      <c r="J65" s="24">
+        <f t="shared" si="4"/>
+        <v>0.75374416666666677</v>
+      </c>
+      <c r="K65" s="27">
         <f t="shared" si="5"/>
-        <v>0.77647036859773999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.3018071439468739</v>
+      </c>
+      <c r="L65" s="27">
+        <f t="shared" si="6"/>
+        <v>1.7316017316017316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="C66">
+        <v>450</v>
+      </c>
       <c r="D66" s="15">
         <v>49.731000000000002</v>
       </c>
       <c r="E66">
-        <v>129.50899999999999</v>
+        <v>259.87900000000002</v>
       </c>
       <c r="F66">
-        <v>129.62299999999999</v>
+        <v>258.55200000000002</v>
       </c>
       <c r="G66">
-        <v>126.03100000000001</v>
+        <v>262.49799999999999</v>
       </c>
       <c r="H66" s="24">
-        <f t="shared" si="3"/>
-        <v>128.38766666666666</v>
-      </c>
-      <c r="J66" s="15">
-        <f t="shared" si="4"/>
-        <v>2.5816425703618799</v>
-      </c>
-      <c r="N66" s="19">
+        <f t="shared" si="2"/>
+        <v>260.30966666666671</v>
+      </c>
+      <c r="I66" s="15">
+        <f t="shared" si="3"/>
+        <v>5.2343541587071787</v>
+      </c>
+      <c r="J66" s="24">
+        <f t="shared" si="4"/>
+        <v>0.57846592592592605</v>
+      </c>
+      <c r="K66" s="27">
         <f t="shared" si="5"/>
-        <v>0.71845766717590287</v>
+        <v>1.282505267617986</v>
+      </c>
+      <c r="L66" s="27">
+        <f t="shared" si="6"/>
+        <v>1.7578125</v>
       </c>
     </row>
   </sheetData>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="136">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>TX56Mbps</t>
+  </si>
+  <si>
+    <t>master-candidate, 24/6/2015</t>
+  </si>
+  <si>
+    <t>ratio</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,6 +582,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +886,7 @@
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
@@ -913,8 +923,16 @@
       <c r="L1" s="16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -949,7 +967,7 @@
         <v>0.56783910298279994</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1002,7 @@
         <v>0.71543710570361785</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>0.37316944295181803</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1072,7 @@
         <v>0.90756843800322062</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>3.3603208292201381</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>3.2087631763879125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>0.71934874522640468</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1212,7 @@
         <v>1.1732229522558038</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1247,7 @@
         <v>3.9601844532279316</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>0.71771923822556727</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>1.1352241297091081</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1352,7 @@
         <v>0.79322880371660853</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>0.59702129531854975</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>0.46812395309882748</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1999,7 +2017,7 @@
         <v>0.7924707070707071</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -2033,8 +2051,21 @@
         <f t="shared" si="1"/>
         <v>0.84195116772823775</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>137.38300000000001</v>
+      </c>
+      <c r="N33">
+        <v>136.977</v>
+      </c>
+      <c r="O33">
+        <v>136.78800000000001</v>
+      </c>
+      <c r="P33">
+        <f>$O33/$G33</f>
+        <v>1.0585176357698916</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -2068,8 +2099,21 @@
         <f t="shared" si="1"/>
         <v>0.86729078014184402</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>123.684</v>
+      </c>
+      <c r="N34">
+        <v>123.45399999999999</v>
+      </c>
+      <c r="O34">
+        <v>122.077</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P49" si="4">$O34/$G34</f>
+        <v>0.96848076160253871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2100,11 +2144,24 @@
         <v>1.1684713296058611</v>
       </c>
       <c r="J35" s="24">
-        <f>$H35/$C35</f>
+        <f t="shared" ref="J35:J42" si="5">$H35/$C35</f>
         <v>0.8969354354354353</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>100.416</v>
+      </c>
+      <c r="N35">
+        <v>98.441400000000002</v>
+      </c>
+      <c r="O35">
+        <v>99.717799999999997</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>0.99408639132298537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
@@ -2135,11 +2192,24 @@
         <v>1.2779058830236003</v>
       </c>
       <c r="J36" s="24">
-        <f>$H36/$C36</f>
+        <f t="shared" si="5"/>
         <v>0.90573838383838379</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>89.561999999999998</v>
+      </c>
+      <c r="N36">
+        <v>89.119100000000003</v>
+      </c>
+      <c r="O36">
+        <v>88.350899999999996</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>0.9709572980956902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -2170,11 +2240,24 @@
         <v>1.2077970807623624</v>
       </c>
       <c r="J37" s="24">
-        <f>$H37/$C37</f>
+        <f t="shared" si="5"/>
         <v>0.96878454106280187</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>65.986099999999993</v>
+      </c>
+      <c r="N37">
+        <v>65.811999999999998</v>
+      </c>
+      <c r="O37">
+        <v>65.389600000000002</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>0.95639938804105862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -2205,11 +2288,24 @@
         <v>1.3473716416862755</v>
       </c>
       <c r="J38" s="24">
-        <f>$H38/$C38</f>
+        <f t="shared" si="5"/>
         <v>0.98105722222222236</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>56.328400000000002</v>
+      </c>
+      <c r="N38">
+        <v>55.880800000000001</v>
+      </c>
+      <c r="O38">
+        <v>56.274900000000002</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>0.95093327655605231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -2240,11 +2336,24 @@
         <v>1.5903185904784889</v>
       </c>
       <c r="J39" s="24">
-        <f>$H39/$C39</f>
+        <f t="shared" si="5"/>
         <v>1.1459282608695651</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>51.140500000000003</v>
+      </c>
+      <c r="N39">
+        <v>50.722900000000003</v>
+      </c>
+      <c r="O39">
+        <v>50.746099999999998</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>0.96380011433542068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
@@ -2275,11 +2384,24 @@
         <v>1.7710518826052504</v>
       </c>
       <c r="J40" s="24">
-        <f>$H40/$C40</f>
+        <f t="shared" si="5"/>
         <v>1.2399370370370371</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>53.203000000000003</v>
+      </c>
+      <c r="N40">
+        <v>53.332099999999997</v>
+      </c>
+      <c r="O40">
+        <v>53.044800000000002</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>0.94750097795973487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -2310,11 +2432,11 @@
         <v>1.0520976755487164</v>
       </c>
       <c r="J41" s="24">
-        <f>$H41/$C41</f>
+        <f t="shared" si="5"/>
         <v>0.89897923875432528</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -2345,11 +2467,24 @@
         <v>1.5623359015293492</v>
       </c>
       <c r="J42" s="24">
-        <f>$H42/$C42</f>
+        <f t="shared" si="5"/>
         <v>1.0420635802469136</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>57.195999999999998</v>
+      </c>
+      <c r="N42">
+        <v>58.373399999999997</v>
+      </c>
+      <c r="O42">
+        <v>57.666600000000003</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>1.0244391189339663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
@@ -2380,11 +2515,24 @@
         <v>1.6966693607625518</v>
       </c>
       <c r="J43" s="24">
-        <f t="shared" ref="J43:J66" si="4">$H43/$C43</f>
+        <f t="shared" ref="J43:J66" si="6">$H43/$C43</f>
         <v>1.0169064935064935</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>75.6023</v>
+      </c>
+      <c r="N43">
+        <v>75.1006</v>
+      </c>
+      <c r="O43">
+        <v>75.275700000000001</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>0.95629113665149401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
@@ -2415,11 +2563,24 @@
         <v>2.3009066917509338</v>
       </c>
       <c r="J44" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0483095238095237</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>97.427800000000005</v>
+      </c>
+      <c r="N44">
+        <v>97.807500000000005</v>
+      </c>
+      <c r="O44">
+        <v>94.270899999999997</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>0.91738013448681899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -2450,11 +2611,24 @@
         <v>2.4323779287145708</v>
       </c>
       <c r="J45" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98311922141119212</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>118.88200000000001</v>
+      </c>
+      <c r="N45">
+        <v>115.252</v>
+      </c>
+      <c r="O45">
+        <v>117.265</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>0.8689900995968699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
@@ -2485,11 +2659,24 @@
         <v>3.3968780294689531</v>
       </c>
       <c r="J46" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2702988505747128</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>140.08199999999999</v>
+      </c>
+      <c r="N46">
+        <v>141.39400000000001</v>
+      </c>
+      <c r="O46">
+        <v>141.47399999999999</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>0.76928598228413891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -2520,11 +2707,24 @@
         <v>3.3467427655828366</v>
       </c>
       <c r="J47" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0777749999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>162.01499999999999</v>
+      </c>
+      <c r="N47">
+        <v>161.41900000000001</v>
+      </c>
+      <c r="O47">
+        <v>159.86600000000001</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>0.73623468729851715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -2555,12 +2755,25 @@
         <v>4.1643097013471717</v>
       </c>
       <c r="J48" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0025945165945167</v>
       </c>
       <c r="K48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>183.38300000000001</v>
+      </c>
+      <c r="N48">
+        <v>181.37200000000001</v>
+      </c>
+      <c r="O48">
+        <v>182.89599999999999</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>0.78991785365685108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
@@ -2591,11 +2804,24 @@
         <v>3.4492312276283354</v>
       </c>
       <c r="J49" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.79285026041666662</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>164.583</v>
+      </c>
+      <c r="N49">
+        <v>161.56800000000001</v>
+      </c>
+      <c r="O49">
+        <v>161.518</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>0.79346629986244843</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
@@ -2623,7 +2849,7 @@
         <v>1.1916277158768707</v>
       </c>
       <c r="J50" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0278228070175437</v>
       </c>
       <c r="K50" s="27">
@@ -2635,7 +2861,7 @@
         <v>1.2101910828025477</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
@@ -2663,19 +2889,19 @@
         <v>1.2163220073608654</v>
       </c>
       <c r="J51" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0494298245614033</v>
       </c>
       <c r="K51" s="27">
-        <f t="shared" ref="K51:K66" si="5">$H51/$H34</f>
+        <f t="shared" ref="K51:K66" si="7">$H51/$H34</f>
         <v>1.6305088534170697</v>
       </c>
       <c r="L51" s="27">
-        <f t="shared" ref="L51:L66" si="6">$C51/$C34</f>
+        <f t="shared" ref="L51:L66" si="8">$C51/$C34</f>
         <v>1.3475177304964538</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -2703,7 +2929,7 @@
         <v>1.3943471648478118</v>
       </c>
       <c r="J52" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0338247619047618</v>
       </c>
       <c r="K52" s="15">
@@ -2711,11 +2937,11 @@
         <v>1.8171920068166714</v>
       </c>
       <c r="L52" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
@@ -2743,19 +2969,19 @@
         <v>1.2714024647392344</v>
       </c>
       <c r="J53" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.77522857142857138</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5129683800593523</v>
       </c>
       <c r="L53" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7676767676767677</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
@@ -2783,19 +3009,19 @@
         <v>1.4347198105342529</v>
       </c>
       <c r="J54" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1620860215053763</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6167576883030883</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3478260869565217</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
@@ -2823,19 +3049,19 @@
         <v>1.4413653280101908</v>
       </c>
       <c r="J55" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1790388127853881</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4621952621406724</v>
       </c>
       <c r="L55" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2166666666666666</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
@@ -2863,19 +3089,19 @@
         <v>1.8800057889282078</v>
       </c>
       <c r="J56" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5792196078431373</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5279088341139804</v>
       </c>
       <c r="L56" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1086956521739131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
@@ -2903,19 +3129,19 @@
         <v>2.163487203642644</v>
       </c>
       <c r="J57" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6931366013071893</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5475690223219218</v>
       </c>
       <c r="L57" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -2943,7 +3169,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
@@ -2971,19 +3197,19 @@
         <v>1.1101745758402708</v>
       </c>
       <c r="J59" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0276153333333333</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91308793153186663</v>
       </c>
       <c r="L59" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92592592592592593</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
@@ -3011,19 +3237,19 @@
         <v>1.2882683455185486</v>
       </c>
       <c r="J60" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0286648648648649</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97215134262558467</v>
       </c>
       <c r="L60" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96103896103896103</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
@@ -3051,19 +3277,19 @@
         <v>2.3835988524690226</v>
       </c>
       <c r="J61" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0413466666666666</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0136306265675545</v>
       </c>
       <c r="L61" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
@@ -3091,19 +3317,19 @@
         <v>3.1370231565194842</v>
       </c>
       <c r="J62" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98899150743099773</v>
       </c>
       <c r="K62" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1528305062094431</v>
       </c>
       <c r="L62" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1459854014598541</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
@@ -3131,19 +3357,19 @@
         <v>4.2959712632552538</v>
       </c>
       <c r="J63" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.97426341463414645</v>
       </c>
       <c r="K63" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.084317202938941</v>
       </c>
       <c r="L63" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4137931034482758</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
@@ -3171,15 +3397,15 @@
         <v>5.3334466966774796</v>
       </c>
       <c r="J64" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99895091324200935</v>
       </c>
       <c r="K64" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3532215289214666</v>
       </c>
       <c r="L64" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.46</v>
       </c>
     </row>
@@ -3211,15 +3437,15 @@
         <v>6.4401111310474857</v>
       </c>
       <c r="J65" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.75374416666666677</v>
       </c>
       <c r="K65" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3018071439468739</v>
       </c>
       <c r="L65" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7316017316017316</v>
       </c>
     </row>
@@ -3251,19 +3477,134 @@
         <v>5.2343541587071787</v>
       </c>
       <c r="J66" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.57846592592592605</v>
       </c>
       <c r="K66" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.282505267617986</v>
       </c>
       <c r="L66" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7578125</v>
       </c>
     </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="28">
+        <v>1614.74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="18">
+        <v>1876.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="18">
+        <v>2328.5700000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>182.77600000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="18">
+        <v>1869.31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="18">
+        <v>975.83699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>1571.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>1563.07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>1851.71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>2359.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>2266.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>1174.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="18">
+        <v>1570.43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="18">
+        <v>1908.83</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -16,7 +16,7 @@
     <sheet name="TX Optim" sheetId="3" r:id="rId2"/>
     <sheet name="Old" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,16 +430,16 @@
     <t>TX56Mbps</t>
   </si>
   <si>
-    <t>master-candidate, 24/6/2015</t>
-  </si>
-  <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>new-c-lib, 21/8/2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,9 +583,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,8 +865,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +882,8 @@
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -923,14 +923,14 @@
       <c r="L1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -966,6 +966,13 @@
         <f t="shared" ref="J2:J34" si="1">$H2/$C2</f>
         <v>0.56783910298279994</v>
       </c>
+      <c r="M2">
+        <v>1539.4</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N32" si="2">$M2/$G2</f>
+        <v>0.89114011982980701</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -990,7 +997,7 @@
         <v>1847.69</v>
       </c>
       <c r="H3" s="24">
-        <f t="shared" ref="H3:H66" si="2">AVERAGE($E3, $F3, $G3)</f>
+        <f t="shared" ref="H3:H66" si="3">AVERAGE($E3, $F3, $G3)</f>
         <v>1852.2666666666667</v>
       </c>
       <c r="I3" s="15">
@@ -1001,6 +1008,13 @@
         <f t="shared" si="1"/>
         <v>0.71543710570361785</v>
       </c>
+      <c r="M3">
+        <v>1390.86</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.75275614415838144</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1025,7 +1039,7 @@
         <v>1382.34</v>
       </c>
       <c r="H4" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1388.9366666666667</v>
       </c>
       <c r="I4" s="15">
@@ -1036,6 +1050,13 @@
         <f t="shared" si="1"/>
         <v>0.37316944295181803</v>
       </c>
+      <c r="M4">
+        <v>1160.8800000000001</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.83979339381049534</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1060,7 +1081,7 @@
         <v>188.38399999999999</v>
       </c>
       <c r="H5" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187.86666666666667</v>
       </c>
       <c r="I5" s="15">
@@ -1071,6 +1092,13 @@
         <f t="shared" si="1"/>
         <v>0.90756843800322062</v>
       </c>
+      <c r="M5">
+        <v>210.202</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.1158166298624088</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1095,7 +1123,7 @@
         <v>6858.57</v>
       </c>
       <c r="H6" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6808.0099999999993</v>
       </c>
       <c r="I6" s="15">
@@ -1106,6 +1134,13 @@
         <f t="shared" si="1"/>
         <v>3.3603208292201381</v>
       </c>
+      <c r="M6">
+        <v>5207.76</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.75930696923702756</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1130,7 +1165,7 @@
         <v>4504.71</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4566.07</v>
       </c>
       <c r="I7" s="15">
@@ -1141,6 +1176,13 @@
         <f t="shared" si="1"/>
         <v>3.2087631763879125</v>
       </c>
+      <c r="M7">
+        <v>2983.24</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.66224906819750873</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1165,7 +1207,7 @@
         <v>3707.12</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3516.1766666666663</v>
       </c>
       <c r="I8" s="15">
@@ -1176,6 +1218,13 @@
         <f t="shared" si="1"/>
         <v>0.71934874522640468</v>
       </c>
+      <c r="M8">
+        <v>6841.68</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1.8455512635145344</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1200,7 +1249,7 @@
         <v>4465.0200000000004</v>
       </c>
       <c r="H9" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4464.1133333333337</v>
       </c>
       <c r="I9" s="15">
@@ -1211,6 +1260,13 @@
         <f t="shared" si="1"/>
         <v>1.1732229522558038</v>
       </c>
+      <c r="M9">
+        <v>6274.98</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1.4053643656691346</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1235,7 +1291,7 @@
         <v>2980.07</v>
       </c>
       <c r="H10" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3005.78</v>
       </c>
       <c r="I10" s="15">
@@ -1246,6 +1302,13 @@
         <f t="shared" si="1"/>
         <v>3.9601844532279316</v>
       </c>
+      <c r="M10">
+        <v>5273.54</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1.7696027274527106</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1270,7 +1333,7 @@
         <v>2124.46</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2097.893333333333</v>
       </c>
       <c r="I11" s="15">
@@ -1281,6 +1344,13 @@
         <f t="shared" si="1"/>
         <v>0.71771923822556727</v>
       </c>
+      <c r="M11">
+        <v>2092.4899999999998</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.98495147002061689</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -1305,7 +1375,7 @@
         <v>3125.9</v>
       </c>
       <c r="H12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3174.0866666666666</v>
       </c>
       <c r="I12" s="15">
@@ -1316,6 +1386,13 @@
         <f t="shared" si="1"/>
         <v>1.1352241297091081</v>
       </c>
+      <c r="M12">
+        <v>2983.24</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.95436194376019701</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -1340,7 +1417,7 @@
         <v>2255.9499999999998</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2276.5666666666666</v>
       </c>
       <c r="I13" s="15">
@@ -1351,6 +1428,13 @@
         <f t="shared" si="1"/>
         <v>0.79322880371660853</v>
       </c>
+      <c r="M13">
+        <v>2093.16</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.92783971275959132</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1375,7 +1459,7 @@
         <v>2249.1799999999998</v>
       </c>
       <c r="H14" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2261.5166666666664</v>
       </c>
       <c r="I14" s="15">
@@ -1386,6 +1470,13 @@
         <f t="shared" si="1"/>
         <v>0.59702129531854975</v>
       </c>
+      <c r="M14">
+        <v>2095.7199999999998</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.93177068976249122</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1410,7 +1501,7 @@
         <v>1816.38</v>
       </c>
       <c r="H15" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1769.9766666666667</v>
       </c>
       <c r="I15" s="15">
@@ -1421,6 +1512,13 @@
         <f t="shared" si="1"/>
         <v>0.46812395309882748</v>
       </c>
+      <c r="M15">
+        <v>1405.36</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.7737147513185566</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1445,7 +1543,7 @@
         <v>145.298</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145.25666666666666</v>
       </c>
       <c r="I16" s="15">
@@ -1456,8 +1554,15 @@
         <f t="shared" si="1"/>
         <v>0.75262521588946452</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>188.94499999999999</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>1.3003964266541865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1585,7 @@
         <v>1186.83</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1189.9633333333334</v>
       </c>
       <c r="I17" s="15">
@@ -1491,8 +1596,15 @@
         <f t="shared" si="1"/>
         <v>0.70831150793650799</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1074.69</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.90551300523242595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1627,7 @@
         <v>2763.88</v>
       </c>
       <c r="H18" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2332.1533333333332</v>
       </c>
       <c r="I18" s="15">
@@ -1526,8 +1638,15 @@
         <f t="shared" si="1"/>
         <v>0.48840907504363001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>7647.01</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>2.7667662850774999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1669,7 @@
         <v>1803.2</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1683.6899999999998</v>
       </c>
       <c r="I19" s="15">
@@ -1561,8 +1680,15 @@
         <f t="shared" si="1"/>
         <v>0.57209989806320072</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>1934.91</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>1.0730423691215616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1711,7 @@
         <v>1813.53</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1687.3133333333333</v>
       </c>
       <c r="I20" s="15">
@@ -1596,8 +1722,15 @@
         <f t="shared" si="1"/>
         <v>0.50945450885668275</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>2784.89</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1.5356183796242686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1753,7 @@
         <v>1772.11</v>
       </c>
       <c r="H21" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1790.4899999999998</v>
       </c>
       <c r="I21" s="15">
@@ -1631,8 +1764,15 @@
         <f t="shared" si="1"/>
         <v>0.53209212481426438</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>2895.61</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>1.633989989334748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1795,7 @@
         <v>2542.0700000000002</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1942.28</v>
       </c>
       <c r="I22" s="15">
@@ -1666,8 +1806,15 @@
         <f t="shared" si="1"/>
         <v>0.6223261775072092</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2426.12</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.95438756603870067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1837,7 @@
         <v>1419.67</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1486.1966666666667</v>
       </c>
       <c r="I23" s="15">
@@ -1701,8 +1848,15 @@
         <f t="shared" si="1"/>
         <v>1.7161624326404927</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>1877.48</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1.3224763501377079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -1725,7 +1879,7 @@
         <v>587.75099999999998</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>586.67766666666671</v>
       </c>
       <c r="I24" s="15">
@@ -1736,8 +1890,15 @@
         <f t="shared" si="1"/>
         <v>0.92682095839915757</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>296.27499999999998</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.50408251113141445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -1760,7 +1921,7 @@
         <v>460.65300000000002</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>447.42533333333336</v>
       </c>
       <c r="I25" s="15">
@@ -1771,8 +1932,15 @@
         <f t="shared" si="1"/>
         <v>0.8571366538952746</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>183.07900000000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.39743364311097507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1963,7 @@
         <v>1088.29</v>
       </c>
       <c r="H26" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>936.36700000000008</v>
       </c>
       <c r="I26" s="15">
@@ -1806,8 +1974,15 @@
         <f t="shared" si="1"/>
         <v>1.2304428383705652</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>651.85599999999999</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>0.59897270029128269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1830,7 +2005,7 @@
         <v>3367.8</v>
       </c>
       <c r="H27" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2974.6033333333339</v>
       </c>
       <c r="I27" s="15">
@@ -1841,8 +2016,15 @@
         <f t="shared" si="1"/>
         <v>2.6115920398009957</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>5048.72</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>1.4991151493556625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
@@ -1865,7 +2047,7 @@
         <v>428.22</v>
       </c>
       <c r="H28" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>443.60399999999998</v>
       </c>
       <c r="I28" s="15">
@@ -1876,8 +2058,15 @@
         <f t="shared" si="1"/>
         <v>0.95398709677419347</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>495.09399999999999</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>1.1561673905936201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
@@ -1900,7 +2089,7 @@
         <v>223.45599999999999</v>
       </c>
       <c r="H29" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>223.14566666666667</v>
       </c>
       <c r="I29" s="15">
@@ -1911,8 +2100,15 @@
         <f t="shared" si="1"/>
         <v>0.61303754578754577</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>315.16399999999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>1.4104074180151798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +2131,7 @@
         <v>326.02600000000001</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>326.78966666666673</v>
       </c>
       <c r="I30" s="15">
@@ -1946,8 +2142,15 @@
         <f t="shared" si="1"/>
         <v>0.7512406130268201</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>311.40899999999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0.95516615239275393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
@@ -1970,7 +2173,7 @@
         <v>1222.8699999999999</v>
       </c>
       <c r="H31" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1362.6033333333332</v>
       </c>
       <c r="I31" s="15">
@@ -1981,8 +2184,15 @@
         <f t="shared" si="1"/>
         <v>2.1158436853002067</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>397.548</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0.32509424550442811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
@@ -2005,7 +2215,7 @@
         <v>130.44399999999999</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130.75766666666667</v>
       </c>
       <c r="I32" s="15">
@@ -2016,8 +2226,15 @@
         <f t="shared" si="1"/>
         <v>0.7924707070707071</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>115.545</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0.88578240471006719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -2040,7 +2257,7 @@
         <v>129.226</v>
       </c>
       <c r="H33" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132.18633333333332</v>
       </c>
       <c r="I33" s="15">
@@ -2052,20 +2269,14 @@
         <v>0.84195116772823775</v>
       </c>
       <c r="M33">
-        <v>137.38300000000001</v>
+        <v>144.15299999999999</v>
       </c>
       <c r="N33">
-        <v>136.977</v>
-      </c>
-      <c r="O33">
-        <v>136.78800000000001</v>
-      </c>
-      <c r="P33">
-        <f>$O33/$G33</f>
-        <v>1.0585176357698916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M33/$G33</f>
+        <v>1.1155108105180072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -2088,11 +2299,11 @@
         <v>126.05</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122.28800000000001</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ref="I34:I66" si="3">$H34/$D34</f>
+        <f t="shared" ref="I34:I66" si="4">$H34/$D34</f>
         <v>1.1471992645196396</v>
       </c>
       <c r="J34" s="24">
@@ -2100,20 +2311,14 @@
         <v>0.86729078014184402</v>
       </c>
       <c r="M34">
-        <v>123.684</v>
+        <v>128.56</v>
       </c>
       <c r="N34">
-        <v>123.45399999999999</v>
-      </c>
-      <c r="O34">
-        <v>122.077</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ref="P34:P49" si="4">$O34/$G34</f>
-        <v>0.96848076160253871</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M34/$G34</f>
+        <v>1.0199127330424436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
@@ -2136,11 +2341,11 @@
         <v>100.31100000000001</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.559833333333316</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1684713296058611</v>
       </c>
       <c r="J35" s="24">
@@ -2148,20 +2353,14 @@
         <v>0.8969354354354353</v>
       </c>
       <c r="M35">
-        <v>100.416</v>
+        <v>103.568</v>
       </c>
       <c r="N35">
-        <v>98.441400000000002</v>
-      </c>
-      <c r="O35">
-        <v>99.717799999999997</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="4"/>
-        <v>0.99408639132298537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M35/$G35</f>
+        <v>1.0324690213436212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
@@ -2184,11 +2383,11 @@
         <v>90.993600000000001</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89.668099999999995</v>
       </c>
       <c r="I36" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2779058830236003</v>
       </c>
       <c r="J36" s="24">
@@ -2196,20 +2395,14 @@
         <v>0.90573838383838379</v>
       </c>
       <c r="M36">
-        <v>89.561999999999998</v>
+        <v>86.337100000000007</v>
       </c>
       <c r="N36">
-        <v>89.119100000000003</v>
-      </c>
-      <c r="O36">
-        <v>88.350899999999996</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="4"/>
-        <v>0.9709572980956902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M36/$G36</f>
+        <v>0.94882607128413432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
@@ -2232,11 +2425,11 @@
         <v>68.370599999999996</v>
       </c>
       <c r="H37" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66.846133333333327</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2077970807623624</v>
       </c>
       <c r="J37" s="24">
@@ -2244,20 +2437,14 @@
         <v>0.96878454106280187</v>
       </c>
       <c r="M37">
-        <v>65.986099999999993</v>
+        <v>68.238</v>
       </c>
       <c r="N37">
-        <v>65.811999999999998</v>
-      </c>
-      <c r="O37">
-        <v>65.389600000000002</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="4"/>
-        <v>0.95639938804105862</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M37/$G37</f>
+        <v>0.99806056989407732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -2280,11 +2467,11 @@
         <v>59.178600000000003</v>
       </c>
       <c r="H38" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.86343333333334</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3473716416862755</v>
       </c>
       <c r="J38" s="24">
@@ -2292,20 +2479,14 @@
         <v>0.98105722222222236</v>
       </c>
       <c r="M38">
-        <v>56.328400000000002</v>
+        <v>57.339500000000001</v>
       </c>
       <c r="N38">
-        <v>55.880800000000001</v>
-      </c>
-      <c r="O38">
-        <v>56.274900000000002</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="4"/>
-        <v>0.95093327655605231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M38/$G38</f>
+        <v>0.96892288766547363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2513,7 @@
         <v>52.712699999999991</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5903185904784889</v>
       </c>
       <c r="J39" s="24">
@@ -2340,20 +2521,14 @@
         <v>1.1459282608695651</v>
       </c>
       <c r="M39">
-        <v>51.140500000000003</v>
+        <v>53.083500000000001</v>
       </c>
       <c r="N39">
-        <v>50.722900000000003</v>
-      </c>
-      <c r="O39">
-        <v>50.746099999999998</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="4"/>
-        <v>0.96380011433542068</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M39/$G39</f>
+        <v>1.008193405391238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>37</v>
       </c>
@@ -2376,11 +2551,11 @@
         <v>55.983899999999998</v>
       </c>
       <c r="H40" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.797166666666669</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7710518826052504</v>
       </c>
       <c r="J40" s="24">
@@ -2388,20 +2563,14 @@
         <v>1.2399370370370371</v>
       </c>
       <c r="M40">
-        <v>53.203000000000003</v>
+        <v>55.146500000000003</v>
       </c>
       <c r="N40">
-        <v>53.332099999999997</v>
-      </c>
-      <c r="O40">
-        <v>53.044800000000002</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="4"/>
-        <v>0.94750097795973487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M40/$G40</f>
+        <v>0.9850421281832813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -2424,19 +2593,26 @@
         <v>259.875</v>
       </c>
       <c r="H41" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>259.80500000000001</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0520976755487164</v>
       </c>
       <c r="J41" s="24">
         <f t="shared" si="5"/>
         <v>0.89897923875432528</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>245.54300000000001</v>
+      </c>
+      <c r="N41">
+        <f>$M41/$G41</f>
+        <v>0.94485040885040883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -2459,11 +2635,11 @@
         <v>56.290900000000001</v>
       </c>
       <c r="H42" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.271433333333334</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5623359015293492</v>
       </c>
       <c r="J42" s="24">
@@ -2471,20 +2647,14 @@
         <v>1.0420635802469136</v>
       </c>
       <c r="M42">
-        <v>57.195999999999998</v>
+        <v>65.837800000000001</v>
       </c>
       <c r="N42">
-        <v>58.373399999999997</v>
-      </c>
-      <c r="O42">
-        <v>57.666600000000003</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="4"/>
-        <v>1.0244391189339663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M42/$G42</f>
+        <v>1.1695993490955021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
@@ -2507,11 +2677,11 @@
         <v>78.716300000000004</v>
       </c>
       <c r="H43" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.3018</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6966693607625518</v>
       </c>
       <c r="J43" s="24">
@@ -2519,20 +2689,14 @@
         <v>1.0169064935064935</v>
       </c>
       <c r="M43">
-        <v>75.6023</v>
+        <v>90.422499999999999</v>
       </c>
       <c r="N43">
-        <v>75.1006</v>
-      </c>
-      <c r="O43">
-        <v>75.275700000000001</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="4"/>
-        <v>0.95629113665149401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M43/$G43</f>
+        <v>1.1487137987938965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
@@ -2555,11 +2719,11 @@
         <v>102.761</v>
       </c>
       <c r="H44" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102.73433333333332</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3009066917509338</v>
       </c>
       <c r="J44" s="24">
@@ -2567,20 +2731,14 @@
         <v>1.0483095238095237</v>
       </c>
       <c r="M44">
-        <v>97.427800000000005</v>
+        <v>123.629</v>
       </c>
       <c r="N44">
-        <v>97.807500000000005</v>
-      </c>
-      <c r="O44">
-        <v>94.270899999999997</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="4"/>
-        <v>0.91738013448681899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M44/$G44</f>
+        <v>1.2030731503196739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -2603,11 +2761,11 @@
         <v>134.94399999999999</v>
       </c>
       <c r="H45" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.68733333333333</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4323779287145708</v>
       </c>
       <c r="J45" s="24">
@@ -2615,20 +2773,14 @@
         <v>0.98311922141119212</v>
       </c>
       <c r="M45">
-        <v>118.88200000000001</v>
+        <v>157.97</v>
       </c>
       <c r="N45">
-        <v>115.252</v>
-      </c>
-      <c r="O45">
-        <v>117.265</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="4"/>
-        <v>0.8689900995968699</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M45/$G45</f>
+        <v>1.1706337443680341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
@@ -2651,11 +2803,11 @@
         <v>183.90299999999999</v>
       </c>
       <c r="H46" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184.19333333333336</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3968780294689531</v>
       </c>
       <c r="J46" s="24">
@@ -2663,20 +2815,14 @@
         <v>1.2702988505747128</v>
       </c>
       <c r="M46">
-        <v>140.08199999999999</v>
+        <v>208.244</v>
       </c>
       <c r="N46">
-        <v>141.39400000000001</v>
-      </c>
-      <c r="O46">
-        <v>141.47399999999999</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="4"/>
-        <v>0.76928598228413891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M46/$G46</f>
+        <v>1.1323578190676606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
@@ -2699,11 +2845,11 @@
         <v>217.14</v>
       </c>
       <c r="H47" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>215.55499999999998</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3467427655828366</v>
       </c>
       <c r="J47" s="24">
@@ -2711,20 +2857,14 @@
         <v>1.0777749999999999</v>
       </c>
       <c r="M47">
-        <v>162.01499999999999</v>
+        <v>240.614</v>
       </c>
       <c r="N47">
-        <v>161.41900000000001</v>
-      </c>
-      <c r="O47">
-        <v>159.86600000000001</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="4"/>
-        <v>0.73623468729851715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M47/$G47</f>
+        <v>1.1081053698074976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -2747,11 +2887,11 @@
         <v>231.53800000000001</v>
       </c>
       <c r="H48" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>231.59933333333333</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1643097013471717</v>
       </c>
       <c r="J48" s="24">
@@ -2760,20 +2900,14 @@
       </c>
       <c r="K48" s="18"/>
       <c r="M48">
-        <v>183.38300000000001</v>
+        <v>233.05799999999999</v>
       </c>
       <c r="N48">
-        <v>181.37200000000001</v>
-      </c>
-      <c r="O48">
-        <v>182.89599999999999</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="4"/>
-        <v>0.78991785365685108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M48/$G48</f>
+        <v>1.0065647971391305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
@@ -2796,11 +2930,11 @@
         <v>203.56</v>
       </c>
       <c r="H49" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202.96966666666665</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4492312276283354</v>
       </c>
       <c r="J49" s="24">
@@ -2808,20 +2942,14 @@
         <v>0.79285026041666662</v>
       </c>
       <c r="M49">
-        <v>164.583</v>
+        <v>226.64099999999999</v>
       </c>
       <c r="N49">
-        <v>161.56800000000001</v>
-      </c>
-      <c r="O49">
-        <v>161.518</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="4"/>
-        <v>0.79346629986244843</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <f>$M49/$G49</f>
+        <v>1.1133867164472391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>47</v>
       </c>
@@ -2841,11 +2969,11 @@
         <v>208.631</v>
       </c>
       <c r="H50" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195.28633333333332</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1916277158768707</v>
       </c>
       <c r="J50" s="24">
@@ -2861,7 +2989,7 @@
         <v>1.2101910828025477</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
@@ -2881,11 +3009,11 @@
         <v>206.92400000000001</v>
       </c>
       <c r="H51" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199.39166666666665</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2163220073608654</v>
       </c>
       <c r="J51" s="24">
@@ -2901,7 +3029,7 @@
         <v>1.3475177304964538</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -2921,11 +3049,11 @@
         <v>184.93899999999999</v>
       </c>
       <c r="H52" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180.9193333333333</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3943471648478118</v>
       </c>
       <c r="J52" s="24">
@@ -2941,7 +3069,7 @@
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
@@ -2961,11 +3089,11 @@
         <v>108.59099999999999</v>
       </c>
       <c r="H53" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135.66499999999999</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2714024647392344</v>
       </c>
       <c r="J53" s="24">
@@ -2981,7 +3109,7 @@
         <v>1.7676767676767677</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>43</v>
       </c>
@@ -3001,11 +3129,11 @@
         <v>108.88500000000001</v>
       </c>
       <c r="H54" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108.074</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4347198105342529</v>
       </c>
       <c r="J54" s="24">
@@ -3021,7 +3149,7 @@
         <v>1.3478260869565217</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>40</v>
       </c>
@@ -3041,11 +3169,11 @@
         <v>83.654700000000005</v>
       </c>
       <c r="H55" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.069833333333335</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4413653280101908</v>
       </c>
       <c r="J55" s="24">
@@ -3061,7 +3189,7 @@
         <v>1.2166666666666666</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>33</v>
       </c>
@@ -3081,11 +3209,11 @@
         <v>81.540099999999995</v>
       </c>
       <c r="H56" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80.540199999999999</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8800057889282078</v>
       </c>
       <c r="J56" s="24">
@@ -3101,7 +3229,7 @@
         <v>1.1086956521739131</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>37</v>
       </c>
@@ -3121,11 +3249,11 @@
         <v>88.773600000000002</v>
       </c>
       <c r="H57" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.34996666666666</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.163487203642644</v>
       </c>
       <c r="J57" s="24">
@@ -3141,7 +3269,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -3158,18 +3286,18 @@
         <v>34.787199999999999</v>
       </c>
       <c r="H58" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.685566666666666</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15912927254848885</v>
       </c>
       <c r="J58" s="24"/>
       <c r="K58" s="15"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
@@ -3189,11 +3317,11 @@
         <v>52.1584</v>
       </c>
       <c r="H59" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.380766666666666</v>
       </c>
       <c r="I59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1101745758402708</v>
       </c>
       <c r="J59" s="24">
@@ -3209,7 +3337,7 @@
         <v>0.92592592592592593</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>45</v>
       </c>
@@ -3229,11 +3357,11 @@
         <v>74.287800000000004</v>
       </c>
       <c r="H60" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76.121200000000002</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2882683455185486</v>
       </c>
       <c r="J60" s="24">
@@ -3249,7 +3377,7 @@
         <v>0.96103896103896103</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>39</v>
       </c>
@@ -3269,11 +3397,11 @@
         <v>104.67700000000001</v>
       </c>
       <c r="H61" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104.13466666666666</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3835988524690226</v>
       </c>
       <c r="J61" s="24">
@@ -3289,7 +3417,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>31</v>
       </c>
@@ -3309,11 +3437,11 @@
         <v>154.16</v>
       </c>
       <c r="H62" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.27166666666665</v>
       </c>
       <c r="I62" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1370231565194842</v>
       </c>
       <c r="J62" s="24">
@@ -3329,7 +3457,7 @@
         <v>1.1459854014598541</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>41</v>
       </c>
@@ -3349,11 +3477,11 @@
         <v>202.70099999999999</v>
       </c>
       <c r="H63" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199.72400000000002</v>
       </c>
       <c r="I63" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2959712632552538</v>
       </c>
       <c r="J63" s="24">
@@ -3369,7 +3497,7 @@
         <v>1.4137931034482758</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
@@ -3389,11 +3517,11 @@
         <v>293.42099999999999</v>
       </c>
       <c r="H64" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>291.69366666666673</v>
       </c>
       <c r="I64" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3334466966774796</v>
       </c>
       <c r="J64" s="24">
@@ -3429,11 +3557,11 @@
         <v>302.31299999999999</v>
       </c>
       <c r="H65" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>301.4976666666667</v>
       </c>
       <c r="I65" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4401111310474857</v>
       </c>
       <c r="J65" s="24">
@@ -3469,11 +3597,11 @@
         <v>262.49799999999999</v>
       </c>
       <c r="H66" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260.30966666666671</v>
       </c>
       <c r="I66" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2343541587071787</v>
       </c>
       <c r="J66" s="24">
@@ -3602,9 +3730,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
+  <sortState ref="L68:M84">
+    <sortCondition ref="L68"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozidar\Documents\Code\SDR\Ziria\compiler\code\WiFi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitris\work\ZIRIA\Ziria\code\WiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28890" windowHeight="22185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Latest" sheetId="2" r:id="rId1"/>
-    <sheet name="TX Optim" sheetId="3" r:id="rId2"/>
-    <sheet name="Old" sheetId="1" r:id="rId3"/>
+    <sheet name="Atomix" sheetId="4" r:id="rId2"/>
+    <sheet name="TX Optim" sheetId="3" r:id="rId3"/>
+    <sheet name="Old" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="138">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -434,12 +435,18 @@
   </si>
   <si>
     <t>new-c-lib, 21/8/2015</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>SC-SC-OPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -865,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="N53" sqref="N53"/>
@@ -2272,7 +2279,7 @@
         <v>144.15299999999999</v>
       </c>
       <c r="N33">
-        <f>$M33/$G33</f>
+        <f t="shared" ref="N33:N49" si="4">$M33/$G33</f>
         <v>1.1155108105180072</v>
       </c>
     </row>
@@ -2303,7 +2310,7 @@
         <v>122.28800000000001</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ref="I34:I66" si="4">$H34/$D34</f>
+        <f t="shared" ref="I34:I66" si="5">$H34/$D34</f>
         <v>1.1471992645196396</v>
       </c>
       <c r="J34" s="24">
@@ -2314,7 +2321,7 @@
         <v>128.56</v>
       </c>
       <c r="N34">
-        <f>$M34/$G34</f>
+        <f t="shared" si="4"/>
         <v>1.0199127330424436</v>
       </c>
     </row>
@@ -2345,18 +2352,18 @@
         <v>99.559833333333316</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1684713296058611</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" ref="J35:J42" si="5">$H35/$C35</f>
+        <f t="shared" ref="J35:J42" si="6">$H35/$C35</f>
         <v>0.8969354354354353</v>
       </c>
       <c r="M35">
         <v>103.568</v>
       </c>
       <c r="N35">
-        <f>$M35/$G35</f>
+        <f t="shared" si="4"/>
         <v>1.0324690213436212</v>
       </c>
     </row>
@@ -2387,18 +2394,18 @@
         <v>89.668099999999995</v>
       </c>
       <c r="I36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2779058830236003</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90573838383838379</v>
       </c>
       <c r="M36">
         <v>86.337100000000007</v>
       </c>
       <c r="N36">
-        <f>$M36/$G36</f>
+        <f t="shared" si="4"/>
         <v>0.94882607128413432</v>
       </c>
     </row>
@@ -2429,18 +2436,18 @@
         <v>66.846133333333327</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2077970807623624</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96878454106280187</v>
       </c>
       <c r="M37">
         <v>68.238</v>
       </c>
       <c r="N37">
-        <f>$M37/$G37</f>
+        <f t="shared" si="4"/>
         <v>0.99806056989407732</v>
       </c>
     </row>
@@ -2471,18 +2478,18 @@
         <v>58.86343333333334</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3473716416862755</v>
       </c>
       <c r="J38" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98105722222222236</v>
       </c>
       <c r="M38">
         <v>57.339500000000001</v>
       </c>
       <c r="N38">
-        <f>$M38/$G38</f>
+        <f t="shared" si="4"/>
         <v>0.96892288766547363</v>
       </c>
     </row>
@@ -2513,18 +2520,18 @@
         <v>52.712699999999991</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5903185904784889</v>
       </c>
       <c r="J39" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1459282608695651</v>
       </c>
       <c r="M39">
         <v>53.083500000000001</v>
       </c>
       <c r="N39">
-        <f>$M39/$G39</f>
+        <f t="shared" si="4"/>
         <v>1.008193405391238</v>
       </c>
     </row>
@@ -2555,18 +2562,18 @@
         <v>55.797166666666669</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7710518826052504</v>
       </c>
       <c r="J40" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2399370370370371</v>
       </c>
       <c r="M40">
         <v>55.146500000000003</v>
       </c>
       <c r="N40">
-        <f>$M40/$G40</f>
+        <f t="shared" si="4"/>
         <v>0.9850421281832813</v>
       </c>
     </row>
@@ -2597,18 +2604,18 @@
         <v>259.80500000000001</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0520976755487164</v>
       </c>
       <c r="J41" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89897923875432528</v>
       </c>
       <c r="M41">
         <v>245.54300000000001</v>
       </c>
       <c r="N41">
-        <f>$M41/$G41</f>
+        <f t="shared" si="4"/>
         <v>0.94485040885040883</v>
       </c>
     </row>
@@ -2639,18 +2646,18 @@
         <v>56.271433333333334</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5623359015293492</v>
       </c>
       <c r="J42" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0420635802469136</v>
       </c>
       <c r="M42">
         <v>65.837800000000001</v>
       </c>
       <c r="N42">
-        <f>$M42/$G42</f>
+        <f t="shared" si="4"/>
         <v>1.1695993490955021</v>
       </c>
     </row>
@@ -2681,18 +2688,18 @@
         <v>78.3018</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6966693607625518</v>
       </c>
       <c r="J43" s="24">
-        <f t="shared" ref="J43:J66" si="6">$H43/$C43</f>
+        <f t="shared" ref="J43:J66" si="7">$H43/$C43</f>
         <v>1.0169064935064935</v>
       </c>
       <c r="M43">
         <v>90.422499999999999</v>
       </c>
       <c r="N43">
-        <f>$M43/$G43</f>
+        <f t="shared" si="4"/>
         <v>1.1487137987938965</v>
       </c>
     </row>
@@ -2723,18 +2730,18 @@
         <v>102.73433333333332</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3009066917509338</v>
       </c>
       <c r="J44" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0483095238095237</v>
       </c>
       <c r="M44">
         <v>123.629</v>
       </c>
       <c r="N44">
-        <f>$M44/$G44</f>
+        <f t="shared" si="4"/>
         <v>1.2030731503196739</v>
       </c>
     </row>
@@ -2765,18 +2772,18 @@
         <v>134.68733333333333</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4323779287145708</v>
       </c>
       <c r="J45" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98311922141119212</v>
       </c>
       <c r="M45">
         <v>157.97</v>
       </c>
       <c r="N45">
-        <f>$M45/$G45</f>
+        <f t="shared" si="4"/>
         <v>1.1706337443680341</v>
       </c>
     </row>
@@ -2807,18 +2814,18 @@
         <v>184.19333333333336</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3968780294689531</v>
       </c>
       <c r="J46" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2702988505747128</v>
       </c>
       <c r="M46">
         <v>208.244</v>
       </c>
       <c r="N46">
-        <f>$M46/$G46</f>
+        <f t="shared" si="4"/>
         <v>1.1323578190676606</v>
       </c>
     </row>
@@ -2849,18 +2856,18 @@
         <v>215.55499999999998</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3467427655828366</v>
       </c>
       <c r="J47" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0777749999999999</v>
       </c>
       <c r="M47">
         <v>240.614</v>
       </c>
       <c r="N47">
-        <f>$M47/$G47</f>
+        <f t="shared" si="4"/>
         <v>1.1081053698074976</v>
       </c>
     </row>
@@ -2891,11 +2898,11 @@
         <v>231.59933333333333</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1643097013471717</v>
       </c>
       <c r="J48" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0025945165945167</v>
       </c>
       <c r="K48" s="18"/>
@@ -2903,7 +2910,7 @@
         <v>233.05799999999999</v>
       </c>
       <c r="N48">
-        <f>$M48/$G48</f>
+        <f t="shared" si="4"/>
         <v>1.0065647971391305</v>
       </c>
     </row>
@@ -2934,18 +2941,18 @@
         <v>202.96966666666665</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4492312276283354</v>
       </c>
       <c r="J49" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79285026041666662</v>
       </c>
       <c r="M49">
         <v>226.64099999999999</v>
       </c>
       <c r="N49">
-        <f>$M49/$G49</f>
+        <f t="shared" si="4"/>
         <v>1.1133867164472391</v>
       </c>
     </row>
@@ -2973,11 +2980,11 @@
         <v>195.28633333333332</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1916277158768707</v>
       </c>
       <c r="J50" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0278228070175437</v>
       </c>
       <c r="K50" s="27">
@@ -3013,19 +3020,19 @@
         <v>199.39166666666665</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2163220073608654</v>
       </c>
       <c r="J51" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0494298245614033</v>
       </c>
       <c r="K51" s="27">
-        <f t="shared" ref="K51:K66" si="7">$H51/$H34</f>
+        <f t="shared" ref="K51:K66" si="8">$H51/$H34</f>
         <v>1.6305088534170697</v>
       </c>
       <c r="L51" s="27">
-        <f t="shared" ref="L51:L66" si="8">$C51/$C34</f>
+        <f t="shared" ref="L51:L66" si="9">$C51/$C34</f>
         <v>1.3475177304964538</v>
       </c>
     </row>
@@ -3053,11 +3060,11 @@
         <v>180.9193333333333</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3943471648478118</v>
       </c>
       <c r="J52" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0338247619047618</v>
       </c>
       <c r="K52" s="15">
@@ -3065,7 +3072,7 @@
         <v>1.8171920068166714</v>
       </c>
       <c r="L52" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5765765765765767</v>
       </c>
     </row>
@@ -3093,19 +3100,19 @@
         <v>135.66499999999999</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2714024647392344</v>
       </c>
       <c r="J53" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77522857142857138</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5129683800593523</v>
       </c>
       <c r="L53" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7676767676767677</v>
       </c>
     </row>
@@ -3133,19 +3140,19 @@
         <v>108.074</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4347198105342529</v>
       </c>
       <c r="J54" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1620860215053763</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6167576883030883</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3478260869565217</v>
       </c>
     </row>
@@ -3173,19 +3180,19 @@
         <v>86.069833333333335</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4413653280101908</v>
       </c>
       <c r="J55" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1790388127853881</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4621952621406724</v>
       </c>
       <c r="L55" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2166666666666666</v>
       </c>
     </row>
@@ -3213,19 +3220,19 @@
         <v>80.540199999999999</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8800057889282078</v>
       </c>
       <c r="J56" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5792196078431373</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5279088341139804</v>
       </c>
       <c r="L56" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1086956521739131</v>
       </c>
     </row>
@@ -3253,19 +3260,19 @@
         <v>86.34996666666666</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.163487203642644</v>
       </c>
       <c r="J57" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6931366013071893</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5475690223219218</v>
       </c>
       <c r="L57" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -3290,7 +3297,7 @@
         <v>34.685566666666666</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15912927254848885</v>
       </c>
       <c r="J58" s="24"/>
@@ -3321,19 +3328,19 @@
         <v>51.380766666666666</v>
       </c>
       <c r="I59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1101745758402708</v>
       </c>
       <c r="J59" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0276153333333333</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91308793153186663</v>
       </c>
       <c r="L59" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.92592592592592593</v>
       </c>
     </row>
@@ -3361,19 +3368,19 @@
         <v>76.121200000000002</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2882683455185486</v>
       </c>
       <c r="J60" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0286648648648649</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.97215134262558467</v>
       </c>
       <c r="L60" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96103896103896103</v>
       </c>
     </row>
@@ -3401,19 +3408,19 @@
         <v>104.13466666666666</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3835988524690226</v>
       </c>
       <c r="J61" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0413466666666666</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0136306265675545</v>
       </c>
       <c r="L61" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0204081632653061</v>
       </c>
     </row>
@@ -3441,19 +3448,19 @@
         <v>155.27166666666665</v>
       </c>
       <c r="I62" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1370231565194842</v>
       </c>
       <c r="J62" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98899150743099773</v>
       </c>
       <c r="K62" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1528305062094431</v>
       </c>
       <c r="L62" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1459854014598541</v>
       </c>
     </row>
@@ -3481,19 +3488,19 @@
         <v>199.72400000000002</v>
       </c>
       <c r="I63" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2959712632552538</v>
       </c>
       <c r="J63" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97426341463414645</v>
       </c>
       <c r="K63" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.084317202938941</v>
       </c>
       <c r="L63" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4137931034482758</v>
       </c>
     </row>
@@ -3521,19 +3528,19 @@
         <v>291.69366666666673</v>
       </c>
       <c r="I64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3334466966774796</v>
       </c>
       <c r="J64" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99895091324200935</v>
       </c>
       <c r="K64" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3532215289214666</v>
       </c>
       <c r="L64" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.46</v>
       </c>
     </row>
@@ -3561,19 +3568,19 @@
         <v>301.4976666666667</v>
       </c>
       <c r="I65" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4401111310474857</v>
       </c>
       <c r="J65" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.75374416666666677</v>
       </c>
       <c r="K65" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3018071439468739</v>
       </c>
       <c r="L65" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7316017316017316</v>
       </c>
     </row>
@@ -3601,19 +3608,19 @@
         <v>260.30966666666671</v>
       </c>
       <c r="I66" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2343541587071787</v>
       </c>
       <c r="J66" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.57846592592592605</v>
       </c>
       <c r="K66" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.282505267617986</v>
       </c>
       <c r="L66" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7578125</v>
       </c>
     </row>
@@ -3739,6 +3746,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>63.415999999999997</v>
+      </c>
+      <c r="C2">
+        <v>79.016199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>31.994</v>
+      </c>
+      <c r="C3">
+        <v>38.157499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>40.762700000000002</v>
+      </c>
+      <c r="C4">
+        <v>126.254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>140.99799999999999</v>
+      </c>
+      <c r="C5">
+        <v>202.429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>40.002400000000002</v>
+      </c>
+      <c r="C6">
+        <v>39.424100000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>92.693399999999997</v>
+      </c>
+      <c r="C7">
+        <v>28.790400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>25.4939</v>
+      </c>
+      <c r="C8">
+        <v>79.364999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>70.402500000000003</v>
+      </c>
+      <c r="C9">
+        <v>97.892099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>79.056799999999996</v>
+      </c>
+      <c r="C10">
+        <v>48.375900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>38.575299999999999</v>
+      </c>
+      <c r="C11">
+        <v>114.246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>82.602599999999995</v>
+      </c>
+      <c r="C12">
+        <v>48.1678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>92.458799999999997</v>
+      </c>
+      <c r="C13">
+        <v>148.13300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>68.573800000000006</v>
+      </c>
+      <c r="C14">
+        <v>96.390699999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>111.008</v>
+      </c>
+      <c r="C15">
+        <v>165.69800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>48.226300000000002</v>
+      </c>
+      <c r="C16">
+        <v>61.790999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>63.304099999999998</v>
+      </c>
+      <c r="C17">
+        <v>82.345399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>72.156400000000005</v>
+      </c>
+      <c r="C18">
+        <v>88.995800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
@@ -7523,7 +7746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>SC-SC-OPT</t>
+  </si>
+  <si>
+    <t>Non-Atomix</t>
   </si>
 </sst>
 </file>
@@ -3747,211 +3750,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B2">
+        <v>141.738</v>
+      </c>
+      <c r="C2">
         <v>63.415999999999997</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>79.016199999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B3">
+        <v>83.485799999999998</v>
+      </c>
+      <c r="C3">
         <v>31.994</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>38.157499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B4">
+        <v>130.785</v>
+      </c>
+      <c r="C4">
         <v>40.762700000000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>126.254</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B5">
+        <v>234.142</v>
+      </c>
+      <c r="C5">
         <v>140.99799999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>202.429</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B6">
+        <v>50.476500000000001</v>
+      </c>
+      <c r="C6">
         <v>40.002400000000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>39.424100000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B7">
+        <v>60.640500000000003</v>
+      </c>
+      <c r="C7">
         <v>92.693399999999997</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>28.790400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B8">
+        <v>99.204300000000003</v>
+      </c>
+      <c r="C8">
         <v>25.4939</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>79.364999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B9">
+        <v>221.26400000000001</v>
+      </c>
+      <c r="C9">
         <v>70.402500000000003</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>97.892099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B10">
+        <v>53.211399999999998</v>
+      </c>
+      <c r="C10">
         <v>79.056799999999996</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>48.375900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B11">
+        <v>119.5</v>
+      </c>
+      <c r="C11">
         <v>38.575299999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>114.246</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B12">
+        <v>50.630499999999998</v>
+      </c>
+      <c r="C12">
         <v>82.602599999999995</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>48.1678</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B13">
+        <v>197.06899999999999</v>
+      </c>
+      <c r="C13">
         <v>92.458799999999997</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>148.13300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B14">
+        <v>112.996</v>
+      </c>
+      <c r="C14">
         <v>68.573800000000006</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>96.390699999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B15">
+        <v>230.12200000000001</v>
+      </c>
+      <c r="C15">
         <v>111.008</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>165.69800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B16">
+        <v>67.674700000000001</v>
+      </c>
+      <c r="C16">
         <v>48.226300000000002</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>61.790999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B17">
+        <v>84.192999999999998</v>
+      </c>
+      <c r="C17">
         <v>63.304099999999998</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>82.345399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B18">
+        <v>234.87899999999999</v>
+      </c>
+      <c r="C18">
         <v>72.156400000000005</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>88.995800000000003</v>
       </c>
     </row>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -3753,7 +3753,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,139 +3777,139 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>141.738</v>
+        <v>83.485799999999998</v>
       </c>
       <c r="C2">
-        <v>63.415999999999997</v>
+        <v>31.994</v>
       </c>
       <c r="D2">
-        <v>79.016199999999998</v>
+        <v>38.157499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>83.485799999999998</v>
+        <v>60.640500000000003</v>
       </c>
       <c r="C3">
-        <v>31.994</v>
+        <v>25.4939</v>
       </c>
       <c r="D3">
-        <v>38.157499999999999</v>
+        <v>28.790400000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>130.785</v>
+        <v>221.26400000000001</v>
       </c>
       <c r="C4">
-        <v>40.762700000000002</v>
+        <v>79.056799999999996</v>
       </c>
       <c r="D4">
-        <v>126.254</v>
+        <v>97.892099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>234.142</v>
+        <v>230.12200000000001</v>
       </c>
       <c r="C5">
-        <v>140.99799999999999</v>
+        <v>111.008</v>
       </c>
       <c r="D5">
-        <v>202.429</v>
+        <v>165.69800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>50.476500000000001</v>
+        <v>234.87899999999999</v>
       </c>
       <c r="C6">
-        <v>40.002400000000002</v>
+        <v>72.156400000000005</v>
       </c>
       <c r="D6">
-        <v>39.424100000000003</v>
+        <v>88.995800000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>60.640500000000003</v>
+        <v>197.06899999999999</v>
       </c>
       <c r="C7">
-        <v>92.693399999999997</v>
+        <v>92.458799999999997</v>
       </c>
       <c r="D7">
-        <v>28.790400000000002</v>
+        <v>148.13300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>99.204300000000003</v>
+        <v>141.738</v>
       </c>
       <c r="C8">
-        <v>25.4939</v>
+        <v>63.415999999999997</v>
       </c>
       <c r="D8">
-        <v>79.364999999999995</v>
+        <v>79.016199999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>221.26400000000001</v>
+        <v>112.996</v>
       </c>
       <c r="C9">
-        <v>70.402500000000003</v>
+        <v>68.573800000000006</v>
       </c>
       <c r="D9">
-        <v>97.892099999999999</v>
+        <v>96.390699999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>53.211399999999998</v>
+        <v>234.142</v>
       </c>
       <c r="C10">
-        <v>79.056799999999996</v>
+        <v>140.99799999999999</v>
       </c>
       <c r="D10">
-        <v>48.375900000000001</v>
+        <v>202.429</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>119.5</v>
       </c>
       <c r="C11">
-        <v>38.575299999999999</v>
+        <v>82.602599999999995</v>
       </c>
       <c r="D11">
         <v>114.246</v>
@@ -3917,58 +3917,58 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>50.630499999999998</v>
+        <v>130.785</v>
       </c>
       <c r="C12">
-        <v>82.602599999999995</v>
+        <v>92.693399999999997</v>
       </c>
       <c r="D12">
-        <v>48.1678</v>
+        <v>126.254</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>197.06899999999999</v>
+        <v>50.476500000000001</v>
       </c>
       <c r="C13">
-        <v>92.458799999999997</v>
+        <v>40.002400000000002</v>
       </c>
       <c r="D13">
-        <v>148.13300000000001</v>
+        <v>39.424100000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>112.996</v>
+        <v>50.630499999999998</v>
       </c>
       <c r="C14">
-        <v>68.573800000000006</v>
+        <v>38.575299999999999</v>
       </c>
       <c r="D14">
-        <v>96.390699999999995</v>
+        <v>48.1678</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>230.12200000000001</v>
+        <v>53.211399999999998</v>
       </c>
       <c r="C15">
-        <v>111.008</v>
+        <v>40.762700000000002</v>
       </c>
       <c r="D15">
-        <v>165.69800000000001</v>
+        <v>48.375900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,16 +4001,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>234.87899999999999</v>
+        <v>99.204300000000003</v>
       </c>
       <c r="C18">
-        <v>72.156400000000005</v>
+        <v>70.402500000000003</v>
       </c>
       <c r="D18">
-        <v>88.995800000000003</v>
+        <v>79.364999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="140">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>Non-Atomix</t>
+  </si>
+  <si>
+    <t>unsound ts_get() without memcopy()</t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,94 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5438775" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3781425"/>
+          <a:ext cx="5438775" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Use: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> awk -f process.awk perf-sc-sl-opt.txt | sort --reverse | awk -F ' ' '{print $2}'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3750,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3762,9 +3853,10 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>138</v>
       </c>
@@ -3774,8 +3866,11 @@
       <c r="D1" s="18" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>45</v>
       </c>
@@ -3788,8 +3883,11 @@
       <c r="D2">
         <v>38.157499999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>48.465800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
@@ -3802,8 +3900,11 @@
       <c r="D3">
         <v>28.790400000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>41.415300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -3816,8 +3917,11 @@
       <c r="D4">
         <v>97.892099999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>117.271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
@@ -3830,8 +3934,11 @@
       <c r="D5">
         <v>165.69800000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>183.40199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>46</v>
       </c>
@@ -3844,8 +3951,11 @@
       <c r="D6">
         <v>88.995800000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>117.873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>41</v>
       </c>
@@ -3858,8 +3968,11 @@
       <c r="D7">
         <v>148.13300000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>154.893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
@@ -3872,8 +3985,11 @@
       <c r="D8">
         <v>79.016199999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>91.993099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
@@ -3886,8 +4002,11 @@
       <c r="D9">
         <v>96.390699999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>100.99299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>35</v>
       </c>
@@ -3900,8 +4019,11 @@
       <c r="D10">
         <v>202.429</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>230.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
@@ -3914,8 +4036,11 @@
       <c r="D11">
         <v>114.246</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>118.363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
@@ -3928,8 +4053,11 @@
       <c r="D12">
         <v>126.254</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>136.48500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>37</v>
       </c>
@@ -3942,8 +4070,11 @@
       <c r="D13">
         <v>39.424100000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>51.6723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -3956,8 +4087,11 @@
       <c r="D14">
         <v>48.1678</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>50.582299999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
@@ -3970,8 +4104,11 @@
       <c r="D15">
         <v>48.375900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>53.897199999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>43</v>
       </c>
@@ -3984,8 +4121,11 @@
       <c r="D16">
         <v>61.790999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>64.622500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
@@ -3998,8 +4138,11 @@
       <c r="D17">
         <v>82.345399999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>84.139700000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>42</v>
       </c>
@@ -4011,11 +4154,15 @@
       </c>
       <c r="D18">
         <v>79.364999999999995</v>
+      </c>
+      <c r="E18">
+        <v>95.824799999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="142">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>unsound ts_get() without memcopy()</t>
+  </si>
+  <si>
+    <t>new API</t>
+  </si>
+  <si>
+    <t>new API (no mitig copy)</t>
   </si>
 </sst>
 </file>
@@ -3841,22 +3847,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>138</v>
       </c>
@@ -3864,13 +3871,19 @@
         <v>136</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>45</v>
       </c>
@@ -3881,13 +3894,19 @@
         <v>31.994</v>
       </c>
       <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>73</v>
+      </c>
+      <c r="F2">
         <v>38.157499999999999</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>48.465800000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
@@ -3898,13 +3917,19 @@
         <v>25.4939</v>
       </c>
       <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
         <v>28.790400000000002</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>41.415300000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -3915,13 +3940,19 @@
         <v>79.056799999999996</v>
       </c>
       <c r="D4">
+        <v>191</v>
+      </c>
+      <c r="E4">
+        <v>185</v>
+      </c>
+      <c r="F4">
         <v>97.892099999999999</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>117.271</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
@@ -3932,13 +3963,19 @@
         <v>111.008</v>
       </c>
       <c r="D5">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>204</v>
+      </c>
+      <c r="F5">
         <v>165.69800000000001</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>183.40199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>46</v>
       </c>
@@ -3949,13 +3986,19 @@
         <v>72.156400000000005</v>
       </c>
       <c r="D6">
+        <v>185</v>
+      </c>
+      <c r="E6">
+        <v>176</v>
+      </c>
+      <c r="F6">
         <v>88.995800000000003</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>117.873</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>41</v>
       </c>
@@ -3966,13 +4009,19 @@
         <v>92.458799999999997</v>
       </c>
       <c r="D7">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>166</v>
+      </c>
+      <c r="F7">
         <v>148.13300000000001</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>154.893</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
@@ -3983,13 +4032,19 @@
         <v>63.415999999999997</v>
       </c>
       <c r="D8">
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>127</v>
+      </c>
+      <c r="F8">
         <v>79.016199999999998</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>91.993099999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
@@ -4000,13 +4055,19 @@
         <v>68.573800000000006</v>
       </c>
       <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>101</v>
+      </c>
+      <c r="F9">
         <v>96.390699999999995</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>100.99299999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>35</v>
       </c>
@@ -4017,13 +4078,19 @@
         <v>140.99799999999999</v>
       </c>
       <c r="D10">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <v>172</v>
+      </c>
+      <c r="F10">
         <v>202.429</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>230.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
@@ -4034,13 +4101,19 @@
         <v>82.602599999999995</v>
       </c>
       <c r="D11">
+        <v>111</v>
+      </c>
+      <c r="E11">
+        <v>105</v>
+      </c>
+      <c r="F11">
         <v>114.246</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>118.363</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
@@ -4051,13 +4124,19 @@
         <v>92.693399999999997</v>
       </c>
       <c r="D12">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>123</v>
+      </c>
+      <c r="F12">
         <v>126.254</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>136.48500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>37</v>
       </c>
@@ -4068,13 +4147,19 @@
         <v>40.002400000000002</v>
       </c>
       <c r="D13">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>48</v>
+      </c>
+      <c r="F13">
         <v>39.424100000000003</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>51.6723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>33</v>
       </c>
@@ -4085,13 +4170,19 @@
         <v>38.575299999999999</v>
       </c>
       <c r="D14">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+      <c r="F14">
         <v>48.1678</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>50.582299999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
@@ -4102,13 +4193,19 @@
         <v>40.762700000000002</v>
       </c>
       <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>47</v>
+      </c>
+      <c r="F15">
         <v>48.375900000000001</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>53.897199999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>43</v>
       </c>
@@ -4119,13 +4216,19 @@
         <v>48.226300000000002</v>
       </c>
       <c r="D16">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>58</v>
+      </c>
+      <c r="F16">
         <v>61.790999999999997</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>64.622500000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
@@ -4136,13 +4239,19 @@
         <v>63.304099999999998</v>
       </c>
       <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>78</v>
+      </c>
+      <c r="F17">
         <v>82.345399999999998</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>84.139700000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>42</v>
       </c>
@@ -4153,9 +4262,15 @@
         <v>70.402500000000003</v>
       </c>
       <c r="D18">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>89</v>
+      </c>
+      <c r="F18">
         <v>79.364999999999995</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>95.824799999999996</v>
       </c>
     </row>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitris\work\ZIRIA\Ziria\code\WiFi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozidar\Documents\Code\SDR\Ziria\compiler\code\WiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TX Optim" sheetId="3" r:id="rId3"/>
     <sheet name="Old" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="145">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -453,12 +453,21 @@
   </si>
   <si>
     <t>new API (no mitig copy)</t>
+  </si>
+  <si>
+    <t>2 threads, multiple runs</t>
+  </si>
+  <si>
+    <t>2 threads, avg</t>
+  </si>
+  <si>
+    <t>2Th/1Th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -556,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +611,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3847,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,9 +3870,10 @@
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,186 +3898,186 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>83.485799999999998</v>
+        <v>130.785</v>
       </c>
       <c r="C2">
-        <v>31.994</v>
+        <v>92.693399999999997</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>38.157499999999999</v>
+        <v>126.254</v>
       </c>
       <c r="G2">
-        <v>48.465800000000002</v>
+        <v>136.48500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>60.640500000000003</v>
+        <v>119.5</v>
       </c>
       <c r="C3">
-        <v>25.4939</v>
+        <v>82.602599999999995</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F3">
-        <v>28.790400000000002</v>
+        <v>114.246</v>
       </c>
       <c r="G3">
-        <v>41.415300000000002</v>
+        <v>118.363</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>221.26400000000001</v>
+        <v>99.204300000000003</v>
       </c>
       <c r="C4">
-        <v>79.056799999999996</v>
+        <v>70.402500000000003</v>
       </c>
       <c r="D4">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>97.892099999999999</v>
+        <v>79.364999999999995</v>
       </c>
       <c r="G4">
-        <v>117.271</v>
+        <v>95.824799999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>230.12200000000001</v>
+        <v>84.192999999999998</v>
       </c>
       <c r="C5">
-        <v>111.008</v>
+        <v>63.304099999999998</v>
       </c>
       <c r="D5">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>165.69800000000001</v>
+        <v>82.345399999999998</v>
       </c>
       <c r="G5">
-        <v>183.40199999999999</v>
+        <v>84.139700000000005</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>234.87899999999999</v>
+        <v>67.674700000000001</v>
       </c>
       <c r="C6">
-        <v>72.156400000000005</v>
+        <v>48.226300000000002</v>
       </c>
       <c r="D6">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>88.995800000000003</v>
+        <v>61.790999999999997</v>
       </c>
       <c r="G6">
-        <v>117.873</v>
+        <v>64.622500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>197.06899999999999</v>
+        <v>53.211399999999998</v>
       </c>
       <c r="C7">
-        <v>92.458799999999997</v>
+        <v>40.762700000000002</v>
       </c>
       <c r="D7">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>148.13300000000001</v>
+        <v>48.375900000000001</v>
       </c>
       <c r="G7">
-        <v>154.893</v>
+        <v>53.897199999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>141.738</v>
+        <v>50.630499999999998</v>
       </c>
       <c r="C8">
-        <v>63.415999999999997</v>
+        <v>38.575299999999999</v>
       </c>
       <c r="D8">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F8">
-        <v>79.016199999999998</v>
+        <v>48.1678</v>
       </c>
       <c r="G8">
-        <v>91.993099999999998</v>
+        <v>50.582299999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>112.996</v>
+        <v>50.476500000000001</v>
       </c>
       <c r="C9">
-        <v>68.573800000000006</v>
+        <v>40.002400000000002</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>96.390699999999995</v>
+        <v>39.424100000000003</v>
       </c>
       <c r="G9">
-        <v>100.99299999999999</v>
+        <v>51.6723</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4092,189 +4105,1042 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>119.5</v>
+        <v>60.640500000000003</v>
       </c>
       <c r="C11">
-        <v>82.602599999999995</v>
+        <v>25.4939</v>
       </c>
       <c r="D11">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>114.246</v>
+        <v>28.790400000000002</v>
       </c>
       <c r="G11">
-        <v>118.363</v>
+        <v>41.415300000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12">
-        <v>130.785</v>
+        <v>83.485799999999998</v>
       </c>
       <c r="C12">
-        <v>92.693399999999997</v>
+        <v>31.994</v>
       </c>
       <c r="D12">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>126.254</v>
+        <v>38.157499999999999</v>
       </c>
       <c r="G12">
-        <v>136.48500000000001</v>
+        <v>48.465800000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>50.476500000000001</v>
+        <v>112.996</v>
       </c>
       <c r="C13">
-        <v>40.002400000000002</v>
+        <v>68.573800000000006</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F13">
-        <v>39.424100000000003</v>
+        <v>96.390699999999995</v>
       </c>
       <c r="G13">
-        <v>51.6723</v>
+        <v>100.99299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>50.630499999999998</v>
+        <v>141.738</v>
       </c>
       <c r="C14">
-        <v>38.575299999999999</v>
+        <v>63.415999999999997</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="E14">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>48.1678</v>
+        <v>79.016199999999998</v>
       </c>
       <c r="G14">
-        <v>50.582299999999996</v>
+        <v>91.993099999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>53.211399999999998</v>
+        <v>197.06899999999999</v>
       </c>
       <c r="C15">
-        <v>40.762700000000002</v>
+        <v>92.458799999999997</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E15">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="F15">
-        <v>48.375900000000001</v>
+        <v>148.13300000000001</v>
       </c>
       <c r="G15">
-        <v>53.897199999999998</v>
+        <v>154.893</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>234.87899999999999</v>
+      </c>
+      <c r="C16">
+        <v>72.156400000000005</v>
+      </c>
+      <c r="D16">
+        <v>185</v>
+      </c>
+      <c r="E16">
+        <v>176</v>
+      </c>
+      <c r="F16">
+        <v>88.995800000000003</v>
+      </c>
+      <c r="G16">
+        <v>117.873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>230.12200000000001</v>
+      </c>
+      <c r="C17">
+        <v>111.008</v>
+      </c>
+      <c r="D17">
+        <v>206</v>
+      </c>
+      <c r="E17">
+        <v>204</v>
+      </c>
+      <c r="F17">
+        <v>165.69800000000001</v>
+      </c>
+      <c r="G17">
+        <v>183.40199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>221.26400000000001</v>
+      </c>
+      <c r="C18">
+        <v>79.056799999999996</v>
+      </c>
+      <c r="D18">
+        <v>191</v>
+      </c>
+      <c r="E18">
+        <v>185</v>
+      </c>
+      <c r="F18">
+        <v>97.892099999999999</v>
+      </c>
+      <c r="G18">
+        <v>117.271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>213.352</v>
+      </c>
+      <c r="C28">
+        <v>220.76300000000001</v>
+      </c>
+      <c r="D28">
+        <v>206.48699999999999</v>
+      </c>
+      <c r="E28">
+        <v>213.36500000000001</v>
+      </c>
+      <c r="F28">
+        <v>220.71799999999999</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(B28:F28)</f>
+        <v>214.93699999999998</v>
+      </c>
+      <c r="H28">
+        <f>$G28/$G46</f>
+        <v>1.3567148031303218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>188.26</v>
+      </c>
+      <c r="C29">
+        <v>182.893</v>
+      </c>
+      <c r="D29">
+        <v>188.25700000000001</v>
+      </c>
+      <c r="E29">
+        <v>177.80799999999999</v>
+      </c>
+      <c r="F29">
+        <v>188.26900000000001</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(B29:F29)</f>
+        <v>185.09740000000002</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H43" si="0">$G29/$G47</f>
+        <v>1.3440690938189381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>139.143</v>
+      </c>
+      <c r="C30">
+        <v>145.465</v>
+      </c>
+      <c r="D30">
+        <v>136.184</v>
+      </c>
+      <c r="E30">
+        <v>142.24199999999999</v>
+      </c>
+      <c r="F30">
+        <v>136.191</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(B30:F30)</f>
+        <v>139.845</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1.2584748736980595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>120.76300000000001</v>
+      </c>
+      <c r="C31">
+        <v>125.505</v>
+      </c>
+      <c r="D31">
+        <v>123.09</v>
+      </c>
+      <c r="E31">
+        <v>116.37</v>
+      </c>
+      <c r="F31">
+        <v>120.762</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G43" si="1">AVERAGE(B31:F31)</f>
+        <v>121.298</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.2282784537977418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B16">
-        <v>67.674700000000001</v>
-      </c>
-      <c r="C16">
-        <v>48.226300000000002</v>
-      </c>
-      <c r="D16">
-        <v>62</v>
-      </c>
-      <c r="E16">
-        <v>58</v>
-      </c>
-      <c r="F16">
-        <v>61.790999999999997</v>
-      </c>
-      <c r="G16">
-        <v>64.622500000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="B32">
+        <v>98.470200000000006</v>
+      </c>
+      <c r="C32">
+        <v>98.468299999999999</v>
+      </c>
+      <c r="D32">
+        <v>99.999200000000002</v>
+      </c>
+      <c r="E32">
+        <v>100.005</v>
+      </c>
+      <c r="F32">
+        <v>98.466499999999996</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>99.08184</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.3931042899447803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>79.811800000000005</v>
+      </c>
+      <c r="C33">
+        <v>82.0578</v>
+      </c>
+      <c r="D33">
+        <v>81.016199999999998</v>
+      </c>
+      <c r="E33">
+        <v>82.055899999999994</v>
+      </c>
+      <c r="F33">
+        <v>79.016900000000007</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>80.791719999999998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.3531772776910553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>75.296899999999994</v>
+      </c>
+      <c r="C34">
+        <v>76.194400000000002</v>
+      </c>
+      <c r="D34">
+        <v>77.090199999999996</v>
+      </c>
+      <c r="E34">
+        <v>76.197100000000006</v>
+      </c>
+      <c r="F34">
+        <v>78.053299999999993</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>76.566379999999995</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.3821724004471108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>77.111900000000006</v>
+      </c>
+      <c r="C35">
+        <v>80.683999999999997</v>
+      </c>
+      <c r="D35">
+        <v>80.017700000000005</v>
+      </c>
+      <c r="E35">
+        <v>82.054599999999994</v>
+      </c>
+      <c r="F35">
+        <v>82.0565</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>80.38494</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.4155692482165594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>61.542700000000004</v>
+      </c>
+      <c r="C36">
+        <v>59.261200000000002</v>
+      </c>
+      <c r="D36">
+        <v>60.379899999999999</v>
+      </c>
+      <c r="E36">
+        <v>61.539499999999997</v>
+      </c>
+      <c r="F36">
+        <v>63.367400000000004</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(B36:F36)</f>
+        <v>61.218139999999991</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.0406547654664831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>92.754800000000003</v>
+      </c>
+      <c r="C37">
+        <v>98.465500000000006</v>
+      </c>
+      <c r="D37">
+        <v>96.975300000000004</v>
+      </c>
+      <c r="E37">
+        <v>98.466399999999993</v>
+      </c>
+      <c r="F37">
+        <v>94.122500000000002</v>
+      </c>
+      <c r="G37">
+        <f>AVERAGE(B37:F37)</f>
+        <v>96.156900000000007</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1.1506384597987516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>128.024</v>
+      </c>
+      <c r="C38">
+        <v>133.34200000000001</v>
+      </c>
+      <c r="D38">
+        <v>133.346</v>
+      </c>
+      <c r="E38">
+        <v>133.36500000000001</v>
+      </c>
+      <c r="F38">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>131.73740000000001</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1.3115760469269548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>193.94800000000001</v>
+      </c>
+      <c r="C39">
+        <v>200.01599999999999</v>
+      </c>
+      <c r="D39">
+        <v>193.935</v>
+      </c>
+      <c r="E39">
+        <v>206.47</v>
+      </c>
+      <c r="F39">
+        <v>193.958</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>197.66540000000001</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1.4664040475978517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>290.95600000000002</v>
+      </c>
+      <c r="C40">
+        <v>290.94</v>
+      </c>
+      <c r="D40">
+        <v>290.99299999999999</v>
+      </c>
+      <c r="E40">
+        <v>266.69099999999997</v>
+      </c>
+      <c r="F40">
+        <v>278.3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>283.57599999999996</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.5977840983362706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>336.91399999999999</v>
+      </c>
+      <c r="C41">
+        <v>304.83600000000001</v>
+      </c>
+      <c r="D41">
+        <v>336.90699999999998</v>
+      </c>
+      <c r="E41">
+        <v>320.04500000000002</v>
+      </c>
+      <c r="F41">
+        <v>355.62</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>330.86440000000005</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1.4236923770690728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>336.89699999999999</v>
+      </c>
+      <c r="C42">
+        <v>376.53199999999998</v>
+      </c>
+      <c r="D42">
+        <v>376.61799999999999</v>
+      </c>
+      <c r="E42">
+        <v>400.09800000000001</v>
+      </c>
+      <c r="F42">
+        <v>426.73899999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>383.3768</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.8048446581556705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>355.74400000000003</v>
+      </c>
+      <c r="C43">
+        <v>400.08800000000002</v>
+      </c>
+      <c r="D43">
+        <v>336.90499999999997</v>
+      </c>
+      <c r="E43">
+        <v>400.12299999999999</v>
+      </c>
+      <c r="F43">
+        <v>336.90100000000001</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>365.95220000000006</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1.6794733291417507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>156.13399999999999</v>
+      </c>
+      <c r="C46">
+        <v>163.673</v>
+      </c>
+      <c r="D46">
+        <v>156.11699999999999</v>
+      </c>
+      <c r="E46">
+        <v>156.16499999999999</v>
+      </c>
+      <c r="F46">
+        <v>160.03399999999999</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(B46:F46)</f>
+        <v>158.4246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47">
+        <v>139.14400000000001</v>
+      </c>
+      <c r="C47">
+        <v>139.16399999999999</v>
+      </c>
+      <c r="D47">
+        <v>140.739</v>
+      </c>
+      <c r="E47">
+        <v>136.191</v>
+      </c>
+      <c r="F47">
+        <v>133.333</v>
+      </c>
+      <c r="G47">
+        <f>AVERAGE(B47:F47)</f>
+        <v>137.71420000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>112.265</v>
+      </c>
+      <c r="C48">
+        <v>110.349</v>
+      </c>
+      <c r="D48">
+        <v>112.289</v>
+      </c>
+      <c r="E48">
+        <v>110.358</v>
+      </c>
+      <c r="F48">
+        <v>110.352</v>
+      </c>
+      <c r="G48">
+        <f>AVERAGE(B48:F48)</f>
+        <v>111.12260000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B17">
-        <v>84.192999999999998</v>
-      </c>
-      <c r="C17">
-        <v>63.304099999999998</v>
-      </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
-      <c r="E17">
-        <v>78</v>
-      </c>
-      <c r="F17">
-        <v>82.345399999999998</v>
-      </c>
-      <c r="G17">
-        <v>84.139700000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>99.204300000000003</v>
-      </c>
-      <c r="C18">
-        <v>70.402500000000003</v>
-      </c>
-      <c r="D18">
-        <v>92</v>
-      </c>
-      <c r="E18">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>79.364999999999995</v>
-      </c>
-      <c r="G18">
-        <v>95.824799999999996</v>
+      <c r="B49">
+        <v>96.973500000000001</v>
+      </c>
+      <c r="C49">
+        <v>99.879599999999996</v>
+      </c>
+      <c r="D49">
+        <v>99.982100000000003</v>
+      </c>
+      <c r="E49">
+        <v>98.472200000000001</v>
+      </c>
+      <c r="F49">
+        <v>98.465000000000003</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G61" si="2">AVERAGE(B49:F49)</f>
+        <v>98.754479999999987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>71.903599999999997</v>
+      </c>
+      <c r="C50">
+        <v>71.912400000000005</v>
+      </c>
+      <c r="D50">
+        <v>71.113299999999995</v>
+      </c>
+      <c r="E50">
+        <v>71.1126</v>
+      </c>
+      <c r="F50">
+        <v>69.573400000000007</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>71.123059999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>59.816600000000001</v>
+      </c>
+      <c r="C51">
+        <v>59.260800000000003</v>
+      </c>
+      <c r="D51">
+        <v>59.814900000000002</v>
+      </c>
+      <c r="E51">
+        <v>59.817300000000003</v>
+      </c>
+      <c r="F51">
+        <v>59.816400000000002</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>59.705200000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>55.909199999999998</v>
+      </c>
+      <c r="C52">
+        <v>55.175600000000003</v>
+      </c>
+      <c r="D52">
+        <v>55.1753</v>
+      </c>
+      <c r="E52">
+        <v>55.625799999999998</v>
+      </c>
+      <c r="F52">
+        <v>55.092500000000001</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>55.395679999999992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>56.638500000000001</v>
+      </c>
+      <c r="C53">
+        <v>55.653399999999998</v>
+      </c>
+      <c r="D53">
+        <v>57.144300000000001</v>
+      </c>
+      <c r="E53">
+        <v>57.349899999999998</v>
+      </c>
+      <c r="F53">
+        <v>57.145400000000002</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>56.786299999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>58.716799999999999</v>
+      </c>
+      <c r="C54">
+        <v>58.716999999999999</v>
+      </c>
+      <c r="D54">
+        <v>59.2637</v>
+      </c>
+      <c r="E54">
+        <v>58.718699999999998</v>
+      </c>
+      <c r="F54">
+        <v>58.7166</v>
+      </c>
+      <c r="G54">
+        <f>AVERAGE(B54:F54)</f>
+        <v>58.826559999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55">
+        <v>83.1434</v>
+      </c>
+      <c r="C55">
+        <v>84.212199999999996</v>
+      </c>
+      <c r="D55">
+        <v>84.221299999999999</v>
+      </c>
+      <c r="E55">
+        <v>84.211699999999993</v>
+      </c>
+      <c r="F55">
+        <v>82.052899999999994</v>
+      </c>
+      <c r="G55">
+        <f>AVERAGE(B55:F55)</f>
+        <v>83.568299999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <v>100.515</v>
+      </c>
+      <c r="C56">
+        <v>101.59699999999999</v>
+      </c>
+      <c r="D56">
+        <v>100.006</v>
+      </c>
+      <c r="E56">
+        <v>101.589</v>
+      </c>
+      <c r="F56">
+        <v>98.503299999999996</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>100.44206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>133.35900000000001</v>
+      </c>
+      <c r="C57">
+        <v>136.18600000000001</v>
+      </c>
+      <c r="D57">
+        <v>134.90600000000001</v>
+      </c>
+      <c r="E57">
+        <v>136.17099999999999</v>
+      </c>
+      <c r="F57">
+        <v>133.358</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>134.79599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58">
+        <v>181.01300000000001</v>
+      </c>
+      <c r="C58">
+        <v>177.79</v>
+      </c>
+      <c r="D58">
+        <v>177.78899999999999</v>
+      </c>
+      <c r="E58">
+        <v>172.99700000000001</v>
+      </c>
+      <c r="F58">
+        <v>177.815</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>177.48079999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59">
+        <v>228.62700000000001</v>
+      </c>
+      <c r="C59">
+        <v>237.26400000000001</v>
+      </c>
+      <c r="D59">
+        <v>229.24299999999999</v>
+      </c>
+      <c r="E59">
+        <v>246.13200000000001</v>
+      </c>
+      <c r="F59">
+        <v>220.72800000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>232.39880000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60">
+        <v>213.38</v>
+      </c>
+      <c r="C60">
+        <v>213.34700000000001</v>
+      </c>
+      <c r="D60">
+        <v>213.386</v>
+      </c>
+      <c r="E60">
+        <v>213.393</v>
+      </c>
+      <c r="F60">
+        <v>208.571</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>212.41540000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>220.75800000000001</v>
+      </c>
+      <c r="C61">
+        <v>220.77600000000001</v>
+      </c>
+      <c r="D61">
+        <v>220.71799999999999</v>
+      </c>
+      <c r="E61">
+        <v>220.71600000000001</v>
+      </c>
+      <c r="F61">
+        <v>206.517</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>217.89699999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A126:G144">
+    <sortCondition ref="A126"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B27:F27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/code/WiFi/Performance.xlsx
+++ b/code/WiFi/Performance.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Old" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="151">
   <si>
     <t>test_scramble_perf</t>
   </si>
@@ -462,6 +463,24 @@
   </si>
   <si>
     <t>2Th/1Th</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>1-thread</t>
+  </si>
+  <si>
+    <t>2-thread-optimal</t>
+  </si>
+  <si>
+    <t>2-thread-old</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Eyal's numbers:</t>
   </si>
 </sst>
 </file>
@@ -3859,10 +3878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4373,7 @@
         <v>185.09740000000002</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H43" si="0">$G29/$G47</f>
+        <f>$G29/$G47</f>
         <v>1.3440690938189381</v>
       </c>
     </row>
@@ -4382,7 +4401,7 @@
         <v>139.845</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H29:H43" si="0">$G30/$G48</f>
         <v>1.2584748736980595</v>
       </c>
     </row>
@@ -5132,6 +5151,263 @@
       <c r="G61">
         <f t="shared" si="2"/>
         <v>217.89699999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>71.962000000000003</v>
+      </c>
+      <c r="D67">
+        <v>120.77</v>
+      </c>
+      <c r="H67">
+        <v>96.225999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>65.054000000000002</v>
+      </c>
+      <c r="D68">
+        <v>110.726</v>
+      </c>
+      <c r="H68">
+        <v>90.411000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>54.067</v>
+      </c>
+      <c r="D69">
+        <v>89.581999999999994</v>
+      </c>
+      <c r="H69">
+        <v>83.775999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>48.688000000000002</v>
+      </c>
+      <c r="D70">
+        <v>74.278000000000006</v>
+      </c>
+      <c r="H70">
+        <v>73.936999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>36.741</v>
+      </c>
+      <c r="D71">
+        <v>63.968000000000004</v>
+      </c>
+      <c r="H71">
+        <v>62.466999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>31.670999999999999</v>
+      </c>
+      <c r="D72">
+        <v>50.856999999999999</v>
+      </c>
+      <c r="H72">
+        <v>50.816000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>48</v>
+      </c>
+      <c r="B73">
+        <v>28.651</v>
+      </c>
+      <c r="D73">
+        <v>46.414999999999999</v>
+      </c>
+      <c r="H73">
+        <v>42.634999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>54</v>
+      </c>
+      <c r="B74">
+        <v>25.201000000000001</v>
+      </c>
+      <c r="D74">
+        <v>50.433</v>
+      </c>
+      <c r="H74">
+        <v>38.588000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>29.245000000000001</v>
+      </c>
+      <c r="D77">
+        <v>35.978999999999999</v>
+      </c>
+      <c r="H77">
+        <v>32.814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>43.296999999999997</v>
+      </c>
+      <c r="D78">
+        <v>56.683</v>
+      </c>
+      <c r="H78">
+        <v>50.832000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>51.829000000000001</v>
+      </c>
+      <c r="D79">
+        <v>74.492999999999995</v>
+      </c>
+      <c r="H79">
+        <v>60.854999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>74.122</v>
+      </c>
+      <c r="D80">
+        <v>110.402</v>
+      </c>
+      <c r="H80">
+        <v>96.483000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>94.540999999999997</v>
+      </c>
+      <c r="D81">
+        <v>149.12799999999999</v>
+      </c>
+      <c r="H81">
+        <v>125.709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>36</v>
+      </c>
+      <c r="B82">
+        <v>108.226</v>
+      </c>
+      <c r="D82">
+        <v>197.30799999999999</v>
+      </c>
+      <c r="H82">
+        <v>189.06700000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>48</v>
+      </c>
+      <c r="B83">
+        <v>109.64100000000001</v>
+      </c>
+      <c r="D83">
+        <v>193.47200000000001</v>
+      </c>
+      <c r="H83">
+        <v>191.03299999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>54</v>
+      </c>
+      <c r="B84">
+        <v>125.764</v>
+      </c>
+      <c r="D84">
+        <v>205.67599999999999</v>
+      </c>
+      <c r="H84">
+        <v>195.65299999999999</v>
       </c>
     </row>
   </sheetData>
